--- a/BarrageChart.xlsx
+++ b/BarrageChart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Scien\Pictures\AL\Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SICA\Pictures\AL\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6845492A-F200-4587-8654-F98AE8A30A1D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA984474-1DA9-407C-8848-09662A7FAF18}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Skill Barrages" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="491">
   <si>
     <t>Barrage Name (Skill Level 2)</t>
   </si>
@@ -1444,6 +1445,67 @@
   </si>
   <si>
     <t>Roaring Challenger</t>
+  </si>
+  <si>
+    <t>Erratic Inventor</t>
+  </si>
+  <si>
+    <t>Dido-Class Barrage</t>
+  </si>
+  <si>
+    <t>Black Prince</t>
+  </si>
+  <si>
+    <t>0.4 Burn Coeff</t>
+  </si>
+  <si>
+    <t>Formidable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+随伴之翼 (2 Fighters)</t>
+  </si>
+  <si>
+    <t>Trento-Class Barrage</t>
+  </si>
+  <si>
+    <t>Trento</t>
+  </si>
+  <si>
+    <t>Zara-Class Barrage</t>
+  </si>
+  <si>
+    <t>Zara</t>
+  </si>
+  <si>
+    <t>SAP</t>
+  </si>
+  <si>
+    <t>Rose Bombardamento</t>
+  </si>
+  <si>
+    <t>Littorio</t>
+  </si>
+  <si>
+    <t>Rose Bombardamento Enhanced</t>
+  </si>
+  <si>
+    <t>Rose Bombardamento Small</t>
+  </si>
+  <si>
+    <t>变迁的记忆</t>
+  </si>
+  <si>
+    <t>Giulio Cesare, Conte di Cavour</t>
+  </si>
+  <si>
+    <t>撒丁的威压 Big</t>
+  </si>
+  <si>
+    <t>Giulio Cesare</t>
+  </si>
+  <si>
+    <t>撒丁的威压 Small</t>
   </si>
 </sst>
 </file>
@@ -1453,7 +1515,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1564,6 +1626,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF777777"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1596,7 +1684,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1659,6 +1747,10 @@
     </xf>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1800,8 +1892,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Barrage" displayName="Barrage" ref="A1:O123" totalsRowShown="0" headerRowDxfId="15">
-  <autoFilter ref="A1:O123" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Barrage" displayName="Barrage" ref="A1:O126" totalsRowShown="0" headerRowDxfId="15">
+  <autoFilter ref="A1:O126" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Type"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Barrage Name (Skill Level 2)"/>
@@ -1824,8 +1916,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Barrage4" displayName="Barrage4" ref="A1:O140" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="A1:O140" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Barrage4" displayName="Barrage4" ref="A1:O147" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="A1:O147" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Type"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Skill Name (Max Level)"/>
@@ -2111,10 +2203,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O124"/>
+  <dimension ref="A1:O127"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="M108" sqref="M108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5282,104 +5374,102 @@
         <v>79</v>
       </c>
       <c r="B84" t="s">
-        <v>374</v>
+        <v>472</v>
       </c>
       <c r="C84" t="s">
-        <v>375</v>
+        <v>473</v>
       </c>
       <c r="D84">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E84">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F84" s="2">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="G84" s="30">
         <f>Barrage[[#This Row],[Coefficient]]*Barrage[[#This Row],[Total Rounds]]*Barrage[[#This Row],[Base Damage]]</f>
-        <v>720</v>
-      </c>
-      <c r="H84" s="13" t="s">
-        <v>33</v>
+        <v>440</v>
+      </c>
+      <c r="H84" t="s">
+        <v>9</v>
       </c>
       <c r="I84" s="2">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="J84" s="2">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K84" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="L84" s="26"/>
-      <c r="M84" s="27"/>
+        <v>0.6</v>
+      </c>
+      <c r="L84" s="34"/>
+      <c r="M84" s="35"/>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="B85" t="s">
-        <v>421</v>
+        <v>374</v>
       </c>
       <c r="C85" t="s">
-        <v>422</v>
+        <v>375</v>
       </c>
       <c r="D85">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E85">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F85" s="2">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="G85" s="30">
         <f>Barrage[[#This Row],[Coefficient]]*Barrage[[#This Row],[Total Rounds]]*Barrage[[#This Row],[Base Damage]]</f>
-        <v>765</v>
-      </c>
-      <c r="H85" s="10" t="s">
-        <v>27</v>
+        <v>720</v>
+      </c>
+      <c r="H85" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="I85" s="2">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J85" s="2">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K85" s="2">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="L85" s="26"/>
       <c r="M85" s="27"/>
-      <c r="N85" s="6">
-        <v>0</v>
-      </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>133</v>
       </c>
       <c r="B86" t="s">
-        <v>134</v>
+        <v>421</v>
       </c>
       <c r="C86" t="s">
-        <v>136</v>
+        <v>422</v>
       </c>
       <c r="D86">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E86">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F86" s="2">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="G86" s="30">
-        <v>228</v>
-      </c>
-      <c r="H86" s="13" t="s">
-        <v>33</v>
+        <f>Barrage[[#This Row],[Coefficient]]*Barrage[[#This Row],[Total Rounds]]*Barrage[[#This Row],[Base Damage]]</f>
+        <v>765</v>
+      </c>
+      <c r="H86" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="I86" s="2">
         <v>1</v>
@@ -5390,11 +5480,10 @@
       <c r="K86" s="2">
         <v>0.6</v>
       </c>
-      <c r="L86" s="15">
-        <v>0.3</v>
-      </c>
-      <c r="M86" s="17">
-        <v>1</v>
+      <c r="L86" s="26"/>
+      <c r="M86" s="27"/>
+      <c r="N86" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
@@ -5402,10 +5491,10 @@
         <v>133</v>
       </c>
       <c r="B87" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C87" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D87">
         <v>38</v>
@@ -5417,7 +5506,7 @@
         <v>1</v>
       </c>
       <c r="G87" s="30">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H87" s="13" t="s">
         <v>33</v>
@@ -5435,7 +5524,7 @@
         <v>0.3</v>
       </c>
       <c r="M87" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
@@ -5443,38 +5532,40 @@
         <v>133</v>
       </c>
       <c r="B88" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C88" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D88">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E88">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F88" s="2">
         <v>1</v>
       </c>
       <c r="G88" s="30">
-        <v>320</v>
-      </c>
-      <c r="H88" t="s">
-        <v>9</v>
+        <v>229</v>
+      </c>
+      <c r="H88" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="I88" s="2">
         <v>1</v>
       </c>
       <c r="J88" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="K88" s="2">
-        <v>1</v>
-      </c>
-      <c r="L88" s="15"/>
-      <c r="O88" t="s">
-        <v>57</v>
+        <v>0.6</v>
+      </c>
+      <c r="L88" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="M88" s="17">
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
@@ -5482,13 +5573,13 @@
         <v>133</v>
       </c>
       <c r="B89" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C89" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D89">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E89">
         <v>8</v>
@@ -5497,7 +5588,7 @@
         <v>1</v>
       </c>
       <c r="G89" s="30">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="H89" t="s">
         <v>9</v>
@@ -5506,37 +5597,40 @@
         <v>1</v>
       </c>
       <c r="J89" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K89" s="2">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="L89" s="15"/>
+      <c r="O89" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>133</v>
       </c>
       <c r="B90" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C90" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D90">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E90">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F90" s="2">
         <v>1</v>
       </c>
       <c r="G90" s="30">
-        <v>240</v>
-      </c>
-      <c r="H90" s="13" t="s">
-        <v>33</v>
+        <v>304</v>
+      </c>
+      <c r="H90" t="s">
+        <v>9</v>
       </c>
       <c r="I90" s="2">
         <v>1</v>
@@ -5547,25 +5641,17 @@
       <c r="K90" s="2">
         <v>0.6</v>
       </c>
-      <c r="L90" s="15">
-        <v>0.3</v>
-      </c>
-      <c r="M90" s="17">
-        <v>1</v>
-      </c>
-      <c r="O90" t="s">
-        <v>57</v>
-      </c>
+      <c r="L90" s="15"/>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>133</v>
       </c>
       <c r="B91" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C91" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D91">
         <v>40</v>
@@ -5595,7 +5681,10 @@
         <v>0.3</v>
       </c>
       <c r="M91" s="17">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="O91" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.3">
@@ -5603,10 +5692,10 @@
         <v>133</v>
       </c>
       <c r="B92" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C92" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D92">
         <v>40</v>
@@ -5636,10 +5725,7 @@
         <v>0.3</v>
       </c>
       <c r="M92" s="17">
-        <v>3</v>
-      </c>
-      <c r="O92" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.3">
@@ -5647,38 +5733,43 @@
         <v>133</v>
       </c>
       <c r="B93" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C93" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D93">
         <v>40</v>
       </c>
       <c r="E93">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F93" s="2">
         <v>1</v>
       </c>
       <c r="G93" s="30">
-        <v>480</v>
-      </c>
-      <c r="H93" s="10" t="s">
-        <v>27</v>
+        <v>240</v>
+      </c>
+      <c r="H93" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="I93" s="2">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="J93" s="2">
-        <v>1.1000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="K93" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="L93" s="15"/>
-      <c r="N93" s="6">
-        <v>1</v>
+        <v>0.6</v>
+      </c>
+      <c r="L93" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="M93" s="17">
+        <v>3</v>
+      </c>
+      <c r="O93" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.3">
@@ -5695,52 +5786,55 @@
         <v>40</v>
       </c>
       <c r="E94">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" s="2">
         <v>1</v>
       </c>
       <c r="G94" s="30">
-        <v>440</v>
-      </c>
-      <c r="H94" t="s">
-        <v>9</v>
+        <v>480</v>
+      </c>
+      <c r="H94" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="I94" s="2">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J94" s="2">
-        <v>0.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K94" s="2">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="L94" s="15"/>
+      <c r="N94" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>133</v>
       </c>
       <c r="B95" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C95" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D95">
         <v>40</v>
       </c>
       <c r="E95">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F95" s="2">
         <v>1</v>
       </c>
       <c r="G95" s="30">
-        <v>240</v>
-      </c>
-      <c r="H95" s="13" t="s">
-        <v>33</v>
+        <v>440</v>
+      </c>
+      <c r="H95" t="s">
+        <v>9</v>
       </c>
       <c r="I95" s="2">
         <v>1</v>
@@ -5751,28 +5845,20 @@
       <c r="K95" s="2">
         <v>0.6</v>
       </c>
-      <c r="L95" s="15">
-        <v>0.3</v>
-      </c>
-      <c r="M95" s="17">
-        <v>1</v>
-      </c>
-      <c r="O95" t="s">
-        <v>57</v>
-      </c>
+      <c r="L95" s="15"/>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>133</v>
       </c>
       <c r="B96" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C96" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D96">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E96">
         <v>6</v>
@@ -5781,10 +5867,10 @@
         <v>1</v>
       </c>
       <c r="G96" s="30">
-        <v>228</v>
-      </c>
-      <c r="H96" t="s">
-        <v>9</v>
+        <v>240</v>
+      </c>
+      <c r="H96" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="I96" s="2">
         <v>1</v>
@@ -5795,32 +5881,40 @@
       <c r="K96" s="2">
         <v>0.6</v>
       </c>
-      <c r="L96" s="15"/>
+      <c r="L96" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="M96" s="17">
+        <v>1</v>
+      </c>
+      <c r="O96" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>133</v>
       </c>
       <c r="B97" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C97" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D97">
         <v>38</v>
       </c>
       <c r="E97">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F97" s="2">
         <v>1</v>
       </c>
       <c r="G97" s="30">
-        <v>190</v>
-      </c>
-      <c r="H97" s="13" t="s">
-        <v>33</v>
+        <v>228</v>
+      </c>
+      <c r="H97" t="s">
+        <v>9</v>
       </c>
       <c r="I97" s="2">
         <v>1</v>
@@ -5831,37 +5925,32 @@
       <c r="K97" s="2">
         <v>0.6</v>
       </c>
-      <c r="L97" s="15">
-        <v>0.3</v>
-      </c>
-      <c r="M97" s="17">
-        <v>1</v>
-      </c>
+      <c r="L97" s="15"/>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>133</v>
       </c>
       <c r="B98" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C98" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D98">
         <v>38</v>
       </c>
       <c r="E98">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F98" s="2">
         <v>1</v>
       </c>
       <c r="G98" s="30">
-        <v>228</v>
-      </c>
-      <c r="H98" t="s">
-        <v>9</v>
+        <v>190</v>
+      </c>
+      <c r="H98" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="I98" s="2">
         <v>1</v>
@@ -5872,17 +5961,22 @@
       <c r="K98" s="2">
         <v>0.6</v>
       </c>
-      <c r="L98" s="15"/>
+      <c r="L98" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="M98" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>133</v>
       </c>
       <c r="B99" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C99" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D99">
         <v>38</v>
@@ -5896,8 +5990,8 @@
       <c r="G99" s="30">
         <v>228</v>
       </c>
-      <c r="H99" s="13" t="s">
-        <v>33</v>
+      <c r="H99" t="s">
+        <v>9</v>
       </c>
       <c r="I99" s="2">
         <v>1</v>
@@ -5908,126 +6002,118 @@
       <c r="K99" s="2">
         <v>0.6</v>
       </c>
-      <c r="L99" s="15">
-        <v>0.3</v>
-      </c>
-      <c r="M99" s="17">
-        <v>1</v>
-      </c>
+      <c r="L99" s="15"/>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>133</v>
       </c>
       <c r="B100" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C100" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D100">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E100">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F100" s="2">
         <v>1</v>
       </c>
       <c r="G100" s="30">
-        <v>540</v>
-      </c>
-      <c r="H100" t="s">
-        <v>9</v>
+        <v>228</v>
+      </c>
+      <c r="H100" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="I100" s="2">
         <v>1</v>
       </c>
       <c r="J100" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="K100" s="2">
-        <v>1</v>
-      </c>
-      <c r="L100" s="15"/>
+        <v>0.6</v>
+      </c>
+      <c r="L100" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="M100" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>133</v>
       </c>
       <c r="B101" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C101" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D101">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="E101">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F101" s="2">
         <v>1</v>
       </c>
       <c r="G101" s="30">
-        <v>390</v>
-      </c>
-      <c r="H101" s="13" t="s">
-        <v>33</v>
+        <v>540</v>
+      </c>
+      <c r="H101" t="s">
+        <v>9</v>
       </c>
       <c r="I101" s="2">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="J101" s="2">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="K101" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="L101" s="15">
-        <v>0.08</v>
-      </c>
-      <c r="M101" s="17">
-        <v>3</v>
-      </c>
-      <c r="O101" t="s">
-        <v>173</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L101" s="15"/>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>133</v>
       </c>
       <c r="B102" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C102" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D102">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E102">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F102" s="2">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G102" s="30">
-        <v>528</v>
+        <v>390</v>
       </c>
       <c r="H102" s="13" t="s">
         <v>33</v>
       </c>
       <c r="I102" s="2">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="J102" s="2">
-        <v>0.95</v>
+        <v>0.85</v>
       </c>
       <c r="K102" s="2">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="L102" s="15">
         <v>0.08</v>
@@ -6036,7 +6122,7 @@
         <v>3</v>
       </c>
       <c r="O102" t="s">
-        <v>57</v>
+        <v>173</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.3">
@@ -6044,40 +6130,43 @@
         <v>133</v>
       </c>
       <c r="B103" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C103" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D103">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E103">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F103" s="2">
         <v>1.1000000000000001</v>
       </c>
       <c r="G103" s="30">
-        <v>501.6</v>
+        <v>528</v>
       </c>
       <c r="H103" s="13" t="s">
         <v>33</v>
       </c>
       <c r="I103" s="2">
-        <v>1.1499999999999999</v>
+        <v>1.35</v>
       </c>
       <c r="J103" s="2">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="K103" s="2">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="L103" s="15">
         <v>0.08</v>
       </c>
       <c r="M103" s="17">
         <v>3</v>
+      </c>
+      <c r="O103" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.3">
@@ -6085,38 +6174,40 @@
         <v>133</v>
       </c>
       <c r="B104" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C104" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D104">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E104">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F104" s="2">
         <v>1.1000000000000001</v>
       </c>
       <c r="G104" s="30">
-        <v>528</v>
-      </c>
-      <c r="H104" s="10" t="s">
-        <v>27</v>
+        <v>501.6</v>
+      </c>
+      <c r="H104" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="I104" s="2">
-        <v>0.75</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="J104" s="2">
-        <v>1.1000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="K104" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="L104" s="15"/>
-      <c r="O104" t="s">
-        <v>57</v>
+        <v>0.6</v>
+      </c>
+      <c r="L104" s="15">
+        <v>0.08</v>
+      </c>
+      <c r="M104" s="17">
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.3">
@@ -6141,24 +6232,19 @@
       <c r="G105" s="30">
         <v>528</v>
       </c>
-      <c r="H105" s="13" t="s">
-        <v>33</v>
+      <c r="H105" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="I105" s="2">
-        <v>1.35</v>
+        <v>0.75</v>
       </c>
       <c r="J105" s="2">
-        <v>0.95</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K105" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="L105" s="15">
-        <v>0.08</v>
-      </c>
-      <c r="M105" s="17">
-        <v>3</v>
-      </c>
+        <v>0.75</v>
+      </c>
+      <c r="L105" s="15"/>
       <c r="O105" t="s">
         <v>57</v>
       </c>
@@ -6168,40 +6254,40 @@
         <v>133</v>
       </c>
       <c r="B106" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C106" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D106">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E106">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F106" s="2">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G106" s="30">
-        <v>240</v>
+        <v>528</v>
       </c>
       <c r="H106" s="13" t="s">
         <v>33</v>
       </c>
       <c r="I106" s="2">
-        <v>1</v>
+        <v>1.35</v>
       </c>
       <c r="J106" s="2">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="K106" s="2">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="L106" s="15">
-        <v>0.3</v>
+        <v>0.08</v>
       </c>
       <c r="M106" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O106" t="s">
         <v>57</v>
@@ -6212,51 +6298,57 @@
         <v>133</v>
       </c>
       <c r="B107" t="s">
-        <v>364</v>
+        <v>171</v>
       </c>
       <c r="C107" t="s">
-        <v>363</v>
+        <v>172</v>
       </c>
       <c r="D107">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E107">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F107" s="2">
         <v>1</v>
       </c>
       <c r="G107" s="30">
-        <f>Barrage[[#This Row],[Base Damage]]*Barrage[[#This Row],[Total Rounds]]*Barrage[[#This Row],[Coefficient]]</f>
-        <v>450</v>
+        <v>240</v>
       </c>
       <c r="H107" s="13" t="s">
         <v>33</v>
       </c>
       <c r="I107" s="2">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="J107" s="2">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="K107" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="L107" s="23"/>
-      <c r="M107" s="24"/>
+        <v>0.6</v>
+      </c>
+      <c r="L107" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="M107" s="17">
+        <v>1</v>
+      </c>
+      <c r="O107" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>133</v>
       </c>
       <c r="B108" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C108" t="s">
         <v>363</v>
       </c>
       <c r="D108">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E108">
         <v>15</v>
@@ -6266,7 +6358,7 @@
       </c>
       <c r="G108" s="30">
         <f>Barrage[[#This Row],[Base Damage]]*Barrage[[#This Row],[Total Rounds]]*Barrage[[#This Row],[Coefficient]]</f>
-        <v>525</v>
+        <v>450</v>
       </c>
       <c r="H108" s="13" t="s">
         <v>33</v>
@@ -6275,10 +6367,10 @@
         <v>1.25</v>
       </c>
       <c r="J108" s="2">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="K108" s="2">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="L108" s="23"/>
       <c r="M108" s="24"/>
@@ -6294,86 +6386,86 @@
         <v>363</v>
       </c>
       <c r="D109">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E109">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F109" s="2">
         <v>1</v>
       </c>
       <c r="G109" s="30">
         <f>Barrage[[#This Row],[Base Damage]]*Barrage[[#This Row],[Total Rounds]]*Barrage[[#This Row],[Coefficient]]</f>
-        <v>240</v>
-      </c>
-      <c r="H109" s="10" t="s">
-        <v>27</v>
+        <v>525</v>
+      </c>
+      <c r="H109" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="I109" s="2">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="J109" s="2">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="K109" s="2">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="L109" s="23"/>
       <c r="M109" s="24"/>
-      <c r="O109" t="s">
-        <v>366</v>
-      </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>133</v>
       </c>
       <c r="B110" t="s">
-        <v>458</v>
+        <v>365</v>
       </c>
       <c r="C110" t="s">
-        <v>459</v>
+        <v>363</v>
       </c>
       <c r="D110">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E110">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F110" s="2">
         <v>1</v>
       </c>
       <c r="G110" s="30">
         <f>Barrage[[#This Row],[Base Damage]]*Barrage[[#This Row],[Total Rounds]]*Barrage[[#This Row],[Coefficient]]</f>
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="H110" s="10" t="s">
         <v>27</v>
       </c>
       <c r="I110" s="2">
-        <v>0.85</v>
+        <v>0.75</v>
       </c>
       <c r="J110" s="2">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K110" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="L110" s="32"/>
-      <c r="M110" s="33"/>
+        <v>0.75</v>
+      </c>
+      <c r="L110" s="23"/>
+      <c r="M110" s="24"/>
+      <c r="O110" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="B111" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="C111" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="D111">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="E111">
         <v>6</v>
@@ -6382,106 +6474,110 @@
         <v>1</v>
       </c>
       <c r="G111" s="30">
-        <v>360</v>
-      </c>
-      <c r="H111" t="s">
-        <v>49</v>
+        <f>Barrage[[#This Row],[Base Damage]]*Barrage[[#This Row],[Total Rounds]]*Barrage[[#This Row],[Coefficient]]</f>
+        <v>252</v>
+      </c>
+      <c r="H111" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="I111" s="2">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="J111" s="2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="K111" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="L111" s="15"/>
-      <c r="M111" s="12"/>
+        <v>0.85</v>
+      </c>
+      <c r="L111" s="32"/>
+      <c r="M111" s="33"/>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>174</v>
-      </c>
-      <c r="B112" t="s">
-        <v>175</v>
+        <v>133</v>
+      </c>
+      <c r="B112" s="37" t="s">
+        <v>477</v>
       </c>
       <c r="C112" t="s">
-        <v>176</v>
+        <v>478</v>
       </c>
       <c r="D112">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="E112">
+        <v>6</v>
+      </c>
+      <c r="F112" s="2">
+        <v>1</v>
+      </c>
+      <c r="G112" s="30">
+        <f>Barrage[[#This Row],[Base Damage]]*Barrage[[#This Row],[Total Rounds]]*Barrage[[#This Row],[Coefficient]]</f>
+        <v>228</v>
+      </c>
+      <c r="H112" t="s">
         <v>9</v>
       </c>
-      <c r="F112" s="2">
-        <v>1</v>
-      </c>
-      <c r="G112" s="30">
-        <v>540</v>
-      </c>
-      <c r="H112" t="s">
-        <v>49</v>
-      </c>
-      <c r="I112" s="2">
+      <c r="I112">
+        <v>100</v>
+      </c>
+      <c r="J112" s="2">
         <v>0.8</v>
       </c>
-      <c r="J112" s="2">
-        <v>1</v>
-      </c>
       <c r="K112" s="2">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="L112" s="15"/>
-      <c r="M112" s="12"/>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="B113" t="s">
-        <v>182</v>
+        <v>479</v>
       </c>
       <c r="C113" t="s">
-        <v>177</v>
+        <v>480</v>
       </c>
       <c r="D113">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E113">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F113" s="2">
         <v>1</v>
       </c>
       <c r="G113" s="30">
-        <v>540</v>
+        <f>Barrage[[#This Row],[Base Damage]]*Barrage[[#This Row],[Total Rounds]]*Barrage[[#This Row],[Coefficient]]</f>
+        <v>240</v>
       </c>
       <c r="H113" t="s">
-        <v>49</v>
+        <v>481</v>
       </c>
       <c r="I113" s="2">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="J113" s="2">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="K113" s="2">
-        <v>1.3</v>
+        <v>0.65</v>
       </c>
       <c r="L113" s="15"/>
-      <c r="M113" s="12"/>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N113" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>174</v>
       </c>
       <c r="B114" t="s">
-        <v>183</v>
+        <v>453</v>
       </c>
       <c r="C114" t="s">
-        <v>178</v>
+        <v>454</v>
       </c>
       <c r="D114">
         <v>60</v>
@@ -6510,180 +6606,176 @@
       <c r="L114" s="15"/>
       <c r="M114" s="12"/>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>174</v>
       </c>
       <c r="B115" t="s">
+        <v>175</v>
+      </c>
+      <c r="C115" t="s">
+        <v>176</v>
+      </c>
+      <c r="D115">
+        <v>60</v>
+      </c>
+      <c r="E115">
+        <v>9</v>
+      </c>
+      <c r="F115" s="2">
+        <v>1</v>
+      </c>
+      <c r="G115" s="30">
+        <v>540</v>
+      </c>
+      <c r="H115" t="s">
+        <v>49</v>
+      </c>
+      <c r="I115" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="J115" s="2">
+        <v>1</v>
+      </c>
+      <c r="K115" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="L115" s="15"/>
+      <c r="M115" s="12"/>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>174</v>
+      </c>
+      <c r="B116" t="s">
+        <v>182</v>
+      </c>
+      <c r="C116" t="s">
+        <v>177</v>
+      </c>
+      <c r="D116">
+        <v>60</v>
+      </c>
+      <c r="E116">
+        <v>9</v>
+      </c>
+      <c r="F116" s="2">
+        <v>1</v>
+      </c>
+      <c r="G116" s="30">
+        <v>540</v>
+      </c>
+      <c r="H116" t="s">
+        <v>49</v>
+      </c>
+      <c r="I116" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="J116" s="2">
+        <v>1</v>
+      </c>
+      <c r="K116" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="L116" s="15"/>
+      <c r="M116" s="12"/>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>174</v>
+      </c>
+      <c r="B117" t="s">
+        <v>183</v>
+      </c>
+      <c r="C117" t="s">
+        <v>178</v>
+      </c>
+      <c r="D117">
+        <v>60</v>
+      </c>
+      <c r="E117">
+        <v>6</v>
+      </c>
+      <c r="F117" s="2">
+        <v>1</v>
+      </c>
+      <c r="G117" s="30">
+        <v>360</v>
+      </c>
+      <c r="H117" t="s">
+        <v>49</v>
+      </c>
+      <c r="I117" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="J117" s="2">
+        <v>1</v>
+      </c>
+      <c r="K117" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="L117" s="15"/>
+      <c r="M117" s="12"/>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>174</v>
+      </c>
+      <c r="B118" t="s">
         <v>414</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C118" t="s">
         <v>415</v>
       </c>
-      <c r="D115">
+      <c r="D118">
         <v>55</v>
       </c>
-      <c r="E115">
+      <c r="E118">
         <v>6</v>
       </c>
-      <c r="F115" s="2">
-        <v>1</v>
-      </c>
-      <c r="G115" s="30">
+      <c r="F118" s="2">
+        <v>1</v>
+      </c>
+      <c r="G118" s="30">
         <f>55*6</f>
         <v>330</v>
       </c>
-      <c r="H115" t="s">
+      <c r="H118" t="s">
         <v>49</v>
       </c>
-      <c r="I115" s="2">
+      <c r="I118" s="2">
         <v>0.8</v>
       </c>
-      <c r="J115" s="2">
-        <v>1</v>
-      </c>
-      <c r="K115" s="2">
+      <c r="J118" s="2">
+        <v>1</v>
+      </c>
+      <c r="K118" s="2">
         <v>1.3</v>
       </c>
-      <c r="L115" s="26"/>
-      <c r="M115" s="28"/>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>174</v>
-      </c>
-      <c r="B116" t="s">
-        <v>184</v>
-      </c>
-      <c r="C116" t="s">
-        <v>413</v>
-      </c>
-      <c r="D116">
-        <v>60</v>
-      </c>
-      <c r="E116">
-        <v>6</v>
-      </c>
-      <c r="F116" s="2">
-        <v>1</v>
-      </c>
-      <c r="G116" s="30">
-        <v>360</v>
-      </c>
-      <c r="H116" t="s">
-        <v>49</v>
-      </c>
-      <c r="I116" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="J116" s="2">
-        <v>1</v>
-      </c>
-      <c r="K116" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="L116" s="15"/>
-      <c r="M116" s="12"/>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>174</v>
-      </c>
-      <c r="B117" t="s">
-        <v>450</v>
-      </c>
-      <c r="C117" t="s">
-        <v>179</v>
-      </c>
-      <c r="D117">
-        <v>60</v>
-      </c>
-      <c r="E117">
-        <v>9</v>
-      </c>
-      <c r="F117" s="2">
-        <v>1</v>
-      </c>
-      <c r="G117" s="30">
-        <v>540</v>
-      </c>
-      <c r="H117" t="s">
-        <v>49</v>
-      </c>
-      <c r="I117" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="J117" s="2">
-        <v>1</v>
-      </c>
-      <c r="K117" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="L117" s="15"/>
-      <c r="M117" s="12"/>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>174</v>
-      </c>
-      <c r="B118" t="s">
-        <v>185</v>
-      </c>
-      <c r="C118" t="s">
-        <v>180</v>
-      </c>
-      <c r="D118">
-        <v>150</v>
-      </c>
-      <c r="E118">
-        <v>4</v>
-      </c>
-      <c r="F118" s="2">
-        <v>1</v>
-      </c>
-      <c r="G118" s="30">
-        <v>600</v>
-      </c>
-      <c r="H118" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I118" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="J118" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="K118" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="L118" s="15">
-        <v>0.08</v>
-      </c>
-      <c r="M118" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L118" s="26"/>
+      <c r="M118" s="28"/>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>174</v>
       </c>
       <c r="B119" t="s">
-        <v>465</v>
+        <v>184</v>
       </c>
       <c r="C119" t="s">
-        <v>464</v>
+        <v>413</v>
       </c>
       <c r="D119">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E119">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F119" s="2">
         <v>1</v>
       </c>
       <c r="G119" s="30">
-        <v>576</v>
+        <v>360</v>
       </c>
       <c r="H119" t="s">
         <v>49</v>
@@ -6700,18 +6792,18 @@
       <c r="L119" s="15"/>
       <c r="M119" s="12"/>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>174</v>
       </c>
       <c r="B120" t="s">
-        <v>367</v>
+        <v>450</v>
       </c>
       <c r="C120" t="s">
-        <v>368</v>
+        <v>179</v>
       </c>
       <c r="D120">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E120">
         <v>9</v>
@@ -6720,138 +6812,253 @@
         <v>1</v>
       </c>
       <c r="G120" s="30">
+        <v>540</v>
+      </c>
+      <c r="H120" t="s">
+        <v>49</v>
+      </c>
+      <c r="I120" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="J120" s="2">
+        <v>1</v>
+      </c>
+      <c r="K120" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="L120" s="15"/>
+      <c r="M120" s="12"/>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>174</v>
+      </c>
+      <c r="B121" t="s">
+        <v>185</v>
+      </c>
+      <c r="C121" t="s">
+        <v>180</v>
+      </c>
+      <c r="D121">
+        <v>150</v>
+      </c>
+      <c r="E121">
+        <v>4</v>
+      </c>
+      <c r="F121" s="2">
+        <v>1</v>
+      </c>
+      <c r="G121" s="30">
+        <v>600</v>
+      </c>
+      <c r="H121" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I121" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="J121" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="K121" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="L121" s="15">
+        <v>0.08</v>
+      </c>
+      <c r="M121" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>174</v>
+      </c>
+      <c r="B122" t="s">
+        <v>465</v>
+      </c>
+      <c r="C122" t="s">
+        <v>464</v>
+      </c>
+      <c r="D122">
+        <v>48</v>
+      </c>
+      <c r="E122">
+        <v>12</v>
+      </c>
+      <c r="F122" s="2">
+        <v>1</v>
+      </c>
+      <c r="G122" s="30">
+        <v>576</v>
+      </c>
+      <c r="H122" t="s">
+        <v>49</v>
+      </c>
+      <c r="I122" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="J122" s="2">
+        <v>1</v>
+      </c>
+      <c r="K122" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="L122" s="15"/>
+      <c r="M122" s="12"/>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>174</v>
+      </c>
+      <c r="B123" t="s">
+        <v>367</v>
+      </c>
+      <c r="C123" t="s">
+        <v>368</v>
+      </c>
+      <c r="D123">
+        <v>55</v>
+      </c>
+      <c r="E123">
+        <v>9</v>
+      </c>
+      <c r="F123" s="2">
+        <v>1</v>
+      </c>
+      <c r="G123" s="30">
         <f>Barrage[[#This Row],[Base Damage]]*Barrage[[#This Row],[Total Rounds]]*Barrage[[#This Row],[Coefficient]]</f>
         <v>495</v>
       </c>
-      <c r="H120" t="s">
+      <c r="H123" t="s">
         <v>49</v>
       </c>
-      <c r="I120" s="2">
+      <c r="I123" s="2">
         <v>0.8</v>
       </c>
-      <c r="J120" s="2">
-        <v>1</v>
-      </c>
-      <c r="K120" s="2">
+      <c r="J123" s="2">
+        <v>1</v>
+      </c>
+      <c r="K123" s="2">
         <v>1.3</v>
       </c>
-      <c r="L120" s="23"/>
-      <c r="M120" s="25"/>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
+      <c r="L123" s="23"/>
+      <c r="M123" s="25"/>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
         <v>174</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B124" t="s">
         <v>447</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C124" t="s">
         <v>446</v>
       </c>
-      <c r="D121">
+      <c r="D124">
         <v>60</v>
       </c>
-      <c r="E121">
+      <c r="E124">
         <v>9</v>
       </c>
-      <c r="F121" s="2">
-        <v>1</v>
-      </c>
-      <c r="G121" s="30">
+      <c r="F124" s="2">
+        <v>1</v>
+      </c>
+      <c r="G124" s="30">
         <f>Barrage[[#This Row],[Base Damage]]*Barrage[[#This Row],[Total Rounds]]*Barrage[[#This Row],[Coefficient]]</f>
         <v>540</v>
       </c>
-      <c r="H121" t="s">
+      <c r="H124" t="s">
         <v>49</v>
       </c>
-      <c r="I121" s="2">
+      <c r="I124" s="2">
         <v>0.8</v>
       </c>
-      <c r="J121" s="2">
-        <v>1</v>
-      </c>
-      <c r="K121" s="2">
+      <c r="J124" s="2">
+        <v>1</v>
+      </c>
+      <c r="K124" s="2">
         <v>1.3</v>
       </c>
-      <c r="L121" s="15"/>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
+      <c r="L124" s="15"/>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
         <v>174</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B125" t="s">
         <v>448</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C125" t="s">
         <v>449</v>
       </c>
-      <c r="D122">
+      <c r="D125">
         <v>60</v>
       </c>
-      <c r="E122">
+      <c r="E125">
         <v>9</v>
       </c>
-      <c r="F122" s="2">
-        <v>1</v>
-      </c>
-      <c r="G122" s="30">
+      <c r="F125" s="2">
+        <v>1</v>
+      </c>
+      <c r="G125" s="30">
         <f>Barrage[[#This Row],[Base Damage]]*Barrage[[#This Row],[Total Rounds]]*Barrage[[#This Row],[Coefficient]]</f>
         <v>540</v>
       </c>
-      <c r="H122" t="s">
+      <c r="H125" t="s">
         <v>49</v>
       </c>
-      <c r="I122" s="2">
+      <c r="I125" s="2">
         <v>0.8</v>
       </c>
-      <c r="J122" s="2">
-        <v>1</v>
-      </c>
-      <c r="K122" s="2">
+      <c r="J125" s="2">
+        <v>1</v>
+      </c>
+      <c r="K125" s="2">
         <v>1.3</v>
       </c>
-      <c r="L122" s="15"/>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
+      <c r="L125" s="15"/>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
         <v>174</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B126" t="s">
         <v>451</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C126" t="s">
         <v>452</v>
       </c>
-      <c r="D123">
+      <c r="D126">
         <v>60</v>
       </c>
-      <c r="E123">
+      <c r="E126">
         <v>6</v>
       </c>
-      <c r="F123" s="2">
-        <v>1</v>
-      </c>
-      <c r="G123" s="30">
+      <c r="F126" s="2">
+        <v>1</v>
+      </c>
+      <c r="G126" s="30">
         <f>Barrage[[#This Row],[Base Damage]]*Barrage[[#This Row],[Total Rounds]]*Barrage[[#This Row],[Coefficient]]</f>
         <v>360</v>
       </c>
-      <c r="H123" t="s">
+      <c r="H126" t="s">
         <v>49</v>
       </c>
-      <c r="I123" s="2">
+      <c r="I126" s="2">
         <v>0.8</v>
       </c>
-      <c r="J123" s="2">
-        <v>1</v>
-      </c>
-      <c r="K123" s="2">
+      <c r="J126" s="2">
+        <v>1</v>
+      </c>
+      <c r="K126" s="2">
         <v>1.3</v>
       </c>
-      <c r="L123" s="15"/>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="G124" s="30"/>
-      <c r="L124" s="15"/>
+      <c r="L126" s="15"/>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G127" s="30"/>
+      <c r="L127" s="15"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:G58">
@@ -6866,7 +7073,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G59:G85">
+  <conditionalFormatting sqref="G59:G86">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -6878,7 +7085,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G86:G110">
+  <conditionalFormatting sqref="G87:G113">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -6890,7 +7097,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G111:G123">
+  <conditionalFormatting sqref="G114:G126">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -6913,10 +7120,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:O157"/>
+  <dimension ref="A1:O164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="D144" sqref="D144"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="A126" sqref="A126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8090,6 +8297,9 @@
       <c r="A30" t="s">
         <v>79</v>
       </c>
+      <c r="B30" t="s">
+        <v>471</v>
+      </c>
       <c r="C30" t="s">
         <v>94</v>
       </c>
@@ -8124,6 +8334,9 @@
       <c r="A31" t="s">
         <v>79</v>
       </c>
+      <c r="B31" t="s">
+        <v>471</v>
+      </c>
       <c r="C31" t="s">
         <v>94</v>
       </c>
@@ -8157,6 +8370,9 @@
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>79</v>
+      </c>
+      <c r="B32" t="s">
+        <v>471</v>
       </c>
       <c r="C32" t="s">
         <v>94</v>
@@ -10263,523 +10479,494 @@
         <v>462</v>
       </c>
     </row>
-    <row r="86" spans="1:15" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="D86" s="3">
-        <v>108</v>
-      </c>
-      <c r="E86" s="3">
-        <v>30</v>
-      </c>
-      <c r="F86" s="5">
-        <v>1</v>
-      </c>
-      <c r="G86" s="31">
-        <v>3240</v>
-      </c>
-      <c r="H86" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="I86" s="5">
-        <v>1</v>
-      </c>
-      <c r="J86" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="K86" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="L86" s="16">
-        <v>0.3</v>
-      </c>
-      <c r="M86" s="18">
-        <v>1</v>
-      </c>
-      <c r="N86" s="7"/>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>246</v>
+      </c>
+      <c r="B86" s="37" t="s">
+        <v>482</v>
+      </c>
+      <c r="C86" t="s">
+        <v>483</v>
+      </c>
+      <c r="D86">
+        <v>174</v>
+      </c>
+      <c r="E86">
+        <v>6</v>
+      </c>
+      <c r="F86" s="2">
+        <v>1</v>
+      </c>
+      <c r="G86" s="30">
+        <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
+        <v>1044</v>
+      </c>
+      <c r="H86" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I86" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="J86" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="K86" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="L86" s="15"/>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A87" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>269</v>
+      <c r="A87" t="s">
+        <v>246</v>
+      </c>
+      <c r="B87" s="37" t="s">
+        <v>484</v>
+      </c>
+      <c r="C87" t="s">
+        <v>483</v>
       </c>
       <c r="D87">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="E87">
-        <v>22</v>
-      </c>
-      <c r="F87" s="5">
+        <v>9</v>
+      </c>
+      <c r="F87" s="2">
         <v>1</v>
       </c>
       <c r="G87" s="30">
-        <v>2376</v>
-      </c>
-      <c r="H87" s="9" t="s">
-        <v>9</v>
+        <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
+        <v>1566</v>
+      </c>
+      <c r="H87" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="I87" s="2">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="J87" s="2">
-        <v>0.8</v>
+        <v>1.25</v>
       </c>
       <c r="K87" s="2">
-        <v>0.7</v>
+        <v>1.25</v>
       </c>
       <c r="L87" s="15"/>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>270</v>
-      </c>
-      <c r="B88" t="s">
-        <v>272</v>
+        <v>246</v>
+      </c>
+      <c r="B88" s="37" t="s">
+        <v>485</v>
       </c>
       <c r="C88" t="s">
-        <v>271</v>
+        <v>483</v>
       </c>
       <c r="D88">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="E88">
-        <v>40</v>
-      </c>
-      <c r="F88" s="5">
+        <v>20</v>
+      </c>
+      <c r="F88" s="2">
         <v>1</v>
       </c>
       <c r="G88" s="30">
-        <v>2880</v>
+        <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
+        <v>400</v>
       </c>
       <c r="H88" s="13" t="s">
         <v>33</v>
       </c>
       <c r="I88" s="2">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="J88" s="2">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="K88" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="L88" s="15">
-        <v>0.3</v>
-      </c>
-      <c r="M88" s="17">
-        <v>1</v>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="L88" s="15"/>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
+        <v>246</v>
+      </c>
+      <c r="B89" s="37" t="s">
+        <v>486</v>
+      </c>
+      <c r="C89" t="s">
+        <v>487</v>
+      </c>
+      <c r="D89">
+        <v>96</v>
+      </c>
+      <c r="E89">
+        <v>6</v>
+      </c>
+      <c r="F89" s="2">
+        <v>1</v>
+      </c>
+      <c r="G89" s="30">
+        <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
+        <v>576</v>
+      </c>
+      <c r="H89" t="s">
+        <v>49</v>
+      </c>
+      <c r="I89" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="J89" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K89" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="L89" s="15"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>246</v>
+      </c>
+      <c r="B90" s="37" t="s">
+        <v>488</v>
+      </c>
+      <c r="C90" t="s">
+        <v>489</v>
+      </c>
+      <c r="D90">
+        <v>140</v>
+      </c>
+      <c r="E90">
+        <v>10</v>
+      </c>
+      <c r="F90" s="2">
+        <v>1</v>
+      </c>
+      <c r="G90" s="30">
+        <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
+        <v>1400</v>
+      </c>
+      <c r="H90" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I90" s="2">
+        <v>1.35</v>
+      </c>
+      <c r="J90" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="K90" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="L90" s="15"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>246</v>
+      </c>
+      <c r="B91" t="s">
+        <v>490</v>
+      </c>
+      <c r="C91" t="s">
+        <v>489</v>
+      </c>
+      <c r="D91">
+        <v>30</v>
+      </c>
+      <c r="E91">
+        <v>14</v>
+      </c>
+      <c r="F91" s="2">
+        <v>1</v>
+      </c>
+      <c r="G91" s="30">
+        <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
+        <v>420</v>
+      </c>
+      <c r="H91" t="s">
+        <v>9</v>
+      </c>
+      <c r="I91" s="2">
+        <v>1</v>
+      </c>
+      <c r="J91" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="K91" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="L91" s="15"/>
+    </row>
+    <row r="92" spans="1:15" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="B89" t="s">
-        <v>272</v>
-      </c>
-      <c r="C89" t="s">
-        <v>271</v>
-      </c>
-      <c r="D89">
+      <c r="B92" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D92" s="3">
         <v>108</v>
       </c>
-      <c r="E89">
-        <v>22</v>
-      </c>
-      <c r="F89" s="5">
-        <v>1</v>
-      </c>
-      <c r="G89" s="30">
-        <v>2376</v>
-      </c>
-      <c r="H89" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I89" s="2">
-        <v>1</v>
-      </c>
-      <c r="J89" s="2">
+      <c r="E92" s="3">
+        <v>30</v>
+      </c>
+      <c r="F92" s="5">
+        <v>1</v>
+      </c>
+      <c r="G92" s="31">
+        <v>3240</v>
+      </c>
+      <c r="H92" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="I92" s="5">
+        <v>1</v>
+      </c>
+      <c r="J92" s="5">
         <v>0.8</v>
       </c>
-      <c r="K89" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="L89" s="15"/>
-    </row>
-    <row r="90" spans="1:15" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D90" s="3">
-        <v>235</v>
-      </c>
-      <c r="E90" s="3">
-        <v>4</v>
-      </c>
-      <c r="F90" s="5">
-        <v>1</v>
-      </c>
-      <c r="G90" s="31">
-        <v>940</v>
-      </c>
-      <c r="H90" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="I90" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="J90" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="K90" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L90" s="16"/>
-      <c r="M90" s="18"/>
-      <c r="N90" s="7"/>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A91" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="B91" t="s">
-        <v>278</v>
-      </c>
-      <c r="C91" t="s">
-        <v>277</v>
-      </c>
-      <c r="D91">
-        <v>222</v>
-      </c>
-      <c r="E91">
-        <v>12</v>
-      </c>
-      <c r="F91" s="5">
-        <v>1</v>
-      </c>
-      <c r="G91" s="30">
-        <v>2664</v>
-      </c>
-      <c r="H91" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="I91" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="J91" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="K91" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L91" s="15"/>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A92" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="B92" t="s">
-        <v>280</v>
-      </c>
-      <c r="C92" t="s">
-        <v>279</v>
-      </c>
-      <c r="D92">
-        <v>291</v>
-      </c>
-      <c r="E92">
-        <v>3</v>
-      </c>
-      <c r="F92" s="5">
-        <v>1</v>
-      </c>
-      <c r="G92" s="30">
-        <v>873</v>
-      </c>
-      <c r="H92" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="I92" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="J92" s="2">
-        <v>1.05</v>
-      </c>
-      <c r="K92" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="L92" s="15"/>
-      <c r="O92" t="s">
-        <v>282</v>
-      </c>
+      <c r="K92" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="L92" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="M92" s="18">
+        <v>1</v>
+      </c>
+      <c r="N92" s="7"/>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="B93" t="s">
-        <v>281</v>
-      </c>
-      <c r="C93" t="s">
-        <v>279</v>
+        <v>270</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>269</v>
       </c>
       <c r="D93">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E93">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="F93" s="5">
         <v>1</v>
       </c>
       <c r="G93" s="30">
-        <v>666</v>
+        <v>2376</v>
       </c>
       <c r="H93" s="9" t="s">
-        <v>276</v>
+        <v>9</v>
       </c>
       <c r="I93" s="2">
+        <v>1</v>
+      </c>
+      <c r="J93" s="2">
         <v>0.8</v>
       </c>
-      <c r="J93" s="2">
-        <v>0.85</v>
-      </c>
       <c r="K93" s="2">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="L93" s="15"/>
-      <c r="O93" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="D94" s="3">
-        <v>360</v>
-      </c>
-      <c r="E94" s="3">
-        <v>3</v>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>270</v>
+      </c>
+      <c r="B94" t="s">
+        <v>272</v>
+      </c>
+      <c r="C94" t="s">
+        <v>271</v>
+      </c>
+      <c r="D94">
+        <v>72</v>
+      </c>
+      <c r="E94">
+        <v>40</v>
       </c>
       <c r="F94" s="5">
         <v>1</v>
       </c>
-      <c r="G94" s="31">
-        <v>1080</v>
-      </c>
-      <c r="H94" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="I94" s="5">
+      <c r="G94" s="30">
+        <v>2880</v>
+      </c>
+      <c r="H94" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I94" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="J94" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="K94" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="L94" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="M94" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>270</v>
+      </c>
+      <c r="B95" t="s">
+        <v>272</v>
+      </c>
+      <c r="C95" t="s">
+        <v>271</v>
+      </c>
+      <c r="D95">
+        <v>108</v>
+      </c>
+      <c r="E95">
+        <v>22</v>
+      </c>
+      <c r="F95" s="5">
+        <v>1</v>
+      </c>
+      <c r="G95" s="30">
+        <v>2376</v>
+      </c>
+      <c r="H95" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I95" s="2">
+        <v>1</v>
+      </c>
+      <c r="J95" s="2">
         <v>0.8</v>
       </c>
-      <c r="J94" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="K94" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L94" s="16"/>
-      <c r="M94" s="18"/>
-      <c r="N94" s="7"/>
-      <c r="O94" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A95" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="B95" t="s">
-        <v>286</v>
-      </c>
-      <c r="C95" t="s">
-        <v>285</v>
-      </c>
-      <c r="D95">
-        <v>70</v>
-      </c>
-      <c r="E95">
-        <v>3</v>
-      </c>
-      <c r="F95" s="5">
-        <v>1</v>
-      </c>
-      <c r="G95" s="30">
-        <v>210</v>
-      </c>
-      <c r="H95" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="I95" s="5">
-        <v>1</v>
-      </c>
-      <c r="J95" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="K95" s="5">
-        <v>0.6</v>
+      <c r="K95" s="2">
+        <v>0.7</v>
       </c>
       <c r="L95" s="15"/>
-      <c r="O95" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:15" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="B96" t="s">
-        <v>290</v>
-      </c>
-      <c r="C96" t="s">
-        <v>289</v>
-      </c>
-      <c r="D96">
-        <v>120</v>
-      </c>
-      <c r="E96">
-        <v>6</v>
+      <c r="B96" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D96" s="3">
+        <v>235</v>
+      </c>
+      <c r="E96" s="3">
+        <v>4</v>
       </c>
       <c r="F96" s="5">
-        <v>1.05</v>
-      </c>
-      <c r="G96" s="30">
-        <v>756</v>
-      </c>
-      <c r="H96" s="13" t="s">
-        <v>33</v>
+        <v>1</v>
+      </c>
+      <c r="G96" s="31">
+        <v>940</v>
+      </c>
+      <c r="H96" s="11" t="s">
+        <v>276</v>
       </c>
       <c r="I96" s="5">
-        <v>1.1499999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="J96" s="5">
         <v>0.9</v>
       </c>
       <c r="K96" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="L96" s="15">
-        <v>0.08</v>
-      </c>
-      <c r="M96" s="17">
-        <v>3</v>
-      </c>
-      <c r="O96" t="s">
-        <v>288</v>
-      </c>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L96" s="16"/>
+      <c r="M96" s="18"/>
+      <c r="N96" s="7"/>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>273</v>
       </c>
       <c r="B97" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="C97" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D97">
-        <v>336</v>
+        <v>222</v>
       </c>
       <c r="E97">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F97" s="5">
         <v>1</v>
       </c>
       <c r="G97" s="30">
-        <v>672</v>
-      </c>
-      <c r="H97" s="13" t="s">
-        <v>300</v>
+        <v>2664</v>
+      </c>
+      <c r="H97" s="9" t="s">
+        <v>276</v>
       </c>
       <c r="I97" s="2">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="J97" s="2">
-        <v>1.05</v>
+        <v>0.9</v>
       </c>
       <c r="K97" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="L97" s="15">
-        <v>1</v>
-      </c>
-      <c r="M97" s="17">
-        <v>2</v>
-      </c>
-      <c r="O97" t="s">
-        <v>296</v>
-      </c>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L97" s="15"/>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>273</v>
       </c>
       <c r="B98" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="C98" t="s">
+        <v>279</v>
+      </c>
+      <c r="D98">
         <v>291</v>
       </c>
-      <c r="D98">
-        <v>121</v>
-      </c>
       <c r="E98">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F98" s="5">
         <v>1</v>
       </c>
       <c r="G98" s="30">
-        <v>484</v>
-      </c>
-      <c r="H98" s="13" t="s">
-        <v>300</v>
+        <v>873</v>
+      </c>
+      <c r="H98" s="9" t="s">
+        <v>276</v>
       </c>
       <c r="I98" s="2">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="J98" s="2">
-        <v>0.85</v>
+        <v>1.05</v>
       </c>
       <c r="K98" s="2">
-        <v>1</v>
-      </c>
-      <c r="L98" s="15">
-        <v>1</v>
-      </c>
-      <c r="M98" s="17">
-        <v>2</v>
-      </c>
+        <v>1.25</v>
+      </c>
+      <c r="L98" s="15"/>
       <c r="O98" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.3">
@@ -10787,77 +10974,77 @@
         <v>273</v>
       </c>
       <c r="B99" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="C99" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="D99">
-        <v>202</v>
+        <v>111</v>
       </c>
       <c r="E99">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F99" s="5">
         <v>1</v>
       </c>
       <c r="G99" s="30">
-        <v>808</v>
-      </c>
-      <c r="H99" s="10" t="s">
-        <v>295</v>
+        <v>666</v>
+      </c>
+      <c r="H99" s="9" t="s">
+        <v>276</v>
       </c>
       <c r="I99" s="2">
         <v>0.8</v>
       </c>
       <c r="J99" s="2">
-        <v>1.1000000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="K99" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="L99" s="15">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L99" s="15"/>
       <c r="O99" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="B100" t="s">
-        <v>299</v>
-      </c>
-      <c r="C100" t="s">
-        <v>298</v>
-      </c>
-      <c r="D100">
-        <v>260</v>
-      </c>
-      <c r="E100">
-        <v>24</v>
+      <c r="B100" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D100" s="3">
+        <v>360</v>
+      </c>
+      <c r="E100" s="3">
+        <v>3</v>
       </c>
       <c r="F100" s="5">
         <v>1</v>
       </c>
-      <c r="G100" s="30">
-        <v>6240</v>
-      </c>
-      <c r="H100" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="I100" s="2">
+      <c r="G100" s="31">
+        <v>1080</v>
+      </c>
+      <c r="H100" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="I100" s="5">
         <v>0.8</v>
       </c>
-      <c r="J100" s="2">
+      <c r="J100" s="5">
         <v>0.9</v>
       </c>
-      <c r="K100" s="2">
+      <c r="K100" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L100" s="15"/>
+      <c r="L100" s="16"/>
+      <c r="M100" s="18"/>
+      <c r="N100" s="7"/>
       <c r="O100" t="s">
         <v>282</v>
       </c>
@@ -10867,74 +11054,82 @@
         <v>273</v>
       </c>
       <c r="B101" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="C101" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="D101">
-        <v>240</v>
+        <v>70</v>
       </c>
       <c r="E101">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F101" s="5">
         <v>1</v>
       </c>
       <c r="G101" s="30">
-        <v>4320</v>
+        <v>210</v>
       </c>
       <c r="H101" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="I101" s="2">
+        <v>287</v>
+      </c>
+      <c r="I101" s="5">
+        <v>1</v>
+      </c>
+      <c r="J101" s="5">
         <v>0.8</v>
       </c>
-      <c r="J101" s="2">
-        <v>1</v>
-      </c>
-      <c r="K101" s="2">
-        <v>1.3</v>
+      <c r="K101" s="5">
+        <v>0.6</v>
       </c>
       <c r="L101" s="15"/>
+      <c r="O101" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>273</v>
       </c>
       <c r="B102" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="C102" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="D102">
-        <v>301</v>
+        <v>120</v>
       </c>
       <c r="E102">
-        <v>8</v>
-      </c>
-      <c r="F102" s="2">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="F102" s="5">
+        <v>1.05</v>
       </c>
       <c r="G102" s="30">
-        <v>2408</v>
-      </c>
-      <c r="H102" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="I102" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="J102" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K102" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="L102" s="15"/>
+        <v>756</v>
+      </c>
+      <c r="H102" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I102" s="5">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="J102" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="K102" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="L102" s="15">
+        <v>0.08</v>
+      </c>
+      <c r="M102" s="17">
+        <v>3</v>
+      </c>
       <c r="O102" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.3">
@@ -10942,151 +11137,163 @@
         <v>273</v>
       </c>
       <c r="B103" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="C103" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="D103">
-        <v>176</v>
+        <v>336</v>
       </c>
       <c r="E103">
-        <v>1</v>
-      </c>
-      <c r="F103" s="2">
-        <v>2.4500000000000002</v>
+        <v>2</v>
+      </c>
+      <c r="F103" s="5">
+        <v>1</v>
       </c>
       <c r="G103" s="30">
-        <v>431.2</v>
-      </c>
-      <c r="H103" s="10" t="s">
-        <v>308</v>
+        <v>672</v>
+      </c>
+      <c r="H103" s="13" t="s">
+        <v>300</v>
       </c>
       <c r="I103" s="2">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J103" s="2">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="K103" s="2">
-        <v>1</v>
-      </c>
-      <c r="L103" s="15"/>
-      <c r="N103" s="6" t="s">
-        <v>309</v>
+        <v>1.25</v>
+      </c>
+      <c r="L103" s="15">
+        <v>1</v>
+      </c>
+      <c r="M103" s="17">
+        <v>2</v>
       </c>
       <c r="O103" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="B104" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>310</v>
+      <c r="B104" t="s">
+        <v>293</v>
+      </c>
+      <c r="C104" t="s">
+        <v>291</v>
       </c>
       <c r="D104">
-        <v>172</v>
+        <v>121</v>
       </c>
       <c r="E104">
-        <v>2</v>
-      </c>
-      <c r="F104" s="2">
+        <v>4</v>
+      </c>
+      <c r="F104" s="5">
         <v>1</v>
       </c>
       <c r="G104" s="30">
-        <v>344</v>
-      </c>
-      <c r="H104" s="9" t="s">
-        <v>302</v>
+        <v>484</v>
+      </c>
+      <c r="H104" s="13" t="s">
+        <v>300</v>
       </c>
       <c r="I104" s="2">
         <v>0.8</v>
       </c>
       <c r="J104" s="2">
-        <v>1.1000000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="K104" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="L104" s="15"/>
-    </row>
-    <row r="105" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="L104" s="15">
+        <v>1</v>
+      </c>
+      <c r="M104" s="17">
+        <v>2</v>
+      </c>
+      <c r="O104" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="B105" s="3" t="s">
-        <v>313</v>
+      <c r="B105" t="s">
+        <v>294</v>
       </c>
       <c r="C105" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="D105">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="E105">
-        <v>1</v>
-      </c>
-      <c r="F105" s="2">
+        <v>4</v>
+      </c>
+      <c r="F105" s="5">
         <v>1</v>
       </c>
       <c r="G105" s="30">
-        <v>226</v>
-      </c>
-      <c r="H105" s="9" t="s">
-        <v>276</v>
+        <v>808</v>
+      </c>
+      <c r="H105" s="10" t="s">
+        <v>295</v>
       </c>
       <c r="I105" s="2">
         <v>0.8</v>
       </c>
       <c r="J105" s="2">
-        <v>0.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K105" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L105" s="15"/>
+        <v>1.3</v>
+      </c>
+      <c r="L105" s="15">
+        <v>1</v>
+      </c>
       <c r="O105" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="B106" s="3" t="s">
-        <v>314</v>
+      <c r="B106" t="s">
+        <v>299</v>
       </c>
       <c r="C106" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="D106">
-        <v>96</v>
+        <v>260</v>
       </c>
       <c r="E106">
-        <v>2</v>
-      </c>
-      <c r="F106" s="2">
+        <v>24</v>
+      </c>
+      <c r="F106" s="5">
         <v>1</v>
       </c>
       <c r="G106" s="30">
-        <v>192</v>
-      </c>
-      <c r="H106" s="9" t="s">
-        <v>276</v>
+        <v>6240</v>
+      </c>
+      <c r="H106" s="13" t="s">
+        <v>300</v>
       </c>
       <c r="I106" s="2">
         <v>0.8</v>
       </c>
       <c r="J106" s="2">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="K106" s="2">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L106" s="15"/>
       <c r="O106" t="s">
@@ -11094,226 +11301,220 @@
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
+      <c r="A107" s="3" t="s">
         <v>273</v>
       </c>
       <c r="B107" t="s">
-        <v>347</v>
+        <v>299</v>
       </c>
       <c r="C107" t="s">
-        <v>348</v>
+        <v>298</v>
       </c>
       <c r="D107">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="E107">
-        <v>12</v>
-      </c>
-      <c r="F107" s="2">
+        <v>18</v>
+      </c>
+      <c r="F107" s="5">
         <v>1</v>
       </c>
       <c r="G107" s="30">
-        <f>222*12</f>
-        <v>2664</v>
-      </c>
-      <c r="H107" t="s">
-        <v>276</v>
+        <v>4320</v>
+      </c>
+      <c r="H107" s="9" t="s">
+        <v>302</v>
       </c>
       <c r="I107" s="2">
         <v>0.8</v>
       </c>
       <c r="J107" s="2">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="K107" s="2">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="L107" s="15"/>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
+      <c r="A108" s="3" t="s">
         <v>273</v>
       </c>
       <c r="B108" t="s">
-        <v>405</v>
+        <v>305</v>
       </c>
       <c r="C108" t="s">
-        <v>362</v>
+        <v>303</v>
       </c>
       <c r="D108">
-        <v>121</v>
+        <v>301</v>
       </c>
       <c r="E108">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F108" s="2">
         <v>1</v>
       </c>
       <c r="G108" s="30">
-        <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>484</v>
-      </c>
-      <c r="H108" t="s">
-        <v>276</v>
+        <v>2408</v>
+      </c>
+      <c r="H108" s="10" t="s">
+        <v>295</v>
       </c>
       <c r="I108" s="2">
         <v>0.8</v>
       </c>
       <c r="J108" s="2">
-        <v>0.85</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K108" s="2">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="L108" s="15"/>
       <c r="O108" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
+      <c r="A109" s="3" t="s">
         <v>273</v>
       </c>
       <c r="B109" t="s">
-        <v>404</v>
+        <v>307</v>
       </c>
       <c r="C109" t="s">
-        <v>362</v>
+        <v>306</v>
       </c>
       <c r="D109">
-        <v>456</v>
+        <v>176</v>
       </c>
       <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109" s="2">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="G109" s="30">
+        <v>431.2</v>
+      </c>
+      <c r="H109" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="I109" s="2">
+        <v>1</v>
+      </c>
+      <c r="J109" s="2">
+        <v>1</v>
+      </c>
+      <c r="K109" s="2">
+        <v>1</v>
+      </c>
+      <c r="L109" s="15"/>
+      <c r="N109" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="O109" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D110">
+        <v>172</v>
+      </c>
+      <c r="E110">
         <v>2</v>
       </c>
-      <c r="F109" s="2">
-        <v>1</v>
-      </c>
-      <c r="G109" s="30">
-        <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>912</v>
-      </c>
-      <c r="H109" t="s">
-        <v>276</v>
-      </c>
-      <c r="I109" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="J109" s="2">
-        <v>1.05</v>
-      </c>
-      <c r="K109" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="L109" s="15"/>
-      <c r="O109" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>273</v>
-      </c>
-      <c r="B110" t="s">
-        <v>403</v>
-      </c>
-      <c r="C110" t="s">
-        <v>362</v>
-      </c>
-      <c r="D110">
-        <v>121</v>
-      </c>
-      <c r="E110">
-        <v>4</v>
-      </c>
       <c r="F110" s="2">
         <v>1</v>
       </c>
       <c r="G110" s="30">
-        <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>484</v>
-      </c>
-      <c r="H110" t="s">
-        <v>276</v>
+        <v>344</v>
+      </c>
+      <c r="H110" s="9" t="s">
+        <v>302</v>
       </c>
       <c r="I110" s="2">
         <v>0.8</v>
       </c>
       <c r="J110" s="2">
-        <v>0.85</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K110" s="2">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="L110" s="15"/>
-      <c r="O110" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
+    </row>
+    <row r="111" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="B111" t="s">
-        <v>443</v>
+      <c r="B111" s="3" t="s">
+        <v>313</v>
       </c>
       <c r="C111" t="s">
-        <v>362</v>
+        <v>312</v>
       </c>
       <c r="D111">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="E111">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F111" s="2">
         <v>1</v>
       </c>
       <c r="G111" s="30">
-        <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>1440</v>
-      </c>
-      <c r="H111" t="s">
-        <v>49</v>
+        <v>226</v>
+      </c>
+      <c r="H111" s="9" t="s">
+        <v>276</v>
       </c>
       <c r="I111" s="2">
         <v>0.8</v>
       </c>
       <c r="J111" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="K111" s="2">
         <v>1.1000000000000001</v>
-      </c>
-      <c r="K111" s="2">
-        <v>1.3</v>
       </c>
       <c r="L111" s="15"/>
       <c r="O111" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="B112" t="s">
-        <v>392</v>
+      <c r="B112" s="3" t="s">
+        <v>314</v>
       </c>
       <c r="C112" t="s">
-        <v>391</v>
+        <v>312</v>
       </c>
       <c r="D112">
-        <v>322</v>
+        <v>96</v>
       </c>
       <c r="E112">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F112" s="2">
         <v>1</v>
       </c>
       <c r="G112" s="30">
-        <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>966</v>
-      </c>
-      <c r="H112" t="s">
+        <v>192</v>
+      </c>
+      <c r="H112" s="9" t="s">
         <v>276</v>
       </c>
       <c r="I112" s="2">
@@ -11325,8 +11526,7 @@
       <c r="K112" s="2">
         <v>1</v>
       </c>
-      <c r="L112" s="26"/>
-      <c r="M112" s="27"/>
+      <c r="L112" s="15"/>
       <c r="O112" t="s">
         <v>282</v>
       </c>
@@ -11336,23 +11536,23 @@
         <v>273</v>
       </c>
       <c r="B113" t="s">
-        <v>393</v>
+        <v>347</v>
       </c>
       <c r="C113" t="s">
-        <v>391</v>
+        <v>348</v>
       </c>
       <c r="D113">
-        <v>138</v>
+        <v>222</v>
       </c>
       <c r="E113">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F113" s="2">
         <v>1</v>
       </c>
       <c r="G113" s="30">
-        <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>828</v>
+        <f>222*12</f>
+        <v>2664</v>
       </c>
       <c r="H113" t="s">
         <v>276</v>
@@ -11361,170 +11561,171 @@
         <v>0.8</v>
       </c>
       <c r="J113" s="2">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="K113" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="L113" s="26"/>
-      <c r="M113" s="27"/>
-      <c r="O113" t="s">
-        <v>282</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L113" s="15"/>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>273</v>
       </c>
       <c r="B114" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="C114" t="s">
-        <v>398</v>
+        <v>362</v>
       </c>
       <c r="D114">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="E114">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F114" s="2">
         <v>1</v>
       </c>
       <c r="G114" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>448</v>
-      </c>
-      <c r="H114" s="10" t="s">
-        <v>27</v>
+        <v>484</v>
+      </c>
+      <c r="H114" t="s">
+        <v>276</v>
       </c>
       <c r="I114" s="2">
-        <v>1.1000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="J114" s="2">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="K114" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="L114" s="26"/>
-      <c r="M114" s="27"/>
+        <v>1</v>
+      </c>
+      <c r="L114" s="15"/>
+      <c r="O114" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>273</v>
       </c>
       <c r="B115" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="C115" t="s">
-        <v>398</v>
+        <v>362</v>
       </c>
       <c r="D115">
-        <v>20</v>
+        <v>456</v>
       </c>
       <c r="E115">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="F115" s="2">
         <v>1</v>
       </c>
       <c r="G115" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>480</v>
-      </c>
-      <c r="H115" s="13" t="s">
-        <v>33</v>
+        <v>912</v>
+      </c>
+      <c r="H115" t="s">
+        <v>276</v>
       </c>
       <c r="I115" s="2">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="J115" s="2">
-        <v>0.6</v>
+        <v>1.05</v>
       </c>
       <c r="K115" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="L115" s="26"/>
-      <c r="M115" s="27"/>
+        <v>1.25</v>
+      </c>
+      <c r="L115" s="15"/>
+      <c r="O115" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>273</v>
       </c>
       <c r="B116" t="s">
-        <v>445</v>
+        <v>403</v>
       </c>
       <c r="C116" t="s">
-        <v>398</v>
+        <v>362</v>
       </c>
       <c r="D116">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="E116">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F116" s="2">
         <v>1</v>
       </c>
       <c r="G116" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>744</v>
-      </c>
-      <c r="H116" s="10" t="s">
-        <v>27</v>
+        <v>484</v>
+      </c>
+      <c r="H116" t="s">
+        <v>276</v>
       </c>
       <c r="I116" s="2">
-        <v>1.1000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="J116" s="2">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="K116" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="L116" s="26"/>
-      <c r="M116" s="27"/>
+        <v>1</v>
+      </c>
+      <c r="L116" s="15"/>
+      <c r="O116" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>273</v>
       </c>
       <c r="B117" t="s">
-        <v>401</v>
+        <v>443</v>
       </c>
       <c r="C117" t="s">
-        <v>400</v>
+        <v>362</v>
       </c>
       <c r="D117">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="E117">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F117" s="2">
         <v>1</v>
       </c>
       <c r="G117" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>678</v>
+        <v>1440</v>
       </c>
       <c r="H117" t="s">
-        <v>276</v>
+        <v>49</v>
       </c>
       <c r="I117" s="2">
         <v>0.8</v>
       </c>
       <c r="J117" s="2">
-        <v>0.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K117" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L117" s="26"/>
-      <c r="M117" s="27"/>
+        <v>1.3</v>
+      </c>
+      <c r="L117" s="15"/>
       <c r="O117" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.3">
@@ -11532,23 +11733,23 @@
         <v>273</v>
       </c>
       <c r="B118" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="C118" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="D118">
-        <v>96</v>
+        <v>322</v>
       </c>
       <c r="E118">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F118" s="2">
         <v>1</v>
       </c>
       <c r="G118" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>576</v>
+        <v>966</v>
       </c>
       <c r="H118" t="s">
         <v>276</v>
@@ -11570,205 +11771,212 @@
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>333</v>
+        <v>273</v>
       </c>
       <c r="B119" t="s">
-        <v>318</v>
+        <v>393</v>
       </c>
       <c r="C119" t="s">
-        <v>315</v>
+        <v>391</v>
       </c>
       <c r="D119">
-        <v>202</v>
+        <v>138</v>
       </c>
       <c r="E119">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F119" s="2">
         <v>1</v>
       </c>
       <c r="G119" s="30">
-        <v>2424</v>
-      </c>
-      <c r="H119" s="9" t="s">
-        <v>302</v>
+        <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
+        <v>828</v>
+      </c>
+      <c r="H119" t="s">
+        <v>276</v>
       </c>
       <c r="I119" s="2">
         <v>0.8</v>
       </c>
       <c r="J119" s="2">
-        <v>1.1000000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="K119" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="L119" s="15"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="L119" s="26"/>
+      <c r="M119" s="27"/>
+      <c r="O119" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>333</v>
+        <v>273</v>
       </c>
       <c r="B120" t="s">
-        <v>317</v>
+        <v>399</v>
       </c>
       <c r="C120" t="s">
-        <v>316</v>
+        <v>398</v>
       </c>
       <c r="D120">
-        <v>240</v>
+        <v>28</v>
       </c>
       <c r="E120">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F120" s="2">
         <v>1</v>
       </c>
       <c r="G120" s="30">
-        <v>2160</v>
-      </c>
-      <c r="H120" s="9" t="s">
-        <v>302</v>
+        <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
+        <v>448</v>
+      </c>
+      <c r="H120" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="I120" s="2">
-        <v>0.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J120" s="2">
-        <v>1.1000000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="K120" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="L120" s="15"/>
+        <v>0.7</v>
+      </c>
+      <c r="L120" s="26"/>
+      <c r="M120" s="27"/>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>333</v>
+        <v>273</v>
       </c>
       <c r="B121" t="s">
-        <v>319</v>
+        <v>399</v>
       </c>
       <c r="C121" t="s">
-        <v>320</v>
+        <v>398</v>
       </c>
       <c r="D121">
-        <v>225</v>
+        <v>20</v>
       </c>
       <c r="E121">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="F121" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G121" s="30">
-        <v>450</v>
-      </c>
-      <c r="H121" s="10" t="s">
-        <v>27</v>
+        <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
+        <v>480</v>
+      </c>
+      <c r="H121" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="I121" s="2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="J121" s="2">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="K121" s="2">
-        <v>1</v>
-      </c>
-      <c r="L121" s="15"/>
-      <c r="O121" t="s">
-        <v>301</v>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="L121" s="26"/>
+      <c r="M121" s="27"/>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>333</v>
+        <v>273</v>
       </c>
       <c r="B122" t="s">
-        <v>342</v>
+        <v>445</v>
       </c>
       <c r="C122" t="s">
-        <v>341</v>
+        <v>398</v>
       </c>
       <c r="D122">
-        <v>332</v>
+        <v>31</v>
       </c>
       <c r="E122">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="F122" s="2">
         <v>1</v>
       </c>
       <c r="G122" s="30">
-        <v>332</v>
-      </c>
-      <c r="H122" s="9" t="s">
-        <v>276</v>
+        <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
+        <v>744</v>
+      </c>
+      <c r="H122" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="I122" s="2">
-        <v>0.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J122" s="2">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="K122" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="L122" s="15"/>
-      <c r="O122" t="s">
-        <v>282</v>
-      </c>
+        <v>0.7</v>
+      </c>
+      <c r="L122" s="26"/>
+      <c r="M122" s="27"/>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>333</v>
+        <v>273</v>
       </c>
       <c r="B123" t="s">
-        <v>343</v>
+        <v>401</v>
       </c>
       <c r="C123" t="s">
-        <v>341</v>
+        <v>400</v>
       </c>
       <c r="D123">
-        <v>138</v>
+        <v>226</v>
       </c>
       <c r="E123">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F123" s="2">
         <v>1</v>
       </c>
       <c r="G123" s="30">
-        <v>276</v>
-      </c>
-      <c r="H123" s="9" t="s">
+        <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
+        <v>678</v>
+      </c>
+      <c r="H123" t="s">
         <v>276</v>
       </c>
       <c r="I123" s="2">
         <v>0.8</v>
       </c>
       <c r="J123" s="2">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="K123" s="2">
-        <v>1</v>
-      </c>
-      <c r="L123" s="15"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L123" s="26"/>
+      <c r="M123" s="27"/>
       <c r="O123" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>333</v>
+        <v>273</v>
       </c>
       <c r="B124" t="s">
-        <v>339</v>
+        <v>402</v>
       </c>
       <c r="C124" t="s">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="D124">
-        <v>288</v>
+        <v>96</v>
       </c>
       <c r="E124">
         <v>6</v>
@@ -11778,50 +11986,51 @@
       </c>
       <c r="G124" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>1728</v>
-      </c>
-      <c r="H124" s="9" t="s">
-        <v>287</v>
+        <v>576</v>
+      </c>
+      <c r="H124" t="s">
+        <v>276</v>
       </c>
       <c r="I124" s="2">
         <v>0.8</v>
       </c>
       <c r="J124" s="2">
-        <v>1.1000000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="K124" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="L124" s="15"/>
+        <v>1</v>
+      </c>
+      <c r="L124" s="26"/>
+      <c r="M124" s="27"/>
       <c r="O124" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>333</v>
-      </c>
-      <c r="B125" t="s">
-        <v>349</v>
+        <v>273</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>476</v>
       </c>
       <c r="C125" t="s">
-        <v>350</v>
+        <v>475</v>
       </c>
       <c r="D125">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="E125">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F125" s="2">
         <v>1</v>
       </c>
       <c r="G125" s="30">
-        <f>207*3</f>
-        <v>621</v>
+        <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
+        <v>2880</v>
       </c>
       <c r="H125" t="s">
-        <v>49</v>
+        <v>287</v>
       </c>
       <c r="I125" s="2">
         <v>0.8</v>
@@ -11833,32 +12042,35 @@
         <v>1.3</v>
       </c>
       <c r="L125" s="15"/>
+      <c r="O125" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>333</v>
       </c>
       <c r="B126" t="s">
-        <v>444</v>
+        <v>318</v>
       </c>
       <c r="C126" t="s">
-        <v>350</v>
+        <v>315</v>
       </c>
       <c r="D126">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E126">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F126" s="2">
         <v>1</v>
       </c>
       <c r="G126" s="30">
-        <f>207*6</f>
-        <v>1242</v>
-      </c>
-      <c r="H126" t="s">
-        <v>49</v>
+        <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
+        <v>2424</v>
+      </c>
+      <c r="H126" s="9" t="s">
+        <v>302</v>
       </c>
       <c r="I126" s="2">
         <v>0.8</v>
@@ -11876,70 +12088,63 @@
         <v>333</v>
       </c>
       <c r="B127" t="s">
-        <v>424</v>
+        <v>317</v>
       </c>
       <c r="C127" t="s">
-        <v>425</v>
+        <v>316</v>
       </c>
       <c r="D127">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="E127">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F127" s="2">
         <v>1</v>
       </c>
       <c r="G127" s="30">
-        <v>294</v>
-      </c>
-      <c r="H127" s="13" t="s">
-        <v>300</v>
+        <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
+        <v>2160</v>
+      </c>
+      <c r="H127" s="9" t="s">
+        <v>302</v>
       </c>
       <c r="I127" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J127" s="2">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K127" s="2">
-        <v>1</v>
-      </c>
-      <c r="L127" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="M127" s="27">
-        <v>3</v>
-      </c>
-      <c r="O127" t="s">
-        <v>426</v>
-      </c>
+        <v>1.3</v>
+      </c>
+      <c r="L127" s="15"/>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>333</v>
       </c>
       <c r="B128" t="s">
-        <v>424</v>
+        <v>319</v>
       </c>
       <c r="C128" t="s">
-        <v>425</v>
+        <v>320</v>
       </c>
       <c r="D128">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="E128">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F128" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G128" s="30">
-        <f>248*3</f>
-        <v>744</v>
+        <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
+        <v>450</v>
       </c>
       <c r="H128" s="10" t="s">
-        <v>427</v>
+        <v>27</v>
       </c>
       <c r="I128" s="2">
         <v>1</v>
@@ -11950,119 +12155,125 @@
       <c r="K128" s="2">
         <v>1</v>
       </c>
-      <c r="L128" s="26"/>
-      <c r="M128" s="27"/>
+      <c r="L128" s="15"/>
+      <c r="O128" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>333</v>
       </c>
       <c r="B129" t="s">
-        <v>424</v>
+        <v>342</v>
       </c>
       <c r="C129" t="s">
-        <v>425</v>
+        <v>341</v>
       </c>
       <c r="D129">
-        <v>72</v>
+        <v>332</v>
       </c>
       <c r="E129">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="F129" s="2">
         <v>1</v>
       </c>
       <c r="G129" s="30">
-        <f>72*24</f>
-        <v>1728</v>
-      </c>
-      <c r="H129" t="s">
+        <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
+        <v>332</v>
+      </c>
+      <c r="H129" s="9" t="s">
         <v>276</v>
       </c>
       <c r="I129" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J129" s="2">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="K129" s="2">
-        <v>1</v>
-      </c>
-      <c r="L129" s="26"/>
-      <c r="M129" s="27"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="L129" s="15"/>
+      <c r="O129" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>333</v>
       </c>
       <c r="B130" t="s">
-        <v>470</v>
+        <v>343</v>
       </c>
       <c r="C130" t="s">
-        <v>466</v>
+        <v>341</v>
       </c>
       <c r="D130">
-        <v>380</v>
+        <v>138</v>
       </c>
       <c r="E130">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F130" s="2">
         <v>1</v>
       </c>
       <c r="G130" s="30">
-        <f>72*24</f>
-        <v>1728</v>
-      </c>
-      <c r="H130" t="s">
+        <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
+        <v>276</v>
+      </c>
+      <c r="H130" s="9" t="s">
         <v>276</v>
       </c>
       <c r="I130" s="2">
         <v>0.8</v>
       </c>
       <c r="J130" s="2">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="K130" s="2">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="L130" s="15"/>
-      <c r="M130" s="12"/>
+      <c r="O130" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B131" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="C131" t="s">
-        <v>361</v>
+        <v>340</v>
       </c>
       <c r="D131">
-        <v>173</v>
+        <v>288</v>
       </c>
       <c r="E131">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F131" s="2">
         <v>1</v>
       </c>
       <c r="G131" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>2595</v>
-      </c>
-      <c r="H131" t="s">
-        <v>276</v>
+        <v>1728</v>
+      </c>
+      <c r="H131" s="9" t="s">
+        <v>287</v>
       </c>
       <c r="I131" s="2">
         <v>0.8</v>
       </c>
       <c r="J131" s="2">
-        <v>0.85</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K131" s="2">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="L131" s="15"/>
       <c r="O131" t="s">
@@ -12071,509 +12282,811 @@
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B132" t="s">
-        <v>322</v>
+        <v>349</v>
       </c>
       <c r="C132" t="s">
-        <v>321</v>
+        <v>350</v>
       </c>
       <c r="D132">
-        <v>100</v>
+        <v>207</v>
       </c>
       <c r="E132">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F132" s="2">
         <v>1</v>
       </c>
       <c r="G132" s="30">
-        <v>800</v>
-      </c>
-      <c r="H132" s="13" t="s">
-        <v>33</v>
+        <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
+        <v>621</v>
+      </c>
+      <c r="H132" t="s">
+        <v>49</v>
       </c>
       <c r="I132" s="2">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="J132" s="2">
         <v>1.1000000000000001</v>
       </c>
       <c r="K132" s="2">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="L132" s="15"/>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
+        <v>333</v>
+      </c>
+      <c r="B133" t="s">
+        <v>444</v>
+      </c>
+      <c r="C133" t="s">
+        <v>350</v>
+      </c>
+      <c r="D133">
+        <v>207</v>
+      </c>
+      <c r="E133">
+        <v>6</v>
+      </c>
+      <c r="F133" s="2">
+        <v>1</v>
+      </c>
+      <c r="G133" s="30">
+        <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
+        <v>1242</v>
+      </c>
+      <c r="H133" t="s">
+        <v>49</v>
+      </c>
+      <c r="I133" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="J133" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K133" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="L133" s="15"/>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>333</v>
+      </c>
+      <c r="B134" t="s">
+        <v>424</v>
+      </c>
+      <c r="C134" t="s">
+        <v>425</v>
+      </c>
+      <c r="D134">
+        <v>294</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+      <c r="F134" s="2">
+        <v>1</v>
+      </c>
+      <c r="G134" s="30">
+        <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
+        <v>294</v>
+      </c>
+      <c r="H134" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="I134" s="2">
+        <v>1</v>
+      </c>
+      <c r="J134" s="2">
+        <v>1</v>
+      </c>
+      <c r="K134" s="2">
+        <v>1</v>
+      </c>
+      <c r="L134" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="M134" s="27">
+        <v>3</v>
+      </c>
+      <c r="O134" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>333</v>
+      </c>
+      <c r="B135" t="s">
+        <v>424</v>
+      </c>
+      <c r="C135" t="s">
+        <v>425</v>
+      </c>
+      <c r="D135">
+        <v>248</v>
+      </c>
+      <c r="E135">
+        <v>3</v>
+      </c>
+      <c r="F135" s="2">
+        <v>1</v>
+      </c>
+      <c r="G135" s="30">
+        <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
+        <v>744</v>
+      </c>
+      <c r="H135" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="I135" s="2">
+        <v>1</v>
+      </c>
+      <c r="J135" s="2">
+        <v>1</v>
+      </c>
+      <c r="K135" s="2">
+        <v>1</v>
+      </c>
+      <c r="L135" s="26"/>
+      <c r="M135" s="27"/>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>333</v>
+      </c>
+      <c r="B136" t="s">
+        <v>424</v>
+      </c>
+      <c r="C136" t="s">
+        <v>425</v>
+      </c>
+      <c r="D136">
+        <v>72</v>
+      </c>
+      <c r="E136">
+        <v>24</v>
+      </c>
+      <c r="F136" s="2">
+        <v>1</v>
+      </c>
+      <c r="G136" s="30">
+        <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
+        <v>1728</v>
+      </c>
+      <c r="H136" t="s">
+        <v>276</v>
+      </c>
+      <c r="I136" s="2">
+        <v>1</v>
+      </c>
+      <c r="J136" s="2">
+        <v>1</v>
+      </c>
+      <c r="K136" s="2">
+        <v>1</v>
+      </c>
+      <c r="L136" s="26"/>
+      <c r="M136" s="27"/>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>333</v>
+      </c>
+      <c r="B137" t="s">
+        <v>470</v>
+      </c>
+      <c r="C137" t="s">
+        <v>466</v>
+      </c>
+      <c r="D137">
+        <v>380</v>
+      </c>
+      <c r="E137">
+        <v>6</v>
+      </c>
+      <c r="F137" s="2">
+        <v>1</v>
+      </c>
+      <c r="G137" s="30">
+        <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
+        <v>2280</v>
+      </c>
+      <c r="H137" t="s">
+        <v>276</v>
+      </c>
+      <c r="I137" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="J137" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="K137" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L137" s="15"/>
+      <c r="M137" s="12"/>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
         <v>334</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B138" t="s">
+        <v>360</v>
+      </c>
+      <c r="C138" t="s">
+        <v>361</v>
+      </c>
+      <c r="D138">
+        <v>173</v>
+      </c>
+      <c r="E138">
+        <v>15</v>
+      </c>
+      <c r="F138" s="2">
+        <v>1</v>
+      </c>
+      <c r="G138" s="30">
+        <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
+        <v>2595</v>
+      </c>
+      <c r="H138" t="s">
+        <v>276</v>
+      </c>
+      <c r="I138" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="J138" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="K138" s="2">
+        <v>1</v>
+      </c>
+      <c r="L138" s="15"/>
+      <c r="O138" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>334</v>
+      </c>
+      <c r="B139" t="s">
+        <v>322</v>
+      </c>
+      <c r="C139" t="s">
+        <v>321</v>
+      </c>
+      <c r="D139">
+        <v>100</v>
+      </c>
+      <c r="E139">
+        <v>8</v>
+      </c>
+      <c r="F139" s="2">
+        <v>1</v>
+      </c>
+      <c r="G139" s="30">
+        <v>800</v>
+      </c>
+      <c r="H139" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I139" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="J139" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K139" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="L139" s="15"/>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>334</v>
+      </c>
+      <c r="B140" t="s">
         <v>324</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C140" t="s">
         <v>323</v>
       </c>
-      <c r="D133">
+      <c r="D140">
         <v>332</v>
       </c>
-      <c r="E133">
+      <c r="E140">
         <v>2</v>
       </c>
-      <c r="F133" s="2">
-        <v>1</v>
-      </c>
-      <c r="G133" s="30">
+      <c r="F140" s="2">
+        <v>1</v>
+      </c>
+      <c r="G140" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]</f>
         <v>664</v>
       </c>
-      <c r="H133" s="9" t="s">
+      <c r="H140" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="I133" s="2">
+      <c r="I140" s="2">
         <v>0.8</v>
       </c>
-      <c r="J133" s="2">
+      <c r="J140" s="2">
         <v>0.95</v>
       </c>
-      <c r="K133" s="2">
+      <c r="K140" s="2">
         <v>1.1499999999999999</v>
       </c>
-      <c r="L133" s="15"/>
-      <c r="O133" t="s">
+      <c r="L140" s="15"/>
+      <c r="O140" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
         <v>334</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B141" t="s">
         <v>325</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C141" t="s">
         <v>323</v>
       </c>
-      <c r="D134">
+      <c r="D141">
         <v>276</v>
       </c>
-      <c r="E134">
+      <c r="E141">
         <v>2</v>
       </c>
-      <c r="F134" s="2">
-        <v>1</v>
-      </c>
-      <c r="G134" s="30">
+      <c r="F141" s="2">
+        <v>1</v>
+      </c>
+      <c r="G141" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]</f>
         <v>552</v>
       </c>
-      <c r="H134" s="9" t="s">
+      <c r="H141" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="I134" s="2">
+      <c r="I141" s="2">
         <v>0.8</v>
       </c>
-      <c r="J134" s="2">
+      <c r="J141" s="2">
         <v>0.85</v>
       </c>
-      <c r="K134" s="2">
-        <v>1</v>
-      </c>
-      <c r="L134" s="15"/>
-      <c r="O134" t="s">
+      <c r="K141" s="2">
+        <v>1</v>
+      </c>
+      <c r="L141" s="15"/>
+      <c r="O141" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
         <v>174</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B142" t="s">
         <v>326</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C142" t="s">
         <v>329</v>
       </c>
-      <c r="D135">
+      <c r="D142">
         <v>50</v>
       </c>
-      <c r="E135">
+      <c r="E142">
         <v>7</v>
       </c>
-      <c r="F135" s="2">
-        <v>1</v>
-      </c>
-      <c r="G135" s="30">
+      <c r="F142" s="2">
+        <v>1</v>
+      </c>
+      <c r="G142" s="30">
         <v>350</v>
       </c>
-      <c r="H135" s="9" t="s">
+      <c r="H142" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I135" s="2">
+      <c r="I142" s="2">
         <v>0.8</v>
       </c>
-      <c r="J135" s="2">
-        <v>1</v>
-      </c>
-      <c r="K135" s="2">
+      <c r="J142" s="2">
+        <v>1</v>
+      </c>
+      <c r="K142" s="2">
         <v>1.3</v>
       </c>
-      <c r="L135"/>
-      <c r="M135"/>
-      <c r="N135"/>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
+      <c r="L142"/>
+      <c r="M142"/>
+      <c r="N142"/>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
         <v>174</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B143" t="s">
         <v>327</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C143" t="s">
         <v>176</v>
       </c>
-      <c r="D136">
+      <c r="D143">
         <v>48</v>
       </c>
-      <c r="E136">
+      <c r="E143">
         <v>6</v>
       </c>
-      <c r="F136" s="2">
-        <v>1</v>
-      </c>
-      <c r="G136" s="30">
+      <c r="F143" s="2">
+        <v>1</v>
+      </c>
+      <c r="G143" s="30">
         <v>288</v>
       </c>
-      <c r="H136" s="10" t="s">
+      <c r="H143" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="I136" s="2">
+      <c r="I143" s="2">
         <v>0.8</v>
       </c>
-      <c r="J136" s="2">
-        <v>1</v>
-      </c>
-      <c r="K136" s="2">
+      <c r="J143" s="2">
+        <v>1</v>
+      </c>
+      <c r="K143" s="2">
         <v>1.3</v>
       </c>
-      <c r="L136"/>
-      <c r="M136"/>
-      <c r="N136"/>
-      <c r="O136" t="s">
+      <c r="L143"/>
+      <c r="M143"/>
+      <c r="N143"/>
+      <c r="O143" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
         <v>174</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B144" t="s">
         <v>328</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C144" t="s">
         <v>181</v>
       </c>
-      <c r="D137">
+      <c r="D144">
         <v>40</v>
       </c>
-      <c r="E137">
+      <c r="E144">
         <v>6</v>
       </c>
-      <c r="F137" s="2">
-        <v>1</v>
-      </c>
-      <c r="G137" s="30">
+      <c r="F144" s="2">
+        <v>1</v>
+      </c>
+      <c r="G144" s="30">
         <v>240</v>
       </c>
-      <c r="H137" s="13" t="s">
+      <c r="H144" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="I137" s="2">
+      <c r="I144" s="2">
         <v>0.8</v>
       </c>
-      <c r="J137" s="2">
-        <v>1</v>
-      </c>
-      <c r="K137" s="2">
+      <c r="J144" s="2">
+        <v>1</v>
+      </c>
+      <c r="K144" s="2">
         <v>1.3</v>
       </c>
-      <c r="L137" s="26">
+      <c r="L144" s="26">
         <v>0.7</v>
       </c>
-      <c r="M137">
+      <c r="M144" s="27">
         <v>2</v>
       </c>
-      <c r="N137"/>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
+      <c r="N144"/>
+      <c r="O144" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
         <v>174</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B145" t="s">
         <v>456</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C145" t="s">
         <v>449</v>
       </c>
-      <c r="D138">
+      <c r="D145">
         <v>60</v>
       </c>
-      <c r="E138">
+      <c r="E145">
         <v>10</v>
       </c>
-      <c r="F138" s="2">
-        <v>1</v>
-      </c>
-      <c r="G138" s="30">
+      <c r="F145" s="2">
+        <v>1</v>
+      </c>
+      <c r="G145" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
         <v>600</v>
       </c>
-      <c r="H138" s="9" t="s">
+      <c r="H145" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I138" s="2">
+      <c r="I145" s="2">
         <v>0.8</v>
       </c>
-      <c r="J138" s="2">
-        <v>1</v>
-      </c>
-      <c r="K138" s="2">
+      <c r="J145" s="2">
+        <v>1</v>
+      </c>
+      <c r="K145" s="2">
         <v>1.3</v>
       </c>
-      <c r="L138" s="15"/>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
+      <c r="L145" s="15"/>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
         <v>174</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B146" t="s">
         <v>457</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C146" t="s">
         <v>455</v>
       </c>
-      <c r="D139">
+      <c r="D146">
         <v>36</v>
       </c>
-      <c r="E139">
+      <c r="E146">
         <v>12</v>
       </c>
-      <c r="F139" s="2">
-        <v>1</v>
-      </c>
-      <c r="G139" s="30">
+      <c r="F146" s="2">
+        <v>1</v>
+      </c>
+      <c r="G146" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
         <v>432</v>
       </c>
-      <c r="H139" s="9" t="s">
+      <c r="H146" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I139" s="2">
-        <v>1</v>
-      </c>
-      <c r="J139" s="2">
-        <v>1</v>
-      </c>
-      <c r="K139" s="2">
-        <v>1</v>
-      </c>
-      <c r="L139" s="15"/>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
+      <c r="I146" s="2">
+        <v>1</v>
+      </c>
+      <c r="J146" s="2">
+        <v>1</v>
+      </c>
+      <c r="K146" s="2">
+        <v>1</v>
+      </c>
+      <c r="L146" s="15"/>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
         <v>174</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B147" t="s">
         <v>469</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C147" t="s">
         <v>463</v>
       </c>
-      <c r="D140">
+      <c r="D147">
         <v>36</v>
       </c>
-      <c r="E140">
+      <c r="E147">
         <v>7</v>
       </c>
-      <c r="F140" s="2">
-        <v>1</v>
-      </c>
-      <c r="G140" s="30">
+      <c r="F147" s="2">
+        <v>1</v>
+      </c>
+      <c r="G147" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
         <v>252</v>
       </c>
-      <c r="H140" s="9" t="s">
+      <c r="H147" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I140" s="2">
+      <c r="I147" s="2">
         <v>0.8</v>
       </c>
-      <c r="J140" s="2">
-        <v>1</v>
-      </c>
-      <c r="K140" s="2">
+      <c r="J147" s="2">
+        <v>1</v>
+      </c>
+      <c r="K147" s="2">
         <v>1.3</v>
       </c>
-      <c r="L140" s="32"/>
-      <c r="M140" s="33"/>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="H141" s="13"/>
-      <c r="L141" s="15"/>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="L142" s="15"/>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="H143" s="13"/>
-      <c r="L143" s="15"/>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="H144" s="13"/>
-      <c r="L144" s="15"/>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="H145" s="13"/>
-      <c r="L145" s="15"/>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="H146" s="10"/>
-      <c r="L146" s="15"/>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="H147" s="13"/>
-      <c r="L147" s="15"/>
+      <c r="L147" s="32"/>
+      <c r="M147" s="33"/>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B148" s="36"/>
+      <c r="G148" s="30"/>
       <c r="H148" s="13"/>
       <c r="L148" s="15"/>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="I149"/>
       <c r="L149" s="15"/>
-      <c r="M149" s="12"/>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="I150"/>
+      <c r="H150" s="13"/>
       <c r="L150" s="15"/>
-      <c r="M150" s="12"/>
-    </row>
-    <row r="151" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A151"/>
-      <c r="B151"/>
-      <c r="C151"/>
-      <c r="D151"/>
-      <c r="E151"/>
-      <c r="F151" s="2"/>
-      <c r="G151" s="29"/>
-      <c r="H151"/>
-      <c r="I151"/>
-      <c r="J151" s="2"/>
-      <c r="K151" s="2"/>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H151" s="13"/>
       <c r="L151" s="15"/>
-      <c r="M151" s="12"/>
-      <c r="O151"/>
-    </row>
-    <row r="152" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A152"/>
-      <c r="B152"/>
-      <c r="C152"/>
-      <c r="D152"/>
-      <c r="E152"/>
-      <c r="F152" s="2"/>
-      <c r="G152" s="29"/>
-      <c r="H152"/>
-      <c r="I152"/>
-      <c r="J152" s="2"/>
-      <c r="K152" s="2"/>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H152" s="13"/>
       <c r="L152" s="15"/>
-      <c r="M152" s="12"/>
-      <c r="O152"/>
-    </row>
-    <row r="153" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A153"/>
-      <c r="B153"/>
-      <c r="C153"/>
-      <c r="D153"/>
-      <c r="E153"/>
-      <c r="F153" s="2"/>
-      <c r="G153" s="29"/>
-      <c r="H153"/>
-      <c r="I153"/>
-      <c r="J153" s="2"/>
-      <c r="K153" s="2"/>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H153" s="10"/>
       <c r="L153" s="15"/>
-      <c r="M153" s="12"/>
-      <c r="O153"/>
-    </row>
-    <row r="154" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A154"/>
-      <c r="B154"/>
-      <c r="C154"/>
-      <c r="D154"/>
-      <c r="E154"/>
-      <c r="F154" s="2"/>
-      <c r="G154" s="29"/>
-      <c r="H154"/>
-      <c r="I154"/>
-      <c r="J154" s="2"/>
-      <c r="K154" s="2"/>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H154" s="13"/>
       <c r="L154" s="15"/>
-      <c r="M154" s="12"/>
-      <c r="O154"/>
-    </row>
-    <row r="155" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A155"/>
-      <c r="B155"/>
-      <c r="C155"/>
-      <c r="D155"/>
-      <c r="E155"/>
-      <c r="F155" s="2"/>
-      <c r="G155" s="29"/>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H155" s="13"/>
-      <c r="I155"/>
-      <c r="J155" s="2"/>
-      <c r="K155" s="2"/>
       <c r="L155" s="15"/>
-      <c r="M155" s="12"/>
-      <c r="O155"/>
-    </row>
-    <row r="156" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A156"/>
-      <c r="B156"/>
-      <c r="C156"/>
-      <c r="D156"/>
-      <c r="E156"/>
-      <c r="F156" s="2"/>
-      <c r="G156" s="29"/>
-      <c r="H156"/>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I156"/>
-      <c r="J156" s="2"/>
-      <c r="K156" s="2"/>
       <c r="L156" s="15"/>
       <c r="M156" s="12"/>
-      <c r="O156"/>
-    </row>
-    <row r="157" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A157"/>
-      <c r="B157"/>
-      <c r="C157"/>
-      <c r="D157"/>
-      <c r="E157"/>
-      <c r="F157" s="2"/>
-      <c r="G157" s="29"/>
-      <c r="H157"/>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I157"/>
-      <c r="J157" s="2"/>
-      <c r="K157" s="2"/>
-      <c r="L157" s="2"/>
+      <c r="L157" s="15"/>
       <c r="M157" s="12"/>
-      <c r="O157"/>
+    </row>
+    <row r="158" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A158"/>
+      <c r="B158"/>
+      <c r="C158"/>
+      <c r="D158"/>
+      <c r="E158"/>
+      <c r="F158" s="2"/>
+      <c r="G158" s="29"/>
+      <c r="H158"/>
+      <c r="I158"/>
+      <c r="J158" s="2"/>
+      <c r="K158" s="2"/>
+      <c r="L158" s="15"/>
+      <c r="M158" s="12"/>
+      <c r="O158"/>
+    </row>
+    <row r="159" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A159"/>
+      <c r="B159"/>
+      <c r="C159"/>
+      <c r="D159"/>
+      <c r="E159"/>
+      <c r="F159" s="2"/>
+      <c r="G159" s="29"/>
+      <c r="H159"/>
+      <c r="I159"/>
+      <c r="J159" s="2"/>
+      <c r="K159" s="2"/>
+      <c r="L159" s="15"/>
+      <c r="M159" s="12"/>
+      <c r="O159"/>
+    </row>
+    <row r="160" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A160"/>
+      <c r="B160"/>
+      <c r="C160"/>
+      <c r="D160"/>
+      <c r="E160"/>
+      <c r="F160" s="2"/>
+      <c r="G160" s="29"/>
+      <c r="H160"/>
+      <c r="I160"/>
+      <c r="J160" s="2"/>
+      <c r="K160" s="2"/>
+      <c r="L160" s="15"/>
+      <c r="M160" s="12"/>
+      <c r="O160"/>
+    </row>
+    <row r="161" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A161"/>
+      <c r="B161"/>
+      <c r="C161"/>
+      <c r="D161"/>
+      <c r="E161"/>
+      <c r="F161" s="2"/>
+      <c r="G161" s="29"/>
+      <c r="H161"/>
+      <c r="I161"/>
+      <c r="J161" s="2"/>
+      <c r="K161" s="2"/>
+      <c r="L161" s="15"/>
+      <c r="M161" s="12"/>
+      <c r="O161"/>
+    </row>
+    <row r="162" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A162"/>
+      <c r="B162"/>
+      <c r="C162"/>
+      <c r="D162"/>
+      <c r="E162"/>
+      <c r="F162" s="2"/>
+      <c r="G162" s="29"/>
+      <c r="H162" s="13"/>
+      <c r="I162"/>
+      <c r="J162" s="2"/>
+      <c r="K162" s="2"/>
+      <c r="L162" s="15"/>
+      <c r="M162" s="12"/>
+      <c r="O162"/>
+    </row>
+    <row r="163" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A163"/>
+      <c r="B163"/>
+      <c r="C163"/>
+      <c r="D163"/>
+      <c r="E163"/>
+      <c r="F163" s="2"/>
+      <c r="G163" s="29"/>
+      <c r="H163"/>
+      <c r="I163"/>
+      <c r="J163" s="2"/>
+      <c r="K163" s="2"/>
+      <c r="L163" s="15"/>
+      <c r="M163" s="12"/>
+      <c r="O163"/>
+    </row>
+    <row r="164" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A164"/>
+      <c r="B164"/>
+      <c r="C164"/>
+      <c r="D164"/>
+      <c r="E164"/>
+      <c r="F164" s="2"/>
+      <c r="G164" s="29"/>
+      <c r="H164"/>
+      <c r="I164"/>
+      <c r="J164" s="2"/>
+      <c r="K164" s="2"/>
+      <c r="L164" s="2"/>
+      <c r="M164" s="12"/>
+      <c r="O164"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="G2:G19">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20:G32">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G33:G41">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -12585,7 +13098,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G20:G32">
+  <conditionalFormatting sqref="G42:G51">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -12597,7 +13110,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G33:G41">
+  <conditionalFormatting sqref="G52:G91">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -12609,7 +13122,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G42:G51">
+  <conditionalFormatting sqref="G92:G95">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -12621,8 +13134,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G52:G85">
-    <cfRule type="colorScale" priority="9">
+  <conditionalFormatting sqref="G96:G125">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12633,8 +13146,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G86:G89">
-    <cfRule type="colorScale" priority="8">
+  <conditionalFormatting sqref="G126:G141">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12645,8 +13158,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G90:G118">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="G142:G147">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12657,7 +13170,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G119:G130">
+  <conditionalFormatting sqref="G126:G137">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -12669,20 +13182,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G131:G134">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G135:G140">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="G138:G141">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/BarrageChart.xlsx
+++ b/BarrageChart.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SICA\Pictures\AL\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA984474-1DA9-407C-8848-09662A7FAF18}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202AE69A-FD0F-404C-A5BD-6000D7B9216B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Barrage - Frontline" sheetId="1" r:id="rId1"/>
     <sheet name="Skill Barrages" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -268,9 +267,6 @@
     <t>Yuugumo-Class Barrage</t>
   </si>
   <si>
-    <t>Makinami</t>
-  </si>
-  <si>
     <t>CL</t>
   </si>
   <si>
@@ -1348,9 +1344,6 @@
     <t>Bailey, Benson, Hobby, Kalk</t>
   </si>
   <si>
-    <t>Aulick, Bush, Charles Ausburne, Fletcher, Foote, Hazelwood, Jenkins, Nicholas, Radford, Spence, Thatcher, Kimberly, Mullany</t>
-  </si>
-  <si>
     <t>Le Hardi-Class Barrage</t>
   </si>
   <si>
@@ -1462,10 +1455,6 @@
     <t>Formidable</t>
   </si>
   <si>
-    <t xml:space="preserve">
-随伴之翼 (2 Fighters)</t>
-  </si>
-  <si>
     <t>Trento-Class Barrage</t>
   </si>
   <si>
@@ -1493,19 +1482,28 @@
     <t>Rose Bombardamento Small</t>
   </si>
   <si>
-    <t>变迁的记忆</t>
-  </si>
-  <si>
     <t>Giulio Cesare, Conte di Cavour</t>
   </si>
   <si>
-    <t>撒丁的威压 Big</t>
-  </si>
-  <si>
     <t>Giulio Cesare</t>
   </si>
   <si>
-    <t>撒丁的威压 Small</t>
+    <t>Supporting Wings (2 Fighters)</t>
+  </si>
+  <si>
+    <t>Sardegnian Coercion Big</t>
+  </si>
+  <si>
+    <t>Sardegnian Coercion Small</t>
+  </si>
+  <si>
+    <t>Fading Memories of Glory</t>
+  </si>
+  <si>
+    <t>Aulick, Bush, Charles Ausburne, Fletcher, Foote, Hazelwood, Jenkins, Nicholas, Radford, Spence, Thatcher, Kimberly, Mullany, Stanley</t>
+  </si>
+  <si>
+    <t>Makinami, Kiyonami</t>
   </si>
 </sst>
 </file>
@@ -2205,8 +2203,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O127"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="M108" sqref="M108"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2230,7 +2228,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2283,7 +2281,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -2355,7 +2353,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>438</v>
+        <v>489</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -2427,7 +2425,7 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -2535,7 +2533,7 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D9">
         <v>10</v>
@@ -2568,7 +2566,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C10" t="s">
         <v>24</v>
@@ -2604,10 +2602,10 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
+        <v>351</v>
+      </c>
+      <c r="C11" t="s">
         <v>352</v>
-      </c>
-      <c r="C11" t="s">
-        <v>353</v>
       </c>
       <c r="D11">
         <v>12</v>
@@ -2643,7 +2641,7 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D12">
         <v>10</v>
@@ -2676,7 +2674,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
@@ -2715,7 +2713,7 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C14" t="s">
         <v>31</v>
@@ -2751,7 +2749,7 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C15" t="s">
         <v>32</v>
@@ -2792,7 +2790,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C16" t="s">
         <v>34</v>
@@ -2828,7 +2826,7 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C17" t="s">
         <v>35</v>
@@ -2870,7 +2868,7 @@
         <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D18">
         <v>10</v>
@@ -2942,7 +2940,7 @@
         <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D20">
         <v>10</v>
@@ -3014,7 +3012,7 @@
         <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D22">
         <v>10</v>
@@ -3086,7 +3084,7 @@
         <v>43</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D24" s="3">
         <v>10</v>
@@ -3166,7 +3164,7 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C26" t="s">
         <v>48</v>
@@ -3207,7 +3205,7 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C27" t="s">
         <v>48</v>
@@ -3246,7 +3244,7 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C28" t="s">
         <v>52</v>
@@ -3288,7 +3286,7 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C29" t="s">
         <v>52</v>
@@ -3324,7 +3322,7 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C30" t="s">
         <v>54</v>
@@ -3363,7 +3361,7 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C31" t="s">
         <v>55</v>
@@ -3404,7 +3402,7 @@
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C32" t="s">
         <v>56</v>
@@ -3448,7 +3446,7 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C33" t="s">
         <v>58</v>
@@ -3556,7 +3554,7 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C36" t="s">
         <v>63</v>
@@ -3597,7 +3595,7 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C37" t="s">
         <v>63</v>
@@ -3674,7 +3672,7 @@
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C39" t="s">
         <v>66</v>
@@ -3710,7 +3708,7 @@
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C40" t="s">
         <v>66</v>
@@ -3791,7 +3789,7 @@
         <v>69</v>
       </c>
       <c r="C42" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D42">
         <v>10</v>
@@ -3824,10 +3822,10 @@
         <v>2</v>
       </c>
       <c r="B43" t="s">
+        <v>353</v>
+      </c>
+      <c r="C43" t="s">
         <v>354</v>
-      </c>
-      <c r="C43" t="s">
-        <v>355</v>
       </c>
       <c r="D43">
         <v>10</v>
@@ -3864,7 +3862,7 @@
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C44" s="8">
         <v>22</v>
@@ -3900,7 +3898,7 @@
         <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C45" s="8">
         <v>33</v>
@@ -3936,7 +3934,7 @@
         <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C46" t="s">
         <v>73</v>
@@ -3972,7 +3970,7 @@
         <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C47" t="s">
         <v>73</v>
@@ -4008,7 +4006,7 @@
         <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C48" t="s">
         <v>73</v>
@@ -4044,7 +4042,7 @@
         <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C49" t="s">
         <v>73</v>
@@ -4116,7 +4114,7 @@
         <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C51" t="s">
         <v>76</v>
@@ -4155,7 +4153,7 @@
         <v>77</v>
       </c>
       <c r="C52" t="s">
-        <v>78</v>
+        <v>490</v>
       </c>
       <c r="D52">
         <v>10</v>
@@ -4188,10 +4186,10 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
+        <v>355</v>
+      </c>
+      <c r="C53" t="s">
         <v>356</v>
-      </c>
-      <c r="C53" t="s">
-        <v>357</v>
       </c>
       <c r="D53">
         <v>10</v>
@@ -4225,10 +4223,10 @@
         <v>2</v>
       </c>
       <c r="B54" t="s">
+        <v>371</v>
+      </c>
+      <c r="C54" t="s">
         <v>372</v>
-      </c>
-      <c r="C54" t="s">
-        <v>373</v>
       </c>
       <c r="D54">
         <v>12</v>
@@ -4266,10 +4264,10 @@
         <v>2</v>
       </c>
       <c r="B55" t="s">
+        <v>371</v>
+      </c>
+      <c r="C55" t="s">
         <v>372</v>
-      </c>
-      <c r="C55" t="s">
-        <v>373</v>
       </c>
       <c r="D55">
         <v>78</v>
@@ -4305,10 +4303,10 @@
         <v>2</v>
       </c>
       <c r="B56" t="s">
+        <v>428</v>
+      </c>
+      <c r="C56" t="s">
         <v>429</v>
-      </c>
-      <c r="C56" t="s">
-        <v>430</v>
       </c>
       <c r="D56">
         <v>18</v>
@@ -4343,10 +4341,10 @@
         <v>2</v>
       </c>
       <c r="B57" t="s">
+        <v>428</v>
+      </c>
+      <c r="C57" t="s">
         <v>429</v>
-      </c>
-      <c r="C57" t="s">
-        <v>430</v>
       </c>
       <c r="D57">
         <v>45</v>
@@ -4381,10 +4379,10 @@
         <v>2</v>
       </c>
       <c r="B58" t="s">
+        <v>430</v>
+      </c>
+      <c r="C58" t="s">
         <v>431</v>
-      </c>
-      <c r="C58" t="s">
-        <v>432</v>
       </c>
       <c r="D58">
         <v>12</v>
@@ -4416,13 +4414,13 @@
     </row>
     <row r="59" spans="1:15" s="3" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B59" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="D59" s="3">
         <v>20</v>
@@ -4454,13 +4452,13 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B60" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C60" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D60">
         <v>20</v>
@@ -4490,13 +4488,13 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B61" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61" t="s">
         <v>84</v>
-      </c>
-      <c r="C61" t="s">
-        <v>85</v>
       </c>
       <c r="D61">
         <v>22</v>
@@ -4526,13 +4524,13 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B62" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C62" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D62">
         <v>10</v>
@@ -4562,13 +4560,13 @@
     </row>
     <row r="63" spans="1:15" s="3" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D63" s="3">
         <v>20</v>
@@ -4603,13 +4601,13 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C64" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D64">
         <v>18</v>
@@ -4639,13 +4637,13 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B65" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C65" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D65">
         <v>22</v>
@@ -4675,13 +4673,13 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B66" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C66" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D66">
         <v>20</v>
@@ -4711,13 +4709,13 @@
     </row>
     <row r="67" spans="1:15" s="3" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D67" s="3">
         <v>20</v>
@@ -4752,13 +4750,13 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B68" t="s">
+        <v>95</v>
+      </c>
+      <c r="C68" t="s">
         <v>96</v>
-      </c>
-      <c r="C68" t="s">
-        <v>97</v>
       </c>
       <c r="D68">
         <v>22</v>
@@ -4788,13 +4786,13 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B69" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C69" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D69">
         <v>20</v>
@@ -4824,13 +4822,13 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B70" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C70" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D70">
         <v>20</v>
@@ -4860,13 +4858,13 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B71" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C71" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D71">
         <v>26</v>
@@ -4897,13 +4895,13 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B72" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C72" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D72">
         <v>30</v>
@@ -4937,13 +4935,13 @@
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B73" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C73" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D73">
         <v>18</v>
@@ -4982,13 +4980,13 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B74" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D74">
         <v>20</v>
@@ -5019,13 +5017,13 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B75" t="s">
+        <v>103</v>
+      </c>
+      <c r="C75" t="s">
         <v>104</v>
-      </c>
-      <c r="C75" t="s">
-        <v>105</v>
       </c>
       <c r="D75">
         <v>22</v>
@@ -5056,13 +5054,13 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C76" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D76">
         <v>22</v>
@@ -5093,13 +5091,13 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B77" t="s">
+        <v>105</v>
+      </c>
+      <c r="C77" t="s">
         <v>106</v>
-      </c>
-      <c r="C77" t="s">
-        <v>107</v>
       </c>
       <c r="D77">
         <v>20</v>
@@ -5135,13 +5133,13 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C78" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D78">
         <v>18</v>
@@ -5177,13 +5175,13 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C79" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D79">
         <v>20</v>
@@ -5220,13 +5218,13 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" t="s">
+        <v>109</v>
+      </c>
+      <c r="C80" t="s">
         <v>110</v>
-      </c>
-      <c r="C80" t="s">
-        <v>111</v>
       </c>
       <c r="D80">
         <v>18</v>
@@ -5257,13 +5255,13 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B81" t="s">
+        <v>111</v>
+      </c>
+      <c r="C81" t="s">
         <v>112</v>
-      </c>
-      <c r="C81" t="s">
-        <v>113</v>
       </c>
       <c r="D81">
         <v>22</v>
@@ -5297,13 +5295,13 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B82" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C82" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D82">
         <v>22</v>
@@ -5334,13 +5332,13 @@
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B83" t="s">
+        <v>336</v>
+      </c>
+      <c r="C83" t="s">
         <v>337</v>
-      </c>
-      <c r="C83" t="s">
-        <v>338</v>
       </c>
       <c r="D83">
         <v>34</v>
@@ -5371,13 +5369,13 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B84" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C84" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D84">
         <v>22</v>
@@ -5409,13 +5407,13 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B85" t="s">
+        <v>373</v>
+      </c>
+      <c r="C85" t="s">
         <v>374</v>
-      </c>
-      <c r="C85" t="s">
-        <v>375</v>
       </c>
       <c r="D85">
         <v>20</v>
@@ -5447,13 +5445,13 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B86" t="s">
+        <v>420</v>
+      </c>
+      <c r="C86" t="s">
         <v>421</v>
-      </c>
-      <c r="C86" t="s">
-        <v>422</v>
       </c>
       <c r="D86">
         <v>34</v>
@@ -5488,13 +5486,13 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
+        <v>132</v>
+      </c>
+      <c r="B87" t="s">
         <v>133</v>
       </c>
-      <c r="B87" t="s">
-        <v>134</v>
-      </c>
       <c r="C87" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D87">
         <v>38</v>
@@ -5529,13 +5527,13 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B88" t="s">
+        <v>136</v>
+      </c>
+      <c r="C88" t="s">
         <v>137</v>
-      </c>
-      <c r="C88" t="s">
-        <v>138</v>
       </c>
       <c r="D88">
         <v>38</v>
@@ -5570,13 +5568,13 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B89" t="s">
+        <v>138</v>
+      </c>
+      <c r="C89" t="s">
         <v>139</v>
-      </c>
-      <c r="C89" t="s">
-        <v>140</v>
       </c>
       <c r="D89">
         <v>40</v>
@@ -5609,13 +5607,13 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B90" t="s">
+        <v>140</v>
+      </c>
+      <c r="C90" t="s">
         <v>141</v>
-      </c>
-      <c r="C90" t="s">
-        <v>142</v>
       </c>
       <c r="D90">
         <v>38</v>
@@ -5645,13 +5643,13 @@
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B91" t="s">
+        <v>142</v>
+      </c>
+      <c r="C91" t="s">
         <v>143</v>
-      </c>
-      <c r="C91" t="s">
-        <v>144</v>
       </c>
       <c r="D91">
         <v>40</v>
@@ -5689,13 +5687,13 @@
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B92" t="s">
+        <v>144</v>
+      </c>
+      <c r="C92" t="s">
         <v>145</v>
-      </c>
-      <c r="C92" t="s">
-        <v>146</v>
       </c>
       <c r="D92">
         <v>40</v>
@@ -5730,13 +5728,13 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B93" t="s">
+        <v>146</v>
+      </c>
+      <c r="C93" t="s">
         <v>147</v>
-      </c>
-      <c r="C93" t="s">
-        <v>148</v>
       </c>
       <c r="D93">
         <v>40</v>
@@ -5774,13 +5772,13 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B94" t="s">
+        <v>148</v>
+      </c>
+      <c r="C94" t="s">
         <v>149</v>
-      </c>
-      <c r="C94" t="s">
-        <v>150</v>
       </c>
       <c r="D94">
         <v>40</v>
@@ -5813,13 +5811,13 @@
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B95" t="s">
+        <v>148</v>
+      </c>
+      <c r="C95" t="s">
         <v>149</v>
-      </c>
-      <c r="C95" t="s">
-        <v>150</v>
       </c>
       <c r="D95">
         <v>40</v>
@@ -5849,13 +5847,13 @@
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B96" t="s">
+        <v>150</v>
+      </c>
+      <c r="C96" t="s">
         <v>151</v>
-      </c>
-      <c r="C96" t="s">
-        <v>152</v>
       </c>
       <c r="D96">
         <v>40</v>
@@ -5893,13 +5891,13 @@
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B97" t="s">
+        <v>152</v>
+      </c>
+      <c r="C97" t="s">
         <v>153</v>
-      </c>
-      <c r="C97" t="s">
-        <v>154</v>
       </c>
       <c r="D97">
         <v>38</v>
@@ -5929,13 +5927,13 @@
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B98" t="s">
+        <v>154</v>
+      </c>
+      <c r="C98" t="s">
         <v>155</v>
-      </c>
-      <c r="C98" t="s">
-        <v>156</v>
       </c>
       <c r="D98">
         <v>38</v>
@@ -5970,13 +5968,13 @@
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B99" t="s">
+        <v>156</v>
+      </c>
+      <c r="C99" t="s">
         <v>157</v>
-      </c>
-      <c r="C99" t="s">
-        <v>158</v>
       </c>
       <c r="D99">
         <v>38</v>
@@ -6006,13 +6004,13 @@
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B100" t="s">
+        <v>158</v>
+      </c>
+      <c r="C100" t="s">
         <v>159</v>
-      </c>
-      <c r="C100" t="s">
-        <v>160</v>
       </c>
       <c r="D100">
         <v>38</v>
@@ -6047,13 +6045,13 @@
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B101" t="s">
+        <v>160</v>
+      </c>
+      <c r="C101" t="s">
         <v>161</v>
-      </c>
-      <c r="C101" t="s">
-        <v>162</v>
       </c>
       <c r="D101">
         <v>45</v>
@@ -6083,13 +6081,13 @@
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B102" t="s">
+        <v>162</v>
+      </c>
+      <c r="C102" t="s">
         <v>163</v>
-      </c>
-      <c r="C102" t="s">
-        <v>164</v>
       </c>
       <c r="D102">
         <v>26</v>
@@ -6122,18 +6120,18 @@
         <v>3</v>
       </c>
       <c r="O102" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B103" t="s">
+        <v>164</v>
+      </c>
+      <c r="C103" t="s">
         <v>165</v>
-      </c>
-      <c r="C103" t="s">
-        <v>166</v>
       </c>
       <c r="D103">
         <v>30</v>
@@ -6171,13 +6169,13 @@
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B104" t="s">
+        <v>166</v>
+      </c>
+      <c r="C104" t="s">
         <v>167</v>
-      </c>
-      <c r="C104" t="s">
-        <v>168</v>
       </c>
       <c r="D104">
         <v>38</v>
@@ -6212,13 +6210,13 @@
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B105" t="s">
+        <v>168</v>
+      </c>
+      <c r="C105" t="s">
         <v>169</v>
-      </c>
-      <c r="C105" t="s">
-        <v>170</v>
       </c>
       <c r="D105">
         <v>30</v>
@@ -6251,13 +6249,13 @@
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B106" t="s">
+        <v>168</v>
+      </c>
+      <c r="C106" t="s">
         <v>169</v>
-      </c>
-      <c r="C106" t="s">
-        <v>170</v>
       </c>
       <c r="D106">
         <v>30</v>
@@ -6295,13 +6293,13 @@
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B107" t="s">
+        <v>170</v>
+      </c>
+      <c r="C107" t="s">
         <v>171</v>
-      </c>
-      <c r="C107" t="s">
-        <v>172</v>
       </c>
       <c r="D107">
         <v>40</v>
@@ -6339,13 +6337,13 @@
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B108" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C108" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D108">
         <v>30</v>
@@ -6377,13 +6375,13 @@
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B109" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C109" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D109">
         <v>35</v>
@@ -6415,13 +6413,13 @@
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B110" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C110" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D110">
         <v>30</v>
@@ -6451,18 +6449,18 @@
       <c r="L110" s="23"/>
       <c r="M110" s="24"/>
       <c r="O110" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B111" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C111" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D111">
         <v>42</v>
@@ -6494,13 +6492,13 @@
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B112" s="37" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C112" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D112">
         <v>38</v>
@@ -6531,13 +6529,13 @@
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B113" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C113" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D113">
         <v>40</v>
@@ -6553,7 +6551,7 @@
         <v>240</v>
       </c>
       <c r="H113" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="I113" s="2">
         <v>0.65</v>
@@ -6571,13 +6569,13 @@
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B114" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C114" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D114">
         <v>60</v>
@@ -6608,13 +6606,13 @@
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
+        <v>173</v>
+      </c>
+      <c r="B115" t="s">
         <v>174</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C115" t="s">
         <v>175</v>
-      </c>
-      <c r="C115" t="s">
-        <v>176</v>
       </c>
       <c r="D115">
         <v>60</v>
@@ -6645,13 +6643,13 @@
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B116" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C116" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D116">
         <v>60</v>
@@ -6682,13 +6680,13 @@
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B117" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C117" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D117">
         <v>60</v>
@@ -6719,13 +6717,13 @@
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B118" t="s">
+        <v>413</v>
+      </c>
+      <c r="C118" t="s">
         <v>414</v>
-      </c>
-      <c r="C118" t="s">
-        <v>415</v>
       </c>
       <c r="D118">
         <v>55</v>
@@ -6757,13 +6755,13 @@
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B119" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C119" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D119">
         <v>60</v>
@@ -6794,13 +6792,13 @@
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B120" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C120" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D120">
         <v>60</v>
@@ -6831,13 +6829,13 @@
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B121" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C121" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D121">
         <v>150</v>
@@ -6872,13 +6870,13 @@
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B122" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C122" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D122">
         <v>48</v>
@@ -6909,13 +6907,13 @@
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B123" t="s">
+        <v>366</v>
+      </c>
+      <c r="C123" t="s">
         <v>367</v>
-      </c>
-      <c r="C123" t="s">
-        <v>368</v>
       </c>
       <c r="D123">
         <v>55</v>
@@ -6947,13 +6945,13 @@
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B124" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C124" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D124">
         <v>60</v>
@@ -6984,13 +6982,13 @@
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B125" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C125" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D125">
         <v>60</v>
@@ -7021,13 +7019,13 @@
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B126" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C126" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D126">
         <v>60</v>
@@ -7122,8 +7120,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:O164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A126" sqref="A126"/>
+    <sheetView topLeftCell="B75" workbookViewId="0">
+      <selection activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7147,13 +7145,13 @@
   <sheetData>
     <row r="1" spans="1:15" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" t="s">
         <v>195</v>
-      </c>
-      <c r="C1" t="s">
-        <v>196</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
@@ -7197,10 +7195,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D2">
         <v>20</v>
@@ -7239,10 +7237,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D3">
         <v>156</v>
@@ -7276,10 +7274,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D4">
         <v>24</v>
@@ -7316,10 +7314,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D5">
         <v>156</v>
@@ -7353,10 +7351,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D6">
         <v>28</v>
@@ -7393,10 +7391,10 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D7">
         <v>156</v>
@@ -7430,10 +7428,10 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" t="s">
         <v>203</v>
-      </c>
-      <c r="C8" t="s">
-        <v>204</v>
       </c>
       <c r="D8">
         <v>32</v>
@@ -7470,10 +7468,10 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9" t="s">
         <v>203</v>
-      </c>
-      <c r="C9" t="s">
-        <v>204</v>
       </c>
       <c r="D9">
         <v>145</v>
@@ -7507,7 +7505,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C10" t="s">
         <v>31</v>
@@ -7547,10 +7545,10 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D11">
         <v>20</v>
@@ -7584,10 +7582,10 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D12">
         <v>23</v>
@@ -7624,10 +7622,10 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D13">
         <v>56</v>
@@ -7661,7 +7659,7 @@
         <v>1</v>
       </c>
       <c r="O13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -7669,10 +7667,10 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
+        <v>357</v>
+      </c>
+      <c r="C14" t="s">
         <v>358</v>
-      </c>
-      <c r="C14" t="s">
-        <v>359</v>
       </c>
       <c r="D14">
         <v>10</v>
@@ -7706,10 +7704,10 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
+        <v>357</v>
+      </c>
+      <c r="C15" t="s">
         <v>358</v>
-      </c>
-      <c r="C15" t="s">
-        <v>359</v>
       </c>
       <c r="D15">
         <v>104</v>
@@ -7743,10 +7741,10 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D16">
         <v>72</v>
@@ -7781,10 +7779,10 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
+        <v>388</v>
+      </c>
+      <c r="C17" t="s">
         <v>389</v>
-      </c>
-      <c r="C17" t="s">
-        <v>390</v>
       </c>
       <c r="D17">
         <v>104</v>
@@ -7819,10 +7817,10 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
+        <v>416</v>
+      </c>
+      <c r="C18" t="s">
         <v>417</v>
-      </c>
-      <c r="C18" t="s">
-        <v>418</v>
       </c>
       <c r="D18">
         <v>24</v>
@@ -7857,10 +7855,10 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
+        <v>418</v>
+      </c>
+      <c r="C19" t="s">
         <v>419</v>
-      </c>
-      <c r="C19" t="s">
-        <v>420</v>
       </c>
       <c r="D19">
         <v>36</v>
@@ -7895,13 +7893,13 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D20">
         <v>21</v>
@@ -7932,13 +7930,13 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D21">
         <v>386</v>
@@ -7977,13 +7975,13 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D22">
         <v>16</v>
@@ -8014,13 +8012,13 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D23">
         <v>24</v>
@@ -8054,18 +8052,18 @@
         <v>1</v>
       </c>
       <c r="O23" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B24" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D24">
         <v>40</v>
@@ -8094,18 +8092,18 @@
       </c>
       <c r="L24" s="15"/>
       <c r="O24" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D25">
         <v>40</v>
@@ -8134,18 +8132,18 @@
       </c>
       <c r="L25" s="15"/>
       <c r="O25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C26" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D26">
         <v>40</v>
@@ -8174,18 +8172,18 @@
       </c>
       <c r="L26" s="15"/>
       <c r="O26" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D27">
         <v>140</v>
@@ -8214,18 +8212,18 @@
       </c>
       <c r="L27" s="15"/>
       <c r="O27" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B28" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C28" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D28">
         <v>62</v>
@@ -8257,13 +8255,13 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B29" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C29" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D29">
         <v>72</v>
@@ -8295,13 +8293,13 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B30" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30">
         <v>56</v>
@@ -8332,13 +8330,13 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B31" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31">
         <v>32</v>
@@ -8369,13 +8367,13 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B32" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D32">
         <v>10</v>
@@ -8391,7 +8389,7 @@
         <v>10</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I32" s="2">
         <v>1</v>
@@ -8406,13 +8404,13 @@
     </row>
     <row r="33" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>224</v>
       </c>
       <c r="D33">
         <v>26</v>
@@ -8443,13 +8441,13 @@
     </row>
     <row r="34" spans="1:15" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>224</v>
       </c>
       <c r="D34" s="3">
         <v>26</v>
@@ -8484,13 +8482,13 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>224</v>
       </c>
       <c r="D35">
         <v>26</v>
@@ -8521,13 +8519,13 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B36" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C36" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D36">
         <v>104</v>
@@ -8556,18 +8554,18 @@
       </c>
       <c r="L36" s="15"/>
       <c r="O36" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B37" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C37" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D37">
         <v>7</v>
@@ -8596,18 +8594,18 @@
       </c>
       <c r="L37" s="15"/>
       <c r="O37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B38" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C38" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D38">
         <v>20</v>
@@ -8638,13 +8636,13 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>376</v>
+      </c>
+      <c r="B39" t="s">
         <v>377</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>378</v>
-      </c>
-      <c r="C39" t="s">
-        <v>379</v>
       </c>
       <c r="D39">
         <v>15</v>
@@ -8676,13 +8674,13 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>376</v>
+      </c>
+      <c r="B40" t="s">
         <v>377</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>378</v>
-      </c>
-      <c r="C40" t="s">
-        <v>379</v>
       </c>
       <c r="D40">
         <v>62</v>
@@ -8718,13 +8716,13 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B41" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C41" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D41">
         <v>62</v>
@@ -8740,7 +8738,7 @@
         <v>372</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I41" s="2">
         <v>1.35</v>
@@ -8760,13 +8758,13 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>227</v>
+      </c>
+      <c r="B42" t="s">
+        <v>231</v>
+      </c>
+      <c r="C42" t="s">
         <v>228</v>
-      </c>
-      <c r="B42" t="s">
-        <v>232</v>
-      </c>
-      <c r="C42" t="s">
-        <v>229</v>
       </c>
       <c r="D42">
         <v>174</v>
@@ -8799,13 +8797,13 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B43" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C43" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D43">
         <v>106</v>
@@ -8835,13 +8833,13 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B44" t="s">
+        <v>232</v>
+      </c>
+      <c r="C44" t="s">
         <v>233</v>
-      </c>
-      <c r="C44" t="s">
-        <v>234</v>
       </c>
       <c r="D44">
         <v>137</v>
@@ -8869,18 +8867,18 @@
       </c>
       <c r="L44" s="15"/>
       <c r="O44" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B45" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C45" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D45">
         <v>20</v>
@@ -8895,7 +8893,7 @@
         <v>2816</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I45" s="2">
         <v>1.25</v>
@@ -8913,18 +8911,18 @@
         <v>3</v>
       </c>
       <c r="O45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B46" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C46" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D46">
         <v>140</v>
@@ -8959,13 +8957,13 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B47" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C47" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D47">
         <v>30</v>
@@ -8995,13 +8993,13 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B48" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C48" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D48">
         <v>226</v>
@@ -9031,13 +9029,13 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B49" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C49" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D49">
         <v>156</v>
@@ -9067,13 +9065,13 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B50" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C50" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D50">
         <v>25</v>
@@ -9103,13 +9101,13 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D51">
         <v>124</v>
@@ -9139,13 +9137,13 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B52" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C52" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D52">
         <v>195</v>
@@ -9175,13 +9173,13 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B53" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C53" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D53">
         <v>35</v>
@@ -9216,13 +9214,13 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B54" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C54" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D54">
         <v>96</v>
@@ -9252,13 +9250,13 @@
     </row>
     <row r="55" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>245</v>
+      </c>
+      <c r="B55" t="s">
         <v>246</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" s="3" t="s">
         <v>247</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>248</v>
       </c>
       <c r="D55">
         <v>156</v>
@@ -9288,13 +9286,13 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B56" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C56" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D56">
         <v>120</v>
@@ -9324,13 +9322,13 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B57" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D57">
         <v>137</v>
@@ -9358,18 +9356,18 @@
       </c>
       <c r="L57" s="15"/>
       <c r="O57" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B58" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D58">
         <v>154</v>
@@ -9397,18 +9395,18 @@
       </c>
       <c r="L58" s="15"/>
       <c r="O58" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B59" t="s">
+        <v>343</v>
+      </c>
+      <c r="C59" s="8" t="s">
         <v>344</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>345</v>
       </c>
       <c r="D59">
         <v>184</v>
@@ -9438,18 +9436,18 @@
       <c r="L59" s="21"/>
       <c r="M59" s="22"/>
       <c r="O59" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B60" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C60" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D60">
         <v>108</v>
@@ -9479,13 +9477,13 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B61" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C61" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D61">
         <v>174</v>
@@ -9515,13 +9513,13 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B62" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C62" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D62">
         <v>20</v>
@@ -9556,13 +9554,13 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B63" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C63" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D63">
         <v>104</v>
@@ -9593,18 +9591,18 @@
         <v>1</v>
       </c>
       <c r="O63" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B64" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C64" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D64">
         <v>104</v>
@@ -9636,18 +9634,18 @@
         <v>1</v>
       </c>
       <c r="O64" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B65" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C65" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D65">
         <v>104</v>
@@ -9679,18 +9677,18 @@
         <v>0</v>
       </c>
       <c r="O65" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B66" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C66" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D66">
         <v>158</v>
@@ -9718,18 +9716,18 @@
       </c>
       <c r="L66" s="15"/>
       <c r="O66" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B67" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C67" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D67">
         <v>125</v>
@@ -9764,13 +9762,13 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B68" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C68" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D68">
         <v>125</v>
@@ -9805,13 +9803,13 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B69" t="s">
+        <v>379</v>
+      </c>
+      <c r="C69" t="s">
         <v>380</v>
-      </c>
-      <c r="C69" t="s">
-        <v>381</v>
       </c>
       <c r="D69">
         <v>239</v>
@@ -9841,18 +9839,18 @@
       <c r="L69" s="26"/>
       <c r="M69" s="27"/>
       <c r="O69" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B70" t="s">
+        <v>379</v>
+      </c>
+      <c r="C70" t="s">
         <v>380</v>
-      </c>
-      <c r="C70" t="s">
-        <v>381</v>
       </c>
       <c r="D70">
         <v>35</v>
@@ -9886,18 +9884,18 @@
         <v>1</v>
       </c>
       <c r="O70" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B71" t="s">
+        <v>382</v>
+      </c>
+      <c r="C71" t="s">
         <v>383</v>
-      </c>
-      <c r="C71" t="s">
-        <v>384</v>
       </c>
       <c r="D71">
         <v>54</v>
@@ -9929,13 +9927,13 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B72" t="s">
+        <v>382</v>
+      </c>
+      <c r="C72" t="s">
         <v>383</v>
-      </c>
-      <c r="C72" t="s">
-        <v>384</v>
       </c>
       <c r="D72">
         <v>54</v>
@@ -9967,13 +9965,13 @@
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B73" t="s">
+        <v>382</v>
+      </c>
+      <c r="C73" t="s">
         <v>383</v>
-      </c>
-      <c r="C73" t="s">
-        <v>384</v>
       </c>
       <c r="D73">
         <v>54</v>
@@ -10005,13 +10003,13 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B74" t="s">
+        <v>384</v>
+      </c>
+      <c r="C74" t="s">
         <v>385</v>
-      </c>
-      <c r="C74" t="s">
-        <v>386</v>
       </c>
       <c r="D74">
         <v>46</v>
@@ -10043,13 +10041,13 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B75" t="s">
+        <v>384</v>
+      </c>
+      <c r="C75" t="s">
         <v>385</v>
-      </c>
-      <c r="C75" t="s">
-        <v>386</v>
       </c>
       <c r="D75">
         <v>181</v>
@@ -10085,13 +10083,13 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B76" t="s">
+        <v>393</v>
+      </c>
+      <c r="C76" t="s">
         <v>394</v>
-      </c>
-      <c r="C76" t="s">
-        <v>395</v>
       </c>
       <c r="D76">
         <v>62</v>
@@ -10123,13 +10121,13 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B77" t="s">
+        <v>393</v>
+      </c>
+      <c r="C77" t="s">
         <v>394</v>
-      </c>
-      <c r="C77" t="s">
-        <v>395</v>
       </c>
       <c r="D77">
         <v>144</v>
@@ -10161,13 +10159,13 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B78" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C78" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D78">
         <v>72</v>
@@ -10199,13 +10197,13 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B79" t="s">
+        <v>405</v>
+      </c>
+      <c r="C79" t="s">
         <v>406</v>
-      </c>
-      <c r="C79" t="s">
-        <v>407</v>
       </c>
       <c r="D79">
         <v>110</v>
@@ -10237,13 +10235,13 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B80" t="s">
+        <v>405</v>
+      </c>
+      <c r="C80" t="s">
         <v>406</v>
-      </c>
-      <c r="C80" t="s">
-        <v>407</v>
       </c>
       <c r="D80">
         <v>20</v>
@@ -10279,13 +10277,13 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B81" t="s">
+        <v>407</v>
+      </c>
+      <c r="C81" t="s">
         <v>408</v>
-      </c>
-      <c r="C81" t="s">
-        <v>409</v>
       </c>
       <c r="D81">
         <v>121</v>
@@ -10315,18 +10313,18 @@
       <c r="L81" s="26"/>
       <c r="M81" s="27"/>
       <c r="O81" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B82" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C82" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D82">
         <v>138</v>
@@ -10356,18 +10354,18 @@
       <c r="L82" s="26"/>
       <c r="M82" s="27"/>
       <c r="O82" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B83" t="s">
+        <v>407</v>
+      </c>
+      <c r="C83" t="s">
         <v>408</v>
-      </c>
-      <c r="C83" t="s">
-        <v>409</v>
       </c>
       <c r="D83">
         <v>20</v>
@@ -10397,18 +10395,18 @@
       <c r="L83" s="26"/>
       <c r="M83" s="27"/>
       <c r="O83" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B84" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C84" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D84">
         <v>170</v>
@@ -10440,13 +10438,13 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B85" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C85" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D85">
         <v>20</v>
@@ -10476,18 +10474,18 @@
       <c r="L85" s="32"/>
       <c r="M85" s="33"/>
       <c r="O85" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B86" s="37" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C86" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D86">
         <v>174</v>
@@ -10518,13 +10516,13 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B87" s="37" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C87" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D87">
         <v>174</v>
@@ -10555,13 +10553,13 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B88" s="37" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C88" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D88">
         <v>20</v>
@@ -10588,17 +10586,22 @@
       <c r="K88" s="2">
         <v>0.6</v>
       </c>
-      <c r="L88" s="15"/>
+      <c r="L88" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="M88" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B89" s="37" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C89" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D89">
         <v>96</v>
@@ -10629,13 +10632,13 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B90" s="37" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C90" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="D90">
         <v>140</v>
@@ -10662,17 +10665,22 @@
       <c r="K90" s="2">
         <v>0.7</v>
       </c>
-      <c r="L90" s="15"/>
+      <c r="L90" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="M90" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B91" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C91" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="D91">
         <v>30</v>
@@ -10703,13 +10711,13 @@
     </row>
     <row r="92" spans="1:15" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B92" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C92" s="3" t="s">
         <v>268</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>269</v>
       </c>
       <c r="D92" s="3">
         <v>108</v>
@@ -10745,13 +10753,13 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B93" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>268</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>269</v>
       </c>
       <c r="D93">
         <v>108</v>
@@ -10781,13 +10789,13 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
+        <v>269</v>
+      </c>
+      <c r="B94" t="s">
+        <v>271</v>
+      </c>
+      <c r="C94" t="s">
         <v>270</v>
-      </c>
-      <c r="B94" t="s">
-        <v>272</v>
-      </c>
-      <c r="C94" t="s">
-        <v>271</v>
       </c>
       <c r="D94">
         <v>72</v>
@@ -10822,13 +10830,13 @@
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
+        <v>269</v>
+      </c>
+      <c r="B95" t="s">
+        <v>271</v>
+      </c>
+      <c r="C95" t="s">
         <v>270</v>
-      </c>
-      <c r="B95" t="s">
-        <v>272</v>
-      </c>
-      <c r="C95" t="s">
-        <v>271</v>
       </c>
       <c r="D95">
         <v>108</v>
@@ -10858,13 +10866,13 @@
     </row>
     <row r="96" spans="1:15" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>273</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>274</v>
       </c>
       <c r="D96" s="3">
         <v>235</v>
@@ -10879,7 +10887,7 @@
         <v>940</v>
       </c>
       <c r="H96" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I96" s="5">
         <v>0.8</v>
@@ -10896,13 +10904,13 @@
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B97" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C97" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D97">
         <v>222</v>
@@ -10917,7 +10925,7 @@
         <v>2664</v>
       </c>
       <c r="H97" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I97" s="2">
         <v>0.8</v>
@@ -10932,13 +10940,13 @@
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B98" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C98" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D98">
         <v>291</v>
@@ -10953,7 +10961,7 @@
         <v>873</v>
       </c>
       <c r="H98" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I98" s="2">
         <v>0.7</v>
@@ -10966,18 +10974,18 @@
       </c>
       <c r="L98" s="15"/>
       <c r="O98" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B99" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C99" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D99">
         <v>111</v>
@@ -10992,7 +11000,7 @@
         <v>666</v>
       </c>
       <c r="H99" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I99" s="2">
         <v>0.8</v>
@@ -11005,18 +11013,18 @@
       </c>
       <c r="L99" s="15"/>
       <c r="O99" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="100" spans="1:15" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D100" s="3">
         <v>360</v>
@@ -11031,7 +11039,7 @@
         <v>1080</v>
       </c>
       <c r="H100" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I100" s="5">
         <v>0.8</v>
@@ -11046,18 +11054,18 @@
       <c r="M100" s="18"/>
       <c r="N100" s="7"/>
       <c r="O100" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B101" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C101" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D101">
         <v>70</v>
@@ -11072,7 +11080,7 @@
         <v>210</v>
       </c>
       <c r="H101" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I101" s="5">
         <v>1</v>
@@ -11085,18 +11093,18 @@
       </c>
       <c r="L101" s="15"/>
       <c r="O101" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B102" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C102" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D102">
         <v>120</v>
@@ -11129,18 +11137,18 @@
         <v>3</v>
       </c>
       <c r="O102" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B103" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C103" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D103">
         <v>336</v>
@@ -11155,7 +11163,7 @@
         <v>672</v>
       </c>
       <c r="H103" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I103" s="2">
         <v>0.7</v>
@@ -11173,18 +11181,18 @@
         <v>2</v>
       </c>
       <c r="O103" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B104" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C104" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D104">
         <v>121</v>
@@ -11199,7 +11207,7 @@
         <v>484</v>
       </c>
       <c r="H104" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I104" s="2">
         <v>0.8</v>
@@ -11217,18 +11225,18 @@
         <v>2</v>
       </c>
       <c r="O104" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B105" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C105" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D105">
         <v>202</v>
@@ -11243,7 +11251,7 @@
         <v>808</v>
       </c>
       <c r="H105" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I105" s="2">
         <v>0.8</v>
@@ -11258,18 +11266,18 @@
         <v>1</v>
       </c>
       <c r="O105" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B106" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C106" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D106">
         <v>260</v>
@@ -11284,7 +11292,7 @@
         <v>6240</v>
       </c>
       <c r="H106" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I106" s="2">
         <v>0.8</v>
@@ -11297,18 +11305,18 @@
       </c>
       <c r="L106" s="15"/>
       <c r="O106" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B107" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C107" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D107">
         <v>240</v>
@@ -11323,7 +11331,7 @@
         <v>4320</v>
       </c>
       <c r="H107" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I107" s="2">
         <v>0.8</v>
@@ -11338,13 +11346,13 @@
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B108" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C108" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D108">
         <v>301</v>
@@ -11359,7 +11367,7 @@
         <v>2408</v>
       </c>
       <c r="H108" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I108" s="2">
         <v>0.8</v>
@@ -11372,18 +11380,18 @@
       </c>
       <c r="L108" s="15"/>
       <c r="O108" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B109" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C109" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D109">
         <v>176</v>
@@ -11398,7 +11406,7 @@
         <v>431.2</v>
       </c>
       <c r="H109" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I109" s="2">
         <v>1</v>
@@ -11411,21 +11419,21 @@
       </c>
       <c r="L109" s="15"/>
       <c r="N109" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O109" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="110" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D110">
         <v>172</v>
@@ -11440,7 +11448,7 @@
         <v>344</v>
       </c>
       <c r="H110" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I110" s="2">
         <v>0.8</v>
@@ -11455,13 +11463,13 @@
     </row>
     <row r="111" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C111" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D111">
         <v>226</v>
@@ -11476,7 +11484,7 @@
         <v>226</v>
       </c>
       <c r="H111" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I111" s="2">
         <v>0.8</v>
@@ -11489,18 +11497,18 @@
       </c>
       <c r="L111" s="15"/>
       <c r="O111" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="112" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C112" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D112">
         <v>96</v>
@@ -11515,7 +11523,7 @@
         <v>192</v>
       </c>
       <c r="H112" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I112" s="2">
         <v>0.8</v>
@@ -11528,18 +11536,18 @@
       </c>
       <c r="L112" s="15"/>
       <c r="O112" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B113" t="s">
+        <v>346</v>
+      </c>
+      <c r="C113" t="s">
         <v>347</v>
-      </c>
-      <c r="C113" t="s">
-        <v>348</v>
       </c>
       <c r="D113">
         <v>222</v>
@@ -11555,7 +11563,7 @@
         <v>2664</v>
       </c>
       <c r="H113" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I113" s="2">
         <v>0.8</v>
@@ -11570,13 +11578,13 @@
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B114" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C114" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D114">
         <v>121</v>
@@ -11592,7 +11600,7 @@
         <v>484</v>
       </c>
       <c r="H114" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I114" s="2">
         <v>0.8</v>
@@ -11605,18 +11613,18 @@
       </c>
       <c r="L114" s="15"/>
       <c r="O114" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B115" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C115" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D115">
         <v>456</v>
@@ -11632,7 +11640,7 @@
         <v>912</v>
       </c>
       <c r="H115" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I115" s="2">
         <v>0.7</v>
@@ -11645,18 +11653,18 @@
       </c>
       <c r="L115" s="15"/>
       <c r="O115" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B116" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C116" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D116">
         <v>121</v>
@@ -11672,7 +11680,7 @@
         <v>484</v>
       </c>
       <c r="H116" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I116" s="2">
         <v>0.8</v>
@@ -11685,18 +11693,18 @@
       </c>
       <c r="L116" s="15"/>
       <c r="O116" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B117" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C117" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D117">
         <v>240</v>
@@ -11725,18 +11733,18 @@
       </c>
       <c r="L117" s="15"/>
       <c r="O117" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B118" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C118" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D118">
         <v>322</v>
@@ -11752,7 +11760,7 @@
         <v>966</v>
       </c>
       <c r="H118" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I118" s="2">
         <v>0.8</v>
@@ -11766,18 +11774,18 @@
       <c r="L118" s="26"/>
       <c r="M118" s="27"/>
       <c r="O118" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B119" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C119" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D119">
         <v>138</v>
@@ -11793,7 +11801,7 @@
         <v>828</v>
       </c>
       <c r="H119" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I119" s="2">
         <v>0.8</v>
@@ -11807,18 +11815,18 @@
       <c r="L119" s="26"/>
       <c r="M119" s="27"/>
       <c r="O119" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B120" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C120" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D120">
         <v>28</v>
@@ -11850,13 +11858,13 @@
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B121" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C121" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D121">
         <v>20</v>
@@ -11888,13 +11896,13 @@
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B122" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C122" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D122">
         <v>31</v>
@@ -11926,13 +11934,13 @@
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B123" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C123" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D123">
         <v>226</v>
@@ -11948,7 +11956,7 @@
         <v>678</v>
       </c>
       <c r="H123" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I123" s="2">
         <v>0.8</v>
@@ -11962,18 +11970,18 @@
       <c r="L123" s="26"/>
       <c r="M123" s="27"/>
       <c r="O123" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B124" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C124" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D124">
         <v>96</v>
@@ -11989,7 +11997,7 @@
         <v>576</v>
       </c>
       <c r="H124" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I124" s="2">
         <v>0.8</v>
@@ -12003,18 +12011,18 @@
       <c r="L124" s="26"/>
       <c r="M124" s="27"/>
       <c r="O124" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="C125" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D125">
         <v>240</v>
@@ -12030,7 +12038,7 @@
         <v>2880</v>
       </c>
       <c r="H125" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I125" s="2">
         <v>0.8</v>
@@ -12043,18 +12051,18 @@
       </c>
       <c r="L125" s="15"/>
       <c r="O125" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B126" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C126" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D126">
         <v>202</v>
@@ -12070,7 +12078,7 @@
         <v>2424</v>
       </c>
       <c r="H126" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I126" s="2">
         <v>0.8</v>
@@ -12085,13 +12093,13 @@
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B127" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C127" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D127">
         <v>240</v>
@@ -12107,7 +12115,7 @@
         <v>2160</v>
       </c>
       <c r="H127" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I127" s="2">
         <v>0.8</v>
@@ -12122,13 +12130,13 @@
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B128" t="s">
+        <v>318</v>
+      </c>
+      <c r="C128" t="s">
         <v>319</v>
-      </c>
-      <c r="C128" t="s">
-        <v>320</v>
       </c>
       <c r="D128">
         <v>225</v>
@@ -12157,18 +12165,18 @@
       </c>
       <c r="L128" s="15"/>
       <c r="O128" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B129" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C129" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D129">
         <v>332</v>
@@ -12184,7 +12192,7 @@
         <v>332</v>
       </c>
       <c r="H129" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I129" s="2">
         <v>0.8</v>
@@ -12197,18 +12205,18 @@
       </c>
       <c r="L129" s="15"/>
       <c r="O129" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B130" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C130" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D130">
         <v>138</v>
@@ -12224,7 +12232,7 @@
         <v>276</v>
       </c>
       <c r="H130" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I130" s="2">
         <v>0.8</v>
@@ -12237,18 +12245,18 @@
       </c>
       <c r="L130" s="15"/>
       <c r="O130" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B131" t="s">
+        <v>338</v>
+      </c>
+      <c r="C131" t="s">
         <v>339</v>
-      </c>
-      <c r="C131" t="s">
-        <v>340</v>
       </c>
       <c r="D131">
         <v>288</v>
@@ -12264,7 +12272,7 @@
         <v>1728</v>
       </c>
       <c r="H131" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I131" s="2">
         <v>0.8</v>
@@ -12277,18 +12285,18 @@
       </c>
       <c r="L131" s="15"/>
       <c r="O131" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B132" t="s">
+        <v>348</v>
+      </c>
+      <c r="C132" t="s">
         <v>349</v>
-      </c>
-      <c r="C132" t="s">
-        <v>350</v>
       </c>
       <c r="D132">
         <v>207</v>
@@ -12319,13 +12327,13 @@
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B133" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C133" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D133">
         <v>207</v>
@@ -12356,13 +12364,13 @@
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B134" t="s">
+        <v>423</v>
+      </c>
+      <c r="C134" t="s">
         <v>424</v>
-      </c>
-      <c r="C134" t="s">
-        <v>425</v>
       </c>
       <c r="D134">
         <v>294</v>
@@ -12378,7 +12386,7 @@
         <v>294</v>
       </c>
       <c r="H134" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I134" s="2">
         <v>1</v>
@@ -12396,18 +12404,18 @@
         <v>3</v>
       </c>
       <c r="O134" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B135" t="s">
+        <v>423</v>
+      </c>
+      <c r="C135" t="s">
         <v>424</v>
-      </c>
-      <c r="C135" t="s">
-        <v>425</v>
       </c>
       <c r="D135">
         <v>248</v>
@@ -12423,7 +12431,7 @@
         <v>744</v>
       </c>
       <c r="H135" s="10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I135" s="2">
         <v>1</v>
@@ -12439,13 +12447,13 @@
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B136" t="s">
+        <v>423</v>
+      </c>
+      <c r="C136" t="s">
         <v>424</v>
-      </c>
-      <c r="C136" t="s">
-        <v>425</v>
       </c>
       <c r="D136">
         <v>72</v>
@@ -12461,7 +12469,7 @@
         <v>1728</v>
       </c>
       <c r="H136" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I136" s="2">
         <v>1</v>
@@ -12477,13 +12485,13 @@
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B137" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C137" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D137">
         <v>380</v>
@@ -12499,7 +12507,7 @@
         <v>2280</v>
       </c>
       <c r="H137" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I137" s="2">
         <v>0.8</v>
@@ -12515,13 +12523,13 @@
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B138" t="s">
+        <v>359</v>
+      </c>
+      <c r="C138" t="s">
         <v>360</v>
-      </c>
-      <c r="C138" t="s">
-        <v>361</v>
       </c>
       <c r="D138">
         <v>173</v>
@@ -12537,7 +12545,7 @@
         <v>2595</v>
       </c>
       <c r="H138" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I138" s="2">
         <v>0.8</v>
@@ -12550,18 +12558,18 @@
       </c>
       <c r="L138" s="15"/>
       <c r="O138" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B139" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C139" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D139">
         <v>100</v>
@@ -12591,13 +12599,13 @@
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B140" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C140" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D140">
         <v>332</v>
@@ -12613,7 +12621,7 @@
         <v>664</v>
       </c>
       <c r="H140" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I140" s="2">
         <v>0.8</v>
@@ -12626,18 +12634,18 @@
       </c>
       <c r="L140" s="15"/>
       <c r="O140" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B141" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C141" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D141">
         <v>276</v>
@@ -12653,7 +12661,7 @@
         <v>552</v>
       </c>
       <c r="H141" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I141" s="2">
         <v>0.8</v>
@@ -12666,18 +12674,18 @@
       </c>
       <c r="L141" s="15"/>
       <c r="O141" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B142" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C142" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D142">
         <v>50</v>
@@ -12709,13 +12717,13 @@
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B143" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C143" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D143">
         <v>48</v>
@@ -12730,7 +12738,7 @@
         <v>288</v>
       </c>
       <c r="H143" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I143" s="2">
         <v>0.8</v>
@@ -12745,18 +12753,18 @@
       <c r="M143"/>
       <c r="N143"/>
       <c r="O143" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B144" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C144" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D144">
         <v>40</v>
@@ -12771,7 +12779,7 @@
         <v>240</v>
       </c>
       <c r="H144" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I144" s="2">
         <v>0.8</v>
@@ -12790,18 +12798,18 @@
       </c>
       <c r="N144"/>
       <c r="O144" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B145" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C145" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D145">
         <v>60</v>
@@ -12832,13 +12840,13 @@
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B146" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C146" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D146">
         <v>36</v>
@@ -12869,13 +12877,13 @@
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B147" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C147" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D147">
         <v>36</v>

--- a/BarrageChart.xlsx
+++ b/BarrageChart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SICA\Pictures\AL\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202AE69A-FD0F-404C-A5BD-6000D7B9216B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79238E16-5F6E-4635-870F-142C5AC6A913}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Barrage - Frontline" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="501">
   <si>
     <t>Barrage Name (Skill Level 2)</t>
   </si>
@@ -1504,6 +1504,36 @@
   </si>
   <si>
     <t>Makinami, Kiyonami</t>
+  </si>
+  <si>
+    <t>风雨舞踏</t>
+  </si>
+  <si>
+    <t>Shigure Kai</t>
+  </si>
+  <si>
+    <t>四神之印</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>Column5</t>
+  </si>
+  <si>
+    <t>Column6</t>
+  </si>
+  <si>
+    <t>Buffs the specific Anshan's main gun damage by 16% and strengthens barrage</t>
   </si>
 </sst>
 </file>
@@ -1914,9 +1944,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Barrage4" displayName="Barrage4" ref="A1:O147" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="A1:O147" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Barrage4" displayName="Barrage4" ref="A1:U149" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="A1:U149" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Type"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Skill Name (Max Level)"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Ship"/>
@@ -1932,6 +1962,12 @@
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="Burn Priority" dataDxfId="1"/>
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="AP Pen" dataDxfId="0"/>
     <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="Extra"/>
+    <tableColumn id="16" xr3:uid="{EBC71361-83BA-40C0-8CF1-838EEF6B6E1C}" name="Column1"/>
+    <tableColumn id="17" xr3:uid="{B4C32970-A29B-4B0C-BA3B-110A64739CEF}" name="Column2"/>
+    <tableColumn id="18" xr3:uid="{8F88F34B-C88D-4306-ADBD-3F6ECB0E53BD}" name="Column3"/>
+    <tableColumn id="19" xr3:uid="{CFD0FBC1-4589-4E89-93D0-EA80DB867C79}" name="Column4"/>
+    <tableColumn id="20" xr3:uid="{62E949CD-23DA-4711-B719-DE064ED47742}" name="Column5"/>
+    <tableColumn id="21" xr3:uid="{BB304EBC-2941-44B1-A903-A44BD8AEFD21}" name="Column6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2203,8 +2239,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5445,7 +5481,7 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="B86" t="s">
         <v>420</v>
@@ -7118,10 +7154,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:O164"/>
+  <dimension ref="A1:U166"/>
   <sheetViews>
-    <sheetView topLeftCell="B75" workbookViewId="0">
-      <selection activeCell="F88" sqref="F88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7143,7 +7179,7 @@
     <col min="15" max="15" width="32.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>185</v>
       </c>
@@ -7189,8 +7225,26 @@
       <c r="O1" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P1" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -7232,7 +7286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -7269,7 +7323,7 @@
       </c>
       <c r="L3" s="15"/>
     </row>
-    <row r="4" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -7309,7 +7363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -7346,7 +7400,7 @@
       </c>
       <c r="L5" s="15"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -7386,7 +7440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -7423,7 +7477,7 @@
       </c>
       <c r="L7" s="15"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -7463,7 +7517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -7500,7 +7554,7 @@
       </c>
       <c r="L9" s="15"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -7540,7 +7594,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -7577,7 +7631,7 @@
       </c>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -7617,7 +7671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -7662,7 +7716,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -7699,7 +7753,7 @@
       </c>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -7736,7 +7790,7 @@
       </c>
       <c r="L15" s="15"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -7774,7 +7828,7 @@
       <c r="L16" s="26"/>
       <c r="M16" s="27"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -7812,7 +7866,7 @@
       <c r="L17" s="26"/>
       <c r="M17" s="27"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -7850,7 +7904,7 @@
       <c r="L18" s="26"/>
       <c r="M18" s="27"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -7891,110 +7945,110 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>212</v>
+        <v>491</v>
       </c>
       <c r="C20" t="s">
-        <v>210</v>
+        <v>492</v>
       </c>
       <c r="D20">
-        <v>21</v>
+        <v>134</v>
       </c>
       <c r="E20">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F20" s="2">
         <v>1</v>
       </c>
       <c r="G20" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>504</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>9</v>
+        <v>804</v>
+      </c>
+      <c r="H20" t="s">
+        <v>49</v>
       </c>
       <c r="I20" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J20" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K20" s="2">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="L20" s="15"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>211</v>
+        <v>493</v>
       </c>
       <c r="C21" t="s">
-        <v>210</v>
+        <v>60</v>
       </c>
       <c r="D21">
-        <v>386</v>
+        <v>18</v>
       </c>
       <c r="E21">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F21" s="2">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="G21" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>6948</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I21" s="2">
-        <v>0.7</v>
+        <v>450</v>
+      </c>
+      <c r="H21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21">
+        <v>130</v>
       </c>
       <c r="J21" s="2">
-        <v>1.1000000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="K21" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="L21" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="M21" s="17">
-        <v>2</v>
-      </c>
-      <c r="N21" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+      <c r="L21" s="15"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="6"/>
+      <c r="U21" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>78</v>
       </c>
       <c r="B22" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C22" t="s">
         <v>210</v>
       </c>
       <c r="D22">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E22">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="F22" s="2">
         <v>1</v>
       </c>
       <c r="G22" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>992</v>
+        <v>504</v>
       </c>
       <c r="H22" s="9" t="s">
         <v>9</v>
@@ -8003,144 +8057,146 @@
         <v>1</v>
       </c>
       <c r="J22" s="2">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="K22" s="2">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="L22" s="15"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>78</v>
       </c>
       <c r="B23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C23" t="s">
-        <v>112</v>
+        <v>210</v>
       </c>
       <c r="D23">
-        <v>24</v>
+        <v>386</v>
       </c>
       <c r="E23">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F23" s="2">
         <v>1</v>
       </c>
       <c r="G23" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>720</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>33</v>
+        <v>6948</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="I23" s="2">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="J23" s="2">
-        <v>0.6</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K23" s="2">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="L23" s="15">
-        <v>0.01</v>
+        <v>0.2</v>
       </c>
       <c r="M23" s="17">
-        <v>1</v>
-      </c>
-      <c r="O23" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="N23" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>78</v>
       </c>
       <c r="B24" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C24" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D24">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="F24" s="2">
-        <v>1.1499999999999999</v>
+        <v>1</v>
       </c>
       <c r="G24" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>138</v>
+        <v>992</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="I24" s="2">
         <v>1</v>
       </c>
       <c r="J24" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K24" s="2">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="L24" s="15"/>
-      <c r="O24" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>78</v>
       </c>
       <c r="B25" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C25" t="s">
-        <v>215</v>
+        <v>112</v>
       </c>
       <c r="D25">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="F25" s="2">
-        <v>1.45</v>
+        <v>1</v>
       </c>
       <c r="G25" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>348</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>49</v>
+        <v>720</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="I25" s="2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="J25" s="2">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="K25" s="2">
-        <v>1</v>
-      </c>
-      <c r="L25" s="15"/>
+        <v>0.6</v>
+      </c>
+      <c r="L25" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="M25" s="17">
+        <v>1</v>
+      </c>
       <c r="O25" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>78</v>
       </c>
       <c r="B26" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C26" t="s">
         <v>215</v>
@@ -8149,14 +8205,14 @@
         <v>40</v>
       </c>
       <c r="E26">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F26" s="2">
-        <v>1.65</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="G26" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>395.99999999999994</v>
+        <v>138</v>
       </c>
       <c r="H26" s="9" t="s">
         <v>49</v>
@@ -8175,28 +8231,28 @@
         <v>220</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C27" t="s">
         <v>215</v>
       </c>
       <c r="D27">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F27" s="2">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="G27" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>420</v>
+        <v>348</v>
       </c>
       <c r="H27" s="9" t="s">
         <v>49</v>
@@ -8215,131 +8271,136 @@
         <v>220</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>78</v>
       </c>
       <c r="B28" t="s">
-        <v>433</v>
+        <v>218</v>
       </c>
       <c r="C28" t="s">
-        <v>432</v>
+        <v>215</v>
       </c>
       <c r="D28">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="E28">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F28" s="2">
-        <v>1</v>
+        <v>1.65</v>
       </c>
       <c r="G28" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>744</v>
+        <v>395.99999999999994</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="I28" s="2">
         <v>1</v>
       </c>
       <c r="J28" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K28" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="L28" s="26"/>
-      <c r="M28" s="27"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="L28" s="15"/>
+      <c r="O28" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>78</v>
       </c>
       <c r="B29" t="s">
-        <v>433</v>
+        <v>219</v>
       </c>
       <c r="C29" t="s">
-        <v>432</v>
+        <v>215</v>
       </c>
       <c r="D29">
-        <v>72</v>
+        <v>140</v>
       </c>
       <c r="E29">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F29" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G29" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>864</v>
+        <v>420</v>
       </c>
       <c r="H29" s="9" t="s">
         <v>49</v>
       </c>
       <c r="I29" s="2">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J29" s="2">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="K29" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="L29" s="26"/>
-      <c r="M29" s="27"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="L29" s="15"/>
+      <c r="O29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>78</v>
       </c>
       <c r="B30" t="s">
-        <v>469</v>
+        <v>433</v>
       </c>
       <c r="C30" t="s">
-        <v>93</v>
+        <v>432</v>
       </c>
       <c r="D30">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E30">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F30" s="2">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G30" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>403.19999999999993</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>33</v>
+        <v>744</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="I30" s="2">
-        <v>1.35</v>
+        <v>1</v>
       </c>
       <c r="J30" s="2">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="K30" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="L30" s="15"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+      <c r="L30" s="26"/>
+      <c r="M30" s="27"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>78</v>
       </c>
       <c r="B31" t="s">
-        <v>469</v>
+        <v>433</v>
       </c>
       <c r="C31" t="s">
-        <v>93</v>
+        <v>432</v>
       </c>
       <c r="D31">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="E31">
         <v>12</v>
@@ -8349,23 +8410,24 @@
       </c>
       <c r="G31" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>384</v>
+        <v>864</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>49</v>
       </c>
       <c r="I31" s="2">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="J31" s="2">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="K31" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="L31" s="15"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1.2</v>
+      </c>
+      <c r="L31" s="26"/>
+      <c r="M31" s="27"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>78</v>
       </c>
@@ -8376,44 +8438,44 @@
         <v>93</v>
       </c>
       <c r="D32">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F32" s="2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="G32" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>10</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>275</v>
+        <v>403.19999999999993</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="I32" s="2">
-        <v>1</v>
+        <v>1.35</v>
       </c>
       <c r="J32" s="2">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="K32" s="2">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="L32" s="15"/>
     </row>
-    <row r="33" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>132</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>223</v>
+        <v>78</v>
+      </c>
+      <c r="B33" t="s">
+        <v>469</v>
+      </c>
+      <c r="C33" t="s">
+        <v>93</v>
       </c>
       <c r="D33">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E33">
         <v>12</v>
@@ -8423,64 +8485,60 @@
       </c>
       <c r="G33" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>312</v>
+        <v>384</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="I33" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J33" s="2">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K33" s="2">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="L33" s="15"/>
     </row>
-    <row r="34" spans="1:15" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>132</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D34" s="3">
-        <v>26</v>
-      </c>
-      <c r="E34" s="3">
-        <v>12</v>
+        <v>78</v>
+      </c>
+      <c r="B34" t="s">
+        <v>469</v>
+      </c>
+      <c r="C34" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34">
+        <v>10</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
       </c>
       <c r="F34" s="2">
         <v>1</v>
       </c>
       <c r="G34" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>312</v>
-      </c>
-      <c r="H34" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I34" s="5">
-        <v>1</v>
-      </c>
-      <c r="J34" s="5">
+        <v>10</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="I34" s="2">
+        <v>1</v>
+      </c>
+      <c r="J34" s="2">
         <v>0.8</v>
       </c>
-      <c r="K34" s="5">
+      <c r="K34" s="2">
         <v>0.6</v>
       </c>
-      <c r="L34" s="16"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L34" s="15"/>
+    </row>
+    <row r="35" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>132</v>
       </c>
@@ -8503,112 +8561,110 @@
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
         <v>312</v>
       </c>
-      <c r="H35" s="13" t="s">
-        <v>33</v>
+      <c r="H35" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="I35" s="2">
-        <v>1.35</v>
+        <v>1</v>
       </c>
       <c r="J35" s="2">
-        <v>1.05</v>
+        <v>0.75</v>
       </c>
       <c r="K35" s="2">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="L35" s="15"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>132</v>
       </c>
-      <c r="B36" t="s">
-        <v>224</v>
-      </c>
-      <c r="C36" t="s">
-        <v>167</v>
-      </c>
-      <c r="D36">
-        <v>104</v>
-      </c>
-      <c r="E36">
-        <v>8</v>
+      <c r="B36" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D36" s="3">
+        <v>26</v>
+      </c>
+      <c r="E36" s="3">
+        <v>12</v>
       </c>
       <c r="F36" s="2">
         <v>1</v>
       </c>
       <c r="G36" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>832</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="I36" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="J36" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="K36" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="L36" s="15"/>
-      <c r="O36" t="s">
-        <v>221</v>
+        <v>312</v>
+      </c>
+      <c r="H36" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="I36" s="5">
+        <v>1</v>
+      </c>
+      <c r="J36" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="K36" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="L36" s="16"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>132</v>
       </c>
-      <c r="B37" t="s">
-        <v>226</v>
-      </c>
-      <c r="C37" t="s">
-        <v>225</v>
+      <c r="B37" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>223</v>
       </c>
       <c r="D37">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E37">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F37" s="2">
-        <v>2.65</v>
+        <v>1</v>
       </c>
       <c r="G37" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>296.8</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>49</v>
+        <v>312</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="I37" s="2">
-        <v>1</v>
+        <v>1.35</v>
       </c>
       <c r="J37" s="2">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="K37" s="2">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="L37" s="15"/>
-      <c r="O37" t="s">
-        <v>220</v>
-      </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>132</v>
       </c>
       <c r="B38" t="s">
-        <v>438</v>
+        <v>224</v>
       </c>
       <c r="C38" t="s">
-        <v>439</v>
+        <v>167</v>
       </c>
       <c r="D38">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="E38">
         <v>8</v>
@@ -8618,82 +8674,87 @@
       </c>
       <c r="G38" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>160</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>33</v>
+        <v>832</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="I38" s="2">
-        <v>1.35</v>
+        <v>0.65</v>
       </c>
       <c r="J38" s="2">
-        <v>0.95</v>
+        <v>0.85</v>
       </c>
       <c r="K38" s="2">
-        <v>0.75</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="L38" s="15"/>
+      <c r="O38" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>376</v>
+        <v>132</v>
       </c>
       <c r="B39" t="s">
-        <v>377</v>
+        <v>226</v>
       </c>
       <c r="C39" t="s">
-        <v>378</v>
+        <v>225</v>
       </c>
       <c r="D39">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E39">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F39" s="2">
-        <v>1</v>
+        <v>2.65</v>
       </c>
       <c r="G39" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>480</v>
-      </c>
-      <c r="H39" s="13" t="s">
-        <v>33</v>
+        <v>296.8</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="I39" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J39" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K39" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="L39" s="26"/>
-      <c r="M39" s="27"/>
+        <v>1</v>
+      </c>
+      <c r="L39" s="15"/>
+      <c r="O39" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>376</v>
+        <v>132</v>
       </c>
       <c r="B40" t="s">
-        <v>377</v>
+        <v>438</v>
       </c>
       <c r="C40" t="s">
-        <v>378</v>
+        <v>439</v>
       </c>
       <c r="D40">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="E40">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F40" s="2">
         <v>1</v>
       </c>
       <c r="G40" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>558</v>
+        <v>160</v>
       </c>
       <c r="H40" s="13" t="s">
         <v>33</v>
@@ -8705,169 +8766,169 @@
         <v>0.95</v>
       </c>
       <c r="K40" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="L40" s="26">
-        <v>1</v>
-      </c>
-      <c r="M40" s="27">
-        <v>3</v>
-      </c>
+        <v>0.75</v>
+      </c>
+      <c r="L40" s="15"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>376</v>
       </c>
       <c r="B41" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="C41" t="s">
         <v>378</v>
       </c>
       <c r="D41">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="E41">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="F41" s="2">
         <v>1</v>
       </c>
       <c r="G41" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>372</v>
+        <v>480</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>387</v>
+        <v>33</v>
       </c>
       <c r="I41" s="2">
-        <v>1.35</v>
+        <v>0.8</v>
       </c>
       <c r="J41" s="2">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="K41" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="L41" s="26">
-        <v>1</v>
-      </c>
-      <c r="M41" s="27">
-        <v>3</v>
-      </c>
+        <v>0.8</v>
+      </c>
+      <c r="L41" s="26"/>
+      <c r="M41" s="27"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>227</v>
+        <v>376</v>
       </c>
       <c r="B42" t="s">
-        <v>231</v>
+        <v>377</v>
       </c>
       <c r="C42" t="s">
-        <v>228</v>
+        <v>378</v>
       </c>
       <c r="D42">
-        <v>174</v>
+        <v>62</v>
       </c>
       <c r="E42">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F42" s="2">
         <v>1</v>
       </c>
       <c r="G42" s="30">
-        <v>2262</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>9</v>
+        <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
+        <v>558</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="I42" s="2">
+        <v>1.35</v>
+      </c>
+      <c r="J42" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="K42" s="2">
         <v>0.7</v>
       </c>
-      <c r="J42" s="2">
-        <v>1</v>
-      </c>
-      <c r="K42" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="L42" s="15"/>
-      <c r="O42" t="s">
-        <v>53</v>
+      <c r="L42" s="26">
+        <v>1</v>
+      </c>
+      <c r="M42" s="27">
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>227</v>
+        <v>376</v>
       </c>
       <c r="B43" t="s">
-        <v>230</v>
+        <v>386</v>
       </c>
       <c r="C43" t="s">
-        <v>229</v>
+        <v>378</v>
       </c>
       <c r="D43">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="E43">
+        <v>6</v>
+      </c>
+      <c r="F43" s="2">
+        <v>1</v>
+      </c>
+      <c r="G43" s="30">
+        <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
+        <v>372</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="I43" s="2">
+        <v>1.35</v>
+      </c>
+      <c r="J43" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="K43" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="L43" s="26">
+        <v>1</v>
+      </c>
+      <c r="M43" s="27">
         <v>3</v>
       </c>
-      <c r="F43" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G43" s="30">
-        <v>349.8</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I43" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="J43" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="K43" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L43" s="15"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>227</v>
       </c>
       <c r="B44" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C44" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D44">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="E44">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F44" s="2">
         <v>1</v>
       </c>
       <c r="G44" s="30">
-        <v>411</v>
+        <v>2262</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="I44" s="2">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="J44" s="2">
         <v>1</v>
       </c>
       <c r="K44" s="2">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="L44" s="15"/>
       <c r="O44" t="s">
-        <v>221</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
@@ -8875,84 +8936,74 @@
         <v>227</v>
       </c>
       <c r="B45" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C45" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D45">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="E45">
-        <v>128</v>
+        <v>3</v>
       </c>
       <c r="F45" s="2">
         <v>1.1000000000000001</v>
       </c>
       <c r="G45" s="30">
-        <v>2816</v>
-      </c>
-      <c r="H45" s="13" t="s">
-        <v>236</v>
+        <v>349.8</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="I45" s="2">
-        <v>1.25</v>
+        <v>0.3</v>
       </c>
       <c r="J45" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="K45" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K45" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="L45" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="M45" s="17">
-        <v>3</v>
-      </c>
-      <c r="O45" t="s">
-        <v>237</v>
-      </c>
+      <c r="L45" s="15"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>227</v>
       </c>
       <c r="B46" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C46" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D46">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E46">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F46" s="2">
         <v>1</v>
       </c>
       <c r="G46" s="30">
-        <v>1120</v>
-      </c>
-      <c r="H46" s="13" t="s">
-        <v>33</v>
+        <v>411</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="I46" s="2">
-        <v>1.35</v>
+        <v>0.8</v>
       </c>
       <c r="J46" s="2">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="K46" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="L46" s="15">
-        <v>0.08</v>
-      </c>
-      <c r="M46" s="17">
-        <v>3</v>
+        <v>1.3</v>
+      </c>
+      <c r="L46" s="15"/>
+      <c r="O46" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
@@ -8960,103 +9011,116 @@
         <v>227</v>
       </c>
       <c r="B47" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C47" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D47">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E47">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="F47" s="2">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G47" s="30">
-        <v>904</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>9</v>
+        <v>2816</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>236</v>
       </c>
       <c r="I47" s="2">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="J47" s="2">
-        <v>0.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K47" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="L47" s="15"/>
+        <v>0.95</v>
+      </c>
+      <c r="L47" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M47" s="17">
+        <v>3</v>
+      </c>
+      <c r="O47" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>227</v>
       </c>
       <c r="B48" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C48" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D48">
-        <v>226</v>
+        <v>140</v>
       </c>
       <c r="E48">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F48" s="2">
         <v>1</v>
       </c>
       <c r="G48" s="30">
-        <v>936</v>
-      </c>
-      <c r="H48" s="9" t="s">
-        <v>9</v>
+        <v>1120</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="I48" s="2">
-        <v>0.9</v>
+        <v>1.35</v>
       </c>
       <c r="J48" s="2">
-        <v>1.2</v>
+        <v>0.95</v>
       </c>
       <c r="K48" s="2">
         <v>0.7</v>
       </c>
-      <c r="L48" s="15"/>
+      <c r="L48" s="15">
+        <v>0.08</v>
+      </c>
+      <c r="M48" s="17">
+        <v>3</v>
+      </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>227</v>
       </c>
       <c r="B49" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C49" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D49">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="E49">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F49" s="2">
         <v>1</v>
       </c>
       <c r="G49" s="30">
-        <v>400</v>
+        <v>904</v>
       </c>
       <c r="H49" s="9" t="s">
         <v>9</v>
       </c>
       <c r="I49" s="2">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="J49" s="2">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="K49" s="2">
         <v>0.7</v>
@@ -9074,28 +9138,28 @@
         <v>240</v>
       </c>
       <c r="D50">
-        <v>25</v>
+        <v>226</v>
       </c>
       <c r="E50">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F50" s="2">
         <v>1</v>
       </c>
       <c r="G50" s="30">
-        <v>545.6</v>
-      </c>
-      <c r="H50" s="10" t="s">
-        <v>27</v>
+        <v>936</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="I50" s="2">
         <v>0.9</v>
       </c>
       <c r="J50" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="K50" s="2">
         <v>0.7</v>
-      </c>
-      <c r="K50" s="2">
-        <v>0.4</v>
       </c>
       <c r="L50" s="15"/>
     </row>
@@ -9110,333 +9174,325 @@
         <v>240</v>
       </c>
       <c r="D51">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="E51">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F51" s="2">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G51" s="30">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="I51" s="2">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="J51" s="2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="K51" s="2">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="L51" s="15"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="B52" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C52" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D52">
-        <v>195</v>
+        <v>25</v>
       </c>
       <c r="E52">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F52" s="2">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G52" s="30">
-        <v>2145</v>
-      </c>
-      <c r="H52" s="9" t="s">
-        <v>9</v>
+        <v>545.6</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="I52" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="J52" s="2">
         <v>0.7</v>
       </c>
-      <c r="J52" s="2">
-        <v>1</v>
-      </c>
       <c r="K52" s="2">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="L52" s="15"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="B53" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C53" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D53">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="E53">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F53" s="2">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G53" s="30">
-        <v>700</v>
-      </c>
-      <c r="H53" s="13" t="s">
-        <v>33</v>
+        <v>240</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="I53" s="2">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="J53" s="2">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="K53" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="L53" s="15">
-        <v>0.01</v>
-      </c>
-      <c r="M53" s="17">
-        <v>1</v>
-      </c>
+        <v>1.3</v>
+      </c>
+      <c r="L53" s="15"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>245</v>
       </c>
       <c r="B54" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C54" t="s">
         <v>242</v>
       </c>
       <c r="D54">
-        <v>96</v>
+        <v>195</v>
       </c>
       <c r="E54">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F54" s="2">
         <v>1.1000000000000001</v>
       </c>
       <c r="G54" s="30">
-        <v>844.8</v>
+        <v>2145</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="I54" s="2">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="J54" s="2">
         <v>1</v>
       </c>
       <c r="K54" s="2">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="L54" s="15"/>
     </row>
-    <row r="55" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>245</v>
       </c>
       <c r="B55" t="s">
-        <v>246</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
+      </c>
+      <c r="C55" t="s">
+        <v>242</v>
       </c>
       <c r="D55">
-        <v>156</v>
+        <v>35</v>
       </c>
       <c r="E55">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="F55" s="2">
         <v>1</v>
       </c>
       <c r="G55" s="30">
-        <v>6864</v>
-      </c>
-      <c r="H55" s="9" t="s">
-        <v>9</v>
+        <v>700</v>
+      </c>
+      <c r="H55" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="I55" s="2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="J55" s="2">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="K55" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="L55" s="15"/>
+        <v>0.6</v>
+      </c>
+      <c r="L55" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="M55" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>245</v>
       </c>
       <c r="B56" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C56" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D56">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="E56">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F56" s="2">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G56" s="30">
-        <v>1440</v>
+        <v>844.8</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="I56" s="2">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="J56" s="2">
         <v>1</v>
       </c>
       <c r="K56" s="2">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="L56" s="15"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>245</v>
       </c>
       <c r="B57" t="s">
-        <v>252</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>250</v>
+        <v>246</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="D57">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="E57">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="F57" s="2">
         <v>1</v>
       </c>
       <c r="G57" s="30">
-        <v>548</v>
+        <v>6864</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="I57" s="2">
+        <v>1</v>
+      </c>
+      <c r="J57" s="2">
         <v>0.8</v>
       </c>
-      <c r="J57" s="2">
-        <v>1</v>
-      </c>
       <c r="K57" s="2">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="L57" s="15"/>
-      <c r="O57" t="s">
-        <v>251</v>
-      </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>245</v>
       </c>
       <c r="B58" t="s">
-        <v>254</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>253</v>
+        <v>249</v>
+      </c>
+      <c r="C58" t="s">
+        <v>248</v>
       </c>
       <c r="D58">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="E58">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F58" s="2">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G58" s="30">
-        <v>338.8</v>
-      </c>
-      <c r="H58" s="10" t="s">
-        <v>27</v>
+        <v>1440</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="I58" s="2">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="J58" s="2">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="K58" s="2">
-        <v>1.1000000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="L58" s="15"/>
-      <c r="O58" t="s">
-        <v>255</v>
-      </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>245</v>
       </c>
       <c r="B59" t="s">
-        <v>343</v>
+        <v>252</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>344</v>
+        <v>250</v>
       </c>
       <c r="D59">
-        <v>184</v>
+        <v>137</v>
       </c>
       <c r="E59">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F59" s="2">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G59" s="30">
-        <f>184*2*1.1</f>
-        <v>404.8</v>
-      </c>
-      <c r="H59" s="10" t="s">
-        <v>27</v>
+        <v>548</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="I59" s="2">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="J59" s="2">
+        <v>1</v>
+      </c>
+      <c r="K59" s="2">
         <v>1.3</v>
       </c>
-      <c r="K59" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L59" s="21"/>
-      <c r="M59" s="22"/>
+      <c r="L59" s="15"/>
       <c r="O59" t="s">
-        <v>345</v>
+        <v>251</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
@@ -9444,197 +9500,192 @@
         <v>245</v>
       </c>
       <c r="B60" t="s">
-        <v>258</v>
-      </c>
-      <c r="C60" t="s">
-        <v>256</v>
+        <v>254</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>253</v>
       </c>
       <c r="D60">
-        <v>108</v>
+        <v>154</v>
       </c>
       <c r="E60">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F60" s="2">
         <v>1.1000000000000001</v>
       </c>
       <c r="G60" s="30">
-        <v>475.2</v>
-      </c>
-      <c r="H60" s="9" t="s">
-        <v>9</v>
+        <v>338.8</v>
+      </c>
+      <c r="H60" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="I60" s="2">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="J60" s="2">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="K60" s="2">
-        <v>0.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L60" s="15"/>
+      <c r="O60" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>245</v>
       </c>
       <c r="B61" t="s">
-        <v>259</v>
-      </c>
-      <c r="C61" t="s">
-        <v>257</v>
+        <v>343</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>344</v>
       </c>
       <c r="D61">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="E61">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F61" s="2">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G61" s="30">
-        <v>1566</v>
-      </c>
-      <c r="H61" s="9" t="s">
-        <v>9</v>
+        <f>184*2*1.1</f>
+        <v>404.8</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="I61" s="2">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="J61" s="2">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="K61" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="L61" s="15"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L61" s="21"/>
+      <c r="M61" s="22"/>
+      <c r="O61" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>245</v>
       </c>
       <c r="B62" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C62" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D62">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="E62">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="F62" s="2">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G62" s="30">
-        <v>600</v>
-      </c>
-      <c r="H62" s="13" t="s">
-        <v>33</v>
+        <v>475.2</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="I62" s="2">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="J62" s="2">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="K62" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="L62" s="15">
-        <v>0.01</v>
-      </c>
-      <c r="M62" s="17">
-        <v>1</v>
-      </c>
+        <v>0.9</v>
+      </c>
+      <c r="L62" s="15"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>245</v>
       </c>
       <c r="B63" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C63" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D63">
-        <v>104</v>
+        <v>174</v>
       </c>
       <c r="E63">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="F63" s="2">
         <v>1</v>
       </c>
       <c r="G63" s="30">
-        <v>3744</v>
-      </c>
-      <c r="H63" s="10" t="s">
-        <v>27</v>
+        <v>1566</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="I63" s="2">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="J63" s="2">
-        <v>1.35</v>
+        <v>1</v>
       </c>
       <c r="K63" s="2">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="L63" s="15"/>
-      <c r="N63" s="6">
-        <v>1</v>
-      </c>
-      <c r="O63" t="s">
-        <v>261</v>
-      </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>245</v>
       </c>
       <c r="B64" t="s">
-        <v>369</v>
+        <v>259</v>
       </c>
       <c r="C64" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D64">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="E64">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F64" s="2">
         <v>1</v>
       </c>
       <c r="G64" s="30">
-        <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]</f>
-        <v>1872</v>
-      </c>
-      <c r="H64" s="10" t="s">
-        <v>27</v>
+        <v>600</v>
+      </c>
+      <c r="H64" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="I64" s="2">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="J64" s="2">
-        <v>1.35</v>
+        <v>0.6</v>
       </c>
       <c r="K64" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="L64" s="15"/>
-      <c r="N64" s="6">
-        <v>1</v>
-      </c>
-      <c r="O64" t="s">
-        <v>261</v>
+        <v>0.6</v>
+      </c>
+      <c r="L64" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="M64" s="17">
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
@@ -9642,7 +9693,7 @@
         <v>245</v>
       </c>
       <c r="B65" t="s">
-        <v>369</v>
+        <v>262</v>
       </c>
       <c r="C65" t="s">
         <v>260</v>
@@ -9651,17 +9702,16 @@
         <v>104</v>
       </c>
       <c r="E65">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F65" s="2">
         <v>1</v>
       </c>
       <c r="G65" s="30">
-        <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]</f>
-        <v>1872</v>
-      </c>
-      <c r="H65" s="9" t="s">
-        <v>9</v>
+        <v>3744</v>
+      </c>
+      <c r="H65" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="I65" s="2">
         <v>0.5</v>
@@ -9674,10 +9724,10 @@
       </c>
       <c r="L65" s="15"/>
       <c r="N65" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O65" t="s">
-        <v>370</v>
+        <v>261</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
@@ -9685,36 +9735,40 @@
         <v>245</v>
       </c>
       <c r="B66" t="s">
-        <v>264</v>
+        <v>369</v>
       </c>
       <c r="C66" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D66">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="E66">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F66" s="2">
         <v>1</v>
       </c>
       <c r="G66" s="30">
-        <v>2054</v>
+        <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]</f>
+        <v>1872</v>
       </c>
       <c r="H66" s="10" t="s">
         <v>27</v>
       </c>
       <c r="I66" s="2">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J66" s="2">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="K66" s="2">
         <v>1.2</v>
       </c>
       <c r="L66" s="15"/>
+      <c r="N66" s="6">
+        <v>1</v>
+      </c>
       <c r="O66" t="s">
         <v>261</v>
       </c>
@@ -9724,40 +9778,42 @@
         <v>245</v>
       </c>
       <c r="B67" t="s">
-        <v>266</v>
+        <v>369</v>
       </c>
       <c r="C67" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D67">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="E67">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="F67" s="2">
         <v>1</v>
       </c>
       <c r="G67" s="30">
-        <v>5500</v>
-      </c>
-      <c r="H67" s="13" t="s">
-        <v>33</v>
+        <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]</f>
+        <v>1872</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="I67" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J67" s="2">
+        <v>1.35</v>
+      </c>
+      <c r="K67" s="2">
         <v>1.2</v>
       </c>
-      <c r="J67" s="2">
-        <v>1</v>
-      </c>
-      <c r="K67" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="L67" s="15">
-        <v>0.3</v>
-      </c>
-      <c r="M67" s="17">
-        <v>1</v>
+      <c r="L67" s="15"/>
+      <c r="N67" s="6">
+        <v>0</v>
+      </c>
+      <c r="O67" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
@@ -9765,40 +9821,38 @@
         <v>245</v>
       </c>
       <c r="B68" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C68" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D68">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="E68">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F68" s="2">
         <v>1</v>
       </c>
       <c r="G68" s="30">
-        <v>2000</v>
-      </c>
-      <c r="H68" s="13" t="s">
-        <v>33</v>
+        <v>2054</v>
+      </c>
+      <c r="H68" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="I68" s="2">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="J68" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="K68" s="2">
         <v>1.2</v>
       </c>
-      <c r="K68" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="L68" s="15">
-        <v>0.3</v>
-      </c>
-      <c r="M68" s="17">
-        <v>1</v>
+      <c r="L68" s="15"/>
+      <c r="O68" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
@@ -9806,40 +9860,40 @@
         <v>245</v>
       </c>
       <c r="B69" t="s">
-        <v>379</v>
+        <v>266</v>
       </c>
       <c r="C69" t="s">
-        <v>380</v>
+        <v>265</v>
       </c>
       <c r="D69">
-        <v>239</v>
+        <v>125</v>
       </c>
       <c r="E69">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="F69" s="2">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G69" s="30">
-        <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>1051.6000000000001</v>
-      </c>
-      <c r="H69" s="10" t="s">
-        <v>27</v>
+        <v>5500</v>
+      </c>
+      <c r="H69" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="I69" s="2">
-        <v>0.65</v>
+        <v>1.2</v>
       </c>
       <c r="J69" s="2">
-        <v>1.35</v>
+        <v>1</v>
       </c>
       <c r="K69" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="L69" s="26"/>
-      <c r="M69" s="27"/>
-      <c r="O69" t="s">
-        <v>381</v>
+        <v>0.8</v>
+      </c>
+      <c r="L69" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="M69" s="17">
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
@@ -9847,44 +9901,40 @@
         <v>245</v>
       </c>
       <c r="B70" t="s">
-        <v>379</v>
+        <v>266</v>
       </c>
       <c r="C70" t="s">
-        <v>380</v>
+        <v>265</v>
       </c>
       <c r="D70">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="E70">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F70" s="2">
         <v>1</v>
       </c>
       <c r="G70" s="30">
-        <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>1260</v>
+        <v>2000</v>
       </c>
       <c r="H70" s="13" t="s">
         <v>33</v>
       </c>
       <c r="I70" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="J70" s="2">
         <v>1.2</v>
       </c>
-      <c r="J70" s="2">
-        <v>0.8</v>
-      </c>
       <c r="K70" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="L70" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="M70" s="27">
-        <v>1</v>
-      </c>
-      <c r="O70" t="s">
-        <v>381</v>
+        <v>0.7</v>
+      </c>
+      <c r="L70" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="M70" s="17">
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
@@ -9892,76 +9942,86 @@
         <v>245</v>
       </c>
       <c r="B71" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C71" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D71">
-        <v>54</v>
+        <v>239</v>
       </c>
       <c r="E71">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F71" s="2">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G71" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>540</v>
-      </c>
-      <c r="H71" s="9" t="s">
-        <v>9</v>
+        <v>1051.6000000000001</v>
+      </c>
+      <c r="H71" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="I71" s="2">
-        <v>1.2</v>
+        <v>0.65</v>
       </c>
       <c r="J71" s="2">
-        <v>0.8</v>
+        <v>1.35</v>
       </c>
       <c r="K71" s="2">
-        <v>0.8</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="L71" s="26"/>
       <c r="M71" s="27"/>
+      <c r="O71" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>245</v>
       </c>
       <c r="B72" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C72" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D72">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E72">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="F72" s="2">
         <v>1</v>
       </c>
       <c r="G72" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>540</v>
-      </c>
-      <c r="H72" s="9" t="s">
-        <v>9</v>
+        <v>1260</v>
+      </c>
+      <c r="H72" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="I72" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="J72" s="2">
         <v>0.8</v>
       </c>
-      <c r="J72" s="2">
-        <v>1.2</v>
-      </c>
       <c r="K72" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="L72" s="26"/>
-      <c r="M72" s="27"/>
+        <v>0.6</v>
+      </c>
+      <c r="L72" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="M72" s="27">
+        <v>1</v>
+      </c>
+      <c r="O72" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
@@ -9990,13 +10050,13 @@
         <v>9</v>
       </c>
       <c r="I73" s="2">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="J73" s="2">
         <v>0.8</v>
       </c>
       <c r="K73" s="2">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="L73" s="26"/>
       <c r="M73" s="27"/>
@@ -10006,35 +10066,35 @@
         <v>245</v>
       </c>
       <c r="B74" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C74" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D74">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E74">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="F74" s="2">
         <v>1</v>
       </c>
       <c r="G74" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>2208</v>
+        <v>540</v>
       </c>
       <c r="H74" s="9" t="s">
         <v>9</v>
       </c>
       <c r="I74" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J74" s="2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="K74" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="L74" s="26"/>
       <c r="M74" s="27"/>
@@ -10044,77 +10104,73 @@
         <v>245</v>
       </c>
       <c r="B75" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C75" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D75">
-        <v>181</v>
+        <v>54</v>
       </c>
       <c r="E75">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F75" s="2">
         <v>1</v>
       </c>
       <c r="G75" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>724</v>
-      </c>
-      <c r="H75" s="14" t="s">
-        <v>33</v>
+        <v>540</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="I75" s="2">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="J75" s="2">
-        <v>1.1000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="K75" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="L75" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="M75" s="27">
-        <v>4</v>
-      </c>
+        <v>1.2</v>
+      </c>
+      <c r="L75" s="26"/>
+      <c r="M75" s="27"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>245</v>
       </c>
       <c r="B76" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="C76" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="D76">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="E76">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="F76" s="2">
         <v>1</v>
       </c>
       <c r="G76" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>1240</v>
-      </c>
-      <c r="H76" s="10" t="s">
-        <v>27</v>
+        <v>2208</v>
+      </c>
+      <c r="H76" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="I76" s="2">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="J76" s="2">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="K76" s="2">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="L76" s="26"/>
       <c r="M76" s="27"/>
@@ -10124,73 +10180,77 @@
         <v>245</v>
       </c>
       <c r="B77" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="C77" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="D77">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="E77">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F77" s="2">
         <v>1</v>
       </c>
       <c r="G77" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>864</v>
-      </c>
-      <c r="H77" s="9" t="s">
-        <v>49</v>
+        <v>724</v>
+      </c>
+      <c r="H77" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="I77" s="2">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="J77" s="2">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K77" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="L77" s="26"/>
-      <c r="M77" s="27"/>
+        <v>0.9</v>
+      </c>
+      <c r="L77" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="M77" s="27">
+        <v>4</v>
+      </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>245</v>
       </c>
       <c r="B78" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C78" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D78">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E78">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F78" s="2">
         <v>1</v>
       </c>
       <c r="G78" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>576</v>
-      </c>
-      <c r="H78" s="9" t="s">
-        <v>49</v>
+        <v>1240</v>
+      </c>
+      <c r="H78" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="I78" s="2">
-        <v>0.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J78" s="2">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="K78" s="2">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="L78" s="26"/>
       <c r="M78" s="27"/>
@@ -10200,35 +10260,35 @@
         <v>245</v>
       </c>
       <c r="B79" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="C79" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="D79">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="E79">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F79" s="2">
         <v>1</v>
       </c>
       <c r="G79" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>880</v>
+        <v>864</v>
       </c>
       <c r="H79" s="9" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="I79" s="2">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="J79" s="2">
         <v>1</v>
       </c>
       <c r="K79" s="2">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="L79" s="26"/>
       <c r="M79" s="27"/>
@@ -10238,123 +10298,117 @@
         <v>245</v>
       </c>
       <c r="B80" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="C80" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="D80">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="E80">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F80" s="2">
         <v>1</v>
       </c>
       <c r="G80" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>280</v>
-      </c>
-      <c r="H80" s="14" t="s">
-        <v>33</v>
+        <v>576</v>
+      </c>
+      <c r="H80" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="I80" s="2">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="J80" s="2">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="K80" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="L80" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="M80" s="27">
-        <v>1</v>
-      </c>
+        <v>1.3</v>
+      </c>
+      <c r="L80" s="26"/>
+      <c r="M80" s="27"/>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>245</v>
       </c>
       <c r="B81" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C81" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D81">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E81">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F81" s="2">
         <v>1</v>
       </c>
       <c r="G81" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>726</v>
+        <v>880</v>
       </c>
       <c r="H81" s="9" t="s">
         <v>9</v>
       </c>
       <c r="I81" s="2">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="J81" s="2">
         <v>1</v>
       </c>
       <c r="K81" s="2">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="L81" s="26"/>
       <c r="M81" s="27"/>
-      <c r="O81" t="s">
-        <v>410</v>
-      </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>245</v>
       </c>
       <c r="B82" t="s">
-        <v>440</v>
+        <v>405</v>
       </c>
       <c r="C82" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D82">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="E82">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F82" s="2">
         <v>1</v>
       </c>
       <c r="G82" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>1104</v>
-      </c>
-      <c r="H82" s="9" t="s">
-        <v>9</v>
+        <v>280</v>
+      </c>
+      <c r="H82" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="I82" s="2">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="J82" s="2">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="K82" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="L82" s="26"/>
-      <c r="M82" s="27"/>
-      <c r="O82" t="s">
-        <v>411</v>
+        <v>0.6</v>
+      </c>
+      <c r="L82" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="M82" s="27">
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.3">
@@ -10368,34 +10422,34 @@
         <v>408</v>
       </c>
       <c r="D83">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="E83">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F83" s="2">
         <v>1</v>
       </c>
       <c r="G83" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>320</v>
+        <v>726</v>
       </c>
       <c r="H83" s="9" t="s">
         <v>9</v>
       </c>
       <c r="I83" s="2">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="J83" s="2">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="K83" s="2">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="L83" s="26"/>
       <c r="M83" s="27"/>
       <c r="O83" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.3">
@@ -10403,64 +10457,67 @@
         <v>245</v>
       </c>
       <c r="B84" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="C84" t="s">
-        <v>459</v>
+        <v>408</v>
       </c>
       <c r="D84">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="E84">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F84" s="2">
         <v>1</v>
       </c>
       <c r="G84" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>1530</v>
-      </c>
-      <c r="H84" s="10" t="s">
-        <v>27</v>
+        <v>1104</v>
+      </c>
+      <c r="H84" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="I84" s="2">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="J84" s="2">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="K84" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="L84" s="32"/>
-      <c r="M84" s="33"/>
+        <v>1.3</v>
+      </c>
+      <c r="L84" s="26"/>
+      <c r="M84" s="27"/>
+      <c r="O84" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>245</v>
       </c>
       <c r="B85" t="s">
-        <v>458</v>
+        <v>407</v>
       </c>
       <c r="C85" t="s">
-        <v>459</v>
+        <v>408</v>
       </c>
       <c r="D85">
         <v>20</v>
       </c>
       <c r="E85">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F85" s="2">
         <v>1</v>
       </c>
       <c r="G85" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>600</v>
-      </c>
-      <c r="H85" s="13" t="s">
-        <v>33</v>
+        <v>320</v>
+      </c>
+      <c r="H85" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="I85" s="2">
         <v>1.2</v>
@@ -10471,162 +10528,162 @@
       <c r="K85" s="2">
         <v>0.6</v>
       </c>
-      <c r="L85" s="32"/>
-      <c r="M85" s="33"/>
+      <c r="L85" s="26"/>
+      <c r="M85" s="27"/>
       <c r="O85" t="s">
-        <v>460</v>
+        <v>409</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>245</v>
       </c>
-      <c r="B86" s="37" t="s">
-        <v>479</v>
+      <c r="B86" t="s">
+        <v>458</v>
       </c>
       <c r="C86" t="s">
-        <v>480</v>
+        <v>459</v>
       </c>
       <c r="D86">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E86">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F86" s="2">
         <v>1</v>
       </c>
       <c r="G86" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>1044</v>
+        <v>1530</v>
       </c>
       <c r="H86" s="10" t="s">
         <v>27</v>
       </c>
       <c r="I86" s="2">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J86" s="2">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="K86" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="L86" s="15"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="L86" s="32"/>
+      <c r="M86" s="33"/>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>245</v>
       </c>
-      <c r="B87" s="37" t="s">
-        <v>481</v>
+      <c r="B87" t="s">
+        <v>458</v>
       </c>
       <c r="C87" t="s">
-        <v>480</v>
+        <v>459</v>
       </c>
       <c r="D87">
-        <v>174</v>
+        <v>20</v>
       </c>
       <c r="E87">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="F87" s="2">
         <v>1</v>
       </c>
       <c r="G87" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>1566</v>
-      </c>
-      <c r="H87" s="10" t="s">
-        <v>27</v>
+        <v>600</v>
+      </c>
+      <c r="H87" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="I87" s="2">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="J87" s="2">
-        <v>1.25</v>
+        <v>0.6</v>
       </c>
       <c r="K87" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="L87" s="15"/>
+        <v>0.6</v>
+      </c>
+      <c r="L87" s="32"/>
+      <c r="M87" s="33"/>
+      <c r="O87" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>245</v>
       </c>
       <c r="B88" s="37" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C88" t="s">
         <v>480</v>
       </c>
       <c r="D88">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="E88">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F88" s="2">
         <v>1</v>
       </c>
       <c r="G88" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>400</v>
-      </c>
-      <c r="H88" s="13" t="s">
-        <v>33</v>
+        <v>1044</v>
+      </c>
+      <c r="H88" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="I88" s="2">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="J88" s="2">
-        <v>0.6</v>
+        <v>1.25</v>
       </c>
       <c r="K88" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="L88" s="15">
-        <v>0.01</v>
-      </c>
-      <c r="M88" s="17">
-        <v>1</v>
-      </c>
+        <v>1.25</v>
+      </c>
+      <c r="L88" s="15"/>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>245</v>
       </c>
       <c r="B89" s="37" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="C89" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D89">
-        <v>96</v>
+        <v>174</v>
       </c>
       <c r="E89">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F89" s="2">
         <v>1</v>
       </c>
       <c r="G89" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>576</v>
-      </c>
-      <c r="H89" t="s">
-        <v>49</v>
+        <v>1566</v>
+      </c>
+      <c r="H89" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="I89" s="2">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="J89" s="2">
-        <v>1.1000000000000001</v>
+        <v>1.25</v>
       </c>
       <c r="K89" s="2">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="L89" s="15"/>
     </row>
@@ -10635,38 +10692,38 @@
         <v>245</v>
       </c>
       <c r="B90" s="37" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C90" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D90">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="E90">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F90" s="2">
         <v>1</v>
       </c>
       <c r="G90" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="H90" s="13" t="s">
         <v>33</v>
       </c>
       <c r="I90" s="2">
-        <v>1.35</v>
+        <v>1.2</v>
       </c>
       <c r="J90" s="2">
-        <v>0.85</v>
+        <v>0.6</v>
       </c>
       <c r="K90" s="2">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="L90" s="15">
-        <v>0.3</v>
+        <v>0.01</v>
       </c>
       <c r="M90" s="17">
         <v>1</v>
@@ -10676,104 +10733,105 @@
       <c r="A91" t="s">
         <v>245</v>
       </c>
-      <c r="B91" t="s">
-        <v>487</v>
+      <c r="B91" s="37" t="s">
+        <v>488</v>
       </c>
       <c r="C91" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D91">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="E91">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F91" s="2">
         <v>1</v>
       </c>
       <c r="G91" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
+        <v>576</v>
+      </c>
+      <c r="H91" t="s">
+        <v>49</v>
+      </c>
+      <c r="I91" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="J91" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K91" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="L91" s="15"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>245</v>
+      </c>
+      <c r="B92" s="37" t="s">
+        <v>486</v>
+      </c>
+      <c r="C92" t="s">
+        <v>484</v>
+      </c>
+      <c r="D92">
+        <v>140</v>
+      </c>
+      <c r="E92">
+        <v>10</v>
+      </c>
+      <c r="F92" s="2">
+        <v>1</v>
+      </c>
+      <c r="G92" s="30">
+        <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
+        <v>1400</v>
+      </c>
+      <c r="H92" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I92" s="2">
+        <v>1.35</v>
+      </c>
+      <c r="J92" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="K92" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="L92" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="M92" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>245</v>
+      </c>
+      <c r="B93" t="s">
+        <v>487</v>
+      </c>
+      <c r="C93" t="s">
+        <v>484</v>
+      </c>
+      <c r="D93">
+        <v>30</v>
+      </c>
+      <c r="E93">
+        <v>14</v>
+      </c>
+      <c r="F93" s="2">
+        <v>1</v>
+      </c>
+      <c r="G93" s="30">
+        <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
         <v>420</v>
       </c>
-      <c r="H91" t="s">
-        <v>9</v>
-      </c>
-      <c r="I91" s="2">
-        <v>1</v>
-      </c>
-      <c r="J91" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="K91" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="L91" s="15"/>
-    </row>
-    <row r="92" spans="1:15" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="D92" s="3">
-        <v>108</v>
-      </c>
-      <c r="E92" s="3">
-        <v>30</v>
-      </c>
-      <c r="F92" s="5">
-        <v>1</v>
-      </c>
-      <c r="G92" s="31">
-        <v>3240</v>
-      </c>
-      <c r="H92" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="I92" s="5">
-        <v>1</v>
-      </c>
-      <c r="J92" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="K92" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="L92" s="16">
-        <v>0.3</v>
-      </c>
-      <c r="M92" s="18">
-        <v>1</v>
-      </c>
-      <c r="N92" s="7"/>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A93" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="D93">
-        <v>108</v>
-      </c>
-      <c r="E93">
-        <v>22</v>
-      </c>
-      <c r="F93" s="5">
-        <v>1</v>
-      </c>
-      <c r="G93" s="30">
-        <v>2376</v>
-      </c>
-      <c r="H93" s="9" t="s">
+      <c r="H93" t="s">
         <v>9</v>
       </c>
       <c r="I93" s="2">
@@ -10787,56 +10845,57 @@
       </c>
       <c r="L93" s="15"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
+    <row r="94" spans="1:15" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="B94" t="s">
-        <v>271</v>
-      </c>
-      <c r="C94" t="s">
-        <v>270</v>
-      </c>
-      <c r="D94">
-        <v>72</v>
-      </c>
-      <c r="E94">
-        <v>40</v>
+      <c r="B94" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D94" s="3">
+        <v>108</v>
+      </c>
+      <c r="E94" s="3">
+        <v>30</v>
       </c>
       <c r="F94" s="5">
         <v>1</v>
       </c>
-      <c r="G94" s="30">
-        <v>2880</v>
-      </c>
-      <c r="H94" s="13" t="s">
+      <c r="G94" s="31">
+        <v>3240</v>
+      </c>
+      <c r="H94" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="I94" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="J94" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="K94" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="L94" s="15">
+      <c r="I94" s="5">
+        <v>1</v>
+      </c>
+      <c r="J94" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="K94" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="L94" s="16">
         <v>0.3</v>
       </c>
-      <c r="M94" s="17">
-        <v>1</v>
-      </c>
+      <c r="M94" s="18">
+        <v>1</v>
+      </c>
+      <c r="N94" s="7"/>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
+      <c r="A95" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="B95" t="s">
-        <v>271</v>
-      </c>
-      <c r="C95" t="s">
-        <v>270</v>
+      <c r="B95" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>268</v>
       </c>
       <c r="D95">
         <v>108</v>
@@ -10864,140 +10923,142 @@
       </c>
       <c r="L95" s="15"/>
     </row>
-    <row r="96" spans="1:15" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="D96" s="3">
-        <v>235</v>
-      </c>
-      <c r="E96" s="3">
-        <v>4</v>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>269</v>
+      </c>
+      <c r="B96" t="s">
+        <v>271</v>
+      </c>
+      <c r="C96" t="s">
+        <v>270</v>
+      </c>
+      <c r="D96">
+        <v>72</v>
+      </c>
+      <c r="E96">
+        <v>40</v>
       </c>
       <c r="F96" s="5">
         <v>1</v>
       </c>
-      <c r="G96" s="31">
-        <v>940</v>
-      </c>
-      <c r="H96" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="I96" s="5">
+      <c r="G96" s="30">
+        <v>2880</v>
+      </c>
+      <c r="H96" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I96" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="J96" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="K96" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="L96" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="M96" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>269</v>
+      </c>
+      <c r="B97" t="s">
+        <v>271</v>
+      </c>
+      <c r="C97" t="s">
+        <v>270</v>
+      </c>
+      <c r="D97">
+        <v>108</v>
+      </c>
+      <c r="E97">
+        <v>22</v>
+      </c>
+      <c r="F97" s="5">
+        <v>1</v>
+      </c>
+      <c r="G97" s="30">
+        <v>2376</v>
+      </c>
+      <c r="H97" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I97" s="2">
+        <v>1</v>
+      </c>
+      <c r="J97" s="2">
         <v>0.8</v>
       </c>
-      <c r="J96" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="K96" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L96" s="16"/>
-      <c r="M96" s="18"/>
-      <c r="N96" s="7"/>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A97" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="B97" t="s">
-        <v>277</v>
-      </c>
-      <c r="C97" t="s">
-        <v>276</v>
-      </c>
-      <c r="D97">
-        <v>222</v>
-      </c>
-      <c r="E97">
-        <v>12</v>
-      </c>
-      <c r="F97" s="5">
-        <v>1</v>
-      </c>
-      <c r="G97" s="30">
-        <v>2664</v>
-      </c>
-      <c r="H97" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="I97" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="J97" s="2">
-        <v>0.9</v>
-      </c>
       <c r="K97" s="2">
-        <v>1.1000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="L97" s="15"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B98" t="s">
-        <v>279</v>
-      </c>
-      <c r="C98" t="s">
-        <v>278</v>
-      </c>
-      <c r="D98">
-        <v>291</v>
-      </c>
-      <c r="E98">
-        <v>3</v>
+      <c r="B98" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D98" s="3">
+        <v>235</v>
+      </c>
+      <c r="E98" s="3">
+        <v>4</v>
       </c>
       <c r="F98" s="5">
         <v>1</v>
       </c>
-      <c r="G98" s="30">
-        <v>873</v>
-      </c>
-      <c r="H98" s="9" t="s">
+      <c r="G98" s="31">
+        <v>940</v>
+      </c>
+      <c r="H98" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="I98" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="J98" s="2">
-        <v>1.05</v>
-      </c>
-      <c r="K98" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="L98" s="15"/>
-      <c r="O98" t="s">
-        <v>281</v>
-      </c>
+      <c r="I98" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="J98" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="K98" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L98" s="16"/>
+      <c r="M98" s="18"/>
+      <c r="N98" s="7"/>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>272</v>
       </c>
       <c r="B99" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C99" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D99">
-        <v>111</v>
+        <v>222</v>
       </c>
       <c r="E99">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F99" s="5">
         <v>1</v>
       </c>
       <c r="G99" s="30">
-        <v>666</v>
+        <v>2664</v>
       </c>
       <c r="H99" s="9" t="s">
         <v>275</v>
@@ -11006,53 +11067,48 @@
         <v>0.8</v>
       </c>
       <c r="J99" s="2">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="K99" s="2">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L99" s="15"/>
-      <c r="O99" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B100" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="D100" s="3">
-        <v>360</v>
-      </c>
-      <c r="E100" s="3">
+      <c r="B100" t="s">
+        <v>279</v>
+      </c>
+      <c r="C100" t="s">
+        <v>278</v>
+      </c>
+      <c r="D100">
+        <v>291</v>
+      </c>
+      <c r="E100">
         <v>3</v>
       </c>
       <c r="F100" s="5">
         <v>1</v>
       </c>
-      <c r="G100" s="31">
-        <v>1080</v>
-      </c>
-      <c r="H100" s="11" t="s">
+      <c r="G100" s="30">
+        <v>873</v>
+      </c>
+      <c r="H100" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="I100" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="J100" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="K100" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L100" s="16"/>
-      <c r="M100" s="18"/>
-      <c r="N100" s="7"/>
+      <c r="I100" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="J100" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="K100" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="L100" s="15"/>
       <c r="O100" t="s">
         <v>281</v>
       </c>
@@ -11062,82 +11118,79 @@
         <v>272</v>
       </c>
       <c r="B101" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C101" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D101">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="E101">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F101" s="5">
         <v>1</v>
       </c>
       <c r="G101" s="30">
-        <v>210</v>
+        <v>666</v>
       </c>
       <c r="H101" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="I101" s="5">
-        <v>1</v>
-      </c>
-      <c r="J101" s="5">
+        <v>275</v>
+      </c>
+      <c r="I101" s="2">
         <v>0.8</v>
       </c>
-      <c r="K101" s="5">
-        <v>0.6</v>
+      <c r="J101" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="K101" s="2">
+        <v>1</v>
       </c>
       <c r="L101" s="15"/>
       <c r="O101" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B102" t="s">
-        <v>289</v>
-      </c>
-      <c r="C102" t="s">
-        <v>288</v>
-      </c>
-      <c r="D102">
-        <v>120</v>
-      </c>
-      <c r="E102">
-        <v>6</v>
+      <c r="B102" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D102" s="3">
+        <v>360</v>
+      </c>
+      <c r="E102" s="3">
+        <v>3</v>
       </c>
       <c r="F102" s="5">
-        <v>1.05</v>
-      </c>
-      <c r="G102" s="30">
-        <v>756</v>
-      </c>
-      <c r="H102" s="13" t="s">
-        <v>33</v>
+        <v>1</v>
+      </c>
+      <c r="G102" s="31">
+        <v>1080</v>
+      </c>
+      <c r="H102" s="11" t="s">
+        <v>275</v>
       </c>
       <c r="I102" s="5">
-        <v>1.1499999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="J102" s="5">
         <v>0.9</v>
       </c>
       <c r="K102" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="L102" s="15">
-        <v>0.08</v>
-      </c>
-      <c r="M102" s="17">
-        <v>3</v>
-      </c>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L102" s="16"/>
+      <c r="M102" s="18"/>
+      <c r="N102" s="7"/>
       <c r="O102" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.3">
@@ -11145,43 +11198,38 @@
         <v>272</v>
       </c>
       <c r="B103" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C103" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D103">
-        <v>336</v>
+        <v>70</v>
       </c>
       <c r="E103">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F103" s="5">
         <v>1</v>
       </c>
       <c r="G103" s="30">
-        <v>672</v>
-      </c>
-      <c r="H103" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="I103" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="J103" s="2">
-        <v>1.05</v>
-      </c>
-      <c r="K103" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="L103" s="15">
-        <v>1</v>
-      </c>
-      <c r="M103" s="17">
-        <v>2</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="H103" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="I103" s="5">
+        <v>1</v>
+      </c>
+      <c r="J103" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="K103" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="L103" s="15"/>
       <c r="O103" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.3">
@@ -11189,43 +11237,43 @@
         <v>272</v>
       </c>
       <c r="B104" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C104" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D104">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E104">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F104" s="5">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="G104" s="30">
-        <v>484</v>
+        <v>756</v>
       </c>
       <c r="H104" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="I104" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="J104" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="K104" s="2">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="I104" s="5">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="J104" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="K104" s="5">
+        <v>0.7</v>
       </c>
       <c r="L104" s="15">
-        <v>1</v>
+        <v>0.08</v>
       </c>
       <c r="M104" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O104" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.3">
@@ -11233,40 +11281,43 @@
         <v>272</v>
       </c>
       <c r="B105" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C105" t="s">
         <v>290</v>
       </c>
       <c r="D105">
-        <v>202</v>
+        <v>336</v>
       </c>
       <c r="E105">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F105" s="5">
         <v>1</v>
       </c>
       <c r="G105" s="30">
-        <v>808</v>
-      </c>
-      <c r="H105" s="10" t="s">
-        <v>294</v>
+        <v>672</v>
+      </c>
+      <c r="H105" s="13" t="s">
+        <v>299</v>
       </c>
       <c r="I105" s="2">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="J105" s="2">
-        <v>1.1000000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="K105" s="2">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="L105" s="15">
         <v>1</v>
       </c>
+      <c r="M105" s="17">
+        <v>2</v>
+      </c>
       <c r="O105" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.3">
@@ -11274,22 +11325,22 @@
         <v>272</v>
       </c>
       <c r="B106" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C106" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D106">
-        <v>260</v>
+        <v>121</v>
       </c>
       <c r="E106">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F106" s="5">
         <v>1</v>
       </c>
       <c r="G106" s="30">
-        <v>6240</v>
+        <v>484</v>
       </c>
       <c r="H106" s="13" t="s">
         <v>299</v>
@@ -11298,14 +11349,19 @@
         <v>0.8</v>
       </c>
       <c r="J106" s="2">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="K106" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L106" s="15"/>
+        <v>1</v>
+      </c>
+      <c r="L106" s="15">
+        <v>1</v>
+      </c>
+      <c r="M106" s="17">
+        <v>2</v>
+      </c>
       <c r="O106" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.3">
@@ -11313,74 +11369,79 @@
         <v>272</v>
       </c>
       <c r="B107" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C107" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D107">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="E107">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F107" s="5">
         <v>1</v>
       </c>
       <c r="G107" s="30">
-        <v>4320</v>
-      </c>
-      <c r="H107" s="9" t="s">
-        <v>301</v>
+        <v>808</v>
+      </c>
+      <c r="H107" s="10" t="s">
+        <v>294</v>
       </c>
       <c r="I107" s="2">
         <v>0.8</v>
       </c>
       <c r="J107" s="2">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K107" s="2">
         <v>1.3</v>
       </c>
-      <c r="L107" s="15"/>
+      <c r="L107" s="15">
+        <v>1</v>
+      </c>
+      <c r="O107" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>272</v>
       </c>
       <c r="B108" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C108" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D108">
-        <v>301</v>
+        <v>260</v>
       </c>
       <c r="E108">
-        <v>8</v>
-      </c>
-      <c r="F108" s="2">
+        <v>24</v>
+      </c>
+      <c r="F108" s="5">
         <v>1</v>
       </c>
       <c r="G108" s="30">
-        <v>2408</v>
-      </c>
-      <c r="H108" s="10" t="s">
-        <v>294</v>
+        <v>6240</v>
+      </c>
+      <c r="H108" s="13" t="s">
+        <v>299</v>
       </c>
       <c r="I108" s="2">
         <v>0.8</v>
       </c>
       <c r="J108" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="K108" s="2">
         <v>1.1000000000000001</v>
-      </c>
-      <c r="K108" s="2">
-        <v>1.3</v>
       </c>
       <c r="L108" s="15"/>
       <c r="O108" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.3">
@@ -11388,67 +11449,61 @@
         <v>272</v>
       </c>
       <c r="B109" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="C109" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="D109">
-        <v>176</v>
+        <v>240</v>
       </c>
       <c r="E109">
-        <v>1</v>
-      </c>
-      <c r="F109" s="2">
-        <v>2.4500000000000002</v>
+        <v>18</v>
+      </c>
+      <c r="F109" s="5">
+        <v>1</v>
       </c>
       <c r="G109" s="30">
-        <v>431.2</v>
-      </c>
-      <c r="H109" s="10" t="s">
-        <v>307</v>
+        <v>4320</v>
+      </c>
+      <c r="H109" s="9" t="s">
+        <v>301</v>
       </c>
       <c r="I109" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J109" s="2">
         <v>1</v>
       </c>
       <c r="K109" s="2">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="L109" s="15"/>
-      <c r="N109" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="O109" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B110" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>309</v>
+      <c r="B110" t="s">
+        <v>304</v>
+      </c>
+      <c r="C110" t="s">
+        <v>302</v>
       </c>
       <c r="D110">
-        <v>172</v>
+        <v>301</v>
       </c>
       <c r="E110">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F110" s="2">
         <v>1</v>
       </c>
       <c r="G110" s="30">
-        <v>344</v>
-      </c>
-      <c r="H110" s="9" t="s">
-        <v>301</v>
+        <v>2408</v>
+      </c>
+      <c r="H110" s="10" t="s">
+        <v>294</v>
       </c>
       <c r="I110" s="2">
         <v>0.8</v>
@@ -11460,44 +11515,50 @@
         <v>1.3</v>
       </c>
       <c r="L110" s="15"/>
-    </row>
-    <row r="111" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O110" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B111" s="3" t="s">
-        <v>312</v>
+      <c r="B111" t="s">
+        <v>306</v>
       </c>
       <c r="C111" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D111">
-        <v>226</v>
+        <v>176</v>
       </c>
       <c r="E111">
         <v>1</v>
       </c>
       <c r="F111" s="2">
-        <v>1</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="G111" s="30">
-        <v>226</v>
-      </c>
-      <c r="H111" s="9" t="s">
-        <v>275</v>
+        <v>431.2</v>
+      </c>
+      <c r="H111" s="10" t="s">
+        <v>307</v>
       </c>
       <c r="I111" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J111" s="2">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="K111" s="2">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="L111" s="15"/>
+      <c r="N111" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="O111" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
     </row>
     <row r="112" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -11505,13 +11566,13 @@
         <v>272</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="C112" t="s">
-        <v>311</v>
+        <v>310</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>309</v>
       </c>
       <c r="D112">
-        <v>96</v>
+        <v>172</v>
       </c>
       <c r="E112">
         <v>2</v>
@@ -11520,49 +11581,45 @@
         <v>1</v>
       </c>
       <c r="G112" s="30">
-        <v>192</v>
+        <v>344</v>
       </c>
       <c r="H112" s="9" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="I112" s="2">
         <v>0.8</v>
       </c>
       <c r="J112" s="2">
-        <v>0.85</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K112" s="2">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="L112" s="15"/>
-      <c r="O112" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
+    </row>
+    <row r="113" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B113" t="s">
-        <v>346</v>
+      <c r="B113" s="3" t="s">
+        <v>312</v>
       </c>
       <c r="C113" t="s">
-        <v>347</v>
+        <v>311</v>
       </c>
       <c r="D113">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E113">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F113" s="2">
         <v>1</v>
       </c>
       <c r="G113" s="30">
-        <f>222*12</f>
-        <v>2664</v>
-      </c>
-      <c r="H113" t="s">
+        <v>226</v>
+      </c>
+      <c r="H113" s="9" t="s">
         <v>275</v>
       </c>
       <c r="I113" s="2">
@@ -11572,34 +11629,36 @@
         <v>0.9</v>
       </c>
       <c r="K113" s="2">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L113" s="15"/>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
+      <c r="O113" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B114" t="s">
-        <v>404</v>
+      <c r="B114" s="3" t="s">
+        <v>313</v>
       </c>
       <c r="C114" t="s">
-        <v>361</v>
+        <v>311</v>
       </c>
       <c r="D114">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="E114">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F114" s="2">
         <v>1</v>
       </c>
       <c r="G114" s="30">
-        <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>484</v>
-      </c>
-      <c r="H114" t="s">
+        <v>192</v>
+      </c>
+      <c r="H114" s="9" t="s">
         <v>275</v>
       </c>
       <c r="I114" s="2">
@@ -11613,7 +11672,7 @@
       </c>
       <c r="L114" s="15"/>
       <c r="O114" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.3">
@@ -11621,47 +11680,44 @@
         <v>272</v>
       </c>
       <c r="B115" t="s">
-        <v>403</v>
+        <v>346</v>
       </c>
       <c r="C115" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="D115">
-        <v>456</v>
+        <v>222</v>
       </c>
       <c r="E115">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F115" s="2">
         <v>1</v>
       </c>
       <c r="G115" s="30">
-        <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>912</v>
+        <f>222*12</f>
+        <v>2664</v>
       </c>
       <c r="H115" t="s">
         <v>275</v>
       </c>
       <c r="I115" s="2">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="J115" s="2">
-        <v>1.05</v>
+        <v>0.9</v>
       </c>
       <c r="K115" s="2">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="L115" s="15"/>
-      <c r="O115" t="s">
-        <v>287</v>
-      </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>272</v>
       </c>
       <c r="B116" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C116" t="s">
         <v>361</v>
@@ -11701,39 +11757,39 @@
         <v>272</v>
       </c>
       <c r="B117" t="s">
-        <v>441</v>
+        <v>403</v>
       </c>
       <c r="C117" t="s">
         <v>361</v>
       </c>
       <c r="D117">
-        <v>240</v>
+        <v>456</v>
       </c>
       <c r="E117">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F117" s="2">
         <v>1</v>
       </c>
       <c r="G117" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>1440</v>
+        <v>912</v>
       </c>
       <c r="H117" t="s">
-        <v>49</v>
+        <v>275</v>
       </c>
       <c r="I117" s="2">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="J117" s="2">
-        <v>1.1000000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="K117" s="2">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="L117" s="15"/>
       <c r="O117" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.3">
@@ -11741,23 +11797,23 @@
         <v>272</v>
       </c>
       <c r="B118" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="C118" t="s">
-        <v>390</v>
+        <v>361</v>
       </c>
       <c r="D118">
-        <v>322</v>
+        <v>121</v>
       </c>
       <c r="E118">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F118" s="2">
         <v>1</v>
       </c>
       <c r="G118" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>966</v>
+        <v>484</v>
       </c>
       <c r="H118" t="s">
         <v>275</v>
@@ -11771,10 +11827,9 @@
       <c r="K118" s="2">
         <v>1</v>
       </c>
-      <c r="L118" s="26"/>
-      <c r="M118" s="27"/>
+      <c r="L118" s="15"/>
       <c r="O118" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.3">
@@ -11782,13 +11837,13 @@
         <v>272</v>
       </c>
       <c r="B119" t="s">
-        <v>392</v>
+        <v>441</v>
       </c>
       <c r="C119" t="s">
-        <v>390</v>
+        <v>361</v>
       </c>
       <c r="D119">
-        <v>138</v>
+        <v>240</v>
       </c>
       <c r="E119">
         <v>6</v>
@@ -11798,24 +11853,23 @@
       </c>
       <c r="G119" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>828</v>
+        <v>1440</v>
       </c>
       <c r="H119" t="s">
-        <v>275</v>
+        <v>49</v>
       </c>
       <c r="I119" s="2">
         <v>0.8</v>
       </c>
       <c r="J119" s="2">
-        <v>0.95</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K119" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="L119" s="26"/>
-      <c r="M119" s="27"/>
+        <v>1.3</v>
+      </c>
+      <c r="L119" s="15"/>
       <c r="O119" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.3">
@@ -11823,99 +11877,105 @@
         <v>272</v>
       </c>
       <c r="B120" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="C120" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="D120">
-        <v>28</v>
+        <v>322</v>
       </c>
       <c r="E120">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F120" s="2">
         <v>1</v>
       </c>
       <c r="G120" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>448</v>
-      </c>
-      <c r="H120" s="10" t="s">
-        <v>27</v>
+        <v>966</v>
+      </c>
+      <c r="H120" t="s">
+        <v>275</v>
       </c>
       <c r="I120" s="2">
-        <v>1.1000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="J120" s="2">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="K120" s="2">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="L120" s="26"/>
       <c r="M120" s="27"/>
+      <c r="O120" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>272</v>
       </c>
       <c r="B121" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C121" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="D121">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="E121">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F121" s="2">
         <v>1</v>
       </c>
       <c r="G121" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>480</v>
-      </c>
-      <c r="H121" s="13" t="s">
-        <v>33</v>
+        <v>828</v>
+      </c>
+      <c r="H121" t="s">
+        <v>275</v>
       </c>
       <c r="I121" s="2">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="J121" s="2">
-        <v>0.6</v>
+        <v>0.95</v>
       </c>
       <c r="K121" s="2">
-        <v>0.6</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="L121" s="26"/>
       <c r="M121" s="27"/>
+      <c r="O121" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>272</v>
       </c>
       <c r="B122" t="s">
-        <v>443</v>
+        <v>398</v>
       </c>
       <c r="C122" t="s">
         <v>397</v>
       </c>
       <c r="D122">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E122">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F122" s="2">
         <v>1</v>
       </c>
       <c r="G122" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>744</v>
+        <v>448</v>
       </c>
       <c r="H122" s="10" t="s">
         <v>27</v>
@@ -11937,185 +11997,184 @@
         <v>272</v>
       </c>
       <c r="B123" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C123" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D123">
-        <v>226</v>
+        <v>20</v>
       </c>
       <c r="E123">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="F123" s="2">
         <v>1</v>
       </c>
       <c r="G123" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>678</v>
-      </c>
-      <c r="H123" t="s">
-        <v>275</v>
+        <v>480</v>
+      </c>
+      <c r="H123" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="I123" s="2">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="J123" s="2">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="K123" s="2">
-        <v>1.1000000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="L123" s="26"/>
       <c r="M123" s="27"/>
-      <c r="O123" t="s">
-        <v>281</v>
-      </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>272</v>
       </c>
       <c r="B124" t="s">
-        <v>401</v>
+        <v>443</v>
       </c>
       <c r="C124" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D124">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="E124">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="F124" s="2">
         <v>1</v>
       </c>
       <c r="G124" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>576</v>
-      </c>
-      <c r="H124" t="s">
-        <v>275</v>
+        <v>744</v>
+      </c>
+      <c r="H124" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="I124" s="2">
-        <v>0.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J124" s="2">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="K124" s="2">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="L124" s="26"/>
       <c r="M124" s="27"/>
-      <c r="O124" t="s">
-        <v>281</v>
-      </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>272</v>
       </c>
-      <c r="B125" s="3" t="s">
-        <v>485</v>
+      <c r="B125" t="s">
+        <v>400</v>
       </c>
       <c r="C125" t="s">
-        <v>473</v>
+        <v>399</v>
       </c>
       <c r="D125">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="E125">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F125" s="2">
         <v>1</v>
       </c>
       <c r="G125" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>2880</v>
+        <v>678</v>
       </c>
       <c r="H125" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="I125" s="2">
         <v>0.8</v>
       </c>
       <c r="J125" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="K125" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K125" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="L125" s="15"/>
+      <c r="L125" s="26"/>
+      <c r="M125" s="27"/>
       <c r="O125" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>332</v>
+        <v>272</v>
       </c>
       <c r="B126" t="s">
-        <v>317</v>
+        <v>401</v>
       </c>
       <c r="C126" t="s">
-        <v>314</v>
+        <v>399</v>
       </c>
       <c r="D126">
-        <v>202</v>
+        <v>96</v>
       </c>
       <c r="E126">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F126" s="2">
         <v>1</v>
       </c>
       <c r="G126" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>2424</v>
-      </c>
-      <c r="H126" s="9" t="s">
-        <v>301</v>
+        <v>576</v>
+      </c>
+      <c r="H126" t="s">
+        <v>275</v>
       </c>
       <c r="I126" s="2">
         <v>0.8</v>
       </c>
       <c r="J126" s="2">
-        <v>1.1000000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="K126" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="L126" s="15"/>
+        <v>1</v>
+      </c>
+      <c r="L126" s="26"/>
+      <c r="M126" s="27"/>
+      <c r="O126" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>332</v>
-      </c>
-      <c r="B127" t="s">
-        <v>316</v>
+        <v>272</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>485</v>
       </c>
       <c r="C127" t="s">
-        <v>315</v>
+        <v>473</v>
       </c>
       <c r="D127">
         <v>240</v>
       </c>
       <c r="E127">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F127" s="2">
         <v>1</v>
       </c>
       <c r="G127" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>2160</v>
-      </c>
-      <c r="H127" s="9" t="s">
-        <v>301</v>
+        <v>2880</v>
+      </c>
+      <c r="H127" t="s">
+        <v>286</v>
       </c>
       <c r="I127" s="2">
         <v>0.8</v>
@@ -12127,125 +12186,122 @@
         <v>1.3</v>
       </c>
       <c r="L127" s="15"/>
+      <c r="O127" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>332</v>
       </c>
       <c r="B128" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C128" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D128">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="E128">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F128" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G128" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>450</v>
-      </c>
-      <c r="H128" s="10" t="s">
-        <v>27</v>
+        <v>2424</v>
+      </c>
+      <c r="H128" s="9" t="s">
+        <v>301</v>
       </c>
       <c r="I128" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J128" s="2">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K128" s="2">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="L128" s="15"/>
-      <c r="O128" t="s">
-        <v>300</v>
-      </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>332</v>
       </c>
       <c r="B129" t="s">
-        <v>341</v>
+        <v>316</v>
       </c>
       <c r="C129" t="s">
-        <v>340</v>
+        <v>315</v>
       </c>
       <c r="D129">
-        <v>332</v>
+        <v>240</v>
       </c>
       <c r="E129">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F129" s="2">
         <v>1</v>
       </c>
       <c r="G129" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>332</v>
+        <v>2160</v>
       </c>
       <c r="H129" s="9" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="I129" s="2">
         <v>0.8</v>
       </c>
       <c r="J129" s="2">
-        <v>0.95</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K129" s="2">
-        <v>1.1499999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="L129" s="15"/>
-      <c r="O129" t="s">
-        <v>281</v>
-      </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>332</v>
       </c>
       <c r="B130" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="C130" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="D130">
-        <v>138</v>
+        <v>225</v>
       </c>
       <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130" s="2">
         <v>2</v>
-      </c>
-      <c r="F130" s="2">
-        <v>1</v>
       </c>
       <c r="G130" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>276</v>
-      </c>
-      <c r="H130" s="9" t="s">
-        <v>275</v>
+        <v>450</v>
+      </c>
+      <c r="H130" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="I130" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J130" s="2">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="K130" s="2">
         <v>1</v>
       </c>
       <c r="L130" s="15"/>
       <c r="O130" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.3">
@@ -12253,35 +12309,35 @@
         <v>332</v>
       </c>
       <c r="B131" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C131" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D131">
-        <v>288</v>
+        <v>332</v>
       </c>
       <c r="E131">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F131" s="2">
         <v>1</v>
       </c>
       <c r="G131" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>1728</v>
+        <v>332</v>
       </c>
       <c r="H131" s="9" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="I131" s="2">
         <v>0.8</v>
       </c>
       <c r="J131" s="2">
-        <v>1.1000000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="K131" s="2">
-        <v>1.3</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="L131" s="15"/>
       <c r="O131" t="s">
@@ -12293,50 +12349,53 @@
         <v>332</v>
       </c>
       <c r="B132" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C132" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="D132">
-        <v>207</v>
+        <v>138</v>
       </c>
       <c r="E132">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F132" s="2">
         <v>1</v>
       </c>
       <c r="G132" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>621</v>
-      </c>
-      <c r="H132" t="s">
-        <v>49</v>
+        <v>276</v>
+      </c>
+      <c r="H132" s="9" t="s">
+        <v>275</v>
       </c>
       <c r="I132" s="2">
         <v>0.8</v>
       </c>
       <c r="J132" s="2">
-        <v>1.1000000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="K132" s="2">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="L132" s="15"/>
+      <c r="O132" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>332</v>
       </c>
       <c r="B133" t="s">
-        <v>442</v>
+        <v>338</v>
       </c>
       <c r="C133" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="D133">
-        <v>207</v>
+        <v>288</v>
       </c>
       <c r="E133">
         <v>6</v>
@@ -12346,10 +12405,10 @@
       </c>
       <c r="G133" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>1242</v>
-      </c>
-      <c r="H133" t="s">
-        <v>49</v>
+        <v>1728</v>
+      </c>
+      <c r="H133" s="9" t="s">
+        <v>286</v>
       </c>
       <c r="I133" s="2">
         <v>0.8</v>
@@ -12361,89 +12420,83 @@
         <v>1.3</v>
       </c>
       <c r="L133" s="15"/>
+      <c r="O133" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>332</v>
       </c>
       <c r="B134" t="s">
-        <v>423</v>
+        <v>348</v>
       </c>
       <c r="C134" t="s">
-        <v>424</v>
+        <v>349</v>
       </c>
       <c r="D134">
-        <v>294</v>
+        <v>207</v>
       </c>
       <c r="E134">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F134" s="2">
         <v>1</v>
       </c>
       <c r="G134" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>294</v>
-      </c>
-      <c r="H134" s="13" t="s">
-        <v>299</v>
+        <v>621</v>
+      </c>
+      <c r="H134" t="s">
+        <v>49</v>
       </c>
       <c r="I134" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J134" s="2">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K134" s="2">
-        <v>1</v>
-      </c>
-      <c r="L134" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="M134" s="27">
-        <v>3</v>
-      </c>
-      <c r="O134" t="s">
-        <v>425</v>
-      </c>
+        <v>1.3</v>
+      </c>
+      <c r="L134" s="15"/>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>332</v>
       </c>
       <c r="B135" t="s">
-        <v>423</v>
+        <v>442</v>
       </c>
       <c r="C135" t="s">
-        <v>424</v>
+        <v>349</v>
       </c>
       <c r="D135">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="E135">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F135" s="2">
         <v>1</v>
       </c>
       <c r="G135" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>744</v>
-      </c>
-      <c r="H135" s="10" t="s">
-        <v>426</v>
+        <v>1242</v>
+      </c>
+      <c r="H135" t="s">
+        <v>49</v>
       </c>
       <c r="I135" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J135" s="2">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K135" s="2">
-        <v>1</v>
-      </c>
-      <c r="L135" s="26"/>
-      <c r="M135" s="27"/>
+        <v>1.3</v>
+      </c>
+      <c r="L135" s="15"/>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
@@ -12456,20 +12509,20 @@
         <v>424</v>
       </c>
       <c r="D136">
-        <v>72</v>
+        <v>294</v>
       </c>
       <c r="E136">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="F136" s="2">
         <v>1</v>
       </c>
       <c r="G136" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>1728</v>
-      </c>
-      <c r="H136" t="s">
-        <v>275</v>
+        <v>294</v>
+      </c>
+      <c r="H136" s="13" t="s">
+        <v>299</v>
       </c>
       <c r="I136" s="2">
         <v>1</v>
@@ -12480,157 +12533,164 @@
       <c r="K136" s="2">
         <v>1</v>
       </c>
-      <c r="L136" s="26"/>
-      <c r="M136" s="27"/>
+      <c r="L136" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="M136" s="27">
+        <v>3</v>
+      </c>
+      <c r="O136" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>332</v>
       </c>
       <c r="B137" t="s">
-        <v>468</v>
+        <v>423</v>
       </c>
       <c r="C137" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="D137">
-        <v>380</v>
+        <v>248</v>
       </c>
       <c r="E137">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F137" s="2">
         <v>1</v>
       </c>
       <c r="G137" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>2280</v>
-      </c>
-      <c r="H137" t="s">
-        <v>275</v>
+        <v>744</v>
+      </c>
+      <c r="H137" s="10" t="s">
+        <v>426</v>
       </c>
       <c r="I137" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J137" s="2">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="K137" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L137" s="15"/>
-      <c r="M137" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="L137" s="26"/>
+      <c r="M137" s="27"/>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B138" t="s">
-        <v>359</v>
+        <v>423</v>
       </c>
       <c r="C138" t="s">
-        <v>360</v>
+        <v>424</v>
       </c>
       <c r="D138">
-        <v>173</v>
+        <v>72</v>
       </c>
       <c r="E138">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F138" s="2">
         <v>1</v>
       </c>
       <c r="G138" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>2595</v>
+        <v>1728</v>
       </c>
       <c r="H138" t="s">
         <v>275</v>
       </c>
       <c r="I138" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J138" s="2">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="K138" s="2">
         <v>1</v>
       </c>
-      <c r="L138" s="15"/>
-      <c r="O138" t="s">
-        <v>281</v>
-      </c>
+      <c r="L138" s="26"/>
+      <c r="M138" s="27"/>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B139" t="s">
-        <v>321</v>
+        <v>468</v>
       </c>
       <c r="C139" t="s">
-        <v>320</v>
+        <v>464</v>
       </c>
       <c r="D139">
-        <v>100</v>
+        <v>380</v>
       </c>
       <c r="E139">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F139" s="2">
         <v>1</v>
       </c>
       <c r="G139" s="30">
-        <v>800</v>
-      </c>
-      <c r="H139" s="13" t="s">
-        <v>33</v>
+        <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
+        <v>2280</v>
+      </c>
+      <c r="H139" t="s">
+        <v>275</v>
       </c>
       <c r="I139" s="2">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="J139" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="K139" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K139" s="2">
-        <v>0.9</v>
-      </c>
       <c r="L139" s="15"/>
+      <c r="M139" s="12"/>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>333</v>
       </c>
       <c r="B140" t="s">
-        <v>323</v>
+        <v>359</v>
       </c>
       <c r="C140" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="D140">
-        <v>332</v>
+        <v>173</v>
       </c>
       <c r="E140">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F140" s="2">
         <v>1</v>
       </c>
       <c r="G140" s="30">
-        <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]</f>
-        <v>664</v>
-      </c>
-      <c r="H140" s="9" t="s">
+        <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
+        <v>2595</v>
+      </c>
+      <c r="H140" t="s">
         <v>275</v>
       </c>
       <c r="I140" s="2">
         <v>0.8</v>
       </c>
       <c r="J140" s="2">
-        <v>0.95</v>
+        <v>0.85</v>
       </c>
       <c r="K140" s="2">
-        <v>1.1499999999999999</v>
+        <v>1</v>
       </c>
       <c r="L140" s="15"/>
       <c r="O140" t="s">
@@ -12642,118 +12702,115 @@
         <v>333</v>
       </c>
       <c r="B141" t="s">
+        <v>321</v>
+      </c>
+      <c r="C141" t="s">
+        <v>320</v>
+      </c>
+      <c r="D141">
+        <v>100</v>
+      </c>
+      <c r="E141">
+        <v>8</v>
+      </c>
+      <c r="F141" s="2">
+        <v>1</v>
+      </c>
+      <c r="G141" s="30">
+        <v>800</v>
+      </c>
+      <c r="H141" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I141" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="J141" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K141" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="L141" s="15"/>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>333</v>
+      </c>
+      <c r="B142" t="s">
+        <v>323</v>
+      </c>
+      <c r="C142" t="s">
+        <v>322</v>
+      </c>
+      <c r="D142">
+        <v>332</v>
+      </c>
+      <c r="E142">
+        <v>2</v>
+      </c>
+      <c r="F142" s="2">
+        <v>1</v>
+      </c>
+      <c r="G142" s="30">
+        <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]</f>
+        <v>664</v>
+      </c>
+      <c r="H142" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="I142" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="J142" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="K142" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="L142" s="15"/>
+      <c r="O142" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>333</v>
+      </c>
+      <c r="B143" t="s">
         <v>324</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C143" t="s">
         <v>322</v>
       </c>
-      <c r="D141">
+      <c r="D143">
         <v>276</v>
       </c>
-      <c r="E141">
+      <c r="E143">
         <v>2</v>
       </c>
-      <c r="F141" s="2">
-        <v>1</v>
-      </c>
-      <c r="G141" s="30">
+      <c r="F143" s="2">
+        <v>1</v>
+      </c>
+      <c r="G143" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]</f>
         <v>552</v>
       </c>
-      <c r="H141" s="9" t="s">
+      <c r="H143" s="9" t="s">
         <v>275</v>
-      </c>
-      <c r="I141" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="J141" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="K141" s="2">
-        <v>1</v>
-      </c>
-      <c r="L141" s="15"/>
-      <c r="O141" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
-        <v>173</v>
-      </c>
-      <c r="B142" t="s">
-        <v>325</v>
-      </c>
-      <c r="C142" t="s">
-        <v>328</v>
-      </c>
-      <c r="D142">
-        <v>50</v>
-      </c>
-      <c r="E142">
-        <v>7</v>
-      </c>
-      <c r="F142" s="2">
-        <v>1</v>
-      </c>
-      <c r="G142" s="30">
-        <v>350</v>
-      </c>
-      <c r="H142" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="I142" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="J142" s="2">
-        <v>1</v>
-      </c>
-      <c r="K142" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="L142"/>
-      <c r="M142"/>
-      <c r="N142"/>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
-        <v>173</v>
-      </c>
-      <c r="B143" t="s">
-        <v>326</v>
-      </c>
-      <c r="C143" t="s">
-        <v>175</v>
-      </c>
-      <c r="D143">
-        <v>48</v>
-      </c>
-      <c r="E143">
-        <v>6</v>
-      </c>
-      <c r="F143" s="2">
-        <v>1</v>
-      </c>
-      <c r="G143" s="30">
-        <v>288</v>
-      </c>
-      <c r="H143" s="10" t="s">
-        <v>329</v>
       </c>
       <c r="I143" s="2">
         <v>0.8</v>
       </c>
       <c r="J143" s="2">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="K143" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="L143"/>
-      <c r="M143"/>
-      <c r="N143"/>
+        <v>1</v>
+      </c>
+      <c r="L143" s="15"/>
       <c r="O143" t="s">
-        <v>331</v>
+        <v>281</v>
       </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.3">
@@ -12761,25 +12818,25 @@
         <v>173</v>
       </c>
       <c r="B144" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C144" t="s">
-        <v>180</v>
+        <v>328</v>
       </c>
       <c r="D144">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E144">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F144" s="2">
         <v>1</v>
       </c>
       <c r="G144" s="30">
-        <v>240</v>
-      </c>
-      <c r="H144" s="13" t="s">
-        <v>330</v>
+        <v>350</v>
+      </c>
+      <c r="H144" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="I144" s="2">
         <v>0.8</v>
@@ -12790,42 +12847,34 @@
       <c r="K144" s="2">
         <v>1.3</v>
       </c>
-      <c r="L144" s="26">
-        <v>0.7</v>
-      </c>
-      <c r="M144" s="27">
-        <v>2</v>
-      </c>
+      <c r="L144"/>
+      <c r="M144"/>
       <c r="N144"/>
-      <c r="O144" t="s">
-        <v>472</v>
-      </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>173</v>
       </c>
       <c r="B145" t="s">
-        <v>454</v>
+        <v>326</v>
       </c>
       <c r="C145" t="s">
-        <v>447</v>
+        <v>175</v>
       </c>
       <c r="D145">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E145">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F145" s="2">
         <v>1</v>
       </c>
       <c r="G145" s="30">
-        <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>600</v>
-      </c>
-      <c r="H145" s="9" t="s">
-        <v>49</v>
+        <v>288</v>
+      </c>
+      <c r="H145" s="10" t="s">
+        <v>329</v>
       </c>
       <c r="I145" s="2">
         <v>0.8</v>
@@ -12836,67 +12885,80 @@
       <c r="K145" s="2">
         <v>1.3</v>
       </c>
-      <c r="L145" s="15"/>
+      <c r="L145"/>
+      <c r="M145"/>
+      <c r="N145"/>
+      <c r="O145" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>173</v>
       </c>
       <c r="B146" t="s">
-        <v>455</v>
+        <v>327</v>
       </c>
       <c r="C146" t="s">
-        <v>453</v>
+        <v>180</v>
       </c>
       <c r="D146">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E146">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F146" s="2">
         <v>1</v>
       </c>
       <c r="G146" s="30">
-        <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>432</v>
-      </c>
-      <c r="H146" s="9" t="s">
-        <v>49</v>
+        <v>240</v>
+      </c>
+      <c r="H146" s="13" t="s">
+        <v>330</v>
       </c>
       <c r="I146" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J146" s="2">
         <v>1</v>
       </c>
       <c r="K146" s="2">
-        <v>1</v>
-      </c>
-      <c r="L146" s="15"/>
+        <v>1.3</v>
+      </c>
+      <c r="L146" s="26">
+        <v>0.7</v>
+      </c>
+      <c r="M146" s="27">
+        <v>2</v>
+      </c>
+      <c r="N146"/>
+      <c r="O146" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>173</v>
       </c>
       <c r="B147" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="C147" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="D147">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="E147">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F147" s="2">
         <v>1</v>
       </c>
       <c r="G147" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>252</v>
+        <v>600</v>
       </c>
       <c r="H147" s="9" t="s">
         <v>49</v>
@@ -12910,24 +12972,90 @@
       <c r="K147" s="2">
         <v>1.3</v>
       </c>
-      <c r="L147" s="32"/>
-      <c r="M147" s="33"/>
+      <c r="L147" s="15"/>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B148" s="36"/>
-      <c r="G148" s="30"/>
-      <c r="H148" s="13"/>
+      <c r="A148" t="s">
+        <v>173</v>
+      </c>
+      <c r="B148" t="s">
+        <v>455</v>
+      </c>
+      <c r="C148" t="s">
+        <v>453</v>
+      </c>
+      <c r="D148">
+        <v>36</v>
+      </c>
+      <c r="E148">
+        <v>12</v>
+      </c>
+      <c r="F148" s="2">
+        <v>1</v>
+      </c>
+      <c r="G148" s="30">
+        <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
+        <v>432</v>
+      </c>
+      <c r="H148" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I148" s="2">
+        <v>1</v>
+      </c>
+      <c r="J148" s="2">
+        <v>1</v>
+      </c>
+      <c r="K148" s="2">
+        <v>1</v>
+      </c>
       <c r="L148" s="15"/>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="L149" s="15"/>
+      <c r="A149" t="s">
+        <v>173</v>
+      </c>
+      <c r="B149" t="s">
+        <v>467</v>
+      </c>
+      <c r="C149" t="s">
+        <v>461</v>
+      </c>
+      <c r="D149">
+        <v>36</v>
+      </c>
+      <c r="E149">
+        <v>7</v>
+      </c>
+      <c r="F149" s="2">
+        <v>1</v>
+      </c>
+      <c r="G149" s="30">
+        <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
+        <v>252</v>
+      </c>
+      <c r="H149" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I149" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="J149" s="2">
+        <v>1</v>
+      </c>
+      <c r="K149" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="L149" s="32"/>
+      <c r="M149" s="33"/>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B150" s="36"/>
+      <c r="G150" s="30"/>
       <c r="H150" s="13"/>
       <c r="L150" s="15"/>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="H151" s="13"/>
       <c r="L151" s="15"/>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.3">
@@ -12935,7 +13063,7 @@
       <c r="L152" s="15"/>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="H153" s="10"/>
+      <c r="H153" s="13"/>
       <c r="L153" s="15"/>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.3">
@@ -12943,50 +13071,26 @@
       <c r="L154" s="15"/>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="H155" s="13"/>
+      <c r="H155" s="10"/>
       <c r="L155" s="15"/>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="I156"/>
+      <c r="H156" s="13"/>
       <c r="L156" s="15"/>
-      <c r="M156" s="12"/>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="I157"/>
+      <c r="H157" s="13"/>
       <c r="L157" s="15"/>
-      <c r="M157" s="12"/>
-    </row>
-    <row r="158" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A158"/>
-      <c r="B158"/>
-      <c r="C158"/>
-      <c r="D158"/>
-      <c r="E158"/>
-      <c r="F158" s="2"/>
-      <c r="G158" s="29"/>
-      <c r="H158"/>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I158"/>
-      <c r="J158" s="2"/>
-      <c r="K158" s="2"/>
       <c r="L158" s="15"/>
       <c r="M158" s="12"/>
-      <c r="O158"/>
-    </row>
-    <row r="159" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A159"/>
-      <c r="B159"/>
-      <c r="C159"/>
-      <c r="D159"/>
-      <c r="E159"/>
-      <c r="F159" s="2"/>
-      <c r="G159" s="29"/>
-      <c r="H159"/>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I159"/>
-      <c r="J159" s="2"/>
-      <c r="K159" s="2"/>
       <c r="L159" s="15"/>
       <c r="M159" s="12"/>
-      <c r="O159"/>
     </row>
     <row r="160" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160"/>
@@ -13028,7 +13132,7 @@
       <c r="E162"/>
       <c r="F162" s="2"/>
       <c r="G162" s="29"/>
-      <c r="H162" s="13"/>
+      <c r="H162"/>
       <c r="I162"/>
       <c r="J162" s="2"/>
       <c r="K162" s="2"/>
@@ -13060,17 +13164,97 @@
       <c r="E164"/>
       <c r="F164" s="2"/>
       <c r="G164" s="29"/>
-      <c r="H164"/>
+      <c r="H164" s="13"/>
       <c r="I164"/>
       <c r="J164" s="2"/>
       <c r="K164" s="2"/>
-      <c r="L164" s="2"/>
+      <c r="L164" s="15"/>
       <c r="M164" s="12"/>
       <c r="O164"/>
     </row>
+    <row r="165" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A165"/>
+      <c r="B165"/>
+      <c r="C165"/>
+      <c r="D165"/>
+      <c r="E165"/>
+      <c r="F165" s="2"/>
+      <c r="G165" s="29"/>
+      <c r="H165"/>
+      <c r="I165"/>
+      <c r="J165" s="2"/>
+      <c r="K165" s="2"/>
+      <c r="L165" s="15"/>
+      <c r="M165" s="12"/>
+      <c r="O165"/>
+    </row>
+    <row r="166" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A166"/>
+      <c r="B166"/>
+      <c r="C166"/>
+      <c r="D166"/>
+      <c r="E166"/>
+      <c r="F166" s="2"/>
+      <c r="G166" s="29"/>
+      <c r="H166"/>
+      <c r="I166"/>
+      <c r="J166" s="2"/>
+      <c r="K166" s="2"/>
+      <c r="L166" s="2"/>
+      <c r="M166" s="12"/>
+      <c r="O166"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
-  <conditionalFormatting sqref="G2:G19">
+  <conditionalFormatting sqref="G2:G21">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22:G34">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G35:G43">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G44:G53">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G54:G93">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -13082,7 +13266,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G20:G32">
+  <conditionalFormatting sqref="G94:G97">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -13094,8 +13278,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G33:G41">
-    <cfRule type="colorScale" priority="13">
+  <conditionalFormatting sqref="G98:G127">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13106,19 +13290,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G42:G51">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G52:G91">
+  <conditionalFormatting sqref="G128:G143">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -13130,7 +13302,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G92:G95">
+  <conditionalFormatting sqref="G144:G149">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -13142,31 +13314,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G96:G125">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G126:G141">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G142:G147">
+  <conditionalFormatting sqref="G128:G139">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -13178,20 +13326,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G126:G137">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G138:G141">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="G140:G143">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/BarrageChart.xlsx
+++ b/BarrageChart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SICA\Pictures\AL\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79238E16-5F6E-4635-870F-142C5AC6A913}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5745B292-62FB-46D1-89BD-E49097FF58B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="513">
   <si>
     <t>Barrage Name (Skill Level 2)</t>
   </si>
@@ -1500,21 +1500,12 @@
     <t>Fading Memories of Glory</t>
   </si>
   <si>
-    <t>Aulick, Bush, Charles Ausburne, Fletcher, Foote, Hazelwood, Jenkins, Nicholas, Radford, Spence, Thatcher, Kimberly, Mullany, Stanley</t>
-  </si>
-  <si>
     <t>Makinami, Kiyonami</t>
   </si>
   <si>
-    <t>风雨舞踏</t>
-  </si>
-  <si>
     <t>Shigure Kai</t>
   </si>
   <si>
-    <t>四神之印</t>
-  </si>
-  <si>
     <t>Column1</t>
   </si>
   <si>
@@ -1534,6 +1525,51 @@
   </si>
   <si>
     <t>Buffs the specific Anshan's main gun damage by 16% and strengthens barrage</t>
+  </si>
+  <si>
+    <t>IXB-Class Barrage</t>
+  </si>
+  <si>
+    <t>U-110</t>
+  </si>
+  <si>
+    <t>Dance of Wind and Rain</t>
+  </si>
+  <si>
+    <t>Seal of the Four Gods</t>
+  </si>
+  <si>
+    <t>Aulick, Bush, Charles Ausburne, Fletcher, Foote, Hazelwood, Jenkins, Nicholas, Radford, Spence, Thatcher, Kimberly, Mullany, Stanley, Smalley</t>
+  </si>
+  <si>
+    <t>Cleveland Muse Barrage</t>
+  </si>
+  <si>
+    <t>Sheffield Muse Barrage</t>
+  </si>
+  <si>
+    <t>Sheffield Muse</t>
+  </si>
+  <si>
+    <t>Cleveland Muse</t>
+  </si>
+  <si>
+    <t>Purple</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Akagi Muse</t>
+  </si>
+  <si>
+    <t>Dualism 500lb (3 planes)</t>
+  </si>
+  <si>
+    <t>Dualism 100lb (3 planes)</t>
+  </si>
+  <si>
+    <t>Dualism Torpedo (3 planes)</t>
   </si>
 </sst>
 </file>
@@ -1543,7 +1579,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1680,6 +1716,27 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1712,7 +1769,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1779,6 +1836,9 @@
     <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1920,8 +1980,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Barrage" displayName="Barrage" ref="A1:O126" totalsRowShown="0" headerRowDxfId="15">
-  <autoFilter ref="A1:O126" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Barrage" displayName="Barrage" ref="A1:O129" totalsRowShown="0" headerRowDxfId="15">
+  <autoFilter ref="A1:O129" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Type"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Barrage Name (Skill Level 2)"/>
@@ -1944,8 +2004,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Barrage4" displayName="Barrage4" ref="A1:U149" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="A1:U149" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Barrage4" displayName="Barrage4" ref="A1:U152" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="A1:U152" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Type"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Skill Name (Max Level)"/>
@@ -2237,10 +2297,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O127"/>
+  <dimension ref="A1:O129"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="O88" sqref="A87:O88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2389,7 +2449,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -4189,7 +4249,7 @@
         <v>77</v>
       </c>
       <c r="C52" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D52">
         <v>10</v>
@@ -5522,123 +5582,122 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="B87" t="s">
-        <v>133</v>
+        <v>503</v>
       </c>
       <c r="C87" t="s">
-        <v>135</v>
+        <v>506</v>
       </c>
       <c r="D87">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="E87">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="F87" s="2">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="G87" s="30">
-        <v>228</v>
-      </c>
-      <c r="H87" s="13" t="s">
-        <v>33</v>
+        <f>Barrage[[#This Row],[Coefficient]]*Barrage[[#This Row],[Total Rounds]]*Barrage[[#This Row],[Base Damage]]</f>
+        <v>450</v>
+      </c>
+      <c r="H87" s="10" t="s">
+        <v>508</v>
       </c>
       <c r="I87" s="2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="J87" s="2">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="K87" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="L87" s="15">
-        <v>0.3</v>
-      </c>
-      <c r="M87" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="L87" s="38"/>
+      <c r="M87" s="39"/>
+      <c r="N87" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="B88" t="s">
-        <v>136</v>
+        <v>504</v>
       </c>
       <c r="C88" t="s">
-        <v>137</v>
+        <v>505</v>
       </c>
       <c r="D88">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E88">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="F88" s="2">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="G88" s="30">
-        <v>229</v>
-      </c>
-      <c r="H88" s="13" t="s">
-        <v>33</v>
+        <f>Barrage[[#This Row],[Coefficient]]*Barrage[[#This Row],[Total Rounds]]*Barrage[[#This Row],[Base Damage]]</f>
+        <v>600</v>
+      </c>
+      <c r="H88" s="40" t="s">
+        <v>507</v>
       </c>
       <c r="I88" s="2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="J88" s="2">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="K88" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="L88" s="15">
-        <v>0.3</v>
-      </c>
-      <c r="M88" s="17">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L88" s="38"/>
+      <c r="M88" s="39"/>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>132</v>
       </c>
       <c r="B89" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C89" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D89">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E89">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F89" s="2">
         <v>1</v>
       </c>
       <c r="G89" s="30">
-        <v>320</v>
-      </c>
-      <c r="H89" t="s">
-        <v>9</v>
+        <v>228</v>
+      </c>
+      <c r="H89" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="I89" s="2">
         <v>1</v>
       </c>
       <c r="J89" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="K89" s="2">
-        <v>1</v>
-      </c>
-      <c r="L89" s="15"/>
-      <c r="O89" t="s">
-        <v>57</v>
+        <v>0.6</v>
+      </c>
+      <c r="L89" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="M89" s="17">
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
@@ -5646,25 +5705,25 @@
         <v>132</v>
       </c>
       <c r="B90" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C90" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D90">
         <v>38</v>
       </c>
       <c r="E90">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F90" s="2">
         <v>1</v>
       </c>
       <c r="G90" s="30">
-        <v>304</v>
-      </c>
-      <c r="H90" t="s">
-        <v>9</v>
+        <v>229</v>
+      </c>
+      <c r="H90" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="I90" s="2">
         <v>1</v>
@@ -5675,48 +5734,48 @@
       <c r="K90" s="2">
         <v>0.6</v>
       </c>
-      <c r="L90" s="15"/>
+      <c r="L90" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="M90" s="17">
+        <v>2</v>
+      </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>132</v>
       </c>
       <c r="B91" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C91" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D91">
         <v>40</v>
       </c>
       <c r="E91">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F91" s="2">
         <v>1</v>
       </c>
       <c r="G91" s="30">
-        <v>240</v>
-      </c>
-      <c r="H91" s="13" t="s">
-        <v>33</v>
+        <v>320</v>
+      </c>
+      <c r="H91" t="s">
+        <v>9</v>
       </c>
       <c r="I91" s="2">
         <v>1</v>
       </c>
       <c r="J91" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K91" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="L91" s="15">
-        <v>0.3</v>
-      </c>
-      <c r="M91" s="17">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L91" s="15"/>
       <c r="O91" t="s">
         <v>57</v>
       </c>
@@ -5726,25 +5785,25 @@
         <v>132</v>
       </c>
       <c r="B92" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C92" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D92">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E92">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F92" s="2">
         <v>1</v>
       </c>
       <c r="G92" s="30">
-        <v>240</v>
-      </c>
-      <c r="H92" s="13" t="s">
-        <v>33</v>
+        <v>304</v>
+      </c>
+      <c r="H92" t="s">
+        <v>9</v>
       </c>
       <c r="I92" s="2">
         <v>1</v>
@@ -5755,22 +5814,17 @@
       <c r="K92" s="2">
         <v>0.6</v>
       </c>
-      <c r="L92" s="15">
-        <v>0.3</v>
-      </c>
-      <c r="M92" s="17">
-        <v>2</v>
-      </c>
+      <c r="L92" s="15"/>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>132</v>
       </c>
       <c r="B93" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C93" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D93">
         <v>40</v>
@@ -5800,7 +5854,7 @@
         <v>0.3</v>
       </c>
       <c r="M93" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O93" t="s">
         <v>57</v>
@@ -5811,38 +5865,40 @@
         <v>132</v>
       </c>
       <c r="B94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C94" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D94">
         <v>40</v>
       </c>
       <c r="E94">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F94" s="2">
         <v>1</v>
       </c>
       <c r="G94" s="30">
-        <v>480</v>
-      </c>
-      <c r="H94" s="10" t="s">
-        <v>27</v>
+        <v>240</v>
+      </c>
+      <c r="H94" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="I94" s="2">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="J94" s="2">
-        <v>1.1000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="K94" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="L94" s="15"/>
-      <c r="N94" s="6">
-        <v>1</v>
+        <v>0.6</v>
+      </c>
+      <c r="L94" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="M94" s="17">
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.3">
@@ -5850,25 +5906,25 @@
         <v>132</v>
       </c>
       <c r="B95" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C95" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D95">
         <v>40</v>
       </c>
       <c r="E95">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F95" s="2">
         <v>1</v>
       </c>
       <c r="G95" s="30">
-        <v>440</v>
-      </c>
-      <c r="H95" t="s">
-        <v>9</v>
+        <v>240</v>
+      </c>
+      <c r="H95" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="I95" s="2">
         <v>1</v>
@@ -5879,50 +5935,53 @@
       <c r="K95" s="2">
         <v>0.6</v>
       </c>
-      <c r="L95" s="15"/>
+      <c r="L95" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="M95" s="17">
+        <v>3</v>
+      </c>
+      <c r="O95" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>132</v>
       </c>
       <c r="B96" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C96" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D96">
         <v>40</v>
       </c>
       <c r="E96">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F96" s="2">
         <v>1</v>
       </c>
       <c r="G96" s="30">
-        <v>240</v>
-      </c>
-      <c r="H96" s="13" t="s">
-        <v>33</v>
+        <v>480</v>
+      </c>
+      <c r="H96" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="I96" s="2">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J96" s="2">
-        <v>0.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K96" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="L96" s="15">
-        <v>0.3</v>
-      </c>
-      <c r="M96" s="17">
-        <v>1</v>
-      </c>
-      <c r="O96" t="s">
-        <v>57</v>
+        <v>0.75</v>
+      </c>
+      <c r="L96" s="15"/>
+      <c r="N96" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.3">
@@ -5930,22 +5989,22 @@
         <v>132</v>
       </c>
       <c r="B97" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C97" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D97">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E97">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F97" s="2">
         <v>1</v>
       </c>
       <c r="G97" s="30">
-        <v>228</v>
+        <v>440</v>
       </c>
       <c r="H97" t="s">
         <v>9</v>
@@ -5966,22 +6025,22 @@
         <v>132</v>
       </c>
       <c r="B98" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C98" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D98">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E98">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F98" s="2">
         <v>1</v>
       </c>
       <c r="G98" s="30">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="H98" s="13" t="s">
         <v>33</v>
@@ -6000,6 +6059,9 @@
       </c>
       <c r="M98" s="17">
         <v>1</v>
+      </c>
+      <c r="O98" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.3">
@@ -6007,10 +6069,10 @@
         <v>132</v>
       </c>
       <c r="B99" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C99" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D99">
         <v>38</v>
@@ -6043,22 +6105,22 @@
         <v>132</v>
       </c>
       <c r="B100" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C100" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D100">
         <v>38</v>
       </c>
       <c r="E100">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F100" s="2">
         <v>1</v>
       </c>
       <c r="G100" s="30">
-        <v>228</v>
+        <v>190</v>
       </c>
       <c r="H100" s="13" t="s">
         <v>33</v>
@@ -6084,22 +6146,22 @@
         <v>132</v>
       </c>
       <c r="B101" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C101" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D101">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E101">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F101" s="2">
         <v>1</v>
       </c>
       <c r="G101" s="30">
-        <v>540</v>
+        <v>228</v>
       </c>
       <c r="H101" t="s">
         <v>9</v>
@@ -6108,10 +6170,10 @@
         <v>1</v>
       </c>
       <c r="J101" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="K101" s="2">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="L101" s="15"/>
     </row>
@@ -6120,43 +6182,40 @@
         <v>132</v>
       </c>
       <c r="B102" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C102" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D102">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E102">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F102" s="2">
         <v>1</v>
       </c>
       <c r="G102" s="30">
-        <v>390</v>
+        <v>228</v>
       </c>
       <c r="H102" s="13" t="s">
         <v>33</v>
       </c>
       <c r="I102" s="2">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="J102" s="2">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="K102" s="2">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="L102" s="15">
-        <v>0.08</v>
+        <v>0.3</v>
       </c>
       <c r="M102" s="17">
-        <v>3</v>
-      </c>
-      <c r="O102" t="s">
-        <v>172</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.3">
@@ -6164,84 +6223,79 @@
         <v>132</v>
       </c>
       <c r="B103" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C103" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D103">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E103">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F103" s="2">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G103" s="30">
-        <v>528</v>
-      </c>
-      <c r="H103" s="13" t="s">
-        <v>33</v>
+        <v>540</v>
+      </c>
+      <c r="H103" t="s">
+        <v>9</v>
       </c>
       <c r="I103" s="2">
-        <v>1.35</v>
+        <v>1</v>
       </c>
       <c r="J103" s="2">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="K103" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="L103" s="15">
-        <v>0.08</v>
-      </c>
-      <c r="M103" s="17">
-        <v>3</v>
-      </c>
-      <c r="O103" t="s">
-        <v>57</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L103" s="15"/>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>132</v>
       </c>
       <c r="B104" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C104" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D104">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E104">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F104" s="2">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G104" s="30">
-        <v>501.6</v>
+        <v>390</v>
       </c>
       <c r="H104" s="13" t="s">
         <v>33</v>
       </c>
       <c r="I104" s="2">
-        <v>1.1499999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="J104" s="2">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="K104" s="2">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="L104" s="15">
         <v>0.08</v>
       </c>
       <c r="M104" s="17">
         <v>3</v>
+      </c>
+      <c r="O104" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.3">
@@ -6249,10 +6303,10 @@
         <v>132</v>
       </c>
       <c r="B105" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C105" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D105">
         <v>30</v>
@@ -6266,19 +6320,24 @@
       <c r="G105" s="30">
         <v>528</v>
       </c>
-      <c r="H105" s="10" t="s">
-        <v>27</v>
+      <c r="H105" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="I105" s="2">
-        <v>0.75</v>
+        <v>1.35</v>
       </c>
       <c r="J105" s="2">
-        <v>1.1000000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="K105" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="L105" s="15"/>
+        <v>0.7</v>
+      </c>
+      <c r="L105" s="15">
+        <v>0.08</v>
+      </c>
+      <c r="M105" s="17">
+        <v>3</v>
+      </c>
       <c r="O105" t="s">
         <v>57</v>
       </c>
@@ -6288,43 +6347,40 @@
         <v>132</v>
       </c>
       <c r="B106" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C106" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D106">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E106">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F106" s="2">
         <v>1.1000000000000001</v>
       </c>
       <c r="G106" s="30">
-        <v>528</v>
+        <v>501.6</v>
       </c>
       <c r="H106" s="13" t="s">
         <v>33</v>
       </c>
       <c r="I106" s="2">
-        <v>1.35</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="J106" s="2">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="K106" s="2">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="L106" s="15">
         <v>0.08</v>
       </c>
       <c r="M106" s="17">
         <v>3</v>
-      </c>
-      <c r="O106" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.3">
@@ -6332,41 +6388,36 @@
         <v>132</v>
       </c>
       <c r="B107" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C107" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D107">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E107">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F107" s="2">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G107" s="30">
-        <v>240</v>
-      </c>
-      <c r="H107" s="13" t="s">
-        <v>33</v>
+        <v>528</v>
+      </c>
+      <c r="H107" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="I107" s="2">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J107" s="2">
-        <v>0.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K107" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="L107" s="15">
-        <v>0.3</v>
-      </c>
-      <c r="M107" s="17">
-        <v>1</v>
-      </c>
+        <v>0.75</v>
+      </c>
+      <c r="L107" s="15"/>
       <c r="O107" t="s">
         <v>57</v>
       </c>
@@ -6376,83 +6427,95 @@
         <v>132</v>
       </c>
       <c r="B108" t="s">
-        <v>363</v>
+        <v>168</v>
       </c>
       <c r="C108" t="s">
-        <v>362</v>
+        <v>169</v>
       </c>
       <c r="D108">
         <v>30</v>
       </c>
       <c r="E108">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F108" s="2">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G108" s="30">
-        <f>Barrage[[#This Row],[Base Damage]]*Barrage[[#This Row],[Total Rounds]]*Barrage[[#This Row],[Coefficient]]</f>
-        <v>450</v>
+        <v>528</v>
       </c>
       <c r="H108" s="13" t="s">
         <v>33</v>
       </c>
       <c r="I108" s="2">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="J108" s="2">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="K108" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="L108" s="23"/>
-      <c r="M108" s="24"/>
+        <v>0.7</v>
+      </c>
+      <c r="L108" s="15">
+        <v>0.08</v>
+      </c>
+      <c r="M108" s="17">
+        <v>3</v>
+      </c>
+      <c r="O108" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>132</v>
       </c>
       <c r="B109" t="s">
-        <v>364</v>
+        <v>170</v>
       </c>
       <c r="C109" t="s">
-        <v>362</v>
+        <v>171</v>
       </c>
       <c r="D109">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E109">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F109" s="2">
         <v>1</v>
       </c>
       <c r="G109" s="30">
-        <f>Barrage[[#This Row],[Base Damage]]*Barrage[[#This Row],[Total Rounds]]*Barrage[[#This Row],[Coefficient]]</f>
-        <v>525</v>
+        <v>240</v>
       </c>
       <c r="H109" s="13" t="s">
         <v>33</v>
       </c>
       <c r="I109" s="2">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="J109" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="K109" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="L109" s="23"/>
-      <c r="M109" s="24"/>
+        <v>0.6</v>
+      </c>
+      <c r="L109" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="M109" s="17">
+        <v>1</v>
+      </c>
+      <c r="O109" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>132</v>
       </c>
       <c r="B110" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C110" t="s">
         <v>362</v>
@@ -6461,120 +6524,121 @@
         <v>30</v>
       </c>
       <c r="E110">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F110" s="2">
         <v>1</v>
       </c>
       <c r="G110" s="30">
         <f>Barrage[[#This Row],[Base Damage]]*Barrage[[#This Row],[Total Rounds]]*Barrage[[#This Row],[Coefficient]]</f>
-        <v>240</v>
-      </c>
-      <c r="H110" s="10" t="s">
-        <v>27</v>
+        <v>450</v>
+      </c>
+      <c r="H110" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="I110" s="2">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="J110" s="2">
-        <v>1.1000000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="K110" s="2">
-        <v>0.75</v>
+        <v>0.65</v>
       </c>
       <c r="L110" s="23"/>
       <c r="M110" s="24"/>
-      <c r="O110" t="s">
-        <v>365</v>
-      </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>132</v>
       </c>
       <c r="B111" t="s">
-        <v>456</v>
+        <v>364</v>
       </c>
       <c r="C111" t="s">
-        <v>457</v>
+        <v>362</v>
       </c>
       <c r="D111">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E111">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F111" s="2">
         <v>1</v>
       </c>
       <c r="G111" s="30">
         <f>Barrage[[#This Row],[Base Damage]]*Barrage[[#This Row],[Total Rounds]]*Barrage[[#This Row],[Coefficient]]</f>
-        <v>252</v>
-      </c>
-      <c r="H111" s="10" t="s">
-        <v>27</v>
+        <v>525</v>
+      </c>
+      <c r="H111" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="I111" s="2">
-        <v>0.85</v>
+        <v>1.25</v>
       </c>
       <c r="J111" s="2">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="K111" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="L111" s="32"/>
-      <c r="M111" s="33"/>
+        <v>0.8</v>
+      </c>
+      <c r="L111" s="23"/>
+      <c r="M111" s="24"/>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>132</v>
       </c>
-      <c r="B112" s="37" t="s">
-        <v>474</v>
+      <c r="B112" t="s">
+        <v>364</v>
       </c>
       <c r="C112" t="s">
-        <v>475</v>
+        <v>362</v>
       </c>
       <c r="D112">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E112">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F112" s="2">
         <v>1</v>
       </c>
       <c r="G112" s="30">
         <f>Barrage[[#This Row],[Base Damage]]*Barrage[[#This Row],[Total Rounds]]*Barrage[[#This Row],[Coefficient]]</f>
-        <v>228</v>
-      </c>
-      <c r="H112" t="s">
-        <v>9</v>
-      </c>
-      <c r="I112">
-        <v>100</v>
+        <v>240</v>
+      </c>
+      <c r="H112" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I112" s="2">
+        <v>0.75</v>
       </c>
       <c r="J112" s="2">
-        <v>0.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K112" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="L112" s="15"/>
+        <v>0.75</v>
+      </c>
+      <c r="L112" s="23"/>
+      <c r="M112" s="24"/>
+      <c r="O112" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>132</v>
       </c>
       <c r="B113" t="s">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="C113" t="s">
-        <v>477</v>
+        <v>457</v>
       </c>
       <c r="D113">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E113">
         <v>6</v>
@@ -6584,37 +6648,35 @@
       </c>
       <c r="G113" s="30">
         <f>Barrage[[#This Row],[Base Damage]]*Barrage[[#This Row],[Total Rounds]]*Barrage[[#This Row],[Coefficient]]</f>
-        <v>240</v>
-      </c>
-      <c r="H113" t="s">
-        <v>478</v>
+        <v>252</v>
+      </c>
+      <c r="H113" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="I113" s="2">
-        <v>0.65</v>
+        <v>0.85</v>
       </c>
       <c r="J113" s="2">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="K113" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="L113" s="15"/>
-      <c r="N113" s="6">
-        <v>1</v>
-      </c>
+        <v>0.85</v>
+      </c>
+      <c r="L113" s="32"/>
+      <c r="M113" s="33"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>173</v>
-      </c>
-      <c r="B114" t="s">
-        <v>451</v>
+        <v>132</v>
+      </c>
+      <c r="B114" s="37" t="s">
+        <v>474</v>
       </c>
       <c r="C114" t="s">
-        <v>452</v>
+        <v>475</v>
       </c>
       <c r="D114">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="E114">
         <v>6</v>
@@ -6623,81 +6685,84 @@
         <v>1</v>
       </c>
       <c r="G114" s="30">
-        <v>360</v>
+        <f>Barrage[[#This Row],[Base Damage]]*Barrage[[#This Row],[Total Rounds]]*Barrage[[#This Row],[Coefficient]]</f>
+        <v>228</v>
       </c>
       <c r="H114" t="s">
-        <v>49</v>
-      </c>
-      <c r="I114" s="2">
+        <v>9</v>
+      </c>
+      <c r="I114">
+        <v>100</v>
+      </c>
+      <c r="J114" s="2">
         <v>0.8</v>
       </c>
-      <c r="J114" s="2">
-        <v>1</v>
-      </c>
       <c r="K114" s="2">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="L114" s="15"/>
-      <c r="M114" s="12"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="B115" t="s">
-        <v>174</v>
+        <v>476</v>
       </c>
       <c r="C115" t="s">
-        <v>175</v>
+        <v>477</v>
       </c>
       <c r="D115">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E115">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F115" s="2">
         <v>1</v>
       </c>
       <c r="G115" s="30">
-        <v>540</v>
+        <f>Barrage[[#This Row],[Base Damage]]*Barrage[[#This Row],[Total Rounds]]*Barrage[[#This Row],[Coefficient]]</f>
+        <v>240</v>
       </c>
       <c r="H115" t="s">
-        <v>49</v>
+        <v>478</v>
       </c>
       <c r="I115" s="2">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="J115" s="2">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="K115" s="2">
-        <v>1.3</v>
+        <v>0.65</v>
       </c>
       <c r="L115" s="15"/>
-      <c r="M115" s="12"/>
+      <c r="N115" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>173</v>
       </c>
       <c r="B116" t="s">
-        <v>181</v>
+        <v>451</v>
       </c>
       <c r="C116" t="s">
-        <v>176</v>
+        <v>452</v>
       </c>
       <c r="D116">
         <v>60</v>
       </c>
       <c r="E116">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F116" s="2">
         <v>1</v>
       </c>
       <c r="G116" s="30">
-        <v>540</v>
+        <v>360</v>
       </c>
       <c r="H116" t="s">
         <v>49</v>
@@ -6719,22 +6784,22 @@
         <v>173</v>
       </c>
       <c r="B117" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C117" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D117">
         <v>60</v>
       </c>
       <c r="E117">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F117" s="2">
         <v>1</v>
       </c>
       <c r="G117" s="30">
-        <v>360</v>
+        <v>540</v>
       </c>
       <c r="H117" t="s">
         <v>49</v>
@@ -6756,23 +6821,22 @@
         <v>173</v>
       </c>
       <c r="B118" t="s">
-        <v>413</v>
+        <v>181</v>
       </c>
       <c r="C118" t="s">
-        <v>414</v>
+        <v>176</v>
       </c>
       <c r="D118">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E118">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F118" s="2">
         <v>1</v>
       </c>
       <c r="G118" s="30">
-        <f>55*6</f>
-        <v>330</v>
+        <v>540</v>
       </c>
       <c r="H118" t="s">
         <v>49</v>
@@ -6786,18 +6850,18 @@
       <c r="K118" s="2">
         <v>1.3</v>
       </c>
-      <c r="L118" s="26"/>
-      <c r="M118" s="28"/>
+      <c r="L118" s="15"/>
+      <c r="M118" s="12"/>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>173</v>
       </c>
       <c r="B119" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C119" t="s">
-        <v>412</v>
+        <v>177</v>
       </c>
       <c r="D119">
         <v>60</v>
@@ -6831,22 +6895,23 @@
         <v>173</v>
       </c>
       <c r="B120" t="s">
-        <v>448</v>
+        <v>413</v>
       </c>
       <c r="C120" t="s">
-        <v>178</v>
+        <v>414</v>
       </c>
       <c r="D120">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E120">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F120" s="2">
         <v>1</v>
       </c>
       <c r="G120" s="30">
-        <v>540</v>
+        <f>55*6</f>
+        <v>330</v>
       </c>
       <c r="H120" t="s">
         <v>49</v>
@@ -6860,71 +6925,67 @@
       <c r="K120" s="2">
         <v>1.3</v>
       </c>
-      <c r="L120" s="15"/>
-      <c r="M120" s="12"/>
+      <c r="L120" s="26"/>
+      <c r="M120" s="28"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>173</v>
       </c>
       <c r="B121" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C121" t="s">
-        <v>179</v>
+        <v>412</v>
       </c>
       <c r="D121">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="E121">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F121" s="2">
         <v>1</v>
       </c>
       <c r="G121" s="30">
-        <v>600</v>
-      </c>
-      <c r="H121" s="13" t="s">
-        <v>33</v>
+        <v>360</v>
+      </c>
+      <c r="H121" t="s">
+        <v>49</v>
       </c>
       <c r="I121" s="2">
-        <v>1.25</v>
+        <v>0.8</v>
       </c>
       <c r="J121" s="2">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="K121" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="L121" s="15">
-        <v>0.08</v>
-      </c>
-      <c r="M121" s="12">
-        <v>3</v>
-      </c>
+        <v>1.3</v>
+      </c>
+      <c r="L121" s="15"/>
+      <c r="M121" s="12"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>173</v>
       </c>
       <c r="B122" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="C122" t="s">
-        <v>462</v>
+        <v>178</v>
       </c>
       <c r="D122">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E122">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F122" s="2">
         <v>1</v>
       </c>
       <c r="G122" s="30">
-        <v>576</v>
+        <v>540</v>
       </c>
       <c r="H122" t="s">
         <v>49</v>
@@ -6946,61 +7007,63 @@
         <v>173</v>
       </c>
       <c r="B123" t="s">
-        <v>366</v>
+        <v>184</v>
       </c>
       <c r="C123" t="s">
-        <v>367</v>
+        <v>179</v>
       </c>
       <c r="D123">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="E123">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F123" s="2">
         <v>1</v>
       </c>
       <c r="G123" s="30">
-        <f>Barrage[[#This Row],[Base Damage]]*Barrage[[#This Row],[Total Rounds]]*Barrage[[#This Row],[Coefficient]]</f>
-        <v>495</v>
-      </c>
-      <c r="H123" t="s">
-        <v>49</v>
+        <v>600</v>
+      </c>
+      <c r="H123" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="I123" s="2">
-        <v>0.8</v>
+        <v>1.25</v>
       </c>
       <c r="J123" s="2">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="K123" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="L123" s="23"/>
-      <c r="M123" s="25"/>
+        <v>0.65</v>
+      </c>
+      <c r="L123" s="15">
+        <v>0.08</v>
+      </c>
+      <c r="M123" s="12">
+        <v>3</v>
+      </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>173</v>
       </c>
       <c r="B124" t="s">
-        <v>445</v>
+        <v>463</v>
       </c>
       <c r="C124" t="s">
-        <v>444</v>
+        <v>462</v>
       </c>
       <c r="D124">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E124">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F124" s="2">
         <v>1</v>
       </c>
       <c r="G124" s="30">
-        <f>Barrage[[#This Row],[Base Damage]]*Barrage[[#This Row],[Total Rounds]]*Barrage[[#This Row],[Coefficient]]</f>
-        <v>540</v>
+        <v>576</v>
       </c>
       <c r="H124" t="s">
         <v>49</v>
@@ -7015,19 +7078,20 @@
         <v>1.3</v>
       </c>
       <c r="L124" s="15"/>
+      <c r="M124" s="12"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>173</v>
       </c>
       <c r="B125" t="s">
-        <v>446</v>
+        <v>366</v>
       </c>
       <c r="C125" t="s">
-        <v>447</v>
+        <v>367</v>
       </c>
       <c r="D125">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E125">
         <v>9</v>
@@ -7037,7 +7101,7 @@
       </c>
       <c r="G125" s="30">
         <f>Barrage[[#This Row],[Base Damage]]*Barrage[[#This Row],[Total Rounds]]*Barrage[[#This Row],[Coefficient]]</f>
-        <v>540</v>
+        <v>495</v>
       </c>
       <c r="H125" t="s">
         <v>49</v>
@@ -7051,30 +7115,31 @@
       <c r="K125" s="2">
         <v>1.3</v>
       </c>
-      <c r="L125" s="15"/>
+      <c r="L125" s="23"/>
+      <c r="M125" s="25"/>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>173</v>
       </c>
       <c r="B126" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C126" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="D126">
         <v>60</v>
       </c>
       <c r="E126">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F126" s="2">
         <v>1</v>
       </c>
       <c r="G126" s="30">
         <f>Barrage[[#This Row],[Base Damage]]*Barrage[[#This Row],[Total Rounds]]*Barrage[[#This Row],[Coefficient]]</f>
-        <v>360</v>
+        <v>540</v>
       </c>
       <c r="H126" t="s">
         <v>49</v>
@@ -7091,8 +7156,115 @@
       <c r="L126" s="15"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G127" s="30"/>
+      <c r="A127" t="s">
+        <v>173</v>
+      </c>
+      <c r="B127" t="s">
+        <v>446</v>
+      </c>
+      <c r="C127" t="s">
+        <v>447</v>
+      </c>
+      <c r="D127">
+        <v>60</v>
+      </c>
+      <c r="E127">
+        <v>9</v>
+      </c>
+      <c r="F127" s="2">
+        <v>1</v>
+      </c>
+      <c r="G127" s="30">
+        <f>Barrage[[#This Row],[Base Damage]]*Barrage[[#This Row],[Total Rounds]]*Barrage[[#This Row],[Coefficient]]</f>
+        <v>540</v>
+      </c>
+      <c r="H127" t="s">
+        <v>49</v>
+      </c>
+      <c r="I127" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="J127" s="2">
+        <v>1</v>
+      </c>
+      <c r="K127" s="2">
+        <v>1.3</v>
+      </c>
       <c r="L127" s="15"/>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>173</v>
+      </c>
+      <c r="B128" t="s">
+        <v>449</v>
+      </c>
+      <c r="C128" t="s">
+        <v>450</v>
+      </c>
+      <c r="D128">
+        <v>60</v>
+      </c>
+      <c r="E128">
+        <v>6</v>
+      </c>
+      <c r="F128" s="2">
+        <v>1</v>
+      </c>
+      <c r="G128" s="30">
+        <f>Barrage[[#This Row],[Base Damage]]*Barrage[[#This Row],[Total Rounds]]*Barrage[[#This Row],[Coefficient]]</f>
+        <v>360</v>
+      </c>
+      <c r="H128" t="s">
+        <v>49</v>
+      </c>
+      <c r="I128" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="J128" s="2">
+        <v>1</v>
+      </c>
+      <c r="K128" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="L128" s="15"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>173</v>
+      </c>
+      <c r="B129" t="s">
+        <v>498</v>
+      </c>
+      <c r="C129" t="s">
+        <v>499</v>
+      </c>
+      <c r="D129">
+        <v>60</v>
+      </c>
+      <c r="E129">
+        <v>6</v>
+      </c>
+      <c r="F129" s="2">
+        <v>1</v>
+      </c>
+      <c r="G129" s="30">
+        <f>Barrage[[#This Row],[Base Damage]]*Barrage[[#This Row],[Total Rounds]]*Barrage[[#This Row],[Coefficient]]</f>
+        <v>360</v>
+      </c>
+      <c r="H129" t="s">
+        <v>49</v>
+      </c>
+      <c r="I129" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="J129" s="2">
+        <v>1</v>
+      </c>
+      <c r="K129" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="L129" s="15"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:G58">
@@ -7107,7 +7279,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G59:G86">
+  <conditionalFormatting sqref="G59:G88">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -7119,7 +7291,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G87:G113">
+  <conditionalFormatting sqref="G89:G115">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -7131,7 +7303,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G114:G126">
+  <conditionalFormatting sqref="G116:G129">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -7154,10 +7326,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:U166"/>
+  <dimension ref="A1:U169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="C151" sqref="C151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7226,22 +7398,22 @@
         <v>50</v>
       </c>
       <c r="P1" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>496</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
@@ -7950,10 +8122,10 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="C20" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D20">
         <v>134</v>
@@ -7987,7 +8159,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="C21" t="s">
         <v>60</v>
@@ -8024,7 +8196,7 @@
       <c r="P21" s="12"/>
       <c r="Q21" s="6"/>
       <c r="U21" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
@@ -12192,236 +12364,233 @@
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>332</v>
+        <v>272</v>
       </c>
       <c r="B128" t="s">
-        <v>317</v>
+        <v>510</v>
       </c>
       <c r="C128" t="s">
-        <v>314</v>
+        <v>509</v>
       </c>
       <c r="D128">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="E128">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F128" s="2">
         <v>1</v>
       </c>
       <c r="G128" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>2424</v>
-      </c>
-      <c r="H128" s="9" t="s">
-        <v>301</v>
+        <v>678</v>
+      </c>
+      <c r="H128" t="s">
+        <v>275</v>
       </c>
       <c r="I128" s="2">
         <v>0.8</v>
       </c>
       <c r="J128" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="K128" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K128" s="2">
-        <v>1.3</v>
-      </c>
       <c r="L128" s="15"/>
+      <c r="O128" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>332</v>
+        <v>272</v>
       </c>
       <c r="B129" t="s">
-        <v>316</v>
+        <v>511</v>
       </c>
       <c r="C129" t="s">
-        <v>315</v>
+        <v>509</v>
       </c>
       <c r="D129">
-        <v>240</v>
+        <v>96</v>
       </c>
       <c r="E129">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F129" s="2">
         <v>1</v>
       </c>
       <c r="G129" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>2160</v>
-      </c>
-      <c r="H129" s="9" t="s">
-        <v>301</v>
+        <v>576</v>
+      </c>
+      <c r="H129" t="s">
+        <v>275</v>
       </c>
       <c r="I129" s="2">
         <v>0.8</v>
       </c>
       <c r="J129" s="2">
-        <v>1.1000000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="K129" s="2">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="L129" s="15"/>
+      <c r="O129" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>332</v>
+        <v>272</v>
       </c>
       <c r="B130" t="s">
-        <v>318</v>
+        <v>512</v>
       </c>
       <c r="C130" t="s">
-        <v>319</v>
+        <v>509</v>
       </c>
       <c r="D130">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="E130">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F130" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G130" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>450</v>
-      </c>
-      <c r="H130" s="10" t="s">
-        <v>27</v>
+        <v>1440</v>
+      </c>
+      <c r="H130" t="s">
+        <v>49</v>
       </c>
       <c r="I130" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J130" s="2">
         <v>1</v>
       </c>
       <c r="K130" s="2">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="L130" s="15"/>
-      <c r="O130" t="s">
-        <v>300</v>
-      </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>332</v>
       </c>
       <c r="B131" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="C131" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="D131">
-        <v>332</v>
+        <v>202</v>
       </c>
       <c r="E131">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F131" s="2">
         <v>1</v>
       </c>
       <c r="G131" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>332</v>
+        <v>2424</v>
       </c>
       <c r="H131" s="9" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="I131" s="2">
         <v>0.8</v>
       </c>
       <c r="J131" s="2">
-        <v>0.95</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K131" s="2">
-        <v>1.1499999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="L131" s="15"/>
-      <c r="O131" t="s">
-        <v>281</v>
-      </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>332</v>
       </c>
       <c r="B132" t="s">
-        <v>342</v>
+        <v>316</v>
       </c>
       <c r="C132" t="s">
-        <v>340</v>
+        <v>315</v>
       </c>
       <c r="D132">
-        <v>138</v>
+        <v>240</v>
       </c>
       <c r="E132">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F132" s="2">
         <v>1</v>
       </c>
       <c r="G132" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>276</v>
+        <v>2160</v>
       </c>
       <c r="H132" s="9" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="I132" s="2">
         <v>0.8</v>
       </c>
       <c r="J132" s="2">
-        <v>0.85</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K132" s="2">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="L132" s="15"/>
-      <c r="O132" t="s">
-        <v>281</v>
-      </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>332</v>
       </c>
       <c r="B133" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="C133" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="D133">
-        <v>288</v>
+        <v>225</v>
       </c>
       <c r="E133">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F133" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G133" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>1728</v>
-      </c>
-      <c r="H133" s="9" t="s">
-        <v>286</v>
+        <v>450</v>
+      </c>
+      <c r="H133" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="I133" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J133" s="2">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="K133" s="2">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="L133" s="15"/>
       <c r="O133" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.3">
@@ -12429,118 +12598,119 @@
         <v>332</v>
       </c>
       <c r="B134" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="C134" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="D134">
-        <v>207</v>
+        <v>332</v>
       </c>
       <c r="E134">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F134" s="2">
         <v>1</v>
       </c>
       <c r="G134" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>621</v>
-      </c>
-      <c r="H134" t="s">
-        <v>49</v>
+        <v>332</v>
+      </c>
+      <c r="H134" s="9" t="s">
+        <v>275</v>
       </c>
       <c r="I134" s="2">
         <v>0.8</v>
       </c>
       <c r="J134" s="2">
-        <v>1.1000000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="K134" s="2">
-        <v>1.3</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="L134" s="15"/>
+      <c r="O134" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>332</v>
       </c>
       <c r="B135" t="s">
-        <v>442</v>
+        <v>342</v>
       </c>
       <c r="C135" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="D135">
-        <v>207</v>
+        <v>138</v>
       </c>
       <c r="E135">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F135" s="2">
         <v>1</v>
       </c>
       <c r="G135" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>1242</v>
-      </c>
-      <c r="H135" t="s">
-        <v>49</v>
+        <v>276</v>
+      </c>
+      <c r="H135" s="9" t="s">
+        <v>275</v>
       </c>
       <c r="I135" s="2">
         <v>0.8</v>
       </c>
       <c r="J135" s="2">
-        <v>1.1000000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="K135" s="2">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="L135" s="15"/>
+      <c r="O135" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>332</v>
       </c>
       <c r="B136" t="s">
-        <v>423</v>
+        <v>338</v>
       </c>
       <c r="C136" t="s">
-        <v>424</v>
+        <v>339</v>
       </c>
       <c r="D136">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="E136">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F136" s="2">
         <v>1</v>
       </c>
       <c r="G136" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>294</v>
-      </c>
-      <c r="H136" s="13" t="s">
-        <v>299</v>
+        <v>1728</v>
+      </c>
+      <c r="H136" s="9" t="s">
+        <v>286</v>
       </c>
       <c r="I136" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J136" s="2">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K136" s="2">
-        <v>1</v>
-      </c>
-      <c r="L136" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="M136" s="27">
-        <v>3</v>
-      </c>
+        <v>1.3</v>
+      </c>
+      <c r="L136" s="15"/>
       <c r="O136" t="s">
-        <v>425</v>
+        <v>281</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.3">
@@ -12548,13 +12718,13 @@
         <v>332</v>
       </c>
       <c r="B137" t="s">
-        <v>423</v>
+        <v>348</v>
       </c>
       <c r="C137" t="s">
-        <v>424</v>
+        <v>349</v>
       </c>
       <c r="D137">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="E137">
         <v>3</v>
@@ -12564,239 +12734,242 @@
       </c>
       <c r="G137" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>744</v>
-      </c>
-      <c r="H137" s="10" t="s">
-        <v>426</v>
+        <v>621</v>
+      </c>
+      <c r="H137" t="s">
+        <v>49</v>
       </c>
       <c r="I137" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J137" s="2">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K137" s="2">
-        <v>1</v>
-      </c>
-      <c r="L137" s="26"/>
-      <c r="M137" s="27"/>
+        <v>1.3</v>
+      </c>
+      <c r="L137" s="15"/>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>332</v>
       </c>
       <c r="B138" t="s">
-        <v>423</v>
+        <v>442</v>
       </c>
       <c r="C138" t="s">
-        <v>424</v>
+        <v>349</v>
       </c>
       <c r="D138">
-        <v>72</v>
+        <v>207</v>
       </c>
       <c r="E138">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F138" s="2">
         <v>1</v>
       </c>
       <c r="G138" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>1728</v>
+        <v>1242</v>
       </c>
       <c r="H138" t="s">
-        <v>275</v>
+        <v>49</v>
       </c>
       <c r="I138" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J138" s="2">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K138" s="2">
-        <v>1</v>
-      </c>
-      <c r="L138" s="26"/>
-      <c r="M138" s="27"/>
+        <v>1.3</v>
+      </c>
+      <c r="L138" s="15"/>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>332</v>
       </c>
       <c r="B139" t="s">
-        <v>468</v>
+        <v>423</v>
       </c>
       <c r="C139" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="D139">
-        <v>380</v>
+        <v>294</v>
       </c>
       <c r="E139">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F139" s="2">
         <v>1</v>
       </c>
       <c r="G139" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>2280</v>
-      </c>
-      <c r="H139" t="s">
-        <v>275</v>
+        <v>294</v>
+      </c>
+      <c r="H139" s="13" t="s">
+        <v>299</v>
       </c>
       <c r="I139" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J139" s="2">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="K139" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L139" s="15"/>
-      <c r="M139" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="L139" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="M139" s="27">
+        <v>3</v>
+      </c>
+      <c r="O139" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B140" t="s">
-        <v>359</v>
+        <v>423</v>
       </c>
       <c r="C140" t="s">
-        <v>360</v>
+        <v>424</v>
       </c>
       <c r="D140">
-        <v>173</v>
+        <v>248</v>
       </c>
       <c r="E140">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F140" s="2">
         <v>1</v>
       </c>
       <c r="G140" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>2595</v>
-      </c>
-      <c r="H140" t="s">
-        <v>275</v>
+        <v>744</v>
+      </c>
+      <c r="H140" s="10" t="s">
+        <v>426</v>
       </c>
       <c r="I140" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J140" s="2">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="K140" s="2">
         <v>1</v>
       </c>
-      <c r="L140" s="15"/>
-      <c r="O140" t="s">
-        <v>281</v>
-      </c>
+      <c r="L140" s="26"/>
+      <c r="M140" s="27"/>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B141" t="s">
-        <v>321</v>
+        <v>423</v>
       </c>
       <c r="C141" t="s">
-        <v>320</v>
+        <v>424</v>
       </c>
       <c r="D141">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E141">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F141" s="2">
         <v>1</v>
       </c>
       <c r="G141" s="30">
-        <v>800</v>
-      </c>
-      <c r="H141" s="13" t="s">
-        <v>33</v>
+        <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
+        <v>1728</v>
+      </c>
+      <c r="H141" t="s">
+        <v>275</v>
       </c>
       <c r="I141" s="2">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="J141" s="2">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="K141" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="L141" s="15"/>
+        <v>1</v>
+      </c>
+      <c r="L141" s="26"/>
+      <c r="M141" s="27"/>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B142" t="s">
-        <v>323</v>
+        <v>468</v>
       </c>
       <c r="C142" t="s">
-        <v>322</v>
+        <v>464</v>
       </c>
       <c r="D142">
-        <v>332</v>
+        <v>380</v>
       </c>
       <c r="E142">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F142" s="2">
         <v>1</v>
       </c>
       <c r="G142" s="30">
-        <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]</f>
-        <v>664</v>
-      </c>
-      <c r="H142" s="9" t="s">
+        <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
+        <v>2280</v>
+      </c>
+      <c r="H142" t="s">
         <v>275</v>
       </c>
       <c r="I142" s="2">
         <v>0.8</v>
       </c>
       <c r="J142" s="2">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="K142" s="2">
-        <v>1.1499999999999999</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L142" s="15"/>
-      <c r="O142" t="s">
-        <v>281</v>
-      </c>
+      <c r="M142" s="12"/>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>333</v>
       </c>
       <c r="B143" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="C143" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="D143">
-        <v>276</v>
+        <v>173</v>
       </c>
       <c r="E143">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F143" s="2">
         <v>1</v>
       </c>
       <c r="G143" s="30">
-        <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]</f>
-        <v>552</v>
-      </c>
-      <c r="H143" s="9" t="s">
+        <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
+        <v>2595</v>
+      </c>
+      <c r="H143" t="s">
         <v>275</v>
       </c>
       <c r="I143" s="2">
@@ -12815,126 +12988,118 @@
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>173</v>
+        <v>333</v>
       </c>
       <c r="B144" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C144" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D144">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E144">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F144" s="2">
         <v>1</v>
       </c>
       <c r="G144" s="30">
-        <v>350</v>
-      </c>
-      <c r="H144" s="9" t="s">
-        <v>49</v>
+        <v>800</v>
+      </c>
+      <c r="H144" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="I144" s="2">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="J144" s="2">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K144" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="L144"/>
-      <c r="M144"/>
-      <c r="N144"/>
+        <v>0.9</v>
+      </c>
+      <c r="L144" s="15"/>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>173</v>
+        <v>333</v>
       </c>
       <c r="B145" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C145" t="s">
-        <v>175</v>
+        <v>322</v>
       </c>
       <c r="D145">
-        <v>48</v>
+        <v>332</v>
       </c>
       <c r="E145">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F145" s="2">
         <v>1</v>
       </c>
       <c r="G145" s="30">
-        <v>288</v>
-      </c>
-      <c r="H145" s="10" t="s">
-        <v>329</v>
+        <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]</f>
+        <v>664</v>
+      </c>
+      <c r="H145" s="9" t="s">
+        <v>275</v>
       </c>
       <c r="I145" s="2">
         <v>0.8</v>
       </c>
       <c r="J145" s="2">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="K145" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="L145"/>
-      <c r="M145"/>
-      <c r="N145"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="L145" s="15"/>
       <c r="O145" t="s">
-        <v>331</v>
+        <v>281</v>
       </c>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>173</v>
+        <v>333</v>
       </c>
       <c r="B146" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C146" t="s">
-        <v>180</v>
+        <v>322</v>
       </c>
       <c r="D146">
-        <v>40</v>
+        <v>276</v>
       </c>
       <c r="E146">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F146" s="2">
         <v>1</v>
       </c>
       <c r="G146" s="30">
-        <v>240</v>
-      </c>
-      <c r="H146" s="13" t="s">
-        <v>330</v>
+        <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]</f>
+        <v>552</v>
+      </c>
+      <c r="H146" s="9" t="s">
+        <v>275</v>
       </c>
       <c r="I146" s="2">
         <v>0.8</v>
       </c>
       <c r="J146" s="2">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="K146" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="L146" s="26">
-        <v>0.7</v>
-      </c>
-      <c r="M146" s="27">
-        <v>2</v>
-      </c>
-      <c r="N146"/>
+        <v>1</v>
+      </c>
+      <c r="L146" s="15"/>
       <c r="O146" t="s">
-        <v>472</v>
+        <v>281</v>
       </c>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.3">
@@ -12942,23 +13107,22 @@
         <v>173</v>
       </c>
       <c r="B147" t="s">
-        <v>454</v>
+        <v>325</v>
       </c>
       <c r="C147" t="s">
-        <v>447</v>
+        <v>328</v>
       </c>
       <c r="D147">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E147">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F147" s="2">
         <v>1</v>
       </c>
       <c r="G147" s="30">
-        <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="H147" s="9" t="s">
         <v>49</v>
@@ -12972,106 +13136,219 @@
       <c r="K147" s="2">
         <v>1.3</v>
       </c>
-      <c r="L147" s="15"/>
+      <c r="L147"/>
+      <c r="M147"/>
+      <c r="N147"/>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>173</v>
       </c>
       <c r="B148" t="s">
-        <v>455</v>
+        <v>326</v>
       </c>
       <c r="C148" t="s">
-        <v>453</v>
+        <v>175</v>
       </c>
       <c r="D148">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E148">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F148" s="2">
         <v>1</v>
       </c>
       <c r="G148" s="30">
-        <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>432</v>
-      </c>
-      <c r="H148" s="9" t="s">
-        <v>49</v>
+        <v>288</v>
+      </c>
+      <c r="H148" s="10" t="s">
+        <v>329</v>
       </c>
       <c r="I148" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J148" s="2">
         <v>1</v>
       </c>
       <c r="K148" s="2">
-        <v>1</v>
-      </c>
-      <c r="L148" s="15"/>
+        <v>1.3</v>
+      </c>
+      <c r="L148"/>
+      <c r="M148"/>
+      <c r="N148"/>
+      <c r="O148" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>173</v>
       </c>
       <c r="B149" t="s">
+        <v>327</v>
+      </c>
+      <c r="C149" t="s">
+        <v>180</v>
+      </c>
+      <c r="D149">
+        <v>40</v>
+      </c>
+      <c r="E149">
+        <v>6</v>
+      </c>
+      <c r="F149" s="2">
+        <v>1</v>
+      </c>
+      <c r="G149" s="30">
+        <v>240</v>
+      </c>
+      <c r="H149" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="I149" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="J149" s="2">
+        <v>1</v>
+      </c>
+      <c r="K149" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="L149" s="26">
+        <v>0.7</v>
+      </c>
+      <c r="M149" s="27">
+        <v>2</v>
+      </c>
+      <c r="N149"/>
+      <c r="O149" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>173</v>
+      </c>
+      <c r="B150" t="s">
+        <v>454</v>
+      </c>
+      <c r="C150" t="s">
+        <v>447</v>
+      </c>
+      <c r="D150">
+        <v>60</v>
+      </c>
+      <c r="E150">
+        <v>10</v>
+      </c>
+      <c r="F150" s="2">
+        <v>1</v>
+      </c>
+      <c r="G150" s="30">
+        <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
+        <v>600</v>
+      </c>
+      <c r="H150" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I150" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="J150" s="2">
+        <v>1</v>
+      </c>
+      <c r="K150" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="L150" s="15"/>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>173</v>
+      </c>
+      <c r="B151" t="s">
+        <v>455</v>
+      </c>
+      <c r="C151" t="s">
+        <v>453</v>
+      </c>
+      <c r="D151">
+        <v>36</v>
+      </c>
+      <c r="E151">
+        <v>12</v>
+      </c>
+      <c r="F151" s="2">
+        <v>1</v>
+      </c>
+      <c r="G151" s="30">
+        <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
+        <v>432</v>
+      </c>
+      <c r="H151" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I151" s="2">
+        <v>1</v>
+      </c>
+      <c r="J151" s="2">
+        <v>1</v>
+      </c>
+      <c r="K151" s="2">
+        <v>1</v>
+      </c>
+      <c r="L151" s="15"/>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>173</v>
+      </c>
+      <c r="B152" t="s">
         <v>467</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C152" t="s">
         <v>461</v>
       </c>
-      <c r="D149">
+      <c r="D152">
         <v>36</v>
       </c>
-      <c r="E149">
+      <c r="E152">
         <v>7</v>
       </c>
-      <c r="F149" s="2">
-        <v>1</v>
-      </c>
-      <c r="G149" s="30">
+      <c r="F152" s="2">
+        <v>1</v>
+      </c>
+      <c r="G152" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
         <v>252</v>
       </c>
-      <c r="H149" s="9" t="s">
+      <c r="H152" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I149" s="2">
+      <c r="I152" s="2">
         <v>0.8</v>
       </c>
-      <c r="J149" s="2">
-        <v>1</v>
-      </c>
-      <c r="K149" s="2">
+      <c r="J152" s="2">
+        <v>1</v>
+      </c>
+      <c r="K152" s="2">
         <v>1.3</v>
       </c>
-      <c r="L149" s="32"/>
-      <c r="M149" s="33"/>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B150" s="36"/>
-      <c r="G150" s="30"/>
-      <c r="H150" s="13"/>
-      <c r="L150" s="15"/>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="L151" s="15"/>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="H152" s="13"/>
-      <c r="L152" s="15"/>
+      <c r="L152" s="32"/>
+      <c r="M152" s="33"/>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B153" s="36"/>
+      <c r="G153" s="30"/>
       <c r="H153" s="13"/>
       <c r="L153" s="15"/>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="H154" s="13"/>
       <c r="L154" s="15"/>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="H155" s="10"/>
+      <c r="H155" s="13"/>
       <c r="L155" s="15"/>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.3">
@@ -13083,62 +13360,26 @@
       <c r="L157" s="15"/>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="I158"/>
+      <c r="H158" s="10"/>
       <c r="L158" s="15"/>
-      <c r="M158" s="12"/>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="I159"/>
+      <c r="H159" s="13"/>
       <c r="L159" s="15"/>
-      <c r="M159" s="12"/>
-    </row>
-    <row r="160" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A160"/>
-      <c r="B160"/>
-      <c r="C160"/>
-      <c r="D160"/>
-      <c r="E160"/>
-      <c r="F160" s="2"/>
-      <c r="G160" s="29"/>
-      <c r="H160"/>
-      <c r="I160"/>
-      <c r="J160" s="2"/>
-      <c r="K160" s="2"/>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H160" s="13"/>
       <c r="L160" s="15"/>
-      <c r="M160" s="12"/>
-      <c r="O160"/>
-    </row>
-    <row r="161" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A161"/>
-      <c r="B161"/>
-      <c r="C161"/>
-      <c r="D161"/>
-      <c r="E161"/>
-      <c r="F161" s="2"/>
-      <c r="G161" s="29"/>
-      <c r="H161"/>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I161"/>
-      <c r="J161" s="2"/>
-      <c r="K161" s="2"/>
       <c r="L161" s="15"/>
       <c r="M161" s="12"/>
-      <c r="O161"/>
-    </row>
-    <row r="162" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A162"/>
-      <c r="B162"/>
-      <c r="C162"/>
-      <c r="D162"/>
-      <c r="E162"/>
-      <c r="F162" s="2"/>
-      <c r="G162" s="29"/>
-      <c r="H162"/>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I162"/>
-      <c r="J162" s="2"/>
-      <c r="K162" s="2"/>
       <c r="L162" s="15"/>
       <c r="M162" s="12"/>
-      <c r="O162"/>
     </row>
     <row r="163" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163"/>
@@ -13164,7 +13405,7 @@
       <c r="E164"/>
       <c r="F164" s="2"/>
       <c r="G164" s="29"/>
-      <c r="H164" s="13"/>
+      <c r="H164"/>
       <c r="I164"/>
       <c r="J164" s="2"/>
       <c r="K164" s="2"/>
@@ -13200,9 +13441,57 @@
       <c r="I166"/>
       <c r="J166" s="2"/>
       <c r="K166" s="2"/>
-      <c r="L166" s="2"/>
+      <c r="L166" s="15"/>
       <c r="M166" s="12"/>
       <c r="O166"/>
+    </row>
+    <row r="167" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A167"/>
+      <c r="B167"/>
+      <c r="C167"/>
+      <c r="D167"/>
+      <c r="E167"/>
+      <c r="F167" s="2"/>
+      <c r="G167" s="29"/>
+      <c r="H167" s="13"/>
+      <c r="I167"/>
+      <c r="J167" s="2"/>
+      <c r="K167" s="2"/>
+      <c r="L167" s="15"/>
+      <c r="M167" s="12"/>
+      <c r="O167"/>
+    </row>
+    <row r="168" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A168"/>
+      <c r="B168"/>
+      <c r="C168"/>
+      <c r="D168"/>
+      <c r="E168"/>
+      <c r="F168" s="2"/>
+      <c r="G168" s="29"/>
+      <c r="H168"/>
+      <c r="I168"/>
+      <c r="J168" s="2"/>
+      <c r="K168" s="2"/>
+      <c r="L168" s="15"/>
+      <c r="M168" s="12"/>
+      <c r="O168"/>
+    </row>
+    <row r="169" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A169"/>
+      <c r="B169"/>
+      <c r="C169"/>
+      <c r="D169"/>
+      <c r="E169"/>
+      <c r="F169" s="2"/>
+      <c r="G169" s="29"/>
+      <c r="H169"/>
+      <c r="I169"/>
+      <c r="J169" s="2"/>
+      <c r="K169" s="2"/>
+      <c r="L169" s="2"/>
+      <c r="M169" s="12"/>
+      <c r="O169"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
@@ -13278,7 +13567,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G98:G127">
+  <conditionalFormatting sqref="G98:G130">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -13290,7 +13579,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G128:G143">
+  <conditionalFormatting sqref="G131:G146">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -13302,7 +13591,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G144:G149">
+  <conditionalFormatting sqref="G147:G152">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -13314,7 +13603,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G128:G139">
+  <conditionalFormatting sqref="G131:G142">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -13326,7 +13615,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G140:G143">
+  <conditionalFormatting sqref="G143:G146">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>

--- a/BarrageChart.xlsx
+++ b/BarrageChart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SICA\Pictures\AL\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5745B292-62FB-46D1-89BD-E49097FF58B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9884AB5A-78F2-429F-904F-955CE690A19A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Barrage - Frontline" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1314,9 +1315,6 @@
     <t>AP Bomb</t>
   </si>
   <si>
-    <t>Southampton, Sheffield</t>
-  </si>
-  <si>
     <t>Le Malin-Exclusive Barrage</t>
   </si>
   <si>
@@ -1570,6 +1568,9 @@
   </si>
   <si>
     <t>Dualism Torpedo (3 planes)</t>
+  </si>
+  <si>
+    <t>Southampton, Sheffield, Glasglow</t>
   </si>
 </sst>
 </file>
@@ -2299,8 +2300,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O129"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="O88" sqref="A87:O88"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2449,7 +2450,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -2521,7 +2522,7 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -3036,7 +3037,7 @@
         <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D20">
         <v>10</v>
@@ -3108,7 +3109,7 @@
         <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D22">
         <v>10</v>
@@ -4210,7 +4211,7 @@
         <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C51" t="s">
         <v>76</v>
@@ -4249,7 +4250,7 @@
         <v>77</v>
       </c>
       <c r="C52" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D52">
         <v>10</v>
@@ -4399,10 +4400,10 @@
         <v>2</v>
       </c>
       <c r="B56" t="s">
+        <v>427</v>
+      </c>
+      <c r="C56" t="s">
         <v>428</v>
-      </c>
-      <c r="C56" t="s">
-        <v>429</v>
       </c>
       <c r="D56">
         <v>18</v>
@@ -4437,10 +4438,10 @@
         <v>2</v>
       </c>
       <c r="B57" t="s">
+        <v>427</v>
+      </c>
+      <c r="C57" t="s">
         <v>428</v>
-      </c>
-      <c r="C57" t="s">
-        <v>429</v>
       </c>
       <c r="D57">
         <v>45</v>
@@ -4475,10 +4476,10 @@
         <v>2</v>
       </c>
       <c r="B58" t="s">
+        <v>429</v>
+      </c>
+      <c r="C58" t="s">
         <v>430</v>
-      </c>
-      <c r="C58" t="s">
-        <v>431</v>
       </c>
       <c r="D58">
         <v>12</v>
@@ -4811,7 +4812,7 @@
         <v>94</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D67" s="3">
         <v>20</v>
@@ -4888,7 +4889,7 @@
         <v>97</v>
       </c>
       <c r="C69" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D69">
         <v>20</v>
@@ -5156,7 +5157,7 @@
         <v>422</v>
       </c>
       <c r="C76" t="s">
-        <v>427</v>
+        <v>512</v>
       </c>
       <c r="D76">
         <v>22</v>
@@ -5468,10 +5469,10 @@
         <v>78</v>
       </c>
       <c r="B84" t="s">
+        <v>469</v>
+      </c>
+      <c r="C84" t="s">
         <v>470</v>
-      </c>
-      <c r="C84" t="s">
-        <v>471</v>
       </c>
       <c r="D84">
         <v>22</v>
@@ -5585,10 +5586,10 @@
         <v>78</v>
       </c>
       <c r="B87" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C87" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D87">
         <v>15</v>
@@ -5604,7 +5605,7 @@
         <v>450</v>
       </c>
       <c r="H87" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I87" s="2">
         <v>1.2</v>
@@ -5626,10 +5627,10 @@
         <v>78</v>
       </c>
       <c r="B88" t="s">
+        <v>503</v>
+      </c>
+      <c r="C88" t="s">
         <v>504</v>
-      </c>
-      <c r="C88" t="s">
-        <v>505</v>
       </c>
       <c r="D88">
         <v>20</v>
@@ -5645,7 +5646,7 @@
         <v>600</v>
       </c>
       <c r="H88" s="40" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I88" s="2">
         <v>1.2</v>
@@ -6632,10 +6633,10 @@
         <v>132</v>
       </c>
       <c r="B113" t="s">
+        <v>455</v>
+      </c>
+      <c r="C113" t="s">
         <v>456</v>
-      </c>
-      <c r="C113" t="s">
-        <v>457</v>
       </c>
       <c r="D113">
         <v>42</v>
@@ -6670,10 +6671,10 @@
         <v>132</v>
       </c>
       <c r="B114" s="37" t="s">
+        <v>473</v>
+      </c>
+      <c r="C114" t="s">
         <v>474</v>
-      </c>
-      <c r="C114" t="s">
-        <v>475</v>
       </c>
       <c r="D114">
         <v>38</v>
@@ -6707,10 +6708,10 @@
         <v>132</v>
       </c>
       <c r="B115" t="s">
+        <v>475</v>
+      </c>
+      <c r="C115" t="s">
         <v>476</v>
-      </c>
-      <c r="C115" t="s">
-        <v>477</v>
       </c>
       <c r="D115">
         <v>40</v>
@@ -6726,7 +6727,7 @@
         <v>240</v>
       </c>
       <c r="H115" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I115" s="2">
         <v>0.65</v>
@@ -6747,10 +6748,10 @@
         <v>173</v>
       </c>
       <c r="B116" t="s">
+        <v>450</v>
+      </c>
+      <c r="C116" t="s">
         <v>451</v>
-      </c>
-      <c r="C116" t="s">
-        <v>452</v>
       </c>
       <c r="D116">
         <v>60</v>
@@ -6970,7 +6971,7 @@
         <v>173</v>
       </c>
       <c r="B122" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C122" t="s">
         <v>178</v>
@@ -7048,10 +7049,10 @@
         <v>173</v>
       </c>
       <c r="B124" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C124" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D124">
         <v>48</v>
@@ -7123,10 +7124,10 @@
         <v>173</v>
       </c>
       <c r="B126" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C126" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D126">
         <v>60</v>
@@ -7160,10 +7161,10 @@
         <v>173</v>
       </c>
       <c r="B127" t="s">
+        <v>445</v>
+      </c>
+      <c r="C127" t="s">
         <v>446</v>
-      </c>
-      <c r="C127" t="s">
-        <v>447</v>
       </c>
       <c r="D127">
         <v>60</v>
@@ -7197,10 +7198,10 @@
         <v>173</v>
       </c>
       <c r="B128" t="s">
+        <v>448</v>
+      </c>
+      <c r="C128" t="s">
         <v>449</v>
-      </c>
-      <c r="C128" t="s">
-        <v>450</v>
       </c>
       <c r="D128">
         <v>60</v>
@@ -7234,10 +7235,10 @@
         <v>173</v>
       </c>
       <c r="B129" t="s">
+        <v>497</v>
+      </c>
+      <c r="C129" t="s">
         <v>498</v>
-      </c>
-      <c r="C129" t="s">
-        <v>499</v>
       </c>
       <c r="D129">
         <v>60</v>
@@ -7328,8 +7329,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:U169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="C151" sqref="C151"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7398,22 +7399,22 @@
         <v>50</v>
       </c>
       <c r="P1" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>495</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
@@ -8122,10 +8123,10 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C20" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D20">
         <v>134</v>
@@ -8159,7 +8160,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C21" t="s">
         <v>60</v>
@@ -8196,7 +8197,7 @@
       <c r="P21" s="12"/>
       <c r="Q21" s="6"/>
       <c r="U21" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
@@ -8528,10 +8529,10 @@
         <v>78</v>
       </c>
       <c r="B30" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C30" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D30">
         <v>62</v>
@@ -8566,10 +8567,10 @@
         <v>78</v>
       </c>
       <c r="B31" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C31" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D31">
         <v>72</v>
@@ -8604,7 +8605,7 @@
         <v>78</v>
       </c>
       <c r="B32" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C32" t="s">
         <v>93</v>
@@ -8641,7 +8642,7 @@
         <v>78</v>
       </c>
       <c r="B33" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C33" t="s">
         <v>93</v>
@@ -8678,7 +8679,7 @@
         <v>78</v>
       </c>
       <c r="B34" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C34" t="s">
         <v>93</v>
@@ -8910,10 +8911,10 @@
         <v>132</v>
       </c>
       <c r="B40" t="s">
+        <v>437</v>
+      </c>
+      <c r="C40" t="s">
         <v>438</v>
-      </c>
-      <c r="C40" t="s">
-        <v>439</v>
       </c>
       <c r="D40">
         <v>20</v>
@@ -10629,7 +10630,7 @@
         <v>245</v>
       </c>
       <c r="B84" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C84" t="s">
         <v>408</v>
@@ -10711,10 +10712,10 @@
         <v>245</v>
       </c>
       <c r="B86" t="s">
+        <v>457</v>
+      </c>
+      <c r="C86" t="s">
         <v>458</v>
-      </c>
-      <c r="C86" t="s">
-        <v>459</v>
       </c>
       <c r="D86">
         <v>170</v>
@@ -10749,10 +10750,10 @@
         <v>245</v>
       </c>
       <c r="B87" t="s">
+        <v>457</v>
+      </c>
+      <c r="C87" t="s">
         <v>458</v>
-      </c>
-      <c r="C87" t="s">
-        <v>459</v>
       </c>
       <c r="D87">
         <v>20</v>
@@ -10782,7 +10783,7 @@
       <c r="L87" s="32"/>
       <c r="M87" s="33"/>
       <c r="O87" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
@@ -10790,10 +10791,10 @@
         <v>245</v>
       </c>
       <c r="B88" s="37" t="s">
+        <v>478</v>
+      </c>
+      <c r="C88" t="s">
         <v>479</v>
-      </c>
-      <c r="C88" t="s">
-        <v>480</v>
       </c>
       <c r="D88">
         <v>174</v>
@@ -10827,10 +10828,10 @@
         <v>245</v>
       </c>
       <c r="B89" s="37" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C89" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D89">
         <v>174</v>
@@ -10864,10 +10865,10 @@
         <v>245</v>
       </c>
       <c r="B90" s="37" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C90" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D90">
         <v>20</v>
@@ -10906,10 +10907,10 @@
         <v>245</v>
       </c>
       <c r="B91" s="37" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C91" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D91">
         <v>96</v>
@@ -10943,10 +10944,10 @@
         <v>245</v>
       </c>
       <c r="B92" s="37" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C92" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D92">
         <v>140</v>
@@ -10985,10 +10986,10 @@
         <v>245</v>
       </c>
       <c r="B93" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C93" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D93">
         <v>30</v>
@@ -12009,7 +12010,7 @@
         <v>272</v>
       </c>
       <c r="B119" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C119" t="s">
         <v>361</v>
@@ -12207,7 +12208,7 @@
         <v>272</v>
       </c>
       <c r="B124" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C124" t="s">
         <v>397</v>
@@ -12327,10 +12328,10 @@
         <v>272</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C127" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D127">
         <v>240</v>
@@ -12367,10 +12368,10 @@
         <v>272</v>
       </c>
       <c r="B128" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C128" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D128">
         <v>226</v>
@@ -12407,10 +12408,10 @@
         <v>272</v>
       </c>
       <c r="B129" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C129" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D129">
         <v>96</v>
@@ -12447,10 +12448,10 @@
         <v>272</v>
       </c>
       <c r="B130" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C130" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D130">
         <v>240</v>
@@ -12755,7 +12756,7 @@
         <v>332</v>
       </c>
       <c r="B138" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C138" t="s">
         <v>349</v>
@@ -12913,10 +12914,10 @@
         <v>332</v>
       </c>
       <c r="B142" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C142" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D142">
         <v>380</v>
@@ -13223,7 +13224,7 @@
       </c>
       <c r="N149"/>
       <c r="O149" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.3">
@@ -13231,10 +13232,10 @@
         <v>173</v>
       </c>
       <c r="B150" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C150" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D150">
         <v>60</v>
@@ -13268,10 +13269,10 @@
         <v>173</v>
       </c>
       <c r="B151" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C151" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D151">
         <v>36</v>
@@ -13305,10 +13306,10 @@
         <v>173</v>
       </c>
       <c r="B152" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C152" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D152">
         <v>36</v>

--- a/BarrageChart.xlsx
+++ b/BarrageChart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SICA\Pictures\AL\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9884AB5A-78F2-429F-904F-955CE690A19A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF90FEE-BA6A-48A2-A934-706F0C444E8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Barrage - Frontline" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="528">
   <si>
     <t>Barrage Name (Skill Level 2)</t>
   </si>
@@ -1504,24 +1504,6 @@
     <t>Shigure Kai</t>
   </si>
   <si>
-    <t>Column1</t>
-  </si>
-  <si>
-    <t>Column2</t>
-  </si>
-  <si>
-    <t>Column3</t>
-  </si>
-  <si>
-    <t>Column4</t>
-  </si>
-  <si>
-    <t>Column5</t>
-  </si>
-  <si>
-    <t>Column6</t>
-  </si>
-  <si>
     <t>Buffs the specific Anshan's main gun damage by 16% and strengthens barrage</t>
   </si>
   <si>
@@ -1571,6 +1553,74 @@
   </si>
   <si>
     <t>Southampton, Sheffield, Glasglow</t>
+  </si>
+  <si>
+    <t>Shirakami Fubuki</t>
+  </si>
+  <si>
+    <t>500lb</t>
+  </si>
+  <si>
+    <t>60% Torpedo Stat</t>
+  </si>
+  <si>
+    <t>Natsuiro Matsuri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+与你眺望的夏日之花</t>
+  </si>
+  <si>
+    <t>Minato Aqua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+向日葵的约定</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+阿修罗修罗刹鬼神斩</t>
+  </si>
+  <si>
+    <t>Nakiri Ayame</t>
+  </si>
+  <si>
+    <t>Slash</t>
+  </si>
+  <si>
+    <t>AOE, 120 Range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MP清零的「EXPLOSION」</t>
+  </si>
+  <si>
+    <t>Murasaki Shion</t>
+  </si>
+  <si>
+    <t>Magic</t>
+  </si>
+  <si>
+    <t>100% Airpower Stat | 45 AOE</t>
+  </si>
+  <si>
+    <t>Tokino Sora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Dream☆Story</t>
+  </si>
+  <si>
+    <t>野性的二元论 TP</t>
+  </si>
+  <si>
+    <t>Ookami Mio</t>
+  </si>
+  <si>
+    <t>野性的二元论 Bomb</t>
+  </si>
+  <si>
+    <t>向日葵的约定 Enhanced</t>
   </si>
 </sst>
 </file>
@@ -1770,7 +1820,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1835,11 +1885,12 @@
     <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2005,9 +2056,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Barrage4" displayName="Barrage4" ref="A1:U152" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="A1:U152" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Barrage4" displayName="Barrage4" ref="A1:O162" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="A1:O162" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Type"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Skill Name (Max Level)"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Ship"/>
@@ -2023,12 +2074,6 @@
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="Burn Priority" dataDxfId="1"/>
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="AP Pen" dataDxfId="0"/>
     <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="Extra"/>
-    <tableColumn id="16" xr3:uid="{EBC71361-83BA-40C0-8CF1-838EEF6B6E1C}" name="Column1"/>
-    <tableColumn id="17" xr3:uid="{B4C32970-A29B-4B0C-BA3B-110A64739CEF}" name="Column2"/>
-    <tableColumn id="18" xr3:uid="{8F88F34B-C88D-4306-ADBD-3F6ECB0E53BD}" name="Column3"/>
-    <tableColumn id="19" xr3:uid="{CFD0FBC1-4589-4E89-93D0-EA80DB867C79}" name="Column4"/>
-    <tableColumn id="20" xr3:uid="{62E949CD-23DA-4711-B719-DE064ED47742}" name="Column5"/>
-    <tableColumn id="21" xr3:uid="{BB304EBC-2941-44B1-A903-A44BD8AEFD21}" name="Column6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2300,7 +2345,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView topLeftCell="A109" workbookViewId="0">
       <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
@@ -2450,7 +2495,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -5157,7 +5202,7 @@
         <v>422</v>
       </c>
       <c r="C76" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="D76">
         <v>22</v>
@@ -5586,10 +5631,10 @@
         <v>78</v>
       </c>
       <c r="B87" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="C87" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="D87">
         <v>15</v>
@@ -5605,7 +5650,7 @@
         <v>450</v>
       </c>
       <c r="H87" s="10" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="I87" s="2">
         <v>1.2</v>
@@ -5616,8 +5661,8 @@
       <c r="K87" s="2">
         <v>0.9</v>
       </c>
-      <c r="L87" s="38"/>
-      <c r="M87" s="39"/>
+      <c r="L87" s="37"/>
+      <c r="M87" s="38"/>
       <c r="N87" s="6">
         <v>1</v>
       </c>
@@ -5627,10 +5672,10 @@
         <v>78</v>
       </c>
       <c r="B88" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="C88" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="D88">
         <v>20</v>
@@ -5645,8 +5690,8 @@
         <f>Barrage[[#This Row],[Coefficient]]*Barrage[[#This Row],[Total Rounds]]*Barrage[[#This Row],[Base Damage]]</f>
         <v>600</v>
       </c>
-      <c r="H88" s="40" t="s">
-        <v>506</v>
+      <c r="H88" s="39" t="s">
+        <v>500</v>
       </c>
       <c r="I88" s="2">
         <v>1.2</v>
@@ -5657,8 +5702,8 @@
       <c r="K88" s="2">
         <v>1</v>
       </c>
-      <c r="L88" s="38"/>
-      <c r="M88" s="39"/>
+      <c r="L88" s="37"/>
+      <c r="M88" s="38"/>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
@@ -6670,7 +6715,7 @@
       <c r="A114" t="s">
         <v>132</v>
       </c>
-      <c r="B114" s="37" t="s">
+      <c r="B114" s="36" t="s">
         <v>473</v>
       </c>
       <c r="C114" t="s">
@@ -7235,10 +7280,10 @@
         <v>173</v>
       </c>
       <c r="B129" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="C129" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="D129">
         <v>60</v>
@@ -7327,10 +7372,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:U169"/>
+  <dimension ref="A1:O177"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="G70" sqref="G70"/>
+    <sheetView tabSelected="1" topLeftCell="D139" workbookViewId="0">
+      <selection activeCell="P159" sqref="P159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7352,7 +7397,7 @@
     <col min="15" max="15" width="32.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>185</v>
       </c>
@@ -7398,26 +7443,8 @@
       <c r="O1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -7459,7 +7486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -7496,7 +7523,7 @@
       </c>
       <c r="L3" s="15"/>
     </row>
-    <row r="4" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -7536,7 +7563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -7573,7 +7600,7 @@
       </c>
       <c r="L5" s="15"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -7613,7 +7640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -7650,7 +7677,7 @@
       </c>
       <c r="L7" s="15"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -7690,7 +7717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -7727,7 +7754,7 @@
       </c>
       <c r="L9" s="15"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -7767,7 +7794,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -7804,7 +7831,7 @@
       </c>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -7844,7 +7871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -7889,7 +7916,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -7926,7 +7953,7 @@
       </c>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -7963,7 +7990,7 @@
       </c>
       <c r="L15" s="15"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -8001,7 +8028,7 @@
       <c r="L16" s="26"/>
       <c r="M16" s="27"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -8039,7 +8066,7 @@
       <c r="L17" s="26"/>
       <c r="M17" s="27"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -8077,7 +8104,7 @@
       <c r="L18" s="26"/>
       <c r="M18" s="27"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -8118,12 +8145,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="C20" t="s">
         <v>489</v>
@@ -8155,12 +8182,12 @@
       </c>
       <c r="L20" s="15"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="C21" t="s">
         <v>60</v>
@@ -8181,8 +8208,8 @@
       <c r="H21" t="s">
         <v>9</v>
       </c>
-      <c r="I21">
-        <v>130</v>
+      <c r="I21" s="2">
+        <v>1.3</v>
       </c>
       <c r="J21" s="2">
         <v>0.9</v>
@@ -8193,319 +8220,318 @@
       <c r="L21" s="15"/>
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="6"/>
-      <c r="U21" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="O21" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>212</v>
+        <v>508</v>
       </c>
       <c r="C22" t="s">
-        <v>210</v>
+        <v>507</v>
       </c>
       <c r="D22">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="E22">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F22" s="2">
         <v>1</v>
       </c>
       <c r="G22" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>504</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>9</v>
+        <v>1320</v>
+      </c>
+      <c r="H22" t="s">
+        <v>49</v>
       </c>
       <c r="I22" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J22" s="2">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K22" s="2">
-        <v>0.6</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L22" s="15"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="M22" s="12"/>
+      <c r="N22" s="17"/>
+      <c r="O22" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>78</v>
-      </c>
-      <c r="B23" t="s">
-        <v>211</v>
+        <v>2</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>511</v>
       </c>
       <c r="C23" t="s">
-        <v>210</v>
+        <v>510</v>
       </c>
       <c r="D23">
-        <v>386</v>
+        <v>24</v>
       </c>
       <c r="E23">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F23" s="2">
         <v>1</v>
       </c>
       <c r="G23" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>6948</v>
+        <v>720</v>
       </c>
       <c r="H23" s="10" t="s">
         <v>27</v>
       </c>
       <c r="I23" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="J23" s="2">
         <v>0.7</v>
       </c>
-      <c r="J23" s="2">
-        <v>1.1000000000000001</v>
-      </c>
       <c r="K23" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="L23" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="M23" s="17">
+        <v>0.4</v>
+      </c>
+      <c r="L23" s="15"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>2</v>
       </c>
-      <c r="N23" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>78</v>
-      </c>
-      <c r="B24" t="s">
-        <v>211</v>
+      <c r="B24" s="40" t="s">
+        <v>511</v>
       </c>
       <c r="C24" t="s">
-        <v>210</v>
+        <v>510</v>
       </c>
       <c r="D24">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="F24" s="2">
         <v>1</v>
       </c>
       <c r="G24" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>992</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>9</v>
+        <v>576</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="I24" s="2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="J24" s="2">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K24" s="2">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="L24" s="15"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="M24" s="12"/>
+      <c r="N24" s="17"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>78</v>
       </c>
       <c r="B25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C25" t="s">
-        <v>112</v>
+        <v>210</v>
       </c>
       <c r="D25">
+        <v>21</v>
+      </c>
+      <c r="E25">
         <v>24</v>
-      </c>
-      <c r="E25">
-        <v>30</v>
       </c>
       <c r="F25" s="2">
         <v>1</v>
       </c>
       <c r="G25" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>720</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>33</v>
+        <v>504</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="I25" s="2">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="J25" s="2">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="K25" s="2">
         <v>0.6</v>
       </c>
-      <c r="L25" s="15">
-        <v>0.01</v>
-      </c>
-      <c r="M25" s="17">
-        <v>1</v>
-      </c>
-      <c r="O25" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="L25" s="15"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>78</v>
       </c>
       <c r="B26" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C26" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D26">
-        <v>40</v>
+        <v>386</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="F26" s="2">
-        <v>1.1499999999999999</v>
+        <v>1</v>
       </c>
       <c r="G26" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>138</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>49</v>
+        <v>6948</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="I26" s="2">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J26" s="2">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K26" s="2">
-        <v>1</v>
-      </c>
-      <c r="L26" s="15"/>
-      <c r="O26" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+        <v>0.9</v>
+      </c>
+      <c r="L26" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="M26" s="17">
+        <v>2</v>
+      </c>
+      <c r="N26" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C27" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D27">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="E27">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="F27" s="2">
-        <v>1.45</v>
+        <v>1</v>
       </c>
       <c r="G27" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>348</v>
+        <v>992</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="I27" s="2">
         <v>1</v>
       </c>
       <c r="J27" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K27" s="2">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="L27" s="15"/>
-      <c r="O27" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>78</v>
       </c>
       <c r="B28" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C28" t="s">
-        <v>215</v>
+        <v>112</v>
       </c>
       <c r="D28">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E28">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="F28" s="2">
-        <v>1.65</v>
+        <v>1</v>
       </c>
       <c r="G28" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>395.99999999999994</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>49</v>
+        <v>720</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="I28" s="2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="J28" s="2">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="K28" s="2">
-        <v>1</v>
-      </c>
-      <c r="L28" s="15"/>
+        <v>0.6</v>
+      </c>
+      <c r="L28" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="M28" s="17">
+        <v>1</v>
+      </c>
       <c r="O28" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>78</v>
       </c>
       <c r="B29" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C29" t="s">
         <v>215</v>
       </c>
       <c r="D29">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29" s="2">
-        <v>3</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="G29" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>420</v>
+        <v>138</v>
       </c>
       <c r="H29" s="9" t="s">
         <v>49</v>
@@ -8524,131 +8550,138 @@
         <v>220</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>78</v>
       </c>
       <c r="B30" t="s">
-        <v>432</v>
+        <v>217</v>
       </c>
       <c r="C30" t="s">
-        <v>431</v>
+        <v>215</v>
       </c>
       <c r="D30">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="E30">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F30" s="2">
-        <v>1</v>
+        <v>1.45</v>
       </c>
       <c r="G30" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>744</v>
+        <v>348</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="I30" s="2">
         <v>1</v>
       </c>
       <c r="J30" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K30" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="L30" s="26"/>
-      <c r="M30" s="27"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="L30" s="15"/>
+      <c r="O30" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>78</v>
       </c>
       <c r="B31" t="s">
-        <v>432</v>
+        <v>218</v>
       </c>
       <c r="C31" t="s">
-        <v>431</v>
+        <v>215</v>
       </c>
       <c r="D31">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="E31">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F31" s="2">
-        <v>1</v>
+        <v>1.65</v>
       </c>
       <c r="G31" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>864</v>
+        <v>395.99999999999994</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>49</v>
       </c>
       <c r="I31" s="2">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J31" s="2">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="K31" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="L31" s="26"/>
-      <c r="M31" s="27"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="L31" s="15"/>
+      <c r="O31" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>78</v>
       </c>
       <c r="B32" t="s">
-        <v>468</v>
+        <v>219</v>
       </c>
       <c r="C32" t="s">
-        <v>93</v>
+        <v>215</v>
       </c>
       <c r="D32">
-        <v>56</v>
+        <v>140</v>
       </c>
       <c r="E32">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F32" s="2">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="G32" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>403.19999999999993</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>33</v>
+        <v>420</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="I32" s="2">
-        <v>1.35</v>
+        <v>1</v>
       </c>
       <c r="J32" s="2">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="K32" s="2">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="L32" s="15"/>
+      <c r="O32" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>78</v>
       </c>
       <c r="B33" t="s">
-        <v>468</v>
+        <v>432</v>
       </c>
       <c r="C33" t="s">
-        <v>93</v>
+        <v>431</v>
       </c>
       <c r="D33">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="E33">
         <v>12</v>
@@ -8658,110 +8691,112 @@
       </c>
       <c r="G33" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>384</v>
+        <v>744</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="I33" s="2">
+        <v>1</v>
+      </c>
+      <c r="J33" s="2">
         <v>0.8</v>
       </c>
-      <c r="J33" s="2">
-        <v>1</v>
-      </c>
       <c r="K33" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="L33" s="15"/>
+        <v>0.6</v>
+      </c>
+      <c r="L33" s="26"/>
+      <c r="M33" s="27"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>78</v>
       </c>
       <c r="B34" t="s">
-        <v>468</v>
+        <v>432</v>
       </c>
       <c r="C34" t="s">
-        <v>93</v>
+        <v>431</v>
       </c>
       <c r="D34">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F34" s="2">
         <v>1</v>
       </c>
       <c r="G34" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>10</v>
+        <v>864</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>275</v>
+        <v>49</v>
       </c>
       <c r="I34" s="2">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J34" s="2">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K34" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="L34" s="15"/>
-    </row>
-    <row r="35" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.2</v>
+      </c>
+      <c r="L34" s="26"/>
+      <c r="M34" s="27"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>132</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>223</v>
+        <v>78</v>
+      </c>
+      <c r="B35" t="s">
+        <v>468</v>
+      </c>
+      <c r="C35" t="s">
+        <v>93</v>
       </c>
       <c r="D35">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="E35">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F35" s="2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="G35" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>312</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>9</v>
+        <v>403.19999999999993</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="I35" s="2">
-        <v>1</v>
+        <v>1.35</v>
       </c>
       <c r="J35" s="2">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="K35" s="2">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="L35" s="15"/>
     </row>
-    <row r="36" spans="1:15" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D36" s="3">
-        <v>26</v>
-      </c>
-      <c r="E36" s="3">
+        <v>78</v>
+      </c>
+      <c r="B36" t="s">
+        <v>468</v>
+      </c>
+      <c r="C36" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36">
+        <v>32</v>
+      </c>
+      <c r="E36">
         <v>12</v>
       </c>
       <c r="F36" s="2">
@@ -8769,165 +8804,159 @@
       </c>
       <c r="G36" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>312</v>
-      </c>
-      <c r="H36" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I36" s="5">
-        <v>1</v>
-      </c>
-      <c r="J36" s="5">
+        <v>384</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I36" s="2">
         <v>0.8</v>
       </c>
-      <c r="K36" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="L36" s="16"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="7">
-        <v>1</v>
-      </c>
+      <c r="J36" s="2">
+        <v>1</v>
+      </c>
+      <c r="K36" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="L36" s="15"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>132</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>223</v>
+        <v>78</v>
+      </c>
+      <c r="B37" t="s">
+        <v>468</v>
+      </c>
+      <c r="C37" t="s">
+        <v>93</v>
       </c>
       <c r="D37">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E37">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F37" s="2">
         <v>1</v>
       </c>
       <c r="G37" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>312</v>
-      </c>
-      <c r="H37" s="13" t="s">
-        <v>33</v>
+        <v>10</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>275</v>
       </c>
       <c r="I37" s="2">
-        <v>1.35</v>
+        <v>1</v>
       </c>
       <c r="J37" s="2">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="K37" s="2">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="L37" s="15"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>132</v>
       </c>
-      <c r="B38" t="s">
-        <v>224</v>
-      </c>
-      <c r="C38" t="s">
-        <v>167</v>
+      <c r="B38" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>223</v>
       </c>
       <c r="D38">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="E38">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F38" s="2">
         <v>1</v>
       </c>
       <c r="G38" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>832</v>
+        <v>312</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="I38" s="2">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="J38" s="2">
-        <v>0.85</v>
+        <v>0.75</v>
       </c>
       <c r="K38" s="2">
-        <v>1.1499999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="L38" s="15"/>
-      <c r="O38" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:15" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>132</v>
       </c>
-      <c r="B39" t="s">
-        <v>226</v>
-      </c>
-      <c r="C39" t="s">
-        <v>225</v>
-      </c>
-      <c r="D39">
-        <v>7</v>
-      </c>
-      <c r="E39">
-        <v>16</v>
+      <c r="B39" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D39" s="3">
+        <v>26</v>
+      </c>
+      <c r="E39" s="3">
+        <v>12</v>
       </c>
       <c r="F39" s="2">
-        <v>2.65</v>
+        <v>1</v>
       </c>
       <c r="G39" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>296.8</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="I39" s="2">
-        <v>1</v>
-      </c>
-      <c r="J39" s="2">
-        <v>1</v>
-      </c>
-      <c r="K39" s="2">
-        <v>1</v>
-      </c>
-      <c r="L39" s="15"/>
-      <c r="O39" t="s">
-        <v>220</v>
+        <v>312</v>
+      </c>
+      <c r="H39" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="I39" s="5">
+        <v>1</v>
+      </c>
+      <c r="J39" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="K39" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="L39" s="16"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>132</v>
       </c>
-      <c r="B40" t="s">
-        <v>437</v>
-      </c>
-      <c r="C40" t="s">
-        <v>438</v>
+      <c r="B40" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>223</v>
       </c>
       <c r="D40">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E40">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F40" s="2">
         <v>1</v>
       </c>
       <c r="G40" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>160</v>
+        <v>312</v>
       </c>
       <c r="H40" s="13" t="s">
         <v>33</v>
@@ -8936,118 +8965,118 @@
         <v>1.35</v>
       </c>
       <c r="J40" s="2">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="K40" s="2">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="L40" s="15"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>376</v>
+        <v>132</v>
       </c>
       <c r="B41" t="s">
-        <v>377</v>
+        <v>224</v>
       </c>
       <c r="C41" t="s">
-        <v>378</v>
+        <v>167</v>
       </c>
       <c r="D41">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="E41">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F41" s="2">
         <v>1</v>
       </c>
       <c r="G41" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>480</v>
-      </c>
-      <c r="H41" s="13" t="s">
-        <v>33</v>
+        <v>832</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="I41" s="2">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="J41" s="2">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="K41" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="L41" s="26"/>
-      <c r="M41" s="27"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="L41" s="15"/>
+      <c r="O41" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>376</v>
+        <v>132</v>
       </c>
       <c r="B42" t="s">
-        <v>377</v>
+        <v>226</v>
       </c>
       <c r="C42" t="s">
-        <v>378</v>
+        <v>225</v>
       </c>
       <c r="D42">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="E42">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F42" s="2">
-        <v>1</v>
+        <v>2.65</v>
       </c>
       <c r="G42" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>558</v>
-      </c>
-      <c r="H42" s="13" t="s">
-        <v>33</v>
+        <v>296.8</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="I42" s="2">
-        <v>1.35</v>
+        <v>1</v>
       </c>
       <c r="J42" s="2">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="K42" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="L42" s="26">
-        <v>1</v>
-      </c>
-      <c r="M42" s="27">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="L42" s="15"/>
+      <c r="O42" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>376</v>
+        <v>132</v>
       </c>
       <c r="B43" t="s">
-        <v>386</v>
+        <v>437</v>
       </c>
       <c r="C43" t="s">
-        <v>378</v>
+        <v>438</v>
       </c>
       <c r="D43">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="E43">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F43" s="2">
         <v>1</v>
       </c>
       <c r="G43" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>372</v>
+        <v>160</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>387</v>
+        <v>33</v>
       </c>
       <c r="I43" s="2">
         <v>1.35</v>
@@ -9056,171 +9085,173 @@
         <v>0.95</v>
       </c>
       <c r="K43" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="L43" s="26">
-        <v>1</v>
-      </c>
-      <c r="M43" s="27">
-        <v>3</v>
-      </c>
+        <v>0.75</v>
+      </c>
+      <c r="L43" s="15"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>227</v>
-      </c>
-      <c r="B44" t="s">
-        <v>231</v>
+        <v>132</v>
+      </c>
+      <c r="B44" s="40" t="s">
+        <v>514</v>
       </c>
       <c r="C44" t="s">
-        <v>228</v>
+        <v>515</v>
       </c>
       <c r="D44">
-        <v>174</v>
+        <v>81</v>
       </c>
       <c r="E44">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F44" s="2">
         <v>1</v>
       </c>
       <c r="G44" s="30">
-        <v>2262</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>9</v>
+        <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
+        <v>81</v>
+      </c>
+      <c r="H44" s="20" t="s">
+        <v>516</v>
       </c>
       <c r="I44" s="2">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J44" s="2">
         <v>1</v>
       </c>
       <c r="K44" s="2">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="L44" s="15"/>
+      <c r="N44" s="6">
+        <v>20</v>
+      </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>517</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>227</v>
+        <v>376</v>
       </c>
       <c r="B45" t="s">
-        <v>230</v>
+        <v>377</v>
       </c>
       <c r="C45" t="s">
-        <v>229</v>
+        <v>378</v>
       </c>
       <c r="D45">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="E45">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="F45" s="2">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G45" s="30">
-        <v>349.8</v>
-      </c>
-      <c r="H45" s="10" t="s">
-        <v>27</v>
+        <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
+        <v>480</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="I45" s="2">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="J45" s="2">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="K45" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L45" s="15"/>
+        <v>0.8</v>
+      </c>
+      <c r="L45" s="26"/>
+      <c r="M45" s="27"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>227</v>
+        <v>376</v>
       </c>
       <c r="B46" t="s">
-        <v>232</v>
+        <v>377</v>
       </c>
       <c r="C46" t="s">
-        <v>233</v>
+        <v>378</v>
       </c>
       <c r="D46">
-        <v>137</v>
+        <v>62</v>
       </c>
       <c r="E46">
+        <v>9</v>
+      </c>
+      <c r="F46" s="2">
+        <v>1</v>
+      </c>
+      <c r="G46" s="30">
+        <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
+        <v>558</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I46" s="2">
+        <v>1.35</v>
+      </c>
+      <c r="J46" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="K46" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="L46" s="26">
+        <v>1</v>
+      </c>
+      <c r="M46" s="27">
         <v>3</v>
-      </c>
-      <c r="F46" s="2">
-        <v>1</v>
-      </c>
-      <c r="G46" s="30">
-        <v>411</v>
-      </c>
-      <c r="H46" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="I46" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="J46" s="2">
-        <v>1</v>
-      </c>
-      <c r="K46" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="L46" s="15"/>
-      <c r="O46" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>227</v>
+        <v>376</v>
       </c>
       <c r="B47" t="s">
-        <v>235</v>
+        <v>386</v>
       </c>
       <c r="C47" t="s">
-        <v>234</v>
+        <v>378</v>
       </c>
       <c r="D47">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="E47">
-        <v>128</v>
+        <v>6</v>
       </c>
       <c r="F47" s="2">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G47" s="30">
-        <v>2816</v>
+        <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
+        <v>372</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>236</v>
+        <v>387</v>
       </c>
       <c r="I47" s="2">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="J47" s="2">
-        <v>1.1000000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="K47" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="L47" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="M47" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="L47" s="26">
+        <v>1</v>
+      </c>
+      <c r="M47" s="27">
         <v>3</v>
-      </c>
-      <c r="O47" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
@@ -9228,40 +9259,38 @@
         <v>227</v>
       </c>
       <c r="B48" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C48" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="D48">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="E48">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F48" s="2">
         <v>1</v>
       </c>
       <c r="G48" s="30">
-        <v>1120</v>
-      </c>
-      <c r="H48" s="13" t="s">
-        <v>33</v>
+        <v>2262</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="I48" s="2">
-        <v>1.35</v>
+        <v>0.7</v>
       </c>
       <c r="J48" s="2">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="K48" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="L48" s="15">
-        <v>0.08</v>
-      </c>
-      <c r="M48" s="17">
-        <v>3</v>
+        <v>0.9</v>
+      </c>
+      <c r="L48" s="15"/>
+      <c r="O48" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
@@ -9269,34 +9298,34 @@
         <v>227</v>
       </c>
       <c r="B49" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="C49" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="D49">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="E49">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F49" s="2">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G49" s="30">
-        <v>904</v>
-      </c>
-      <c r="H49" s="9" t="s">
-        <v>9</v>
+        <v>349.8</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="I49" s="2">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="J49" s="2">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="K49" s="2">
-        <v>0.7</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L49" s="15"/>
     </row>
@@ -9305,291 +9334,302 @@
         <v>227</v>
       </c>
       <c r="B50" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="C50" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D50">
-        <v>226</v>
+        <v>137</v>
       </c>
       <c r="E50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F50" s="2">
         <v>1</v>
       </c>
       <c r="G50" s="30">
-        <v>936</v>
+        <v>411</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="I50" s="2">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="J50" s="2">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="K50" s="2">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="L50" s="15"/>
+      <c r="O50" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>227</v>
       </c>
       <c r="B51" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C51" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D51">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="E51">
-        <v>6</v>
+        <v>128</v>
       </c>
       <c r="F51" s="2">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G51" s="30">
-        <v>400</v>
-      </c>
-      <c r="H51" s="9" t="s">
-        <v>9</v>
+        <v>2816</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>236</v>
       </c>
       <c r="I51" s="2">
-        <v>0.9</v>
+        <v>1.25</v>
       </c>
       <c r="J51" s="2">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K51" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="L51" s="15"/>
+        <v>0.95</v>
+      </c>
+      <c r="L51" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M51" s="17">
+        <v>3</v>
+      </c>
+      <c r="O51" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>227</v>
       </c>
       <c r="B52" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C52" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D52">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="E52">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F52" s="2">
         <v>1</v>
       </c>
       <c r="G52" s="30">
-        <v>545.6</v>
-      </c>
-      <c r="H52" s="10" t="s">
-        <v>27</v>
+        <v>1120</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="I52" s="2">
-        <v>0.9</v>
+        <v>1.35</v>
       </c>
       <c r="J52" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="K52" s="2">
         <v>0.7</v>
       </c>
-      <c r="K52" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="L52" s="15"/>
+      <c r="L52" s="15">
+        <v>0.08</v>
+      </c>
+      <c r="M52" s="17">
+        <v>3</v>
+      </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>227</v>
       </c>
       <c r="B53" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C53" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D53">
-        <v>124</v>
+        <v>30</v>
       </c>
       <c r="E53">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F53" s="2">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G53" s="30">
-        <v>240</v>
+        <v>904</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="I53" s="2">
+        <v>1</v>
+      </c>
+      <c r="J53" s="2">
         <v>0.8</v>
       </c>
-      <c r="J53" s="2">
-        <v>1</v>
-      </c>
       <c r="K53" s="2">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="L53" s="15"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="B54" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C54" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D54">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="E54">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F54" s="2">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G54" s="30">
-        <v>2145</v>
+        <v>936</v>
       </c>
       <c r="H54" s="9" t="s">
         <v>9</v>
       </c>
       <c r="I54" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="J54" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="K54" s="2">
         <v>0.7</v>
-      </c>
-      <c r="J54" s="2">
-        <v>1</v>
-      </c>
-      <c r="K54" s="2">
-        <v>0.9</v>
       </c>
       <c r="L54" s="15"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="B55" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C55" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D55">
-        <v>35</v>
+        <v>156</v>
       </c>
       <c r="E55">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F55" s="2">
         <v>1</v>
       </c>
       <c r="G55" s="30">
-        <v>700</v>
-      </c>
-      <c r="H55" s="13" t="s">
-        <v>33</v>
+        <v>400</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="I55" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="J55" s="2">
         <v>1.2</v>
       </c>
-      <c r="J55" s="2">
-        <v>0.6</v>
-      </c>
       <c r="K55" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="L55" s="15">
-        <v>0.01</v>
-      </c>
-      <c r="M55" s="17">
-        <v>1</v>
-      </c>
+        <v>0.7</v>
+      </c>
+      <c r="L55" s="15"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="B56" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C56" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D56">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="E56">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F56" s="2">
+        <v>1</v>
+      </c>
+      <c r="G56" s="30">
+        <v>545.6</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I56" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="J56" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="K56" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="L56" s="15"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>227</v>
+      </c>
+      <c r="B57" t="s">
+        <v>241</v>
+      </c>
+      <c r="C57" t="s">
+        <v>240</v>
+      </c>
+      <c r="D57">
+        <v>124</v>
+      </c>
+      <c r="E57">
+        <v>4</v>
+      </c>
+      <c r="F57" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G56" s="30">
-        <v>844.8</v>
-      </c>
-      <c r="H56" s="9" t="s">
+      <c r="G57" s="30">
+        <v>240</v>
+      </c>
+      <c r="H57" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I56" s="2">
+      <c r="I57" s="2">
         <v>0.8</v>
       </c>
-      <c r="J56" s="2">
-        <v>1</v>
-      </c>
-      <c r="K56" s="2">
+      <c r="J57" s="2">
+        <v>1</v>
+      </c>
+      <c r="K57" s="2">
         <v>1.3</v>
-      </c>
-      <c r="L56" s="15"/>
-    </row>
-    <row r="57" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>245</v>
-      </c>
-      <c r="B57" t="s">
-        <v>246</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="D57">
-        <v>156</v>
-      </c>
-      <c r="E57">
-        <v>44</v>
-      </c>
-      <c r="F57" s="2">
-        <v>1</v>
-      </c>
-      <c r="G57" s="30">
-        <v>6864</v>
-      </c>
-      <c r="H57" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I57" s="2">
-        <v>1</v>
-      </c>
-      <c r="J57" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="K57" s="2">
-        <v>0.7</v>
       </c>
       <c r="L57" s="15"/>
     </row>
@@ -9598,22 +9638,22 @@
         <v>245</v>
       </c>
       <c r="B58" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C58" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D58">
-        <v>120</v>
+        <v>195</v>
       </c>
       <c r="E58">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F58" s="2">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G58" s="30">
-        <v>1440</v>
+        <v>2145</v>
       </c>
       <c r="H58" s="9" t="s">
         <v>9</v>
@@ -9634,38 +9674,40 @@
         <v>245</v>
       </c>
       <c r="B59" t="s">
-        <v>252</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>250</v>
+        <v>243</v>
+      </c>
+      <c r="C59" t="s">
+        <v>242</v>
       </c>
       <c r="D59">
-        <v>137</v>
+        <v>35</v>
       </c>
       <c r="E59">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F59" s="2">
         <v>1</v>
       </c>
       <c r="G59" s="30">
-        <v>548</v>
-      </c>
-      <c r="H59" s="9" t="s">
-        <v>49</v>
+        <v>700</v>
+      </c>
+      <c r="H59" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="I59" s="2">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="J59" s="2">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="K59" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="L59" s="15"/>
-      <c r="O59" t="s">
-        <v>251</v>
+        <v>0.6</v>
+      </c>
+      <c r="L59" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="M59" s="17">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
@@ -9673,102 +9715,94 @@
         <v>245</v>
       </c>
       <c r="B60" t="s">
-        <v>254</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>253</v>
+        <v>244</v>
+      </c>
+      <c r="C60" t="s">
+        <v>242</v>
       </c>
       <c r="D60">
-        <v>154</v>
+        <v>96</v>
       </c>
       <c r="E60">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F60" s="2">
         <v>1.1000000000000001</v>
       </c>
       <c r="G60" s="30">
-        <v>338.8</v>
-      </c>
-      <c r="H60" s="10" t="s">
-        <v>27</v>
+        <v>844.8</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="I60" s="2">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="J60" s="2">
+        <v>1</v>
+      </c>
+      <c r="K60" s="2">
         <v>1.3</v>
       </c>
-      <c r="K60" s="2">
-        <v>1.1000000000000001</v>
-      </c>
       <c r="L60" s="15"/>
-      <c r="O60" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>245</v>
       </c>
       <c r="B61" t="s">
-        <v>343</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>344</v>
+        <v>246</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="D61">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="E61">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="F61" s="2">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G61" s="30">
-        <f>184*2*1.1</f>
-        <v>404.8</v>
-      </c>
-      <c r="H61" s="10" t="s">
-        <v>27</v>
+        <v>6864</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="I61" s="2">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="J61" s="2">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="K61" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L61" s="21"/>
-      <c r="M61" s="22"/>
-      <c r="O61" t="s">
-        <v>345</v>
-      </c>
+        <v>0.7</v>
+      </c>
+      <c r="L61" s="15"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>245</v>
       </c>
       <c r="B62" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C62" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="D62">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="E62">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F62" s="2">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G62" s="30">
-        <v>475.2</v>
+        <v>1440</v>
       </c>
       <c r="H62" s="9" t="s">
         <v>9</v>
@@ -9789,76 +9823,77 @@
         <v>245</v>
       </c>
       <c r="B63" t="s">
-        <v>259</v>
-      </c>
-      <c r="C63" t="s">
-        <v>257</v>
+        <v>252</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>250</v>
       </c>
       <c r="D63">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="E63">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F63" s="2">
         <v>1</v>
       </c>
       <c r="G63" s="30">
-        <v>1566</v>
+        <v>548</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="I63" s="2">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="J63" s="2">
         <v>1</v>
       </c>
       <c r="K63" s="2">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="L63" s="15"/>
+      <c r="O63" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>245</v>
       </c>
       <c r="B64" t="s">
-        <v>259</v>
-      </c>
-      <c r="C64" t="s">
-        <v>257</v>
+        <v>254</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>253</v>
       </c>
       <c r="D64">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c r="E64">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="F64" s="2">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G64" s="30">
-        <v>600</v>
-      </c>
-      <c r="H64" s="13" t="s">
-        <v>33</v>
+        <v>338.8</v>
+      </c>
+      <c r="H64" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="I64" s="2">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="J64" s="2">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="K64" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="L64" s="15">
-        <v>0.01</v>
-      </c>
-      <c r="M64" s="17">
-        <v>1</v>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L64" s="15"/>
+      <c r="O64" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
@@ -9866,41 +9901,40 @@
         <v>245</v>
       </c>
       <c r="B65" t="s">
-        <v>262</v>
-      </c>
-      <c r="C65" t="s">
-        <v>260</v>
+        <v>343</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>344</v>
       </c>
       <c r="D65">
-        <v>104</v>
+        <v>184</v>
       </c>
       <c r="E65">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="F65" s="2">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G65" s="30">
-        <v>3744</v>
+        <f>184*2*1.1</f>
+        <v>404.8</v>
       </c>
       <c r="H65" s="10" t="s">
         <v>27</v>
       </c>
       <c r="I65" s="2">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="J65" s="2">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="K65" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="L65" s="15"/>
-      <c r="N65" s="6">
-        <v>1</v>
-      </c>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L65" s="21"/>
+      <c r="M65" s="22"/>
       <c r="O65" t="s">
-        <v>261</v>
+        <v>345</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
@@ -9908,124 +9942,112 @@
         <v>245</v>
       </c>
       <c r="B66" t="s">
-        <v>369</v>
+        <v>258</v>
       </c>
       <c r="C66" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D66">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E66">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F66" s="2">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G66" s="30">
-        <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]</f>
-        <v>1872</v>
-      </c>
-      <c r="H66" s="10" t="s">
-        <v>27</v>
+        <v>475.2</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="I66" s="2">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="J66" s="2">
-        <v>1.35</v>
+        <v>1</v>
       </c>
       <c r="K66" s="2">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="L66" s="15"/>
-      <c r="N66" s="6">
-        <v>1</v>
-      </c>
-      <c r="O66" t="s">
-        <v>261</v>
-      </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>245</v>
       </c>
       <c r="B67" t="s">
-        <v>369</v>
+        <v>259</v>
       </c>
       <c r="C67" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D67">
-        <v>104</v>
+        <v>174</v>
       </c>
       <c r="E67">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F67" s="2">
         <v>1</v>
       </c>
       <c r="G67" s="30">
-        <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]</f>
-        <v>1872</v>
+        <v>1566</v>
       </c>
       <c r="H67" s="9" t="s">
         <v>9</v>
       </c>
       <c r="I67" s="2">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="J67" s="2">
-        <v>1.35</v>
+        <v>1</v>
       </c>
       <c r="K67" s="2">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="L67" s="15"/>
-      <c r="N67" s="6">
-        <v>0</v>
-      </c>
-      <c r="O67" t="s">
-        <v>370</v>
-      </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>245</v>
       </c>
       <c r="B68" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C68" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D68">
-        <v>158</v>
+        <v>20</v>
       </c>
       <c r="E68">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F68" s="2">
         <v>1</v>
       </c>
       <c r="G68" s="30">
-        <v>2054</v>
-      </c>
-      <c r="H68" s="10" t="s">
-        <v>27</v>
+        <v>600</v>
+      </c>
+      <c r="H68" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="I68" s="2">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="J68" s="2">
-        <v>1.25</v>
+        <v>0.6</v>
       </c>
       <c r="K68" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="L68" s="15"/>
-      <c r="O68" t="s">
-        <v>261</v>
+        <v>0.6</v>
+      </c>
+      <c r="L68" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="M68" s="17">
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
@@ -10033,40 +10055,41 @@
         <v>245</v>
       </c>
       <c r="B69" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C69" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D69">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="E69">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F69" s="2">
         <v>1</v>
       </c>
       <c r="G69" s="30">
-        <v>5500</v>
-      </c>
-      <c r="H69" s="13" t="s">
-        <v>33</v>
+        <v>3744</v>
+      </c>
+      <c r="H69" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="I69" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J69" s="2">
+        <v>1.35</v>
+      </c>
+      <c r="K69" s="2">
         <v>1.2</v>
       </c>
-      <c r="J69" s="2">
-        <v>1</v>
-      </c>
-      <c r="K69" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="L69" s="15">
-        <v>0.3</v>
-      </c>
-      <c r="M69" s="17">
-        <v>1</v>
+      <c r="L69" s="15"/>
+      <c r="N69" s="6">
+        <v>1</v>
+      </c>
+      <c r="O69" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
@@ -10074,40 +10097,42 @@
         <v>245</v>
       </c>
       <c r="B70" t="s">
-        <v>266</v>
+        <v>369</v>
       </c>
       <c r="C70" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D70">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="E70">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F70" s="2">
         <v>1</v>
       </c>
       <c r="G70" s="30">
-        <v>2000</v>
-      </c>
-      <c r="H70" s="13" t="s">
-        <v>33</v>
+        <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]</f>
+        <v>1872</v>
+      </c>
+      <c r="H70" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="I70" s="2">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="J70" s="2">
+        <v>1.35</v>
+      </c>
+      <c r="K70" s="2">
         <v>1.2</v>
       </c>
-      <c r="K70" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="L70" s="15">
-        <v>0.3</v>
-      </c>
-      <c r="M70" s="17">
-        <v>1</v>
+      <c r="L70" s="15"/>
+      <c r="N70" s="6">
+        <v>1</v>
+      </c>
+      <c r="O70" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
@@ -10115,40 +10140,42 @@
         <v>245</v>
       </c>
       <c r="B71" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="C71" t="s">
-        <v>380</v>
+        <v>260</v>
       </c>
       <c r="D71">
-        <v>239</v>
+        <v>104</v>
       </c>
       <c r="E71">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F71" s="2">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G71" s="30">
-        <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>1051.6000000000001</v>
-      </c>
-      <c r="H71" s="10" t="s">
-        <v>27</v>
+        <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]</f>
+        <v>1872</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="I71" s="2">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
       <c r="J71" s="2">
         <v>1.35</v>
       </c>
       <c r="K71" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="L71" s="26"/>
-      <c r="M71" s="27"/>
+        <v>1.2</v>
+      </c>
+      <c r="L71" s="15"/>
+      <c r="N71" s="6">
+        <v>0</v>
+      </c>
       <c r="O71" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
@@ -10156,44 +10183,38 @@
         <v>245</v>
       </c>
       <c r="B72" t="s">
-        <v>379</v>
+        <v>264</v>
       </c>
       <c r="C72" t="s">
-        <v>380</v>
+        <v>263</v>
       </c>
       <c r="D72">
-        <v>35</v>
+        <v>158</v>
       </c>
       <c r="E72">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="F72" s="2">
         <v>1</v>
       </c>
       <c r="G72" s="30">
-        <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>1260</v>
-      </c>
-      <c r="H72" s="13" t="s">
-        <v>33</v>
+        <v>2054</v>
+      </c>
+      <c r="H72" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="I72" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="J72" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="K72" s="2">
         <v>1.2</v>
       </c>
-      <c r="J72" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="K72" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="L72" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="M72" s="27">
-        <v>1</v>
-      </c>
+      <c r="L72" s="15"/>
       <c r="O72" t="s">
-        <v>381</v>
+        <v>261</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
@@ -10201,229 +10222,241 @@
         <v>245</v>
       </c>
       <c r="B73" t="s">
-        <v>382</v>
+        <v>266</v>
       </c>
       <c r="C73" t="s">
-        <v>383</v>
+        <v>265</v>
       </c>
       <c r="D73">
-        <v>54</v>
+        <v>125</v>
       </c>
       <c r="E73">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F73" s="2">
         <v>1</v>
       </c>
       <c r="G73" s="30">
-        <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>540</v>
-      </c>
-      <c r="H73" s="9" t="s">
-        <v>9</v>
+        <v>5500</v>
+      </c>
+      <c r="H73" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="I73" s="2">
         <v>1.2</v>
       </c>
       <c r="J73" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K73" s="2">
         <v>0.8</v>
       </c>
-      <c r="L73" s="26"/>
-      <c r="M73" s="27"/>
+      <c r="L73" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="M73" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>245</v>
       </c>
       <c r="B74" t="s">
-        <v>382</v>
+        <v>266</v>
       </c>
       <c r="C74" t="s">
-        <v>383</v>
+        <v>265</v>
       </c>
       <c r="D74">
-        <v>54</v>
+        <v>125</v>
       </c>
       <c r="E74">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F74" s="2">
         <v>1</v>
       </c>
       <c r="G74" s="30">
-        <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>540</v>
-      </c>
-      <c r="H74" s="9" t="s">
-        <v>9</v>
+        <v>2000</v>
+      </c>
+      <c r="H74" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="I74" s="2">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="J74" s="2">
         <v>1.2</v>
       </c>
       <c r="K74" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="L74" s="26"/>
-      <c r="M74" s="27"/>
+        <v>0.7</v>
+      </c>
+      <c r="L74" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="M74" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>245</v>
       </c>
       <c r="B75" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C75" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D75">
-        <v>54</v>
+        <v>239</v>
       </c>
       <c r="E75">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F75" s="2">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G75" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>540</v>
-      </c>
-      <c r="H75" s="9" t="s">
-        <v>9</v>
+        <v>1051.6000000000001</v>
+      </c>
+      <c r="H75" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="I75" s="2">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="J75" s="2">
-        <v>0.8</v>
+        <v>1.35</v>
       </c>
       <c r="K75" s="2">
-        <v>1.2</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="L75" s="26"/>
       <c r="M75" s="27"/>
+      <c r="O75" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>245</v>
       </c>
       <c r="B76" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C76" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D76">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E76">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F76" s="2">
         <v>1</v>
       </c>
       <c r="G76" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>2208</v>
-      </c>
-      <c r="H76" s="9" t="s">
-        <v>9</v>
+        <v>1260</v>
+      </c>
+      <c r="H76" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="I76" s="2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="J76" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="K76" s="2">
-        <v>1</v>
-      </c>
-      <c r="L76" s="26"/>
-      <c r="M76" s="27"/>
+        <v>0.6</v>
+      </c>
+      <c r="L76" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="M76" s="27">
+        <v>1</v>
+      </c>
+      <c r="O76" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>245</v>
       </c>
       <c r="B77" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C77" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D77">
-        <v>181</v>
+        <v>54</v>
       </c>
       <c r="E77">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F77" s="2">
         <v>1</v>
       </c>
       <c r="G77" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>724</v>
-      </c>
-      <c r="H77" s="14" t="s">
-        <v>33</v>
+        <v>540</v>
+      </c>
+      <c r="H77" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="I77" s="2">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="J77" s="2">
-        <v>1.1000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="K77" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="L77" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="M77" s="27">
-        <v>4</v>
-      </c>
+        <v>0.8</v>
+      </c>
+      <c r="L77" s="26"/>
+      <c r="M77" s="27"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>245</v>
       </c>
       <c r="B78" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="C78" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="D78">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E78">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F78" s="2">
         <v>1</v>
       </c>
       <c r="G78" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>1240</v>
-      </c>
-      <c r="H78" s="10" t="s">
-        <v>27</v>
+        <v>540</v>
+      </c>
+      <c r="H78" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="I78" s="2">
-        <v>1.1000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="J78" s="2">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="K78" s="2">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="L78" s="26"/>
       <c r="M78" s="27"/>
@@ -10433,35 +10466,35 @@
         <v>245</v>
       </c>
       <c r="B79" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="C79" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="D79">
-        <v>144</v>
+        <v>54</v>
       </c>
       <c r="E79">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F79" s="2">
         <v>1</v>
       </c>
       <c r="G79" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>864</v>
+        <v>540</v>
       </c>
       <c r="H79" s="9" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="I79" s="2">
         <v>0.8</v>
       </c>
       <c r="J79" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="K79" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="L79" s="26"/>
       <c r="M79" s="27"/>
@@ -10471,35 +10504,35 @@
         <v>245</v>
       </c>
       <c r="B80" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="C80" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="D80">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="E80">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="F80" s="2">
         <v>1</v>
       </c>
       <c r="G80" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>576</v>
+        <v>2208</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="I80" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J80" s="2">
         <v>1</v>
       </c>
       <c r="K80" s="2">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="L80" s="26"/>
       <c r="M80" s="27"/>
@@ -10509,93 +10542,93 @@
         <v>245</v>
       </c>
       <c r="B81" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="C81" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
       <c r="D81">
-        <v>110</v>
+        <v>181</v>
       </c>
       <c r="E81">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F81" s="2">
         <v>1</v>
       </c>
       <c r="G81" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>880</v>
-      </c>
-      <c r="H81" s="9" t="s">
-        <v>9</v>
+        <v>724</v>
+      </c>
+      <c r="H81" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="I81" s="2">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="J81" s="2">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K81" s="2">
         <v>0.9</v>
       </c>
-      <c r="L81" s="26"/>
-      <c r="M81" s="27"/>
+      <c r="L81" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="M81" s="27">
+        <v>4</v>
+      </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>245</v>
       </c>
       <c r="B82" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="C82" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="D82">
+        <v>62</v>
+      </c>
+      <c r="E82">
         <v>20</v>
-      </c>
-      <c r="E82">
-        <v>14</v>
       </c>
       <c r="F82" s="2">
         <v>1</v>
       </c>
       <c r="G82" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>280</v>
-      </c>
-      <c r="H82" s="14" t="s">
-        <v>33</v>
+        <v>1240</v>
+      </c>
+      <c r="H82" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="I82" s="2">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J82" s="2">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="K82" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="L82" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="M82" s="27">
-        <v>1</v>
-      </c>
+        <v>0.7</v>
+      </c>
+      <c r="L82" s="26"/>
+      <c r="M82" s="27"/>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>245</v>
       </c>
       <c r="B83" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="C83" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="D83">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="E83">
         <v>6</v>
@@ -10605,10 +10638,10 @@
       </c>
       <c r="G83" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>726</v>
+        <v>864</v>
       </c>
       <c r="H83" s="9" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="I83" s="2">
         <v>0.8</v>
@@ -10621,22 +10654,19 @@
       </c>
       <c r="L83" s="26"/>
       <c r="M83" s="27"/>
-      <c r="O83" t="s">
-        <v>410</v>
-      </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>245</v>
       </c>
       <c r="B84" t="s">
-        <v>439</v>
+        <v>396</v>
       </c>
       <c r="C84" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="D84">
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="E84">
         <v>8</v>
@@ -10646,10 +10676,10 @@
       </c>
       <c r="G84" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>1104</v>
+        <v>576</v>
       </c>
       <c r="H84" s="9" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="I84" s="2">
         <v>0.8</v>
@@ -10662,470 +10692,473 @@
       </c>
       <c r="L84" s="26"/>
       <c r="M84" s="27"/>
-      <c r="O84" t="s">
-        <v>411</v>
-      </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>245</v>
       </c>
       <c r="B85" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C85" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D85">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="E85">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F85" s="2">
         <v>1</v>
       </c>
       <c r="G85" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>320</v>
+        <v>880</v>
       </c>
       <c r="H85" s="9" t="s">
         <v>9</v>
       </c>
       <c r="I85" s="2">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="J85" s="2">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="K85" s="2">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="L85" s="26"/>
       <c r="M85" s="27"/>
-      <c r="O85" t="s">
-        <v>409</v>
-      </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>245</v>
       </c>
       <c r="B86" t="s">
-        <v>457</v>
+        <v>405</v>
       </c>
       <c r="C86" t="s">
-        <v>458</v>
+        <v>406</v>
       </c>
       <c r="D86">
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="E86">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F86" s="2">
         <v>1</v>
       </c>
       <c r="G86" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>1530</v>
-      </c>
-      <c r="H86" s="10" t="s">
-        <v>27</v>
+        <v>280</v>
+      </c>
+      <c r="H86" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="I86" s="2">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="J86" s="2">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="K86" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="L86" s="32"/>
-      <c r="M86" s="33"/>
+        <v>0.6</v>
+      </c>
+      <c r="L86" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="M86" s="27">
+        <v>1</v>
+      </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>245</v>
       </c>
       <c r="B87" t="s">
-        <v>457</v>
+        <v>407</v>
       </c>
       <c r="C87" t="s">
-        <v>458</v>
+        <v>408</v>
       </c>
       <c r="D87">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="E87">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="F87" s="2">
         <v>1</v>
       </c>
       <c r="G87" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>600</v>
-      </c>
-      <c r="H87" s="13" t="s">
-        <v>33</v>
+        <v>726</v>
+      </c>
+      <c r="H87" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="I87" s="2">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="J87" s="2">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="K87" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="L87" s="32"/>
-      <c r="M87" s="33"/>
+        <v>1.3</v>
+      </c>
+      <c r="L87" s="26"/>
+      <c r="M87" s="27"/>
       <c r="O87" t="s">
-        <v>459</v>
+        <v>410</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>245</v>
       </c>
-      <c r="B88" s="37" t="s">
-        <v>478</v>
+      <c r="B88" t="s">
+        <v>439</v>
       </c>
       <c r="C88" t="s">
-        <v>479</v>
+        <v>408</v>
       </c>
       <c r="D88">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="E88">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F88" s="2">
         <v>1</v>
       </c>
       <c r="G88" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>1044</v>
-      </c>
-      <c r="H88" s="10" t="s">
-        <v>27</v>
+        <v>1104</v>
+      </c>
+      <c r="H88" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="I88" s="2">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="J88" s="2">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="K88" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="L88" s="15"/>
+        <v>1.3</v>
+      </c>
+      <c r="L88" s="26"/>
+      <c r="M88" s="27"/>
+      <c r="O88" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>245</v>
       </c>
-      <c r="B89" s="37" t="s">
-        <v>480</v>
+      <c r="B89" t="s">
+        <v>407</v>
       </c>
       <c r="C89" t="s">
-        <v>479</v>
+        <v>408</v>
       </c>
       <c r="D89">
-        <v>174</v>
+        <v>20</v>
       </c>
       <c r="E89">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F89" s="2">
         <v>1</v>
       </c>
       <c r="G89" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>1566</v>
-      </c>
-      <c r="H89" s="10" t="s">
-        <v>27</v>
+        <v>320</v>
+      </c>
+      <c r="H89" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="I89" s="2">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="J89" s="2">
-        <v>1.25</v>
+        <v>0.6</v>
       </c>
       <c r="K89" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="L89" s="15"/>
+        <v>0.6</v>
+      </c>
+      <c r="L89" s="26"/>
+      <c r="M89" s="27"/>
+      <c r="O89" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>245</v>
       </c>
-      <c r="B90" s="37" t="s">
-        <v>481</v>
+      <c r="B90" t="s">
+        <v>457</v>
       </c>
       <c r="C90" t="s">
-        <v>479</v>
+        <v>458</v>
       </c>
       <c r="D90">
-        <v>20</v>
+        <v>170</v>
       </c>
       <c r="E90">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F90" s="2">
         <v>1</v>
       </c>
       <c r="G90" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>400</v>
-      </c>
-      <c r="H90" s="13" t="s">
-        <v>33</v>
+        <v>1530</v>
+      </c>
+      <c r="H90" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="I90" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J90" s="2">
         <v>1.2</v>
       </c>
-      <c r="J90" s="2">
-        <v>0.6</v>
-      </c>
       <c r="K90" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="L90" s="15">
-        <v>0.01</v>
-      </c>
-      <c r="M90" s="17">
-        <v>1</v>
-      </c>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="L90" s="32"/>
+      <c r="M90" s="33"/>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>245</v>
       </c>
-      <c r="B91" s="37" t="s">
-        <v>487</v>
+      <c r="B91" t="s">
+        <v>457</v>
       </c>
       <c r="C91" t="s">
-        <v>482</v>
+        <v>458</v>
       </c>
       <c r="D91">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="E91">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="F91" s="2">
         <v>1</v>
       </c>
       <c r="G91" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>576</v>
-      </c>
-      <c r="H91" t="s">
-        <v>49</v>
+        <v>600</v>
+      </c>
+      <c r="H91" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="I91" s="2">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="J91" s="2">
-        <v>1.1000000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="K91" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="L91" s="15"/>
+        <v>0.6</v>
+      </c>
+      <c r="L91" s="32"/>
+      <c r="M91" s="33"/>
+      <c r="O91" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>245</v>
       </c>
-      <c r="B92" s="37" t="s">
-        <v>485</v>
+      <c r="B92" s="36" t="s">
+        <v>478</v>
       </c>
       <c r="C92" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D92">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="E92">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F92" s="2">
         <v>1</v>
       </c>
       <c r="G92" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>1400</v>
-      </c>
-      <c r="H92" s="13" t="s">
-        <v>33</v>
+        <v>1044</v>
+      </c>
+      <c r="H92" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="I92" s="2">
-        <v>1.35</v>
+        <v>0.4</v>
       </c>
       <c r="J92" s="2">
-        <v>0.85</v>
+        <v>1.25</v>
       </c>
       <c r="K92" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="L92" s="15">
-        <v>0.3</v>
-      </c>
-      <c r="M92" s="17">
-        <v>1</v>
-      </c>
+        <v>1.25</v>
+      </c>
+      <c r="L92" s="15"/>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>245</v>
       </c>
-      <c r="B93" t="s">
-        <v>486</v>
+      <c r="B93" s="36" t="s">
+        <v>480</v>
       </c>
       <c r="C93" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D93">
-        <v>30</v>
+        <v>174</v>
       </c>
       <c r="E93">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F93" s="2">
         <v>1</v>
       </c>
       <c r="G93" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
-        <v>420</v>
-      </c>
-      <c r="H93" t="s">
-        <v>9</v>
+        <v>1566</v>
+      </c>
+      <c r="H93" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="I93" s="2">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="J93" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="K93" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="L93" s="15"/>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>245</v>
+      </c>
+      <c r="B94" s="36" t="s">
+        <v>481</v>
+      </c>
+      <c r="C94" t="s">
+        <v>479</v>
+      </c>
+      <c r="D94">
+        <v>20</v>
+      </c>
+      <c r="E94">
+        <v>20</v>
+      </c>
+      <c r="F94" s="2">
+        <v>1</v>
+      </c>
+      <c r="G94" s="30">
+        <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
+        <v>400</v>
+      </c>
+      <c r="H94" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I94" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="J94" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="K94" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="L94" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="M94" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>245</v>
+      </c>
+      <c r="B95" s="36" t="s">
+        <v>487</v>
+      </c>
+      <c r="C95" t="s">
+        <v>482</v>
+      </c>
+      <c r="D95">
+        <v>96</v>
+      </c>
+      <c r="E95">
+        <v>6</v>
+      </c>
+      <c r="F95" s="2">
+        <v>1</v>
+      </c>
+      <c r="G95" s="30">
+        <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
+        <v>576</v>
+      </c>
+      <c r="H95" t="s">
+        <v>49</v>
+      </c>
+      <c r="I95" s="2">
         <v>0.8</v>
       </c>
-      <c r="K93" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="L93" s="15"/>
-    </row>
-    <row r="94" spans="1:15" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="D94" s="3">
-        <v>108</v>
-      </c>
-      <c r="E94" s="3">
-        <v>30</v>
-      </c>
-      <c r="F94" s="5">
-        <v>1</v>
-      </c>
-      <c r="G94" s="31">
-        <v>3240</v>
-      </c>
-      <c r="H94" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="I94" s="5">
-        <v>1</v>
-      </c>
-      <c r="J94" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="K94" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="L94" s="16">
-        <v>0.3</v>
-      </c>
-      <c r="M94" s="18">
-        <v>1</v>
-      </c>
-      <c r="N94" s="7"/>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A95" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="D95">
-        <v>108</v>
-      </c>
-      <c r="E95">
-        <v>22</v>
-      </c>
-      <c r="F95" s="5">
-        <v>1</v>
-      </c>
-      <c r="G95" s="30">
-        <v>2376</v>
-      </c>
-      <c r="H95" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I95" s="2">
-        <v>1</v>
-      </c>
       <c r="J95" s="2">
-        <v>0.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K95" s="2">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="L95" s="15"/>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>269</v>
-      </c>
-      <c r="B96" t="s">
-        <v>271</v>
+        <v>245</v>
+      </c>
+      <c r="B96" s="36" t="s">
+        <v>485</v>
       </c>
       <c r="C96" t="s">
-        <v>270</v>
+        <v>483</v>
       </c>
       <c r="D96">
-        <v>72</v>
+        <v>140</v>
       </c>
       <c r="E96">
-        <v>40</v>
-      </c>
-      <c r="F96" s="5">
+        <v>10</v>
+      </c>
+      <c r="F96" s="2">
         <v>1</v>
       </c>
       <c r="G96" s="30">
-        <v>2880</v>
+        <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
+        <v>1400</v>
       </c>
       <c r="H96" s="13" t="s">
         <v>33</v>
       </c>
       <c r="I96" s="2">
-        <v>0.9</v>
+        <v>1.35</v>
       </c>
       <c r="J96" s="2">
-        <v>1.2</v>
+        <v>0.85</v>
       </c>
       <c r="K96" s="2">
         <v>0.7</v>
@@ -11139,27 +11172,28 @@
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="B97" t="s">
-        <v>271</v>
+        <v>486</v>
       </c>
       <c r="C97" t="s">
-        <v>270</v>
+        <v>483</v>
       </c>
       <c r="D97">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="E97">
-        <v>22</v>
-      </c>
-      <c r="F97" s="5">
+        <v>14</v>
+      </c>
+      <c r="F97" s="2">
         <v>1</v>
       </c>
       <c r="G97" s="30">
-        <v>2376</v>
-      </c>
-      <c r="H97" s="9" t="s">
+        <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
+        <v>420</v>
+      </c>
+      <c r="H97" t="s">
         <v>9</v>
       </c>
       <c r="I97" s="2">
@@ -11175,177 +11209,180 @@
     </row>
     <row r="98" spans="1:15" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D98" s="3">
-        <v>235</v>
+        <v>108</v>
       </c>
       <c r="E98" s="3">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F98" s="5">
         <v>1</v>
       </c>
       <c r="G98" s="31">
-        <v>940</v>
-      </c>
-      <c r="H98" s="11" t="s">
-        <v>275</v>
+        <v>3240</v>
+      </c>
+      <c r="H98" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="I98" s="5">
+        <v>1</v>
+      </c>
+      <c r="J98" s="5">
         <v>0.8</v>
       </c>
-      <c r="J98" s="5">
-        <v>0.9</v>
-      </c>
       <c r="K98" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L98" s="16"/>
-      <c r="M98" s="18"/>
+        <v>0.6</v>
+      </c>
+      <c r="L98" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="M98" s="18">
+        <v>1</v>
+      </c>
       <c r="N98" s="7"/>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="B99" t="s">
-        <v>277</v>
-      </c>
-      <c r="C99" t="s">
-        <v>276</v>
+        <v>269</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>268</v>
       </c>
       <c r="D99">
-        <v>222</v>
+        <v>108</v>
       </c>
       <c r="E99">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F99" s="5">
         <v>1</v>
       </c>
       <c r="G99" s="30">
-        <v>2664</v>
+        <v>2376</v>
       </c>
       <c r="H99" s="9" t="s">
-        <v>275</v>
+        <v>9</v>
       </c>
       <c r="I99" s="2">
+        <v>1</v>
+      </c>
+      <c r="J99" s="2">
         <v>0.8</v>
       </c>
-      <c r="J99" s="2">
+      <c r="K99" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="L99" s="15"/>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>269</v>
+      </c>
+      <c r="B100" t="s">
+        <v>271</v>
+      </c>
+      <c r="C100" t="s">
+        <v>270</v>
+      </c>
+      <c r="D100">
+        <v>72</v>
+      </c>
+      <c r="E100">
+        <v>40</v>
+      </c>
+      <c r="F100" s="5">
+        <v>1</v>
+      </c>
+      <c r="G100" s="30">
+        <v>2880</v>
+      </c>
+      <c r="H100" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I100" s="2">
         <v>0.9</v>
       </c>
-      <c r="K99" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L99" s="15"/>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A100" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="B100" t="s">
-        <v>279</v>
-      </c>
-      <c r="C100" t="s">
-        <v>278</v>
-      </c>
-      <c r="D100">
-        <v>291</v>
-      </c>
-      <c r="E100">
-        <v>3</v>
-      </c>
-      <c r="F100" s="5">
-        <v>1</v>
-      </c>
-      <c r="G100" s="30">
-        <v>873</v>
-      </c>
-      <c r="H100" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="I100" s="2">
+      <c r="J100" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="K100" s="2">
         <v>0.7</v>
       </c>
-      <c r="J100" s="2">
-        <v>1.05</v>
-      </c>
-      <c r="K100" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="L100" s="15"/>
-      <c r="O100" t="s">
-        <v>281</v>
+      <c r="L100" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="M100" s="17">
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A101" s="3" t="s">
-        <v>272</v>
+      <c r="A101" t="s">
+        <v>269</v>
       </c>
       <c r="B101" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="C101" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="D101">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E101">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="F101" s="5">
         <v>1</v>
       </c>
       <c r="G101" s="30">
-        <v>666</v>
+        <v>2376</v>
       </c>
       <c r="H101" s="9" t="s">
-        <v>275</v>
+        <v>9</v>
       </c>
       <c r="I101" s="2">
+        <v>1</v>
+      </c>
+      <c r="J101" s="2">
         <v>0.8</v>
       </c>
-      <c r="J101" s="2">
-        <v>0.85</v>
-      </c>
       <c r="K101" s="2">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="L101" s="15"/>
-      <c r="O101" t="s">
-        <v>281</v>
-      </c>
     </row>
     <row r="102" spans="1:15" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>272</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="D102" s="3">
-        <v>360</v>
+        <v>235</v>
       </c>
       <c r="E102" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F102" s="5">
         <v>1</v>
       </c>
       <c r="G102" s="31">
-        <v>1080</v>
+        <v>940</v>
       </c>
       <c r="H102" s="11" t="s">
         <v>275</v>
@@ -11362,91 +11399,80 @@
       <c r="L102" s="16"/>
       <c r="M102" s="18"/>
       <c r="N102" s="7"/>
-      <c r="O102" t="s">
-        <v>281</v>
-      </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>272</v>
       </c>
       <c r="B103" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C103" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="D103">
-        <v>70</v>
+        <v>222</v>
       </c>
       <c r="E103">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F103" s="5">
         <v>1</v>
       </c>
       <c r="G103" s="30">
-        <v>210</v>
+        <v>2664</v>
       </c>
       <c r="H103" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="I103" s="5">
-        <v>1</v>
-      </c>
-      <c r="J103" s="5">
+        <v>275</v>
+      </c>
+      <c r="I103" s="2">
         <v>0.8</v>
       </c>
-      <c r="K103" s="5">
-        <v>0.6</v>
+      <c r="J103" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="K103" s="2">
+        <v>1.1000000000000001</v>
       </c>
       <c r="L103" s="15"/>
-      <c r="O103" t="s">
-        <v>287</v>
-      </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>272</v>
       </c>
       <c r="B104" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="C104" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="D104">
-        <v>120</v>
+        <v>291</v>
       </c>
       <c r="E104">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F104" s="5">
+        <v>1</v>
+      </c>
+      <c r="G104" s="30">
+        <v>873</v>
+      </c>
+      <c r="H104" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="I104" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="J104" s="2">
         <v>1.05</v>
       </c>
-      <c r="G104" s="30">
-        <v>756</v>
-      </c>
-      <c r="H104" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I104" s="5">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="J104" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="K104" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="L104" s="15">
-        <v>0.08</v>
-      </c>
-      <c r="M104" s="17">
-        <v>3</v>
-      </c>
+      <c r="K104" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="L104" s="15"/>
       <c r="O104" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.3">
@@ -11454,87 +11480,79 @@
         <v>272</v>
       </c>
       <c r="B105" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C105" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="D105">
-        <v>336</v>
+        <v>111</v>
       </c>
       <c r="E105">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F105" s="5">
         <v>1</v>
       </c>
       <c r="G105" s="30">
-        <v>672</v>
-      </c>
-      <c r="H105" s="13" t="s">
-        <v>299</v>
+        <v>666</v>
+      </c>
+      <c r="H105" s="9" t="s">
+        <v>275</v>
       </c>
       <c r="I105" s="2">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="J105" s="2">
-        <v>1.05</v>
+        <v>0.85</v>
       </c>
       <c r="K105" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="L105" s="15">
-        <v>1</v>
-      </c>
-      <c r="M105" s="17">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L105" s="15"/>
       <c r="O105" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B106" t="s">
-        <v>292</v>
-      </c>
-      <c r="C106" t="s">
-        <v>290</v>
-      </c>
-      <c r="D106">
-        <v>121</v>
-      </c>
-      <c r="E106">
-        <v>4</v>
+      <c r="B106" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D106" s="3">
+        <v>360</v>
+      </c>
+      <c r="E106" s="3">
+        <v>3</v>
       </c>
       <c r="F106" s="5">
         <v>1</v>
       </c>
-      <c r="G106" s="30">
-        <v>484</v>
-      </c>
-      <c r="H106" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="I106" s="2">
+      <c r="G106" s="31">
+        <v>1080</v>
+      </c>
+      <c r="H106" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="I106" s="5">
         <v>0.8</v>
       </c>
-      <c r="J106" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="K106" s="2">
-        <v>1</v>
-      </c>
-      <c r="L106" s="15">
-        <v>1</v>
-      </c>
-      <c r="M106" s="17">
-        <v>2</v>
-      </c>
+      <c r="J106" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="K106" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L106" s="16"/>
+      <c r="M106" s="18"/>
+      <c r="N106" s="7"/>
       <c r="O106" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.3">
@@ -11542,40 +11560,38 @@
         <v>272</v>
       </c>
       <c r="B107" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="C107" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D107">
-        <v>202</v>
+        <v>70</v>
       </c>
       <c r="E107">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F107" s="5">
         <v>1</v>
       </c>
       <c r="G107" s="30">
-        <v>808</v>
-      </c>
-      <c r="H107" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="I107" s="2">
+        <v>210</v>
+      </c>
+      <c r="H107" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="I107" s="5">
+        <v>1</v>
+      </c>
+      <c r="J107" s="5">
         <v>0.8</v>
       </c>
-      <c r="J107" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K107" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="L107" s="15">
-        <v>1</v>
-      </c>
+      <c r="K107" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="L107" s="15"/>
       <c r="O107" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.3">
@@ -11583,38 +11599,43 @@
         <v>272</v>
       </c>
       <c r="B108" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C108" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="D108">
-        <v>260</v>
+        <v>120</v>
       </c>
       <c r="E108">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F108" s="5">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="G108" s="30">
-        <v>6240</v>
+        <v>756</v>
       </c>
       <c r="H108" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="I108" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="J108" s="2">
+        <v>33</v>
+      </c>
+      <c r="I108" s="5">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="J108" s="5">
         <v>0.9</v>
       </c>
-      <c r="K108" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L108" s="15"/>
+      <c r="K108" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="L108" s="15">
+        <v>0.08</v>
+      </c>
+      <c r="M108" s="17">
+        <v>3</v>
+      </c>
       <c r="O108" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.3">
@@ -11622,74 +11643,87 @@
         <v>272</v>
       </c>
       <c r="B109" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C109" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D109">
-        <v>240</v>
+        <v>336</v>
       </c>
       <c r="E109">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F109" s="5">
         <v>1</v>
       </c>
       <c r="G109" s="30">
-        <v>4320</v>
-      </c>
-      <c r="H109" s="9" t="s">
-        <v>301</v>
+        <v>672</v>
+      </c>
+      <c r="H109" s="13" t="s">
+        <v>299</v>
       </c>
       <c r="I109" s="2">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="J109" s="2">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="K109" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="L109" s="15"/>
+        <v>1.25</v>
+      </c>
+      <c r="L109" s="15">
+        <v>1</v>
+      </c>
+      <c r="M109" s="17">
+        <v>2</v>
+      </c>
+      <c r="O109" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>272</v>
       </c>
       <c r="B110" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="C110" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="D110">
-        <v>301</v>
+        <v>121</v>
       </c>
       <c r="E110">
-        <v>8</v>
-      </c>
-      <c r="F110" s="2">
+        <v>4</v>
+      </c>
+      <c r="F110" s="5">
         <v>1</v>
       </c>
       <c r="G110" s="30">
-        <v>2408</v>
-      </c>
-      <c r="H110" s="10" t="s">
-        <v>294</v>
+        <v>484</v>
+      </c>
+      <c r="H110" s="13" t="s">
+        <v>299</v>
       </c>
       <c r="I110" s="2">
         <v>0.8</v>
       </c>
       <c r="J110" s="2">
-        <v>1.1000000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="K110" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="L110" s="15"/>
+        <v>1</v>
+      </c>
+      <c r="L110" s="15">
+        <v>1</v>
+      </c>
+      <c r="M110" s="17">
+        <v>2</v>
+      </c>
       <c r="O110" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.3">
@@ -11697,298 +11731,296 @@
         <v>272</v>
       </c>
       <c r="B111" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="C111" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="D111">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="E111">
-        <v>1</v>
-      </c>
-      <c r="F111" s="2">
-        <v>2.4500000000000002</v>
+        <v>4</v>
+      </c>
+      <c r="F111" s="5">
+        <v>1</v>
       </c>
       <c r="G111" s="30">
-        <v>431.2</v>
+        <v>808</v>
       </c>
       <c r="H111" s="10" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="I111" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J111" s="2">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K111" s="2">
-        <v>1</v>
-      </c>
-      <c r="L111" s="15"/>
-      <c r="N111" s="6" t="s">
-        <v>308</v>
+        <v>1.3</v>
+      </c>
+      <c r="L111" s="15">
+        <v>1</v>
       </c>
       <c r="O111" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B112" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>309</v>
+      <c r="B112" t="s">
+        <v>298</v>
+      </c>
+      <c r="C112" t="s">
+        <v>297</v>
       </c>
       <c r="D112">
-        <v>172</v>
+        <v>260</v>
       </c>
       <c r="E112">
-        <v>2</v>
-      </c>
-      <c r="F112" s="2">
+        <v>24</v>
+      </c>
+      <c r="F112" s="5">
         <v>1</v>
       </c>
       <c r="G112" s="30">
-        <v>344</v>
-      </c>
-      <c r="H112" s="9" t="s">
-        <v>301</v>
+        <v>6240</v>
+      </c>
+      <c r="H112" s="13" t="s">
+        <v>299</v>
       </c>
       <c r="I112" s="2">
         <v>0.8</v>
       </c>
       <c r="J112" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="K112" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K112" s="2">
-        <v>1.3</v>
-      </c>
       <c r="L112" s="15"/>
-    </row>
-    <row r="113" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O112" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B113" s="3" t="s">
-        <v>312</v>
+      <c r="B113" t="s">
+        <v>298</v>
       </c>
       <c r="C113" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="D113">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="E113">
-        <v>1</v>
-      </c>
-      <c r="F113" s="2">
+        <v>18</v>
+      </c>
+      <c r="F113" s="5">
         <v>1</v>
       </c>
       <c r="G113" s="30">
-        <v>226</v>
+        <v>4320</v>
       </c>
       <c r="H113" s="9" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="I113" s="2">
         <v>0.8</v>
       </c>
       <c r="J113" s="2">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="K113" s="2">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="L113" s="15"/>
-      <c r="O113" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B114" s="3" t="s">
-        <v>313</v>
+      <c r="B114" t="s">
+        <v>304</v>
       </c>
       <c r="C114" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="D114">
-        <v>96</v>
+        <v>301</v>
       </c>
       <c r="E114">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F114" s="2">
         <v>1</v>
       </c>
       <c r="G114" s="30">
-        <v>192</v>
-      </c>
-      <c r="H114" s="9" t="s">
-        <v>275</v>
+        <v>2408</v>
+      </c>
+      <c r="H114" s="10" t="s">
+        <v>294</v>
       </c>
       <c r="I114" s="2">
         <v>0.8</v>
       </c>
       <c r="J114" s="2">
-        <v>0.85</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K114" s="2">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="L114" s="15"/>
       <c r="O114" t="s">
-        <v>281</v>
+        <v>303</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
+      <c r="A115" s="3" t="s">
         <v>272</v>
       </c>
       <c r="B115" t="s">
-        <v>346</v>
+        <v>306</v>
       </c>
       <c r="C115" t="s">
-        <v>347</v>
+        <v>305</v>
       </c>
       <c r="D115">
-        <v>222</v>
+        <v>176</v>
       </c>
       <c r="E115">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F115" s="2">
-        <v>1</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="G115" s="30">
-        <f>222*12</f>
-        <v>2664</v>
-      </c>
-      <c r="H115" t="s">
-        <v>275</v>
+        <v>431.2</v>
+      </c>
+      <c r="H115" s="10" t="s">
+        <v>307</v>
       </c>
       <c r="I115" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J115" s="2">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="K115" s="2">
         <v>1</v>
       </c>
       <c r="L115" s="15"/>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
+      <c r="N115" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="O115" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B116" t="s">
-        <v>404</v>
-      </c>
-      <c r="C116" t="s">
-        <v>361</v>
+      <c r="B116" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>309</v>
       </c>
       <c r="D116">
-        <v>121</v>
+        <v>172</v>
       </c>
       <c r="E116">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F116" s="2">
         <v>1</v>
       </c>
       <c r="G116" s="30">
-        <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>484</v>
-      </c>
-      <c r="H116" t="s">
-        <v>275</v>
+        <v>344</v>
+      </c>
+      <c r="H116" s="9" t="s">
+        <v>301</v>
       </c>
       <c r="I116" s="2">
         <v>0.8</v>
       </c>
       <c r="J116" s="2">
-        <v>0.85</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K116" s="2">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="L116" s="15"/>
-      <c r="O116" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
+    </row>
+    <row r="117" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B117" t="s">
-        <v>403</v>
+      <c r="B117" s="3" t="s">
+        <v>312</v>
       </c>
       <c r="C117" t="s">
-        <v>361</v>
+        <v>311</v>
       </c>
       <c r="D117">
-        <v>456</v>
+        <v>226</v>
       </c>
       <c r="E117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F117" s="2">
         <v>1</v>
       </c>
       <c r="G117" s="30">
-        <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>912</v>
-      </c>
-      <c r="H117" t="s">
+        <v>226</v>
+      </c>
+      <c r="H117" s="9" t="s">
         <v>275</v>
       </c>
       <c r="I117" s="2">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="J117" s="2">
-        <v>1.05</v>
+        <v>0.9</v>
       </c>
       <c r="K117" s="2">
-        <v>1.25</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L117" s="15"/>
       <c r="O117" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B118" t="s">
-        <v>402</v>
+      <c r="B118" s="3" t="s">
+        <v>313</v>
       </c>
       <c r="C118" t="s">
-        <v>361</v>
+        <v>311</v>
       </c>
       <c r="D118">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="E118">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F118" s="2">
         <v>1</v>
       </c>
       <c r="G118" s="30">
-        <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>484</v>
-      </c>
-      <c r="H118" t="s">
+        <v>192</v>
+      </c>
+      <c r="H118" s="9" t="s">
         <v>275</v>
       </c>
       <c r="I118" s="2">
@@ -12002,7 +12034,7 @@
       </c>
       <c r="L118" s="15"/>
       <c r="O118" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.3">
@@ -12010,63 +12042,60 @@
         <v>272</v>
       </c>
       <c r="B119" t="s">
-        <v>440</v>
+        <v>346</v>
       </c>
       <c r="C119" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="D119">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="E119">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F119" s="2">
         <v>1</v>
       </c>
       <c r="G119" s="30">
-        <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>1440</v>
+        <f>222*12</f>
+        <v>2664</v>
       </c>
       <c r="H119" t="s">
-        <v>49</v>
+        <v>275</v>
       </c>
       <c r="I119" s="2">
         <v>0.8</v>
       </c>
       <c r="J119" s="2">
-        <v>1.1000000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="K119" s="2">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="L119" s="15"/>
-      <c r="O119" t="s">
-        <v>300</v>
-      </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>272</v>
       </c>
       <c r="B120" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="C120" t="s">
-        <v>390</v>
+        <v>361</v>
       </c>
       <c r="D120">
-        <v>322</v>
+        <v>121</v>
       </c>
       <c r="E120">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F120" s="2">
         <v>1</v>
       </c>
       <c r="G120" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>966</v>
+        <v>484</v>
       </c>
       <c r="H120" t="s">
         <v>275</v>
@@ -12080,10 +12109,9 @@
       <c r="K120" s="2">
         <v>1</v>
       </c>
-      <c r="L120" s="26"/>
-      <c r="M120" s="27"/>
+      <c r="L120" s="15"/>
       <c r="O120" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.3">
@@ -12091,40 +12119,39 @@
         <v>272</v>
       </c>
       <c r="B121" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="C121" t="s">
-        <v>390</v>
+        <v>361</v>
       </c>
       <c r="D121">
-        <v>138</v>
+        <v>456</v>
       </c>
       <c r="E121">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F121" s="2">
         <v>1</v>
       </c>
       <c r="G121" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>828</v>
+        <v>912</v>
       </c>
       <c r="H121" t="s">
         <v>275</v>
       </c>
       <c r="I121" s="2">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="J121" s="2">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="K121" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="L121" s="26"/>
-      <c r="M121" s="27"/>
+        <v>1.25</v>
+      </c>
+      <c r="L121" s="15"/>
       <c r="O121" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.3">
@@ -12132,137 +12159,144 @@
         <v>272</v>
       </c>
       <c r="B122" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="C122" t="s">
-        <v>397</v>
+        <v>361</v>
       </c>
       <c r="D122">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="E122">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F122" s="2">
         <v>1</v>
       </c>
       <c r="G122" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>448</v>
-      </c>
-      <c r="H122" s="10" t="s">
-        <v>27</v>
+        <v>484</v>
+      </c>
+      <c r="H122" t="s">
+        <v>275</v>
       </c>
       <c r="I122" s="2">
-        <v>1.1000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="J122" s="2">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="K122" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="L122" s="26"/>
-      <c r="M122" s="27"/>
+        <v>1</v>
+      </c>
+      <c r="L122" s="15"/>
+      <c r="O122" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>272</v>
       </c>
       <c r="B123" t="s">
-        <v>398</v>
+        <v>440</v>
       </c>
       <c r="C123" t="s">
-        <v>397</v>
+        <v>361</v>
       </c>
       <c r="D123">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="E123">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F123" s="2">
         <v>1</v>
       </c>
       <c r="G123" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>480</v>
-      </c>
-      <c r="H123" s="13" t="s">
-        <v>33</v>
+        <v>1440</v>
+      </c>
+      <c r="H123" t="s">
+        <v>49</v>
       </c>
       <c r="I123" s="2">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="J123" s="2">
-        <v>0.6</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K123" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="L123" s="26"/>
-      <c r="M123" s="27"/>
+        <v>1.3</v>
+      </c>
+      <c r="L123" s="15"/>
+      <c r="O123" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>272</v>
       </c>
       <c r="B124" t="s">
-        <v>442</v>
+        <v>391</v>
       </c>
       <c r="C124" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="D124">
-        <v>31</v>
+        <v>322</v>
       </c>
       <c r="E124">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="F124" s="2">
         <v>1</v>
       </c>
       <c r="G124" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>744</v>
-      </c>
-      <c r="H124" s="10" t="s">
-        <v>27</v>
+        <v>966</v>
+      </c>
+      <c r="H124" t="s">
+        <v>275</v>
       </c>
       <c r="I124" s="2">
-        <v>1.1000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="J124" s="2">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="K124" s="2">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="L124" s="26"/>
       <c r="M124" s="27"/>
+      <c r="O124" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>272</v>
       </c>
       <c r="B125" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="C125" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="D125">
-        <v>226</v>
+        <v>138</v>
       </c>
       <c r="E125">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F125" s="2">
         <v>1</v>
       </c>
       <c r="G125" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>678</v>
+        <v>828</v>
       </c>
       <c r="H125" t="s">
         <v>275</v>
@@ -12271,10 +12305,10 @@
         <v>0.8</v>
       </c>
       <c r="J125" s="2">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="K125" s="2">
-        <v>1.1000000000000001</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="L125" s="26"/>
       <c r="M125" s="27"/>
@@ -12287,144 +12321,137 @@
         <v>272</v>
       </c>
       <c r="B126" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C126" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D126">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="E126">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F126" s="2">
         <v>1</v>
       </c>
       <c r="G126" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>576</v>
-      </c>
-      <c r="H126" t="s">
-        <v>275</v>
+        <v>448</v>
+      </c>
+      <c r="H126" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="I126" s="2">
-        <v>0.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J126" s="2">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="K126" s="2">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="L126" s="26"/>
       <c r="M126" s="27"/>
-      <c r="O126" t="s">
-        <v>281</v>
-      </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>272</v>
       </c>
-      <c r="B127" s="3" t="s">
-        <v>484</v>
+      <c r="B127" t="s">
+        <v>398</v>
       </c>
       <c r="C127" t="s">
-        <v>472</v>
+        <v>397</v>
       </c>
       <c r="D127">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="E127">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F127" s="2">
         <v>1</v>
       </c>
       <c r="G127" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>2880</v>
-      </c>
-      <c r="H127" t="s">
-        <v>286</v>
+        <v>480</v>
+      </c>
+      <c r="H127" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="I127" s="2">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="J127" s="2">
-        <v>1.1000000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="K127" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="L127" s="15"/>
-      <c r="O127" t="s">
-        <v>296</v>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="L127" s="26"/>
+      <c r="M127" s="27"/>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>272</v>
       </c>
       <c r="B128" t="s">
-        <v>509</v>
+        <v>442</v>
       </c>
       <c r="C128" t="s">
-        <v>508</v>
+        <v>397</v>
       </c>
       <c r="D128">
-        <v>226</v>
+        <v>31</v>
       </c>
       <c r="E128">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="F128" s="2">
         <v>1</v>
       </c>
       <c r="G128" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>678</v>
-      </c>
-      <c r="H128" t="s">
-        <v>275</v>
+        <v>744</v>
+      </c>
+      <c r="H128" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="I128" s="2">
-        <v>0.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J128" s="2">
         <v>0.9</v>
       </c>
       <c r="K128" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L128" s="15"/>
-      <c r="O128" t="s">
-        <v>281</v>
-      </c>
+        <v>0.7</v>
+      </c>
+      <c r="L128" s="26"/>
+      <c r="M128" s="27"/>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>272</v>
       </c>
       <c r="B129" t="s">
-        <v>510</v>
+        <v>400</v>
       </c>
       <c r="C129" t="s">
-        <v>508</v>
+        <v>399</v>
       </c>
       <c r="D129">
-        <v>96</v>
+        <v>226</v>
       </c>
       <c r="E129">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F129" s="2">
         <v>1</v>
       </c>
       <c r="G129" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>576</v>
+        <v>678</v>
       </c>
       <c r="H129" t="s">
         <v>275</v>
@@ -12433,12 +12460,13 @@
         <v>0.8</v>
       </c>
       <c r="J129" s="2">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="K129" s="2">
-        <v>1</v>
-      </c>
-      <c r="L129" s="15"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L129" s="26"/>
+      <c r="M129" s="27"/>
       <c r="O129" t="s">
         <v>281</v>
       </c>
@@ -12448,13 +12476,13 @@
         <v>272</v>
       </c>
       <c r="B130" t="s">
-        <v>511</v>
+        <v>401</v>
       </c>
       <c r="C130" t="s">
-        <v>508</v>
+        <v>399</v>
       </c>
       <c r="D130">
-        <v>240</v>
+        <v>96</v>
       </c>
       <c r="E130">
         <v>6</v>
@@ -12464,34 +12492,38 @@
       </c>
       <c r="G130" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>1440</v>
+        <v>576</v>
       </c>
       <c r="H130" t="s">
-        <v>49</v>
+        <v>275</v>
       </c>
       <c r="I130" s="2">
         <v>0.8</v>
       </c>
       <c r="J130" s="2">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="K130" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="L130" s="15"/>
+        <v>1</v>
+      </c>
+      <c r="L130" s="26"/>
+      <c r="M130" s="27"/>
+      <c r="O130" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>332</v>
-      </c>
-      <c r="B131" t="s">
-        <v>317</v>
+        <v>272</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>484</v>
       </c>
       <c r="C131" t="s">
-        <v>314</v>
+        <v>472</v>
       </c>
       <c r="D131">
-        <v>202</v>
+        <v>240</v>
       </c>
       <c r="E131">
         <v>12</v>
@@ -12501,10 +12533,10 @@
       </c>
       <c r="G131" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>2424</v>
-      </c>
-      <c r="H131" s="9" t="s">
-        <v>301</v>
+        <v>2880</v>
+      </c>
+      <c r="H131" t="s">
+        <v>286</v>
       </c>
       <c r="I131" s="2">
         <v>0.8</v>
@@ -12516,176 +12548,179 @@
         <v>1.3</v>
       </c>
       <c r="L131" s="15"/>
+      <c r="O131" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>332</v>
+        <v>272</v>
       </c>
       <c r="B132" t="s">
-        <v>316</v>
+        <v>503</v>
       </c>
       <c r="C132" t="s">
-        <v>315</v>
+        <v>502</v>
       </c>
       <c r="D132">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="E132">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F132" s="2">
         <v>1</v>
       </c>
       <c r="G132" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>2160</v>
-      </c>
-      <c r="H132" s="9" t="s">
-        <v>301</v>
+        <v>678</v>
+      </c>
+      <c r="H132" t="s">
+        <v>275</v>
       </c>
       <c r="I132" s="2">
         <v>0.8</v>
       </c>
       <c r="J132" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="K132" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K132" s="2">
-        <v>1.3</v>
-      </c>
       <c r="L132" s="15"/>
+      <c r="O132" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>332</v>
+        <v>272</v>
       </c>
       <c r="B133" t="s">
-        <v>318</v>
+        <v>504</v>
       </c>
       <c r="C133" t="s">
-        <v>319</v>
+        <v>502</v>
       </c>
       <c r="D133">
-        <v>225</v>
+        <v>96</v>
       </c>
       <c r="E133">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F133" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G133" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>450</v>
-      </c>
-      <c r="H133" s="10" t="s">
-        <v>27</v>
+        <v>576</v>
+      </c>
+      <c r="H133" t="s">
+        <v>275</v>
       </c>
       <c r="I133" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J133" s="2">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="K133" s="2">
         <v>1</v>
       </c>
       <c r="L133" s="15"/>
       <c r="O133" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>332</v>
+        <v>272</v>
       </c>
       <c r="B134" t="s">
-        <v>341</v>
+        <v>505</v>
       </c>
       <c r="C134" t="s">
-        <v>340</v>
+        <v>502</v>
       </c>
       <c r="D134">
-        <v>332</v>
+        <v>240</v>
       </c>
       <c r="E134">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F134" s="2">
         <v>1</v>
       </c>
       <c r="G134" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>332</v>
-      </c>
-      <c r="H134" s="9" t="s">
-        <v>275</v>
+        <v>1440</v>
+      </c>
+      <c r="H134" t="s">
+        <v>49</v>
       </c>
       <c r="I134" s="2">
         <v>0.8</v>
       </c>
       <c r="J134" s="2">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="K134" s="2">
-        <v>1.1499999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="L134" s="15"/>
-      <c r="O134" t="s">
-        <v>281</v>
-      </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>332</v>
-      </c>
-      <c r="B135" t="s">
-        <v>342</v>
+        <v>272</v>
+      </c>
+      <c r="B135" s="40" t="s">
+        <v>523</v>
       </c>
       <c r="C135" t="s">
-        <v>340</v>
+        <v>522</v>
       </c>
       <c r="D135">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E135">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F135" s="2">
         <v>1</v>
       </c>
       <c r="G135" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>276</v>
-      </c>
-      <c r="H135" s="9" t="s">
-        <v>275</v>
+        <v>366</v>
+      </c>
+      <c r="H135" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="I135" s="2">
-        <v>0.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J135" s="2">
-        <v>0.85</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K135" s="2">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L135" s="15"/>
       <c r="O135" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>332</v>
+        <v>272</v>
       </c>
       <c r="B136" t="s">
-        <v>338</v>
+        <v>524</v>
       </c>
       <c r="C136" t="s">
-        <v>339</v>
+        <v>525</v>
       </c>
       <c r="D136">
-        <v>288</v>
+        <v>240</v>
       </c>
       <c r="E136">
         <v>6</v>
@@ -12695,10 +12730,10 @@
       </c>
       <c r="G136" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>1728</v>
-      </c>
-      <c r="H136" s="9" t="s">
-        <v>286</v>
+        <v>1440</v>
+      </c>
+      <c r="H136" t="s">
+        <v>49</v>
       </c>
       <c r="I136" s="2">
         <v>0.8</v>
@@ -12711,71 +12746,74 @@
       </c>
       <c r="L136" s="15"/>
       <c r="O136" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>332</v>
+        <v>272</v>
       </c>
       <c r="B137" t="s">
-        <v>348</v>
+        <v>526</v>
       </c>
       <c r="C137" t="s">
-        <v>349</v>
+        <v>525</v>
       </c>
       <c r="D137">
-        <v>207</v>
+        <v>300</v>
       </c>
       <c r="E137">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F137" s="2">
         <v>1</v>
       </c>
       <c r="G137" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>621</v>
-      </c>
-      <c r="H137" t="s">
-        <v>49</v>
+        <v>1800</v>
+      </c>
+      <c r="H137" s="9" t="s">
+        <v>275</v>
       </c>
       <c r="I137" s="2">
         <v>0.8</v>
       </c>
       <c r="J137" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="K137" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K137" s="2">
-        <v>1.3</v>
-      </c>
       <c r="L137" s="15"/>
+      <c r="O137" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>332</v>
       </c>
       <c r="B138" t="s">
-        <v>441</v>
+        <v>317</v>
       </c>
       <c r="C138" t="s">
-        <v>349</v>
+        <v>314</v>
       </c>
       <c r="D138">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E138">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F138" s="2">
         <v>1</v>
       </c>
       <c r="G138" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>1242</v>
-      </c>
-      <c r="H138" t="s">
-        <v>49</v>
+        <v>2424</v>
+      </c>
+      <c r="H138" s="9" t="s">
+        <v>301</v>
       </c>
       <c r="I138" s="2">
         <v>0.8</v>
@@ -12793,71 +12831,63 @@
         <v>332</v>
       </c>
       <c r="B139" t="s">
-        <v>423</v>
+        <v>316</v>
       </c>
       <c r="C139" t="s">
-        <v>424</v>
+        <v>315</v>
       </c>
       <c r="D139">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="E139">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F139" s="2">
         <v>1</v>
       </c>
       <c r="G139" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>294</v>
-      </c>
-      <c r="H139" s="13" t="s">
-        <v>299</v>
+        <v>2160</v>
+      </c>
+      <c r="H139" s="9" t="s">
+        <v>301</v>
       </c>
       <c r="I139" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J139" s="2">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K139" s="2">
-        <v>1</v>
-      </c>
-      <c r="L139" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="M139" s="27">
-        <v>3</v>
-      </c>
-      <c r="O139" t="s">
-        <v>425</v>
-      </c>
+        <v>1.3</v>
+      </c>
+      <c r="L139" s="15"/>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>332</v>
       </c>
       <c r="B140" t="s">
-        <v>423</v>
+        <v>318</v>
       </c>
       <c r="C140" t="s">
-        <v>424</v>
+        <v>319</v>
       </c>
       <c r="D140">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="E140">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F140" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G140" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>744</v>
+        <v>450</v>
       </c>
       <c r="H140" s="10" t="s">
-        <v>426</v>
+        <v>27</v>
       </c>
       <c r="I140" s="2">
         <v>1</v>
@@ -12868,119 +12898,125 @@
       <c r="K140" s="2">
         <v>1</v>
       </c>
-      <c r="L140" s="26"/>
-      <c r="M140" s="27"/>
+      <c r="L140" s="15"/>
+      <c r="O140" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>332</v>
       </c>
       <c r="B141" t="s">
-        <v>423</v>
+        <v>341</v>
       </c>
       <c r="C141" t="s">
-        <v>424</v>
+        <v>340</v>
       </c>
       <c r="D141">
-        <v>72</v>
+        <v>332</v>
       </c>
       <c r="E141">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="F141" s="2">
         <v>1</v>
       </c>
       <c r="G141" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>1728</v>
-      </c>
-      <c r="H141" t="s">
+        <v>332</v>
+      </c>
+      <c r="H141" s="9" t="s">
         <v>275</v>
       </c>
       <c r="I141" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J141" s="2">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="K141" s="2">
-        <v>1</v>
-      </c>
-      <c r="L141" s="26"/>
-      <c r="M141" s="27"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="L141" s="15"/>
+      <c r="O141" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>332</v>
       </c>
       <c r="B142" t="s">
-        <v>467</v>
+        <v>342</v>
       </c>
       <c r="C142" t="s">
-        <v>463</v>
+        <v>340</v>
       </c>
       <c r="D142">
-        <v>380</v>
+        <v>138</v>
       </c>
       <c r="E142">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F142" s="2">
         <v>1</v>
       </c>
       <c r="G142" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>2280</v>
-      </c>
-      <c r="H142" t="s">
+        <v>276</v>
+      </c>
+      <c r="H142" s="9" t="s">
         <v>275</v>
       </c>
       <c r="I142" s="2">
         <v>0.8</v>
       </c>
       <c r="J142" s="2">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="K142" s="2">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="L142" s="15"/>
-      <c r="M142" s="12"/>
+      <c r="O142" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B143" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="C143" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="D143">
-        <v>173</v>
+        <v>288</v>
       </c>
       <c r="E143">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F143" s="2">
         <v>1</v>
       </c>
       <c r="G143" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>2595</v>
-      </c>
-      <c r="H143" t="s">
-        <v>275</v>
+        <v>1728</v>
+      </c>
+      <c r="H143" s="9" t="s">
+        <v>286</v>
       </c>
       <c r="I143" s="2">
         <v>0.8</v>
       </c>
       <c r="J143" s="2">
-        <v>0.85</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K143" s="2">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="L143" s="15"/>
       <c r="O143" t="s">
@@ -12989,526 +13025,899 @@
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B144" t="s">
-        <v>321</v>
+        <v>348</v>
       </c>
       <c r="C144" t="s">
-        <v>320</v>
+        <v>349</v>
       </c>
       <c r="D144">
-        <v>100</v>
+        <v>207</v>
       </c>
       <c r="E144">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F144" s="2">
         <v>1</v>
       </c>
       <c r="G144" s="30">
-        <v>800</v>
-      </c>
-      <c r="H144" s="13" t="s">
-        <v>33</v>
+        <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
+        <v>621</v>
+      </c>
+      <c r="H144" t="s">
+        <v>49</v>
       </c>
       <c r="I144" s="2">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="J144" s="2">
         <v>1.1000000000000001</v>
       </c>
       <c r="K144" s="2">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="L144" s="15"/>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
+        <v>332</v>
+      </c>
+      <c r="B145" t="s">
+        <v>441</v>
+      </c>
+      <c r="C145" t="s">
+        <v>349</v>
+      </c>
+      <c r="D145">
+        <v>207</v>
+      </c>
+      <c r="E145">
+        <v>6</v>
+      </c>
+      <c r="F145" s="2">
+        <v>1</v>
+      </c>
+      <c r="G145" s="30">
+        <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
+        <v>1242</v>
+      </c>
+      <c r="H145" t="s">
+        <v>49</v>
+      </c>
+      <c r="I145" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="J145" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K145" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="L145" s="15"/>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>332</v>
+      </c>
+      <c r="B146" t="s">
+        <v>423</v>
+      </c>
+      <c r="C146" t="s">
+        <v>424</v>
+      </c>
+      <c r="D146">
+        <v>294</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+      <c r="F146" s="2">
+        <v>1</v>
+      </c>
+      <c r="G146" s="30">
+        <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
+        <v>294</v>
+      </c>
+      <c r="H146" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="I146" s="2">
+        <v>1</v>
+      </c>
+      <c r="J146" s="2">
+        <v>1</v>
+      </c>
+      <c r="K146" s="2">
+        <v>1</v>
+      </c>
+      <c r="L146" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="M146" s="27">
+        <v>3</v>
+      </c>
+      <c r="O146" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>332</v>
+      </c>
+      <c r="B147" t="s">
+        <v>423</v>
+      </c>
+      <c r="C147" t="s">
+        <v>424</v>
+      </c>
+      <c r="D147">
+        <v>248</v>
+      </c>
+      <c r="E147">
+        <v>3</v>
+      </c>
+      <c r="F147" s="2">
+        <v>1</v>
+      </c>
+      <c r="G147" s="30">
+        <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
+        <v>744</v>
+      </c>
+      <c r="H147" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="I147" s="2">
+        <v>1</v>
+      </c>
+      <c r="J147" s="2">
+        <v>1</v>
+      </c>
+      <c r="K147" s="2">
+        <v>1</v>
+      </c>
+      <c r="L147" s="26"/>
+      <c r="M147" s="27"/>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>332</v>
+      </c>
+      <c r="B148" t="s">
+        <v>423</v>
+      </c>
+      <c r="C148" t="s">
+        <v>424</v>
+      </c>
+      <c r="D148">
+        <v>72</v>
+      </c>
+      <c r="E148">
+        <v>24</v>
+      </c>
+      <c r="F148" s="2">
+        <v>1</v>
+      </c>
+      <c r="G148" s="30">
+        <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
+        <v>1728</v>
+      </c>
+      <c r="H148" t="s">
+        <v>275</v>
+      </c>
+      <c r="I148" s="2">
+        <v>1</v>
+      </c>
+      <c r="J148" s="2">
+        <v>1</v>
+      </c>
+      <c r="K148" s="2">
+        <v>1</v>
+      </c>
+      <c r="L148" s="26"/>
+      <c r="M148" s="27"/>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>332</v>
+      </c>
+      <c r="B149" t="s">
+        <v>467</v>
+      </c>
+      <c r="C149" t="s">
+        <v>463</v>
+      </c>
+      <c r="D149">
+        <v>380</v>
+      </c>
+      <c r="E149">
+        <v>6</v>
+      </c>
+      <c r="F149" s="2">
+        <v>1</v>
+      </c>
+      <c r="G149" s="30">
+        <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
+        <v>2280</v>
+      </c>
+      <c r="H149" t="s">
+        <v>275</v>
+      </c>
+      <c r="I149" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="J149" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="K149" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L149" s="15"/>
+      <c r="M149" s="12"/>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>332</v>
+      </c>
+      <c r="B150" s="40" t="s">
+        <v>518</v>
+      </c>
+      <c r="C150" t="s">
+        <v>519</v>
+      </c>
+      <c r="D150">
+        <v>245</v>
+      </c>
+      <c r="E150">
+        <v>1</v>
+      </c>
+      <c r="F150" s="2">
+        <v>1</v>
+      </c>
+      <c r="G150" s="30">
+        <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
+        <v>245</v>
+      </c>
+      <c r="H150" t="s">
+        <v>520</v>
+      </c>
+      <c r="I150" s="2">
+        <v>1</v>
+      </c>
+      <c r="J150" s="2">
+        <v>1</v>
+      </c>
+      <c r="K150" s="2">
+        <v>1</v>
+      </c>
+      <c r="L150" s="15"/>
+      <c r="M150" s="12"/>
+      <c r="O150" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
         <v>333</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B151" t="s">
+        <v>359</v>
+      </c>
+      <c r="C151" t="s">
+        <v>360</v>
+      </c>
+      <c r="D151">
+        <v>173</v>
+      </c>
+      <c r="E151">
+        <v>15</v>
+      </c>
+      <c r="F151" s="2">
+        <v>1</v>
+      </c>
+      <c r="G151" s="30">
+        <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
+        <v>2595</v>
+      </c>
+      <c r="H151" t="s">
+        <v>275</v>
+      </c>
+      <c r="I151" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="J151" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="K151" s="2">
+        <v>1</v>
+      </c>
+      <c r="L151" s="15"/>
+      <c r="O151" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>333</v>
+      </c>
+      <c r="B152" t="s">
+        <v>321</v>
+      </c>
+      <c r="C152" t="s">
+        <v>320</v>
+      </c>
+      <c r="D152">
+        <v>100</v>
+      </c>
+      <c r="E152">
+        <v>8</v>
+      </c>
+      <c r="F152" s="2">
+        <v>1</v>
+      </c>
+      <c r="G152" s="30">
+        <v>800</v>
+      </c>
+      <c r="H152" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I152" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="J152" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K152" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="L152" s="15"/>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>333</v>
+      </c>
+      <c r="B153" t="s">
         <v>323</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C153" t="s">
         <v>322</v>
       </c>
-      <c r="D145">
+      <c r="D153">
         <v>332</v>
       </c>
-      <c r="E145">
+      <c r="E153">
         <v>2</v>
       </c>
-      <c r="F145" s="2">
-        <v>1</v>
-      </c>
-      <c r="G145" s="30">
+      <c r="F153" s="2">
+        <v>1</v>
+      </c>
+      <c r="G153" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]</f>
         <v>664</v>
       </c>
-      <c r="H145" s="9" t="s">
+      <c r="H153" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="I145" s="2">
+      <c r="I153" s="2">
         <v>0.8</v>
       </c>
-      <c r="J145" s="2">
+      <c r="J153" s="2">
         <v>0.95</v>
       </c>
-      <c r="K145" s="2">
+      <c r="K153" s="2">
         <v>1.1499999999999999</v>
       </c>
-      <c r="L145" s="15"/>
-      <c r="O145" t="s">
+      <c r="L153" s="15"/>
+      <c r="O153" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
         <v>333</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B154" t="s">
         <v>324</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C154" t="s">
         <v>322</v>
       </c>
-      <c r="D146">
+      <c r="D154">
         <v>276</v>
       </c>
-      <c r="E146">
+      <c r="E154">
         <v>2</v>
       </c>
-      <c r="F146" s="2">
-        <v>1</v>
-      </c>
-      <c r="G146" s="30">
+      <c r="F154" s="2">
+        <v>1</v>
+      </c>
+      <c r="G154" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]</f>
         <v>552</v>
       </c>
-      <c r="H146" s="9" t="s">
+      <c r="H154" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="I146" s="2">
+      <c r="I154" s="2">
         <v>0.8</v>
       </c>
-      <c r="J146" s="2">
+      <c r="J154" s="2">
         <v>0.85</v>
       </c>
-      <c r="K146" s="2">
-        <v>1</v>
-      </c>
-      <c r="L146" s="15"/>
-      <c r="O146" t="s">
+      <c r="K154" s="2">
+        <v>1</v>
+      </c>
+      <c r="L154" s="15"/>
+      <c r="O154" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
         <v>173</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B155" t="s">
         <v>325</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C155" t="s">
         <v>328</v>
       </c>
-      <c r="D147">
+      <c r="D155">
         <v>50</v>
       </c>
-      <c r="E147">
+      <c r="E155">
         <v>7</v>
       </c>
-      <c r="F147" s="2">
-        <v>1</v>
-      </c>
-      <c r="G147" s="30">
+      <c r="F155" s="2">
+        <v>1</v>
+      </c>
+      <c r="G155" s="30">
         <v>350</v>
       </c>
-      <c r="H147" s="9" t="s">
+      <c r="H155" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I147" s="2">
+      <c r="I155" s="2">
         <v>0.8</v>
       </c>
-      <c r="J147" s="2">
-        <v>1</v>
-      </c>
-      <c r="K147" s="2">
+      <c r="J155" s="2">
+        <v>1</v>
+      </c>
+      <c r="K155" s="2">
         <v>1.3</v>
       </c>
-      <c r="L147"/>
-      <c r="M147"/>
-      <c r="N147"/>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
+      <c r="L155"/>
+      <c r="M155"/>
+      <c r="N155"/>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
         <v>173</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B156" t="s">
         <v>326</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C156" t="s">
         <v>175</v>
       </c>
-      <c r="D148">
+      <c r="D156">
         <v>48</v>
       </c>
-      <c r="E148">
+      <c r="E156">
         <v>6</v>
       </c>
-      <c r="F148" s="2">
-        <v>1</v>
-      </c>
-      <c r="G148" s="30">
+      <c r="F156" s="2">
+        <v>1</v>
+      </c>
+      <c r="G156" s="30">
         <v>288</v>
       </c>
-      <c r="H148" s="10" t="s">
+      <c r="H156" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="I148" s="2">
+      <c r="I156" s="2">
         <v>0.8</v>
       </c>
-      <c r="J148" s="2">
-        <v>1</v>
-      </c>
-      <c r="K148" s="2">
+      <c r="J156" s="2">
+        <v>1</v>
+      </c>
+      <c r="K156" s="2">
         <v>1.3</v>
       </c>
-      <c r="L148"/>
-      <c r="M148"/>
-      <c r="N148"/>
-      <c r="O148" t="s">
+      <c r="L156"/>
+      <c r="M156"/>
+      <c r="N156"/>
+      <c r="O156" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
         <v>173</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B157" t="s">
         <v>327</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C157" t="s">
         <v>180</v>
       </c>
-      <c r="D149">
+      <c r="D157">
         <v>40</v>
       </c>
-      <c r="E149">
+      <c r="E157">
         <v>6</v>
       </c>
-      <c r="F149" s="2">
-        <v>1</v>
-      </c>
-      <c r="G149" s="30">
+      <c r="F157" s="2">
+        <v>1</v>
+      </c>
+      <c r="G157" s="30">
         <v>240</v>
       </c>
-      <c r="H149" s="13" t="s">
+      <c r="H157" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="I149" s="2">
+      <c r="I157" s="2">
         <v>0.8</v>
       </c>
-      <c r="J149" s="2">
-        <v>1</v>
-      </c>
-      <c r="K149" s="2">
+      <c r="J157" s="2">
+        <v>1</v>
+      </c>
+      <c r="K157" s="2">
         <v>1.3</v>
       </c>
-      <c r="L149" s="26">
+      <c r="L157" s="26">
         <v>0.7</v>
       </c>
-      <c r="M149" s="27">
+      <c r="M157" s="27">
         <v>2</v>
       </c>
-      <c r="N149"/>
-      <c r="O149" t="s">
+      <c r="N157"/>
+      <c r="O157" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
         <v>173</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B158" t="s">
         <v>453</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C158" t="s">
         <v>446</v>
       </c>
-      <c r="D150">
+      <c r="D158">
         <v>60</v>
       </c>
-      <c r="E150">
+      <c r="E158">
         <v>10</v>
       </c>
-      <c r="F150" s="2">
-        <v>1</v>
-      </c>
-      <c r="G150" s="30">
+      <c r="F158" s="2">
+        <v>1</v>
+      </c>
+      <c r="G158" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
         <v>600</v>
       </c>
-      <c r="H150" s="9" t="s">
+      <c r="H158" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I150" s="2">
+      <c r="I158" s="2">
         <v>0.8</v>
       </c>
-      <c r="J150" s="2">
-        <v>1</v>
-      </c>
-      <c r="K150" s="2">
+      <c r="J158" s="2">
+        <v>1</v>
+      </c>
+      <c r="K158" s="2">
         <v>1.3</v>
       </c>
-      <c r="L150" s="15"/>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
+      <c r="L158" s="15"/>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
         <v>173</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B159" t="s">
         <v>454</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C159" t="s">
         <v>452</v>
       </c>
-      <c r="D151">
+      <c r="D159">
         <v>36</v>
       </c>
-      <c r="E151">
+      <c r="E159">
         <v>12</v>
       </c>
-      <c r="F151" s="2">
-        <v>1</v>
-      </c>
-      <c r="G151" s="30">
+      <c r="F159" s="2">
+        <v>1</v>
+      </c>
+      <c r="G159" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
         <v>432</v>
       </c>
-      <c r="H151" s="9" t="s">
+      <c r="H159" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I151" s="2">
-        <v>1</v>
-      </c>
-      <c r="J151" s="2">
-        <v>1</v>
-      </c>
-      <c r="K151" s="2">
-        <v>1</v>
-      </c>
-      <c r="L151" s="15"/>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
+      <c r="I159" s="2">
+        <v>1</v>
+      </c>
+      <c r="J159" s="2">
+        <v>1</v>
+      </c>
+      <c r="K159" s="2">
+        <v>1</v>
+      </c>
+      <c r="L159" s="15"/>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
         <v>173</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B160" t="s">
         <v>466</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C160" t="s">
         <v>460</v>
       </c>
-      <c r="D152">
+      <c r="D160">
         <v>36</v>
       </c>
-      <c r="E152">
+      <c r="E160">
         <v>7</v>
       </c>
-      <c r="F152" s="2">
-        <v>1</v>
-      </c>
-      <c r="G152" s="30">
+      <c r="F160" s="2">
+        <v>1</v>
+      </c>
+      <c r="G160" s="30">
         <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
         <v>252</v>
       </c>
-      <c r="H152" s="9" t="s">
+      <c r="H160" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I152" s="2">
+      <c r="I160" s="2">
         <v>0.8</v>
       </c>
-      <c r="J152" s="2">
-        <v>1</v>
-      </c>
-      <c r="K152" s="2">
+      <c r="J160" s="2">
+        <v>1</v>
+      </c>
+      <c r="K160" s="2">
         <v>1.3</v>
       </c>
-      <c r="L152" s="32"/>
-      <c r="M152" s="33"/>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B153" s="36"/>
-      <c r="G153" s="30"/>
-      <c r="H153" s="13"/>
-      <c r="L153" s="15"/>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="L154" s="15"/>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="H155" s="13"/>
-      <c r="L155" s="15"/>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="H156" s="13"/>
-      <c r="L156" s="15"/>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="H157" s="13"/>
-      <c r="L157" s="15"/>
-    </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="H158" s="10"/>
-      <c r="L158" s="15"/>
-    </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="H159" s="13"/>
-      <c r="L159" s="15"/>
-    </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="H160" s="13"/>
-      <c r="L160" s="15"/>
+      <c r="L160" s="32"/>
+      <c r="M160" s="33"/>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="I161"/>
+      <c r="A161" t="s">
+        <v>173</v>
+      </c>
+      <c r="B161" s="41" t="s">
+        <v>513</v>
+      </c>
+      <c r="C161" t="s">
+        <v>512</v>
+      </c>
+      <c r="D161">
+        <v>60</v>
+      </c>
+      <c r="E161">
+        <v>10</v>
+      </c>
+      <c r="F161" s="2">
+        <v>1</v>
+      </c>
+      <c r="G161" s="30">
+        <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
+        <v>600</v>
+      </c>
+      <c r="H161" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I161" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="J161" s="2">
+        <v>1</v>
+      </c>
+      <c r="K161" s="2">
+        <v>1.3</v>
+      </c>
       <c r="L161" s="15"/>
-      <c r="M161" s="12"/>
+      <c r="O161" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="I162"/>
+      <c r="A162" t="s">
+        <v>173</v>
+      </c>
+      <c r="B162" s="41" t="s">
+        <v>527</v>
+      </c>
+      <c r="C162" t="s">
+        <v>512</v>
+      </c>
+      <c r="D162">
+        <v>60</v>
+      </c>
+      <c r="E162">
+        <v>20</v>
+      </c>
+      <c r="F162" s="2">
+        <v>1</v>
+      </c>
+      <c r="G162" s="30">
+        <f>Barrage4[[#This Row],[Coefficient]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Base Damage]]</f>
+        <v>1200</v>
+      </c>
+      <c r="H162" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I162" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="J162" s="2">
+        <v>1</v>
+      </c>
+      <c r="K162" s="2">
+        <v>1.3</v>
+      </c>
       <c r="L162" s="15"/>
-      <c r="M162" s="12"/>
-    </row>
-    <row r="163" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A163"/>
-      <c r="B163"/>
-      <c r="C163"/>
-      <c r="D163"/>
-      <c r="E163"/>
-      <c r="F163" s="2"/>
-      <c r="G163" s="29"/>
-      <c r="H163"/>
-      <c r="I163"/>
-      <c r="J163" s="2"/>
-      <c r="K163" s="2"/>
+      <c r="O162" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H163" s="13"/>
       <c r="L163" s="15"/>
-      <c r="M163" s="12"/>
-      <c r="O163"/>
-    </row>
-    <row r="164" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A164"/>
-      <c r="B164"/>
-      <c r="C164"/>
-      <c r="D164"/>
-      <c r="E164"/>
-      <c r="F164" s="2"/>
-      <c r="G164" s="29"/>
-      <c r="H164"/>
-      <c r="I164"/>
-      <c r="J164" s="2"/>
-      <c r="K164" s="2"/>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H164" s="13"/>
       <c r="L164" s="15"/>
-      <c r="M164" s="12"/>
-      <c r="O164"/>
-    </row>
-    <row r="165" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A165"/>
-      <c r="B165"/>
-      <c r="C165"/>
-      <c r="D165"/>
-      <c r="E165"/>
-      <c r="F165" s="2"/>
-      <c r="G165" s="29"/>
-      <c r="H165"/>
-      <c r="I165"/>
-      <c r="J165" s="2"/>
-      <c r="K165" s="2"/>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H165" s="13"/>
       <c r="L165" s="15"/>
-      <c r="M165" s="12"/>
-      <c r="O165"/>
-    </row>
-    <row r="166" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A166"/>
-      <c r="B166"/>
-      <c r="C166"/>
-      <c r="D166"/>
-      <c r="E166"/>
-      <c r="F166" s="2"/>
-      <c r="G166" s="29"/>
-      <c r="H166"/>
-      <c r="I166"/>
-      <c r="J166" s="2"/>
-      <c r="K166" s="2"/>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H166" s="10"/>
       <c r="L166" s="15"/>
-      <c r="M166" s="12"/>
-      <c r="O166"/>
-    </row>
-    <row r="167" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A167"/>
-      <c r="B167"/>
-      <c r="C167"/>
-      <c r="D167"/>
-      <c r="E167"/>
-      <c r="F167" s="2"/>
-      <c r="G167" s="29"/>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H167" s="13"/>
-      <c r="I167"/>
-      <c r="J167" s="2"/>
-      <c r="K167" s="2"/>
       <c r="L167" s="15"/>
-      <c r="M167" s="12"/>
-      <c r="O167"/>
-    </row>
-    <row r="168" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A168"/>
-      <c r="B168"/>
-      <c r="C168"/>
-      <c r="D168"/>
-      <c r="E168"/>
-      <c r="F168" s="2"/>
-      <c r="G168" s="29"/>
-      <c r="H168"/>
-      <c r="I168"/>
-      <c r="J168" s="2"/>
-      <c r="K168" s="2"/>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H168" s="13"/>
       <c r="L168" s="15"/>
-      <c r="M168" s="12"/>
-      <c r="O168"/>
-    </row>
-    <row r="169" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A169"/>
-      <c r="B169"/>
-      <c r="C169"/>
-      <c r="D169"/>
-      <c r="E169"/>
-      <c r="F169" s="2"/>
-      <c r="G169" s="29"/>
-      <c r="H169"/>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I169"/>
-      <c r="J169" s="2"/>
-      <c r="K169" s="2"/>
-      <c r="L169" s="2"/>
+      <c r="L169" s="15"/>
       <c r="M169" s="12"/>
-      <c r="O169"/>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I170"/>
+      <c r="L170" s="15"/>
+      <c r="M170" s="12"/>
+    </row>
+    <row r="171" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A171"/>
+      <c r="B171"/>
+      <c r="C171"/>
+      <c r="D171"/>
+      <c r="E171"/>
+      <c r="F171" s="2"/>
+      <c r="G171" s="29"/>
+      <c r="H171"/>
+      <c r="I171"/>
+      <c r="J171" s="2"/>
+      <c r="K171" s="2"/>
+      <c r="L171" s="15"/>
+      <c r="M171" s="12"/>
+      <c r="O171"/>
+    </row>
+    <row r="172" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A172"/>
+      <c r="B172"/>
+      <c r="C172"/>
+      <c r="D172"/>
+      <c r="E172"/>
+      <c r="F172" s="2"/>
+      <c r="G172" s="29"/>
+      <c r="H172"/>
+      <c r="I172"/>
+      <c r="J172" s="2"/>
+      <c r="K172" s="2"/>
+      <c r="L172" s="15"/>
+      <c r="M172" s="12"/>
+      <c r="O172"/>
+    </row>
+    <row r="173" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A173"/>
+      <c r="B173"/>
+      <c r="C173"/>
+      <c r="D173"/>
+      <c r="E173"/>
+      <c r="F173" s="2"/>
+      <c r="G173" s="29"/>
+      <c r="H173"/>
+      <c r="I173"/>
+      <c r="J173" s="2"/>
+      <c r="K173" s="2"/>
+      <c r="L173" s="15"/>
+      <c r="M173" s="12"/>
+      <c r="O173"/>
+    </row>
+    <row r="174" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A174"/>
+      <c r="B174"/>
+      <c r="C174"/>
+      <c r="D174"/>
+      <c r="E174"/>
+      <c r="F174" s="2"/>
+      <c r="G174" s="29"/>
+      <c r="H174"/>
+      <c r="I174"/>
+      <c r="J174" s="2"/>
+      <c r="K174" s="2"/>
+      <c r="L174" s="15"/>
+      <c r="M174" s="12"/>
+      <c r="O174"/>
+    </row>
+    <row r="175" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A175"/>
+      <c r="B175"/>
+      <c r="C175"/>
+      <c r="D175"/>
+      <c r="E175"/>
+      <c r="F175" s="2"/>
+      <c r="G175" s="29"/>
+      <c r="H175" s="13"/>
+      <c r="I175"/>
+      <c r="J175" s="2"/>
+      <c r="K175" s="2"/>
+      <c r="L175" s="15"/>
+      <c r="M175" s="12"/>
+      <c r="O175"/>
+    </row>
+    <row r="176" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A176"/>
+      <c r="B176"/>
+      <c r="C176"/>
+      <c r="D176"/>
+      <c r="E176"/>
+      <c r="F176" s="2"/>
+      <c r="G176" s="29"/>
+      <c r="H176"/>
+      <c r="I176"/>
+      <c r="J176" s="2"/>
+      <c r="K176" s="2"/>
+      <c r="L176" s="15"/>
+      <c r="M176" s="12"/>
+      <c r="O176"/>
+    </row>
+    <row r="177" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A177"/>
+      <c r="B177"/>
+      <c r="C177"/>
+      <c r="D177"/>
+      <c r="E177"/>
+      <c r="F177" s="2"/>
+      <c r="G177" s="29"/>
+      <c r="H177"/>
+      <c r="I177"/>
+      <c r="J177" s="2"/>
+      <c r="K177" s="2"/>
+      <c r="L177" s="2"/>
+      <c r="M177" s="12"/>
+      <c r="O177"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
-  <conditionalFormatting sqref="G2:G21">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22:G34">
+  <conditionalFormatting sqref="G25:G37">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -13520,7 +13929,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G35:G43">
+  <conditionalFormatting sqref="G38:G47">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -13532,7 +13941,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G44:G53">
+  <conditionalFormatting sqref="G48:G57">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -13544,7 +13953,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G54:G93">
+  <conditionalFormatting sqref="G58:G97">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -13556,7 +13965,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G94:G97">
+  <conditionalFormatting sqref="G98:G101">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -13568,7 +13977,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G98:G130">
+  <conditionalFormatting sqref="G102:G137">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -13580,7 +13989,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G131:G146">
+  <conditionalFormatting sqref="G138:G154">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -13592,7 +14001,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G147:G152">
+  <conditionalFormatting sqref="G155:G162">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -13604,7 +14013,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G131:G142">
+  <conditionalFormatting sqref="G138:G150">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -13616,8 +14025,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G143:G146">
+  <conditionalFormatting sqref="G151:G154">
     <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G24">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/BarrageChart.xlsx
+++ b/BarrageChart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SICA\Pictures\AL\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF90FEE-BA6A-48A2-A934-706F0C444E8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94DE722-CE00-499B-8A08-9671DE761178}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Skill Barrages" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="529">
   <si>
     <t>Barrage Name (Skill Level 2)</t>
   </si>
@@ -1558,30 +1559,15 @@
     <t>Shirakami Fubuki</t>
   </si>
   <si>
-    <t>500lb</t>
-  </si>
-  <si>
     <t>60% Torpedo Stat</t>
   </si>
   <si>
     <t>Natsuiro Matsuri</t>
   </si>
   <si>
-    <t xml:space="preserve">
-与你眺望的夏日之花</t>
-  </si>
-  <si>
     <t>Minato Aqua</t>
   </si>
   <si>
-    <t xml:space="preserve">
-向日葵的约定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-阿修罗修罗刹鬼神斩</t>
-  </si>
-  <si>
     <t>Nakiri Ayame</t>
   </si>
   <si>
@@ -1589,10 +1575,6 @@
   </si>
   <si>
     <t>AOE, 120 Range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-MP清零的「EXPLOSION」</t>
   </si>
   <si>
     <t>Murasaki Shion</t>
@@ -1611,16 +1593,34 @@
 Dream☆Story</t>
   </si>
   <si>
-    <t>野性的二元论 TP</t>
-  </si>
-  <si>
     <t>Ookami Mio</t>
   </si>
   <si>
-    <t>野性的二元论 Bomb</t>
-  </si>
-  <si>
-    <t>向日葵的约定 Enhanced</t>
+    <t>Promise to the Sunflower</t>
+  </si>
+  <si>
+    <t>Promise to the Sunflower Enhanced</t>
+  </si>
+  <si>
+    <t>MP Burst - Explosion</t>
+  </si>
+  <si>
+    <t>Wild Dualism TP</t>
+  </si>
+  <si>
+    <t>Wild Dualism Bomb</t>
+  </si>
+  <si>
+    <t>The Summer Flower We Watch AP</t>
+  </si>
+  <si>
+    <t>The Summer Flower We Watch HE</t>
+  </si>
+  <si>
+    <t>Ashura Shura Demon-god Killing Slash</t>
+  </si>
+  <si>
+    <t>Mach 2.42 Blossom</t>
   </si>
 </sst>
 </file>
@@ -1630,7 +1630,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1756,12 +1756,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF777777"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -1820,7 +1814,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1885,12 +1879,11 @@
     <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7374,8 +7367,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:O177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D139" workbookViewId="0">
-      <selection activeCell="P159" sqref="P159"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="F140" sqref="F140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8229,7 +8222,7 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>508</v>
+        <v>528</v>
       </c>
       <c r="C22" t="s">
         <v>507</v>
@@ -8263,18 +8256,18 @@
       <c r="M22" s="12"/>
       <c r="N22" s="17"/>
       <c r="O22" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="40" t="s">
-        <v>511</v>
+      <c r="B23" t="s">
+        <v>525</v>
       </c>
       <c r="C23" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D23">
         <v>24</v>
@@ -8311,11 +8304,11 @@
       <c r="A24" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="40" t="s">
-        <v>511</v>
+      <c r="B24" t="s">
+        <v>526</v>
       </c>
       <c r="C24" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D24">
         <v>24</v>
@@ -9094,10 +9087,10 @@
         <v>132</v>
       </c>
       <c r="B44" s="40" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="C44" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="D44">
         <v>81</v>
@@ -9113,7 +9106,7 @@
         <v>81</v>
       </c>
       <c r="H44" s="20" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="I44" s="2">
         <v>1</v>
@@ -9129,7 +9122,7 @@
         <v>20</v>
       </c>
       <c r="O44" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
@@ -12674,10 +12667,10 @@
         <v>272</v>
       </c>
       <c r="B135" s="40" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="C135" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="D135">
         <v>122</v>
@@ -12714,10 +12707,10 @@
         <v>272</v>
       </c>
       <c r="B136" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C136" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="D136">
         <v>240</v>
@@ -12754,10 +12747,10 @@
         <v>272</v>
       </c>
       <c r="B137" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C137" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="D137">
         <v>300</v>
@@ -13260,11 +13253,11 @@
       <c r="A150" t="s">
         <v>332</v>
       </c>
-      <c r="B150" s="40" t="s">
-        <v>518</v>
+      <c r="B150" s="3" t="s">
+        <v>522</v>
       </c>
       <c r="C150" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="D150">
         <v>245</v>
@@ -13280,7 +13273,7 @@
         <v>245</v>
       </c>
       <c r="H150" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="I150" s="2">
         <v>1</v>
@@ -13294,7 +13287,7 @@
       <c r="L150" s="15"/>
       <c r="M150" s="12"/>
       <c r="O150" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.3">
@@ -13693,11 +13686,11 @@
       <c r="A161" t="s">
         <v>173</v>
       </c>
-      <c r="B161" s="41" t="s">
-        <v>513</v>
+      <c r="B161" t="s">
+        <v>520</v>
       </c>
       <c r="C161" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D161">
         <v>60</v>
@@ -13733,11 +13726,11 @@
       <c r="A162" t="s">
         <v>173</v>
       </c>
-      <c r="B162" s="41" t="s">
-        <v>527</v>
+      <c r="B162" t="s">
+        <v>521</v>
       </c>
       <c r="C162" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D162">
         <v>60</v>

--- a/BarrageChart.xlsx
+++ b/BarrageChart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SICA\Pictures\AL\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94DE722-CE00-499B-8A08-9671DE761178}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDAF4C4-980E-44A4-992A-D43C6EA8DD11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="Skill Barrages" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="531">
   <si>
     <t>Barrage Name (Skill Level 2)</t>
   </si>
@@ -1621,16 +1620,23 @@
   </si>
   <si>
     <t>Mach 2.42 Blossom</t>
+  </si>
+  <si>
+    <t>Admiral Hipper Muse Barrage</t>
+  </si>
+  <si>
+    <t>Admiral Hipper Muse</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1782,6 +1788,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1814,7 +1834,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1884,6 +1904,9 @@
     <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2025,8 +2048,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Barrage" displayName="Barrage" ref="A1:O129" totalsRowShown="0" headerRowDxfId="15">
-  <autoFilter ref="A1:O129" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Barrage" displayName="Barrage" ref="A1:O130" totalsRowShown="0" headerRowDxfId="15">
+  <autoFilter ref="A1:O130" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Type"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Barrage Name (Skill Level 2)"/>
@@ -2336,10 +2359,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O129"/>
+  <dimension ref="A1:O130"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="G124" sqref="G124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6764,7 +6787,7 @@
         <f>Barrage[[#This Row],[Base Damage]]*Barrage[[#This Row],[Total Rounds]]*Barrage[[#This Row],[Coefficient]]</f>
         <v>240</v>
       </c>
-      <c r="H115" t="s">
+      <c r="H115" s="39" t="s">
         <v>477</v>
       </c>
       <c r="I115" s="2">
@@ -6783,62 +6806,67 @@
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="B116" t="s">
-        <v>450</v>
+        <v>529</v>
       </c>
       <c r="C116" t="s">
-        <v>451</v>
+        <v>530</v>
       </c>
       <c r="D116">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="E116">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F116" s="2">
         <v>1</v>
       </c>
       <c r="G116" s="30">
-        <v>360</v>
-      </c>
-      <c r="H116" t="s">
-        <v>49</v>
+        <f>Barrage[[#This Row],[Base Damage]]*Barrage[[#This Row],[Total Rounds]]*Barrage[[#This Row],[Coefficient]]</f>
+        <v>420</v>
+      </c>
+      <c r="H116" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="I116" s="2">
-        <v>0.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J116" s="2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="K116" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="L116" s="15"/>
-      <c r="M116" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="L116" s="41">
+        <v>0.08</v>
+      </c>
+      <c r="M116" s="42">
+        <v>3</v>
+      </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>173</v>
       </c>
       <c r="B117" t="s">
-        <v>174</v>
+        <v>450</v>
       </c>
       <c r="C117" t="s">
-        <v>175</v>
+        <v>451</v>
       </c>
       <c r="D117">
         <v>60</v>
       </c>
       <c r="E117">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F117" s="2">
         <v>1</v>
       </c>
       <c r="G117" s="30">
-        <v>540</v>
+        <v>360</v>
       </c>
       <c r="H117" t="s">
         <v>49</v>
@@ -6860,10 +6888,10 @@
         <v>173</v>
       </c>
       <c r="B118" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C118" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D118">
         <v>60</v>
@@ -6897,22 +6925,22 @@
         <v>173</v>
       </c>
       <c r="B119" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C119" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D119">
         <v>60</v>
       </c>
       <c r="E119">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F119" s="2">
         <v>1</v>
       </c>
       <c r="G119" s="30">
-        <v>360</v>
+        <v>540</v>
       </c>
       <c r="H119" t="s">
         <v>49</v>
@@ -6934,13 +6962,13 @@
         <v>173</v>
       </c>
       <c r="B120" t="s">
-        <v>413</v>
+        <v>182</v>
       </c>
       <c r="C120" t="s">
-        <v>414</v>
+        <v>177</v>
       </c>
       <c r="D120">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E120">
         <v>6</v>
@@ -6949,8 +6977,7 @@
         <v>1</v>
       </c>
       <c r="G120" s="30">
-        <f>55*6</f>
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="H120" t="s">
         <v>49</v>
@@ -6964,21 +6991,21 @@
       <c r="K120" s="2">
         <v>1.3</v>
       </c>
-      <c r="L120" s="26"/>
-      <c r="M120" s="28"/>
+      <c r="L120" s="15"/>
+      <c r="M120" s="12"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>173</v>
       </c>
       <c r="B121" t="s">
-        <v>183</v>
+        <v>413</v>
       </c>
       <c r="C121" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D121">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E121">
         <v>6</v>
@@ -6987,7 +7014,8 @@
         <v>1</v>
       </c>
       <c r="G121" s="30">
-        <v>360</v>
+        <f>55*6</f>
+        <v>330</v>
       </c>
       <c r="H121" t="s">
         <v>49</v>
@@ -7001,30 +7029,30 @@
       <c r="K121" s="2">
         <v>1.3</v>
       </c>
-      <c r="L121" s="15"/>
-      <c r="M121" s="12"/>
+      <c r="L121" s="26"/>
+      <c r="M121" s="28"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>173</v>
       </c>
       <c r="B122" t="s">
-        <v>447</v>
+        <v>183</v>
       </c>
       <c r="C122" t="s">
-        <v>178</v>
+        <v>412</v>
       </c>
       <c r="D122">
         <v>60</v>
       </c>
       <c r="E122">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F122" s="2">
         <v>1</v>
       </c>
       <c r="G122" s="30">
-        <v>540</v>
+        <v>360</v>
       </c>
       <c r="H122" t="s">
         <v>49</v>
@@ -7046,101 +7074,100 @@
         <v>173</v>
       </c>
       <c r="B123" t="s">
-        <v>184</v>
+        <v>447</v>
       </c>
       <c r="C123" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D123">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="E123">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F123" s="2">
         <v>1</v>
       </c>
       <c r="G123" s="30">
-        <v>600</v>
-      </c>
-      <c r="H123" s="13" t="s">
-        <v>33</v>
+        <v>540</v>
+      </c>
+      <c r="H123" t="s">
+        <v>49</v>
       </c>
       <c r="I123" s="2">
-        <v>1.25</v>
+        <v>0.8</v>
       </c>
       <c r="J123" s="2">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="K123" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="L123" s="15">
-        <v>0.08</v>
-      </c>
-      <c r="M123" s="12">
-        <v>3</v>
-      </c>
+        <v>1.3</v>
+      </c>
+      <c r="L123" s="15"/>
+      <c r="M123" s="12"/>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>173</v>
       </c>
       <c r="B124" t="s">
-        <v>462</v>
+        <v>184</v>
       </c>
       <c r="C124" t="s">
-        <v>461</v>
+        <v>179</v>
       </c>
       <c r="D124">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="E124">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F124" s="2">
         <v>1</v>
       </c>
       <c r="G124" s="30">
-        <v>576</v>
-      </c>
-      <c r="H124" t="s">
-        <v>49</v>
+        <v>600</v>
+      </c>
+      <c r="H124" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="I124" s="2">
-        <v>0.8</v>
+        <v>1.25</v>
       </c>
       <c r="J124" s="2">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="K124" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="L124" s="15"/>
-      <c r="M124" s="12"/>
+        <v>0.65</v>
+      </c>
+      <c r="L124" s="15">
+        <v>0.08</v>
+      </c>
+      <c r="M124" s="12">
+        <v>3</v>
+      </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>173</v>
       </c>
       <c r="B125" t="s">
-        <v>366</v>
+        <v>462</v>
       </c>
       <c r="C125" t="s">
-        <v>367</v>
+        <v>461</v>
       </c>
       <c r="D125">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E125">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F125" s="2">
         <v>1</v>
       </c>
       <c r="G125" s="30">
-        <f>Barrage[[#This Row],[Base Damage]]*Barrage[[#This Row],[Total Rounds]]*Barrage[[#This Row],[Coefficient]]</f>
-        <v>495</v>
+        <v>576</v>
       </c>
       <c r="H125" t="s">
         <v>49</v>
@@ -7154,21 +7181,21 @@
       <c r="K125" s="2">
         <v>1.3</v>
       </c>
-      <c r="L125" s="23"/>
-      <c r="M125" s="25"/>
+      <c r="L125" s="15"/>
+      <c r="M125" s="12"/>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>173</v>
       </c>
       <c r="B126" t="s">
-        <v>444</v>
+        <v>366</v>
       </c>
       <c r="C126" t="s">
-        <v>443</v>
+        <v>367</v>
       </c>
       <c r="D126">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E126">
         <v>9</v>
@@ -7178,7 +7205,7 @@
       </c>
       <c r="G126" s="30">
         <f>Barrage[[#This Row],[Base Damage]]*Barrage[[#This Row],[Total Rounds]]*Barrage[[#This Row],[Coefficient]]</f>
-        <v>540</v>
+        <v>495</v>
       </c>
       <c r="H126" t="s">
         <v>49</v>
@@ -7192,17 +7219,18 @@
       <c r="K126" s="2">
         <v>1.3</v>
       </c>
-      <c r="L126" s="15"/>
+      <c r="L126" s="23"/>
+      <c r="M126" s="25"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>173</v>
       </c>
       <c r="B127" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C127" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D127">
         <v>60</v>
@@ -7236,23 +7264,23 @@
         <v>173</v>
       </c>
       <c r="B128" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C128" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D128">
         <v>60</v>
       </c>
       <c r="E128">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F128" s="2">
         <v>1</v>
       </c>
       <c r="G128" s="30">
         <f>Barrage[[#This Row],[Base Damage]]*Barrage[[#This Row],[Total Rounds]]*Barrage[[#This Row],[Coefficient]]</f>
-        <v>360</v>
+        <v>540</v>
       </c>
       <c r="H128" t="s">
         <v>49</v>
@@ -7273,10 +7301,10 @@
         <v>173</v>
       </c>
       <c r="B129" t="s">
-        <v>491</v>
+        <v>448</v>
       </c>
       <c r="C129" t="s">
-        <v>492</v>
+        <v>449</v>
       </c>
       <c r="D129">
         <v>60</v>
@@ -7304,6 +7332,43 @@
         <v>1.3</v>
       </c>
       <c r="L129" s="15"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>173</v>
+      </c>
+      <c r="B130" t="s">
+        <v>491</v>
+      </c>
+      <c r="C130" t="s">
+        <v>492</v>
+      </c>
+      <c r="D130">
+        <v>60</v>
+      </c>
+      <c r="E130">
+        <v>6</v>
+      </c>
+      <c r="F130" s="2">
+        <v>1</v>
+      </c>
+      <c r="G130" s="30">
+        <f>Barrage[[#This Row],[Base Damage]]*Barrage[[#This Row],[Total Rounds]]*Barrage[[#This Row],[Coefficient]]</f>
+        <v>360</v>
+      </c>
+      <c r="H130" t="s">
+        <v>49</v>
+      </c>
+      <c r="I130" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="J130" s="2">
+        <v>1</v>
+      </c>
+      <c r="K130" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="L130" s="15"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:G58">
@@ -7330,7 +7395,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G89:G115">
+  <conditionalFormatting sqref="G89:G116">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -7342,7 +7407,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G116:G129">
+  <conditionalFormatting sqref="G117:G130">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -7367,8 +7432,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:O177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="F140" sqref="F140"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="H130" sqref="H130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8335,8 +8400,12 @@
       <c r="K24" s="2">
         <v>0.6</v>
       </c>
-      <c r="L24" s="15"/>
-      <c r="M24" s="12"/>
+      <c r="L24" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="M24" s="12">
+        <v>1</v>
+      </c>
       <c r="N24" s="17"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
@@ -12676,14 +12745,14 @@
         <v>122</v>
       </c>
       <c r="E135">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F135" s="2">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="G135" s="30">
         <f>Barrage4[[#This Row],[Base Damage]]*Barrage4[[#This Row],[Total Rounds]]*Barrage4[[#This Row],[Coefficient]]</f>
-        <v>366</v>
+        <v>2159.4</v>
       </c>
       <c r="H135" s="13" t="s">
         <v>33</v>
@@ -12697,7 +12766,12 @@
       <c r="K135" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L135" s="15"/>
+      <c r="L135" s="43">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="M135" s="17">
+        <v>1</v>
+      </c>
       <c r="O135" t="s">
         <v>300</v>
       </c>

--- a/BarrageChart.xlsx
+++ b/BarrageChart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SICA\Pictures\AL\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28484A3B-6F56-44BE-ACE1-DE677C12D464}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A63F303-9BC9-47F0-ACA9-3ABC773724CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Barrage - Frontline" sheetId="1" r:id="rId1"/>
     <sheet name="Skill Barrages" sheetId="5" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,9 +27,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="543">
   <si>
     <t>Barrage Name (Skill Level 2)</t>
   </si>
@@ -207,9 +208,6 @@
     <t>MGM+1</t>
   </si>
   <si>
-    <t>Fubuki</t>
-  </si>
-  <si>
     <t>Anshan-Class Barrage</t>
   </si>
   <si>
@@ -1422,9 +1420,6 @@
     <t>Atlanta, Juneau, San Diego, San Juan</t>
   </si>
   <si>
-    <t>Cleveland, Columbia, Denver, Montpelier, Birmingham</t>
-  </si>
-  <si>
     <t>Double-winged Shark</t>
   </si>
   <si>
@@ -1510,9 +1505,6 @@
   </si>
   <si>
     <t>Seal of the Four Gods</t>
-  </si>
-  <si>
-    <t>Aulick, Bush, Charles Ausburne, Fletcher, Foote, Hazelwood, Jenkins, Nicholas, Radford, Spence, Thatcher, Kimberly, Mullany, Stanley, Smalley</t>
   </si>
   <si>
     <t>Cleveland Muse Barrage</t>
@@ -1649,6 +1641,30 @@
   </si>
   <si>
     <t>Unleashed Tactics Pellets</t>
+  </si>
+  <si>
+    <t>Dido-Exclusive Barrage Normal</t>
+  </si>
+  <si>
+    <t>Dido</t>
+  </si>
+  <si>
+    <t>Dido-Exclusive Barrage AP</t>
+  </si>
+  <si>
+    <t>Gloucester-Class Barrage</t>
+  </si>
+  <si>
+    <t>Gloucester</t>
+  </si>
+  <si>
+    <t>Cleveland, Columbia, Denver, Montpelier, Birmingham, Biloxi</t>
+  </si>
+  <si>
+    <t>Fubuki, Uranami</t>
+  </si>
+  <si>
+    <t>Aulick, Bush, Charles Ausburne, Fletcher, Foote, Hazelwood, Jenkins, Nicholas, Radford, Spence, Thatcher, Kimberly, Mullany, Stanley, Smalley, Halsey Powell</t>
   </si>
 </sst>
 </file>
@@ -1659,7 +1675,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1825,6 +1841,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1857,7 +1887,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1930,6 +1960,8 @@
     <xf numFmtId="9" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2070,9 +2102,48 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Documentation (Old)"/>
+      <sheetName val="Documentation (WIP)"/>
+      <sheetName val="eHP Calc"/>
+      <sheetName val="Skill Sheet"/>
+      <sheetName val="Non-CV"/>
+      <sheetName val="CV"/>
+      <sheetName val="BBV"/>
+      <sheetName val="SS"/>
+      <sheetName val="SSV"/>
+      <sheetName val="AA"/>
+      <sheetName val="Enemy Stats WIP"/>
+      <sheetName val="Ship Stats"/>
+      <sheetName val="Barrage"/>
+      <sheetName val="Equipment Stats"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Barrage" displayName="Barrage" ref="A1:O132" totalsRowShown="0" headerRowDxfId="15">
-  <autoFilter ref="A1:O132" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Barrage" displayName="Barrage" ref="A1:O135" totalsRowShown="0" headerRowDxfId="15">
+  <autoFilter ref="A1:O135" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Type"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Barrage Name (Skill Level 2)"/>
@@ -2382,10 +2453,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O132"/>
+  <dimension ref="A1:O135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2409,7 +2480,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2462,7 +2533,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -2534,7 +2605,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>492</v>
+        <v>542</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -2606,7 +2677,7 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -2714,7 +2785,7 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D9">
         <v>10</v>
@@ -2747,7 +2818,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C10" t="s">
         <v>24</v>
@@ -2783,10 +2854,10 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
+        <v>347</v>
+      </c>
+      <c r="C11" t="s">
         <v>348</v>
-      </c>
-      <c r="C11" t="s">
-        <v>349</v>
       </c>
       <c r="D11">
         <v>12</v>
@@ -2822,7 +2893,7 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D12">
         <v>10</v>
@@ -2855,7 +2926,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
@@ -2894,7 +2965,7 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C14" t="s">
         <v>31</v>
@@ -2930,7 +3001,7 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C15" t="s">
         <v>32</v>
@@ -2971,7 +3042,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C16" t="s">
         <v>34</v>
@@ -3007,7 +3078,7 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C17" t="s">
         <v>35</v>
@@ -3049,7 +3120,7 @@
         <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D18">
         <v>10</v>
@@ -3085,7 +3156,7 @@
         <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D19">
         <v>10</v>
@@ -3121,7 +3192,7 @@
         <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D20">
         <v>10</v>
@@ -3193,7 +3264,7 @@
         <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D22">
         <v>10</v>
@@ -3265,7 +3336,7 @@
         <v>42</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D24" s="3">
         <v>10</v>
@@ -3345,7 +3416,7 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C26" t="s">
         <v>47</v>
@@ -3386,7 +3457,7 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C27" t="s">
         <v>47</v>
@@ -3425,7 +3496,7 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C28" t="s">
         <v>51</v>
@@ -3467,7 +3538,7 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C29" t="s">
         <v>51</v>
@@ -3503,7 +3574,7 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C30" t="s">
         <v>53</v>
@@ -3542,7 +3613,7 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C31" t="s">
         <v>54</v>
@@ -3583,7 +3654,7 @@
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C32" t="s">
         <v>55</v>
@@ -3627,10 +3698,10 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C33" t="s">
-        <v>57</v>
+        <v>541</v>
       </c>
       <c r="D33">
         <v>10</v>
@@ -3663,10 +3734,10 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" t="s">
         <v>58</v>
-      </c>
-      <c r="C34" t="s">
-        <v>59</v>
       </c>
       <c r="D34">
         <v>12</v>
@@ -3699,10 +3770,10 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" t="s">
         <v>60</v>
-      </c>
-      <c r="C35" t="s">
-        <v>61</v>
       </c>
       <c r="D35">
         <v>10</v>
@@ -3735,10 +3806,10 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D36">
         <v>12</v>
@@ -3776,10 +3847,10 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D37">
         <v>60</v>
@@ -3812,10 +3883,10 @@
         <v>2</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D38">
         <v>10</v>
@@ -3853,10 +3924,10 @@
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D39">
         <v>12</v>
@@ -3889,10 +3960,10 @@
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D40">
         <v>45</v>
@@ -3928,10 +3999,10 @@
         <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D41">
         <v>12</v>
@@ -3967,10 +4038,10 @@
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C42" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D42">
         <v>10</v>
@@ -4003,10 +4074,10 @@
         <v>2</v>
       </c>
       <c r="B43" t="s">
+        <v>349</v>
+      </c>
+      <c r="C43" t="s">
         <v>350</v>
-      </c>
-      <c r="C43" t="s">
-        <v>351</v>
       </c>
       <c r="D43">
         <v>10</v>
@@ -4043,7 +4114,7 @@
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C44" s="8">
         <v>22</v>
@@ -4079,7 +4150,7 @@
         <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C45" s="8">
         <v>33</v>
@@ -4115,10 +4186,10 @@
         <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D46">
         <v>12</v>
@@ -4133,7 +4204,7 @@
         <v>180</v>
       </c>
       <c r="H46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I46" s="2">
         <v>1</v>
@@ -4151,10 +4222,10 @@
         <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D47">
         <v>12</v>
@@ -4169,7 +4240,7 @@
         <v>180</v>
       </c>
       <c r="H47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I47" s="2">
         <v>1</v>
@@ -4187,10 +4258,10 @@
         <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D48">
         <v>12</v>
@@ -4205,7 +4276,7 @@
         <v>180</v>
       </c>
       <c r="H48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I48" s="2">
         <v>1.2</v>
@@ -4223,10 +4294,10 @@
         <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D49">
         <v>45</v>
@@ -4259,10 +4330,10 @@
         <v>2</v>
       </c>
       <c r="B50" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" t="s">
         <v>72</v>
-      </c>
-      <c r="C50" t="s">
-        <v>73</v>
       </c>
       <c r="D50">
         <v>10</v>
@@ -4295,10 +4366,10 @@
         <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D51">
         <v>12</v>
@@ -4331,10 +4402,10 @@
         <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C52" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D52">
         <v>10</v>
@@ -4367,10 +4438,10 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
+        <v>351</v>
+      </c>
+      <c r="C53" t="s">
         <v>352</v>
-      </c>
-      <c r="C53" t="s">
-        <v>353</v>
       </c>
       <c r="D53">
         <v>10</v>
@@ -4404,10 +4475,10 @@
         <v>2</v>
       </c>
       <c r="B54" t="s">
+        <v>367</v>
+      </c>
+      <c r="C54" t="s">
         <v>368</v>
-      </c>
-      <c r="C54" t="s">
-        <v>369</v>
       </c>
       <c r="D54">
         <v>12</v>
@@ -4445,10 +4516,10 @@
         <v>2</v>
       </c>
       <c r="B55" t="s">
+        <v>367</v>
+      </c>
+      <c r="C55" t="s">
         <v>368</v>
-      </c>
-      <c r="C55" t="s">
-        <v>369</v>
       </c>
       <c r="D55">
         <v>78</v>
@@ -4484,10 +4555,10 @@
         <v>2</v>
       </c>
       <c r="B56" t="s">
+        <v>423</v>
+      </c>
+      <c r="C56" t="s">
         <v>424</v>
-      </c>
-      <c r="C56" t="s">
-        <v>425</v>
       </c>
       <c r="D56">
         <v>18</v>
@@ -4522,10 +4593,10 @@
         <v>2</v>
       </c>
       <c r="B57" t="s">
+        <v>423</v>
+      </c>
+      <c r="C57" t="s">
         <v>424</v>
-      </c>
-      <c r="C57" t="s">
-        <v>425</v>
       </c>
       <c r="D57">
         <v>45</v>
@@ -4560,10 +4631,10 @@
         <v>2</v>
       </c>
       <c r="B58" t="s">
+        <v>425</v>
+      </c>
+      <c r="C58" t="s">
         <v>426</v>
-      </c>
-      <c r="C58" t="s">
-        <v>427</v>
       </c>
       <c r="D58">
         <v>12</v>
@@ -4595,13 +4666,13 @@
     </row>
     <row r="59" spans="1:15" s="3" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B59" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="D59" s="3">
         <v>20</v>
@@ -4633,13 +4704,13 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B60" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C60" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D60">
         <v>20</v>
@@ -4669,13 +4740,13 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B61" t="s">
+        <v>80</v>
+      </c>
+      <c r="C61" t="s">
         <v>81</v>
-      </c>
-      <c r="C61" t="s">
-        <v>82</v>
       </c>
       <c r="D61">
         <v>22</v>
@@ -4705,13 +4776,13 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B62" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C62" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D62">
         <v>10</v>
@@ -4741,13 +4812,13 @@
     </row>
     <row r="63" spans="1:15" s="3" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D63" s="3">
         <v>20</v>
@@ -4782,13 +4853,13 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B64" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C64" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D64">
         <v>18</v>
@@ -4818,13 +4889,13 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B65" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C65" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D65">
         <v>22</v>
@@ -4854,13 +4925,13 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C66" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D66">
         <v>20</v>
@@ -4890,13 +4961,13 @@
     </row>
     <row r="67" spans="1:15" s="3" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>462</v>
+        <v>540</v>
       </c>
       <c r="D67" s="3">
         <v>20</v>
@@ -4931,13 +5002,13 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B68" t="s">
+        <v>91</v>
+      </c>
+      <c r="C68" t="s">
         <v>92</v>
-      </c>
-      <c r="C68" t="s">
-        <v>93</v>
       </c>
       <c r="D68">
         <v>22</v>
@@ -4967,13 +5038,13 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C69" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D69">
         <v>20</v>
@@ -5003,13 +5074,13 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B70" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C70" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D70">
         <v>20</v>
@@ -5039,13 +5110,13 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B71" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C71" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D71">
         <v>26</v>
@@ -5076,13 +5147,13 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C72" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D72">
         <v>30</v>
@@ -5116,13 +5187,13 @@
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C73" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D73">
         <v>18</v>
@@ -5161,13 +5232,13 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C74" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D74">
         <v>20</v>
@@ -5198,13 +5269,13 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B75" t="s">
+        <v>99</v>
+      </c>
+      <c r="C75" t="s">
         <v>100</v>
-      </c>
-      <c r="C75" t="s">
-        <v>101</v>
       </c>
       <c r="D75">
         <v>22</v>
@@ -5235,13 +5306,13 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C76" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D76">
         <v>22</v>
@@ -5272,13 +5343,13 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" t="s">
+        <v>101</v>
+      </c>
+      <c r="C77" t="s">
         <v>102</v>
-      </c>
-      <c r="C77" t="s">
-        <v>103</v>
       </c>
       <c r="D77">
         <v>20</v>
@@ -5314,13 +5385,13 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B78" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C78" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D78">
         <v>18</v>
@@ -5356,13 +5427,13 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B79" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C79" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D79">
         <v>20</v>
@@ -5399,13 +5470,13 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80" t="s">
         <v>106</v>
-      </c>
-      <c r="C80" t="s">
-        <v>107</v>
       </c>
       <c r="D80">
         <v>18</v>
@@ -5436,13 +5507,13 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B81" t="s">
+        <v>107</v>
+      </c>
+      <c r="C81" t="s">
         <v>108</v>
-      </c>
-      <c r="C81" t="s">
-        <v>109</v>
       </c>
       <c r="D81">
         <v>22</v>
@@ -5476,13 +5547,13 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B82" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C82" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D82">
         <v>22</v>
@@ -5513,13 +5584,13 @@
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B83" t="s">
+        <v>332</v>
+      </c>
+      <c r="C83" t="s">
         <v>333</v>
-      </c>
-      <c r="C83" t="s">
-        <v>334</v>
       </c>
       <c r="D83">
         <v>34</v>
@@ -5550,13 +5621,13 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B84" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C84" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D84">
         <v>22</v>
@@ -5588,13 +5659,13 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B85" t="s">
+        <v>369</v>
+      </c>
+      <c r="C85" t="s">
         <v>370</v>
-      </c>
-      <c r="C85" t="s">
-        <v>371</v>
       </c>
       <c r="D85">
         <v>20</v>
@@ -5626,13 +5697,13 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B86" t="s">
+        <v>416</v>
+      </c>
+      <c r="C86" t="s">
         <v>417</v>
-      </c>
-      <c r="C86" t="s">
-        <v>418</v>
       </c>
       <c r="D86">
         <v>34</v>
@@ -5667,13 +5738,13 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B87" t="s">
+        <v>490</v>
+      </c>
+      <c r="C87" t="s">
         <v>493</v>
-      </c>
-      <c r="C87" t="s">
-        <v>496</v>
       </c>
       <c r="D87">
         <v>15</v>
@@ -5689,7 +5760,7 @@
         <v>450</v>
       </c>
       <c r="H87" s="10" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="I87" s="2">
         <v>1.2</v>
@@ -5708,13 +5779,13 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B88" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C88" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D88">
         <v>20</v>
@@ -5730,7 +5801,7 @@
         <v>600</v>
       </c>
       <c r="H88" s="39" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="I88" s="2">
         <v>1.2</v>
@@ -5746,13 +5817,13 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B89" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C89" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D89">
         <v>30</v>
@@ -5783,13 +5854,13 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B90" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C90" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D90">
         <v>45</v>
@@ -5820,69 +5891,67 @@
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="B91" t="s">
-        <v>130</v>
+        <v>535</v>
       </c>
       <c r="C91" t="s">
-        <v>132</v>
+        <v>536</v>
       </c>
       <c r="D91">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E91">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F91" s="2">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="G91" s="30">
-        <v>228</v>
-      </c>
-      <c r="H91" s="13" t="s">
-        <v>33</v>
+        <f>[1]!Barrage[[#This Row],[Coefficient]]*[1]!Barrage[[#This Row],[Total Rounds]]*[1]!Barrage[[#This Row],[Base Damage]]</f>
+        <v>240</v>
+      </c>
+      <c r="H91" t="s">
+        <v>9</v>
       </c>
       <c r="I91" s="2">
         <v>1</v>
       </c>
       <c r="J91" s="2">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="K91" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="L91" s="15">
-        <v>0.3</v>
-      </c>
-      <c r="M91" s="17">
-        <v>1</v>
-      </c>
+        <v>0.4</v>
+      </c>
+      <c r="L91" s="44"/>
+      <c r="M91" s="45"/>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="B92" t="s">
-        <v>133</v>
+        <v>537</v>
       </c>
       <c r="C92" t="s">
-        <v>134</v>
+        <v>536</v>
       </c>
       <c r="D92">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E92">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F92" s="2">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="G92" s="30">
-        <v>229</v>
-      </c>
-      <c r="H92" s="13" t="s">
-        <v>33</v>
+        <f>[1]!Barrage[[#This Row],[Coefficient]]*[1]!Barrage[[#This Row],[Total Rounds]]*[1]!Barrage[[#This Row],[Base Damage]]</f>
+        <v>240</v>
+      </c>
+      <c r="H92" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="I92" s="2">
         <v>1</v>
@@ -5893,76 +5962,71 @@
       <c r="K92" s="2">
         <v>0.6</v>
       </c>
-      <c r="L92" s="15">
-        <v>0.3</v>
-      </c>
-      <c r="M92" s="17">
-        <v>2</v>
-      </c>
+      <c r="L92" s="44"/>
+      <c r="M92" s="45"/>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="B93" t="s">
-        <v>135</v>
+        <v>538</v>
       </c>
       <c r="C93" t="s">
-        <v>136</v>
+        <v>539</v>
       </c>
       <c r="D93">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="E93">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F93" s="2">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="G93" s="30">
-        <v>320</v>
+        <f>[1]!Barrage[[#This Row],[Coefficient]]*[1]!Barrage[[#This Row],[Total Rounds]]*[1]!Barrage[[#This Row],[Base Damage]]</f>
+        <v>480</v>
       </c>
       <c r="H93" t="s">
         <v>9</v>
       </c>
       <c r="I93" s="2">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J93" s="2">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="K93" s="2">
-        <v>1</v>
-      </c>
-      <c r="L93" s="15"/>
-      <c r="O93" t="s">
-        <v>56</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="L93" s="44"/>
+      <c r="M93" s="45"/>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
+        <v>128</v>
+      </c>
+      <c r="B94" t="s">
         <v>129</v>
       </c>
-      <c r="B94" t="s">
-        <v>137</v>
-      </c>
       <c r="C94" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D94">
         <v>38</v>
       </c>
       <c r="E94">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F94" s="2">
         <v>1</v>
       </c>
       <c r="G94" s="30">
-        <v>304</v>
-      </c>
-      <c r="H94" t="s">
-        <v>9</v>
+        <v>228</v>
+      </c>
+      <c r="H94" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="I94" s="2">
         <v>1</v>
@@ -5973,20 +6037,25 @@
       <c r="K94" s="2">
         <v>0.6</v>
       </c>
-      <c r="L94" s="15"/>
+      <c r="L94" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="M94" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B95" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C95" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D95">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E95">
         <v>6</v>
@@ -5995,7 +6064,7 @@
         <v>1</v>
       </c>
       <c r="G95" s="30">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="H95" s="13" t="s">
         <v>33</v>
@@ -6013,77 +6082,72 @@
         <v>0.3</v>
       </c>
       <c r="M95" s="17">
-        <v>1</v>
-      </c>
-      <c r="O95" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B96" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C96" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D96">
         <v>40</v>
       </c>
       <c r="E96">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F96" s="2">
         <v>1</v>
       </c>
       <c r="G96" s="30">
-        <v>240</v>
-      </c>
-      <c r="H96" s="13" t="s">
-        <v>33</v>
+        <v>320</v>
+      </c>
+      <c r="H96" t="s">
+        <v>9</v>
       </c>
       <c r="I96" s="2">
         <v>1</v>
       </c>
       <c r="J96" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K96" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="L96" s="15">
-        <v>0.3</v>
-      </c>
-      <c r="M96" s="17">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="L96" s="15"/>
+      <c r="O96" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B97" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C97" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D97">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E97">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F97" s="2">
         <v>1</v>
       </c>
       <c r="G97" s="30">
-        <v>240</v>
-      </c>
-      <c r="H97" s="13" t="s">
-        <v>33</v>
+        <v>304</v>
+      </c>
+      <c r="H97" t="s">
+        <v>9</v>
       </c>
       <c r="I97" s="2">
         <v>1</v>
@@ -6094,79 +6158,76 @@
       <c r="K97" s="2">
         <v>0.6</v>
       </c>
-      <c r="L97" s="15">
-        <v>0.3</v>
-      </c>
-      <c r="M97" s="17">
-        <v>3</v>
-      </c>
-      <c r="O97" t="s">
-        <v>56</v>
-      </c>
+      <c r="L97" s="15"/>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B98" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C98" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D98">
         <v>40</v>
       </c>
       <c r="E98">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F98" s="2">
         <v>1</v>
       </c>
       <c r="G98" s="30">
-        <v>480</v>
-      </c>
-      <c r="H98" s="10" t="s">
-        <v>27</v>
+        <v>240</v>
+      </c>
+      <c r="H98" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="I98" s="2">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="J98" s="2">
-        <v>1.1000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="K98" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="L98" s="15"/>
-      <c r="N98" s="6">
-        <v>1</v>
+        <v>0.6</v>
+      </c>
+      <c r="L98" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="M98" s="17">
+        <v>1</v>
+      </c>
+      <c r="O98" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B99" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C99" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D99">
         <v>40</v>
       </c>
       <c r="E99">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F99" s="2">
         <v>1</v>
       </c>
       <c r="G99" s="30">
-        <v>440</v>
-      </c>
-      <c r="H99" t="s">
-        <v>9</v>
+        <v>240</v>
+      </c>
+      <c r="H99" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="I99" s="2">
         <v>1</v>
@@ -6177,17 +6238,22 @@
       <c r="K99" s="2">
         <v>0.6</v>
       </c>
-      <c r="L99" s="15"/>
+      <c r="L99" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="M99" s="17">
+        <v>2</v>
+      </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B100" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C100" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D100">
         <v>40</v>
@@ -6217,7 +6283,7 @@
         <v>0.3</v>
       </c>
       <c r="M100" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O100" t="s">
         <v>56</v>
@@ -6225,64 +6291,67 @@
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B101" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C101" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D101">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E101">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F101" s="2">
         <v>1</v>
       </c>
       <c r="G101" s="30">
-        <v>228</v>
-      </c>
-      <c r="H101" t="s">
-        <v>9</v>
+        <v>480</v>
+      </c>
+      <c r="H101" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="I101" s="2">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J101" s="2">
-        <v>0.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K101" s="2">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="L101" s="15"/>
+      <c r="N101" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B102" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C102" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D102">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E102">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F102" s="2">
         <v>1</v>
       </c>
       <c r="G102" s="30">
-        <v>190</v>
-      </c>
-      <c r="H102" s="13" t="s">
-        <v>33</v>
+        <v>440</v>
+      </c>
+      <c r="H102" t="s">
+        <v>9</v>
       </c>
       <c r="I102" s="2">
         <v>1</v>
@@ -6293,25 +6362,20 @@
       <c r="K102" s="2">
         <v>0.6</v>
       </c>
-      <c r="L102" s="15">
-        <v>0.3</v>
-      </c>
-      <c r="M102" s="17">
-        <v>1</v>
-      </c>
+      <c r="L102" s="15"/>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B103" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C103" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D103">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E103">
         <v>6</v>
@@ -6320,10 +6384,10 @@
         <v>1</v>
       </c>
       <c r="G103" s="30">
-        <v>228</v>
-      </c>
-      <c r="H103" t="s">
-        <v>9</v>
+        <v>240</v>
+      </c>
+      <c r="H103" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="I103" s="2">
         <v>1</v>
@@ -6334,17 +6398,25 @@
       <c r="K103" s="2">
         <v>0.6</v>
       </c>
-      <c r="L103" s="15"/>
+      <c r="L103" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="M103" s="17">
+        <v>1</v>
+      </c>
+      <c r="O103" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B104" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C104" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D104">
         <v>38</v>
@@ -6358,8 +6430,8 @@
       <c r="G104" s="30">
         <v>228</v>
       </c>
-      <c r="H104" s="13" t="s">
-        <v>33</v>
+      <c r="H104" t="s">
+        <v>9</v>
       </c>
       <c r="I104" s="2">
         <v>1</v>
@@ -6370,226 +6442,215 @@
       <c r="K104" s="2">
         <v>0.6</v>
       </c>
-      <c r="L104" s="15">
-        <v>0.3</v>
-      </c>
-      <c r="M104" s="17">
-        <v>1</v>
-      </c>
+      <c r="L104" s="15"/>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B105" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C105" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D105">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E105">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F105" s="2">
         <v>1</v>
       </c>
       <c r="G105" s="30">
-        <v>540</v>
-      </c>
-      <c r="H105" t="s">
-        <v>9</v>
+        <v>190</v>
+      </c>
+      <c r="H105" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="I105" s="2">
         <v>1</v>
       </c>
       <c r="J105" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="K105" s="2">
-        <v>1</v>
-      </c>
-      <c r="L105" s="15"/>
+        <v>0.6</v>
+      </c>
+      <c r="L105" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="M105" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B106" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C106" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D106">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E106">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F106" s="2">
         <v>1</v>
       </c>
       <c r="G106" s="30">
-        <v>390</v>
-      </c>
-      <c r="H106" s="13" t="s">
-        <v>33</v>
+        <v>228</v>
+      </c>
+      <c r="H106" t="s">
+        <v>9</v>
       </c>
       <c r="I106" s="2">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="J106" s="2">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="K106" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="L106" s="15">
-        <v>0.08</v>
-      </c>
-      <c r="M106" s="17">
-        <v>3</v>
-      </c>
-      <c r="O106" t="s">
-        <v>169</v>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="L106" s="15"/>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B107" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C107" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D107">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E107">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F107" s="2">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G107" s="30">
-        <v>528</v>
+        <v>228</v>
       </c>
       <c r="H107" s="13" t="s">
         <v>33</v>
       </c>
       <c r="I107" s="2">
-        <v>1.35</v>
+        <v>1</v>
       </c>
       <c r="J107" s="2">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="K107" s="2">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="L107" s="15">
-        <v>0.08</v>
+        <v>0.3</v>
       </c>
       <c r="M107" s="17">
-        <v>3</v>
-      </c>
-      <c r="O107" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B108" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C108" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D108">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E108">
         <v>12</v>
       </c>
       <c r="F108" s="2">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G108" s="30">
-        <v>501.6</v>
-      </c>
-      <c r="H108" s="13" t="s">
-        <v>33</v>
+        <v>540</v>
+      </c>
+      <c r="H108" t="s">
+        <v>9</v>
       </c>
       <c r="I108" s="2">
-        <v>1.1499999999999999</v>
+        <v>1</v>
       </c>
       <c r="J108" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K108" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="L108" s="15">
-        <v>0.08</v>
-      </c>
-      <c r="M108" s="17">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L108" s="15"/>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B109" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C109" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D109">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E109">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F109" s="2">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G109" s="30">
-        <v>528</v>
-      </c>
-      <c r="H109" s="10" t="s">
-        <v>27</v>
+        <v>390</v>
+      </c>
+      <c r="H109" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="I109" s="2">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="J109" s="2">
-        <v>1.1000000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="K109" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="L109" s="15"/>
+        <v>0.65</v>
+      </c>
+      <c r="L109" s="15">
+        <v>0.08</v>
+      </c>
+      <c r="M109" s="17">
+        <v>3</v>
+      </c>
       <c r="O109" t="s">
-        <v>56</v>
+        <v>168</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B110" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C110" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D110">
         <v>30</v>
@@ -6627,31 +6688,31 @@
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B111" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C111" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D111">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E111">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F111" s="2">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G111" s="30">
-        <v>240</v>
+        <v>501.6</v>
       </c>
       <c r="H111" s="13" t="s">
         <v>33</v>
       </c>
       <c r="I111" s="2">
-        <v>1</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="J111" s="2">
         <v>0.8</v>
@@ -6660,222 +6721,230 @@
         <v>0.6</v>
       </c>
       <c r="L111" s="15">
-        <v>0.3</v>
+        <v>0.08</v>
       </c>
       <c r="M111" s="17">
-        <v>1</v>
-      </c>
-      <c r="O111" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B112" t="s">
-        <v>360</v>
+        <v>164</v>
       </c>
       <c r="C112" t="s">
-        <v>359</v>
+        <v>165</v>
       </c>
       <c r="D112">
         <v>30</v>
       </c>
       <c r="E112">
+        <v>16</v>
+      </c>
+      <c r="F112" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G112" s="30">
+        <v>528</v>
+      </c>
+      <c r="H112" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I112" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="J112" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K112" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="L112" s="15"/>
+      <c r="O112" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>128</v>
+      </c>
+      <c r="B113" t="s">
+        <v>164</v>
+      </c>
+      <c r="C113" t="s">
+        <v>165</v>
+      </c>
+      <c r="D113">
+        <v>30</v>
+      </c>
+      <c r="E113">
+        <v>16</v>
+      </c>
+      <c r="F113" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G113" s="30">
+        <v>528</v>
+      </c>
+      <c r="H113" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I113" s="2">
+        <v>1.35</v>
+      </c>
+      <c r="J113" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="K113" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="L113" s="15">
+        <v>0.08</v>
+      </c>
+      <c r="M113" s="17">
+        <v>3</v>
+      </c>
+      <c r="O113" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>128</v>
+      </c>
+      <c r="B114" t="s">
+        <v>166</v>
+      </c>
+      <c r="C114" t="s">
+        <v>167</v>
+      </c>
+      <c r="D114">
+        <v>40</v>
+      </c>
+      <c r="E114">
+        <v>6</v>
+      </c>
+      <c r="F114" s="2">
+        <v>1</v>
+      </c>
+      <c r="G114" s="30">
+        <v>240</v>
+      </c>
+      <c r="H114" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I114" s="2">
+        <v>1</v>
+      </c>
+      <c r="J114" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="K114" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="L114" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="M114" s="17">
+        <v>1</v>
+      </c>
+      <c r="O114" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>128</v>
+      </c>
+      <c r="B115" t="s">
+        <v>359</v>
+      </c>
+      <c r="C115" t="s">
+        <v>358</v>
+      </c>
+      <c r="D115">
+        <v>30</v>
+      </c>
+      <c r="E115">
         <v>15</v>
       </c>
-      <c r="F112" s="2">
-        <v>1</v>
-      </c>
-      <c r="G112" s="30">
+      <c r="F115" s="2">
+        <v>1</v>
+      </c>
+      <c r="G115" s="30">
         <f>Barrage[[#This Row],[Base Damage]]*Barrage[[#This Row],[Total Rounds]]*Barrage[[#This Row],[Coefficient]]</f>
         <v>450</v>
       </c>
-      <c r="H112" s="13" t="s">
+      <c r="H115" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I112" s="2">
+      <c r="I115" s="2">
         <v>1.25</v>
       </c>
-      <c r="J112" s="2">
+      <c r="J115" s="2">
         <v>0.85</v>
       </c>
-      <c r="K112" s="2">
+      <c r="K115" s="2">
         <v>0.65</v>
       </c>
-      <c r="L112" s="23"/>
-      <c r="M112" s="24"/>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>129</v>
-      </c>
-      <c r="B113" t="s">
-        <v>361</v>
-      </c>
-      <c r="C113" t="s">
-        <v>359</v>
-      </c>
-      <c r="D113">
+      <c r="L115" s="23"/>
+      <c r="M115" s="24"/>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>128</v>
+      </c>
+      <c r="B116" t="s">
+        <v>360</v>
+      </c>
+      <c r="C116" t="s">
+        <v>358</v>
+      </c>
+      <c r="D116">
         <v>35</v>
       </c>
-      <c r="E113">
+      <c r="E116">
         <v>15</v>
       </c>
-      <c r="F113" s="2">
-        <v>1</v>
-      </c>
-      <c r="G113" s="30">
+      <c r="F116" s="2">
+        <v>1</v>
+      </c>
+      <c r="G116" s="30">
         <f>Barrage[[#This Row],[Base Damage]]*Barrage[[#This Row],[Total Rounds]]*Barrage[[#This Row],[Coefficient]]</f>
         <v>525</v>
       </c>
-      <c r="H113" s="13" t="s">
+      <c r="H116" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I113" s="2">
+      <c r="I116" s="2">
         <v>1.25</v>
       </c>
-      <c r="J113" s="2">
-        <v>1</v>
-      </c>
-      <c r="K113" s="2">
+      <c r="J116" s="2">
+        <v>1</v>
+      </c>
+      <c r="K116" s="2">
         <v>0.8</v>
       </c>
-      <c r="L113" s="23"/>
-      <c r="M113" s="24"/>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>129</v>
-      </c>
-      <c r="B114" t="s">
-        <v>361</v>
-      </c>
-      <c r="C114" t="s">
-        <v>359</v>
-      </c>
-      <c r="D114">
-        <v>30</v>
-      </c>
-      <c r="E114">
-        <v>8</v>
-      </c>
-      <c r="F114" s="2">
-        <v>1</v>
-      </c>
-      <c r="G114" s="30">
-        <f>Barrage[[#This Row],[Base Damage]]*Barrage[[#This Row],[Total Rounds]]*Barrage[[#This Row],[Coefficient]]</f>
-        <v>240</v>
-      </c>
-      <c r="H114" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I114" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="J114" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K114" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="L114" s="23"/>
-      <c r="M114" s="24"/>
-      <c r="O114" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>129</v>
-      </c>
-      <c r="B115" t="s">
-        <v>452</v>
-      </c>
-      <c r="C115" t="s">
-        <v>453</v>
-      </c>
-      <c r="D115">
-        <v>42</v>
-      </c>
-      <c r="E115">
-        <v>6</v>
-      </c>
-      <c r="F115" s="2">
-        <v>1</v>
-      </c>
-      <c r="G115" s="30">
-        <f>Barrage[[#This Row],[Base Damage]]*Barrage[[#This Row],[Total Rounds]]*Barrage[[#This Row],[Coefficient]]</f>
-        <v>252</v>
-      </c>
-      <c r="H115" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I115" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="J115" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="K115" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="L115" s="32"/>
-      <c r="M115" s="33"/>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>129</v>
-      </c>
-      <c r="B116" s="36" t="s">
-        <v>470</v>
-      </c>
-      <c r="C116" t="s">
-        <v>471</v>
-      </c>
-      <c r="D116">
-        <v>38</v>
-      </c>
-      <c r="E116">
-        <v>6</v>
-      </c>
-      <c r="F116" s="2">
-        <v>1</v>
-      </c>
-      <c r="G116" s="30">
-        <f>Barrage[[#This Row],[Base Damage]]*Barrage[[#This Row],[Total Rounds]]*Barrage[[#This Row],[Coefficient]]</f>
-        <v>228</v>
-      </c>
-      <c r="H116" t="s">
-        <v>9</v>
-      </c>
-      <c r="I116">
-        <v>100</v>
-      </c>
-      <c r="J116" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="K116" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="L116" s="15"/>
+      <c r="L116" s="23"/>
+      <c r="M116" s="24"/>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B117" t="s">
-        <v>472</v>
+        <v>360</v>
       </c>
       <c r="C117" t="s">
-        <v>473</v>
+        <v>358</v>
       </c>
       <c r="D117">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E117">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F117" s="2">
         <v>1</v>
@@ -6884,77 +6953,74 @@
         <f>Barrage[[#This Row],[Base Damage]]*Barrage[[#This Row],[Total Rounds]]*Barrage[[#This Row],[Coefficient]]</f>
         <v>240</v>
       </c>
-      <c r="H117" s="39" t="s">
-        <v>474</v>
+      <c r="H117" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="I117" s="2">
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
       <c r="J117" s="2">
-        <v>1.25</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K117" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="L117" s="15"/>
-      <c r="N117" s="6">
-        <v>1</v>
+        <v>0.75</v>
+      </c>
+      <c r="L117" s="23"/>
+      <c r="M117" s="24"/>
+      <c r="O117" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B118" t="s">
-        <v>526</v>
+        <v>451</v>
       </c>
       <c r="C118" t="s">
-        <v>527</v>
+        <v>452</v>
       </c>
       <c r="D118">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E118">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F118" s="2">
         <v>1</v>
       </c>
       <c r="G118" s="30">
         <f>Barrage[[#This Row],[Base Damage]]*Barrage[[#This Row],[Total Rounds]]*Barrage[[#This Row],[Coefficient]]</f>
-        <v>420</v>
-      </c>
-      <c r="H118" s="13" t="s">
-        <v>33</v>
+        <v>252</v>
+      </c>
+      <c r="H118" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="I118" s="2">
-        <v>1.1000000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="J118" s="2">
         <v>1.2</v>
       </c>
       <c r="K118" s="2">
-        <v>1</v>
-      </c>
-      <c r="L118" s="41">
-        <v>0.08</v>
-      </c>
-      <c r="M118" s="42">
-        <v>3</v>
-      </c>
+        <v>0.85</v>
+      </c>
+      <c r="L118" s="32"/>
+      <c r="M118" s="33"/>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>170</v>
-      </c>
-      <c r="B119" t="s">
-        <v>447</v>
+        <v>128</v>
+      </c>
+      <c r="B119" s="36" t="s">
+        <v>468</v>
       </c>
       <c r="C119" t="s">
-        <v>448</v>
+        <v>469</v>
       </c>
       <c r="D119">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="E119">
         <v>6</v>
@@ -6963,106 +7029,114 @@
         <v>1</v>
       </c>
       <c r="G119" s="30">
-        <v>360</v>
+        <f>Barrage[[#This Row],[Base Damage]]*Barrage[[#This Row],[Total Rounds]]*Barrage[[#This Row],[Coefficient]]</f>
+        <v>228</v>
       </c>
       <c r="H119" t="s">
-        <v>48</v>
-      </c>
-      <c r="I119" s="2">
+        <v>9</v>
+      </c>
+      <c r="I119">
+        <v>100</v>
+      </c>
+      <c r="J119" s="2">
         <v>0.8</v>
       </c>
-      <c r="J119" s="2">
-        <v>1</v>
-      </c>
       <c r="K119" s="2">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="L119" s="15"/>
-      <c r="M119" s="12"/>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="B120" t="s">
-        <v>171</v>
+        <v>470</v>
       </c>
       <c r="C120" t="s">
-        <v>172</v>
+        <v>471</v>
       </c>
       <c r="D120">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E120">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F120" s="2">
         <v>1</v>
       </c>
       <c r="G120" s="30">
-        <v>540</v>
-      </c>
-      <c r="H120" t="s">
-        <v>48</v>
+        <f>Barrage[[#This Row],[Base Damage]]*Barrage[[#This Row],[Total Rounds]]*Barrage[[#This Row],[Coefficient]]</f>
+        <v>240</v>
+      </c>
+      <c r="H120" s="39" t="s">
+        <v>472</v>
       </c>
       <c r="I120" s="2">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="J120" s="2">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="K120" s="2">
-        <v>1.3</v>
+        <v>0.65</v>
       </c>
       <c r="L120" s="15"/>
-      <c r="M120" s="12"/>
+      <c r="N120" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="B121" t="s">
-        <v>178</v>
+        <v>523</v>
       </c>
       <c r="C121" t="s">
-        <v>173</v>
+        <v>524</v>
       </c>
       <c r="D121">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="E121">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F121" s="2">
         <v>1</v>
       </c>
       <c r="G121" s="30">
-        <v>540</v>
-      </c>
-      <c r="H121" t="s">
-        <v>48</v>
+        <f>Barrage[[#This Row],[Base Damage]]*Barrage[[#This Row],[Total Rounds]]*Barrage[[#This Row],[Coefficient]]</f>
+        <v>420</v>
+      </c>
+      <c r="H121" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="I121" s="2">
-        <v>0.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J121" s="2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="K121" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="L121" s="15"/>
-      <c r="M121" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="L121" s="41">
+        <v>0.08</v>
+      </c>
+      <c r="M121" s="42">
+        <v>3</v>
+      </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B122" t="s">
-        <v>179</v>
+        <v>446</v>
       </c>
       <c r="C122" t="s">
-        <v>174</v>
+        <v>447</v>
       </c>
       <c r="D122">
         <v>60</v>
@@ -7093,178 +7167,174 @@
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
+        <v>169</v>
+      </c>
+      <c r="B123" t="s">
         <v>170</v>
       </c>
-      <c r="B123" t="s">
+      <c r="C123" t="s">
+        <v>171</v>
+      </c>
+      <c r="D123">
+        <v>60</v>
+      </c>
+      <c r="E123">
+        <v>9</v>
+      </c>
+      <c r="F123" s="2">
+        <v>1</v>
+      </c>
+      <c r="G123" s="30">
+        <v>540</v>
+      </c>
+      <c r="H123" t="s">
+        <v>48</v>
+      </c>
+      <c r="I123" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="J123" s="2">
+        <v>1</v>
+      </c>
+      <c r="K123" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="L123" s="15"/>
+      <c r="M123" s="12"/>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>169</v>
+      </c>
+      <c r="B124" t="s">
+        <v>177</v>
+      </c>
+      <c r="C124" t="s">
+        <v>172</v>
+      </c>
+      <c r="D124">
+        <v>60</v>
+      </c>
+      <c r="E124">
+        <v>9</v>
+      </c>
+      <c r="F124" s="2">
+        <v>1</v>
+      </c>
+      <c r="G124" s="30">
+        <v>540</v>
+      </c>
+      <c r="H124" t="s">
+        <v>48</v>
+      </c>
+      <c r="I124" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="J124" s="2">
+        <v>1</v>
+      </c>
+      <c r="K124" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="L124" s="15"/>
+      <c r="M124" s="12"/>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>169</v>
+      </c>
+      <c r="B125" t="s">
+        <v>178</v>
+      </c>
+      <c r="C125" t="s">
+        <v>173</v>
+      </c>
+      <c r="D125">
+        <v>60</v>
+      </c>
+      <c r="E125">
+        <v>6</v>
+      </c>
+      <c r="F125" s="2">
+        <v>1</v>
+      </c>
+      <c r="G125" s="30">
+        <v>360</v>
+      </c>
+      <c r="H125" t="s">
+        <v>48</v>
+      </c>
+      <c r="I125" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="J125" s="2">
+        <v>1</v>
+      </c>
+      <c r="K125" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="L125" s="15"/>
+      <c r="M125" s="12"/>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>169</v>
+      </c>
+      <c r="B126" t="s">
+        <v>409</v>
+      </c>
+      <c r="C126" t="s">
         <v>410</v>
       </c>
-      <c r="C123" t="s">
-        <v>411</v>
-      </c>
-      <c r="D123">
+      <c r="D126">
         <v>55</v>
       </c>
-      <c r="E123">
+      <c r="E126">
         <v>6</v>
       </c>
-      <c r="F123" s="2">
-        <v>1</v>
-      </c>
-      <c r="G123" s="30">
+      <c r="F126" s="2">
+        <v>1</v>
+      </c>
+      <c r="G126" s="30">
         <f>55*6</f>
         <v>330</v>
       </c>
-      <c r="H123" t="s">
+      <c r="H126" t="s">
         <v>48</v>
       </c>
-      <c r="I123" s="2">
+      <c r="I126" s="2">
         <v>0.8</v>
       </c>
-      <c r="J123" s="2">
-        <v>1</v>
-      </c>
-      <c r="K123" s="2">
+      <c r="J126" s="2">
+        <v>1</v>
+      </c>
+      <c r="K126" s="2">
         <v>1.3</v>
       </c>
-      <c r="L123" s="26"/>
-      <c r="M123" s="28"/>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>170</v>
-      </c>
-      <c r="B124" t="s">
-        <v>180</v>
-      </c>
-      <c r="C124" t="s">
-        <v>409</v>
-      </c>
-      <c r="D124">
-        <v>60</v>
-      </c>
-      <c r="E124">
-        <v>6</v>
-      </c>
-      <c r="F124" s="2">
-        <v>1</v>
-      </c>
-      <c r="G124" s="30">
-        <v>360</v>
-      </c>
-      <c r="H124" t="s">
-        <v>48</v>
-      </c>
-      <c r="I124" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="J124" s="2">
-        <v>1</v>
-      </c>
-      <c r="K124" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="L124" s="15"/>
-      <c r="M124" s="12"/>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>170</v>
-      </c>
-      <c r="B125" t="s">
-        <v>444</v>
-      </c>
-      <c r="C125" t="s">
-        <v>175</v>
-      </c>
-      <c r="D125">
-        <v>60</v>
-      </c>
-      <c r="E125">
-        <v>9</v>
-      </c>
-      <c r="F125" s="2">
-        <v>1</v>
-      </c>
-      <c r="G125" s="30">
-        <v>540</v>
-      </c>
-      <c r="H125" t="s">
-        <v>48</v>
-      </c>
-      <c r="I125" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="J125" s="2">
-        <v>1</v>
-      </c>
-      <c r="K125" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="L125" s="15"/>
-      <c r="M125" s="12"/>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>170</v>
-      </c>
-      <c r="B126" t="s">
-        <v>181</v>
-      </c>
-      <c r="C126" t="s">
-        <v>176</v>
-      </c>
-      <c r="D126">
-        <v>150</v>
-      </c>
-      <c r="E126">
-        <v>4</v>
-      </c>
-      <c r="F126" s="2">
-        <v>1</v>
-      </c>
-      <c r="G126" s="30">
-        <v>600</v>
-      </c>
-      <c r="H126" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I126" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="J126" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="K126" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="L126" s="15">
-        <v>0.08</v>
-      </c>
-      <c r="M126" s="12">
-        <v>3</v>
-      </c>
+      <c r="L126" s="26"/>
+      <c r="M126" s="28"/>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B127" t="s">
-        <v>459</v>
+        <v>179</v>
       </c>
       <c r="C127" t="s">
-        <v>458</v>
+        <v>408</v>
       </c>
       <c r="D127">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E127">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F127" s="2">
         <v>1</v>
       </c>
       <c r="G127" s="30">
-        <v>576</v>
+        <v>360</v>
       </c>
       <c r="H127" t="s">
         <v>48</v>
@@ -7283,16 +7353,16 @@
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B128" t="s">
-        <v>363</v>
+        <v>443</v>
       </c>
       <c r="C128" t="s">
-        <v>364</v>
+        <v>174</v>
       </c>
       <c r="D128">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E128">
         <v>9</v>
@@ -7301,174 +7371,337 @@
         <v>1</v>
       </c>
       <c r="G128" s="30">
+        <v>540</v>
+      </c>
+      <c r="H128" t="s">
+        <v>48</v>
+      </c>
+      <c r="I128" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="J128" s="2">
+        <v>1</v>
+      </c>
+      <c r="K128" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="L128" s="15"/>
+      <c r="M128" s="12"/>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>169</v>
+      </c>
+      <c r="B129" t="s">
+        <v>180</v>
+      </c>
+      <c r="C129" t="s">
+        <v>175</v>
+      </c>
+      <c r="D129">
+        <v>150</v>
+      </c>
+      <c r="E129">
+        <v>4</v>
+      </c>
+      <c r="F129" s="2">
+        <v>1</v>
+      </c>
+      <c r="G129" s="30">
+        <v>600</v>
+      </c>
+      <c r="H129" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I129" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="J129" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="K129" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="L129" s="15">
+        <v>0.08</v>
+      </c>
+      <c r="M129" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>169</v>
+      </c>
+      <c r="B130" t="s">
+        <v>458</v>
+      </c>
+      <c r="C130" t="s">
+        <v>457</v>
+      </c>
+      <c r="D130">
+        <v>48</v>
+      </c>
+      <c r="E130">
+        <v>12</v>
+      </c>
+      <c r="F130" s="2">
+        <v>1</v>
+      </c>
+      <c r="G130" s="30">
+        <v>576</v>
+      </c>
+      <c r="H130" t="s">
+        <v>48</v>
+      </c>
+      <c r="I130" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="J130" s="2">
+        <v>1</v>
+      </c>
+      <c r="K130" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="L130" s="15"/>
+      <c r="M130" s="12"/>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>169</v>
+      </c>
+      <c r="B131" t="s">
+        <v>362</v>
+      </c>
+      <c r="C131" t="s">
+        <v>363</v>
+      </c>
+      <c r="D131">
+        <v>55</v>
+      </c>
+      <c r="E131">
+        <v>9</v>
+      </c>
+      <c r="F131" s="2">
+        <v>1</v>
+      </c>
+      <c r="G131" s="30">
         <f>Barrage[[#This Row],[Base Damage]]*Barrage[[#This Row],[Total Rounds]]*Barrage[[#This Row],[Coefficient]]</f>
         <v>495</v>
       </c>
-      <c r="H128" t="s">
+      <c r="H131" t="s">
         <v>48</v>
       </c>
-      <c r="I128" s="2">
+      <c r="I131" s="2">
         <v>0.8</v>
       </c>
-      <c r="J128" s="2">
-        <v>1</v>
-      </c>
-      <c r="K128" s="2">
+      <c r="J131" s="2">
+        <v>1</v>
+      </c>
+      <c r="K131" s="2">
         <v>1.3</v>
       </c>
-      <c r="L128" s="23"/>
-      <c r="M128" s="25"/>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>170</v>
-      </c>
-      <c r="B129" t="s">
-        <v>441</v>
-      </c>
-      <c r="C129" t="s">
+      <c r="L131" s="23"/>
+      <c r="M131" s="25"/>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>169</v>
+      </c>
+      <c r="B132" t="s">
         <v>440</v>
       </c>
-      <c r="D129">
+      <c r="C132" t="s">
+        <v>439</v>
+      </c>
+      <c r="D132">
         <v>60</v>
       </c>
-      <c r="E129">
+      <c r="E132">
         <v>9</v>
       </c>
-      <c r="F129" s="2">
-        <v>1</v>
-      </c>
-      <c r="G129" s="30">
+      <c r="F132" s="2">
+        <v>1</v>
+      </c>
+      <c r="G132" s="30">
         <f>Barrage[[#This Row],[Base Damage]]*Barrage[[#This Row],[Total Rounds]]*Barrage[[#This Row],[Coefficient]]</f>
         <v>540</v>
       </c>
-      <c r="H129" t="s">
+      <c r="H132" t="s">
         <v>48</v>
       </c>
-      <c r="I129" s="2">
+      <c r="I132" s="2">
         <v>0.8</v>
       </c>
-      <c r="J129" s="2">
-        <v>1</v>
-      </c>
-      <c r="K129" s="2">
+      <c r="J132" s="2">
+        <v>1</v>
+      </c>
+      <c r="K132" s="2">
         <v>1.3</v>
       </c>
-      <c r="L129" s="15"/>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>170</v>
-      </c>
-      <c r="B130" t="s">
+      <c r="L132" s="15"/>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>169</v>
+      </c>
+      <c r="B133" t="s">
+        <v>441</v>
+      </c>
+      <c r="C133" t="s">
         <v>442</v>
       </c>
-      <c r="C130" t="s">
-        <v>443</v>
-      </c>
-      <c r="D130">
+      <c r="D133">
         <v>60</v>
       </c>
-      <c r="E130">
+      <c r="E133">
         <v>9</v>
       </c>
-      <c r="F130" s="2">
-        <v>1</v>
-      </c>
-      <c r="G130" s="30">
+      <c r="F133" s="2">
+        <v>1</v>
+      </c>
+      <c r="G133" s="30">
         <f>Barrage[[#This Row],[Base Damage]]*Barrage[[#This Row],[Total Rounds]]*Barrage[[#This Row],[Coefficient]]</f>
         <v>540</v>
       </c>
-      <c r="H130" t="s">
+      <c r="H133" t="s">
         <v>48</v>
       </c>
-      <c r="I130" s="2">
+      <c r="I133" s="2">
         <v>0.8</v>
       </c>
-      <c r="J130" s="2">
-        <v>1</v>
-      </c>
-      <c r="K130" s="2">
+      <c r="J133" s="2">
+        <v>1</v>
+      </c>
+      <c r="K133" s="2">
         <v>1.3</v>
       </c>
-      <c r="L130" s="15"/>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>170</v>
-      </c>
-      <c r="B131" t="s">
+      <c r="L133" s="15"/>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>169</v>
+      </c>
+      <c r="B134" t="s">
+        <v>444</v>
+      </c>
+      <c r="C134" t="s">
         <v>445</v>
       </c>
-      <c r="C131" t="s">
-        <v>446</v>
-      </c>
-      <c r="D131">
+      <c r="D134">
         <v>60</v>
       </c>
-      <c r="E131">
+      <c r="E134">
         <v>6</v>
       </c>
-      <c r="F131" s="2">
-        <v>1</v>
-      </c>
-      <c r="G131" s="30">
+      <c r="F134" s="2">
+        <v>1</v>
+      </c>
+      <c r="G134" s="30">
         <f>Barrage[[#This Row],[Base Damage]]*Barrage[[#This Row],[Total Rounds]]*Barrage[[#This Row],[Coefficient]]</f>
         <v>360</v>
       </c>
-      <c r="H131" t="s">
+      <c r="H134" t="s">
         <v>48</v>
       </c>
-      <c r="I131" s="2">
+      <c r="I134" s="2">
         <v>0.8</v>
       </c>
-      <c r="J131" s="2">
-        <v>1</v>
-      </c>
-      <c r="K131" s="2">
+      <c r="J134" s="2">
+        <v>1</v>
+      </c>
+      <c r="K134" s="2">
         <v>1.3</v>
       </c>
-      <c r="L131" s="15"/>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>170</v>
-      </c>
-      <c r="B132" t="s">
-        <v>488</v>
-      </c>
-      <c r="C132" t="s">
-        <v>489</v>
-      </c>
-      <c r="D132">
+      <c r="L134" s="15"/>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>169</v>
+      </c>
+      <c r="B135" t="s">
+        <v>486</v>
+      </c>
+      <c r="C135" t="s">
+        <v>487</v>
+      </c>
+      <c r="D135">
         <v>60</v>
       </c>
-      <c r="E132">
+      <c r="E135">
         <v>6</v>
       </c>
-      <c r="F132" s="2">
-        <v>1</v>
-      </c>
-      <c r="G132" s="30">
+      <c r="F135" s="2">
+        <v>1</v>
+      </c>
+      <c r="G135" s="30">
         <f>Barrage[[#This Row],[Base Damage]]*Barrage[[#This Row],[Total Rounds]]*Barrage[[#This Row],[Coefficient]]</f>
         <v>360</v>
       </c>
-      <c r="H132" t="s">
+      <c r="H135" t="s">
         <v>48</v>
       </c>
-      <c r="I132" s="2">
+      <c r="I135" s="2">
         <v>0.8</v>
       </c>
-      <c r="J132" s="2">
-        <v>1</v>
-      </c>
-      <c r="K132" s="2">
+      <c r="J135" s="2">
+        <v>1</v>
+      </c>
+      <c r="K135" s="2">
         <v>1.3</v>
       </c>
-      <c r="L132" s="15"/>
+      <c r="L135" s="15"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:G58">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G59:G90">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G94:G121">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G122:G135">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G91:G93">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -7480,7 +7713,55 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G59:G90">
+  <conditionalFormatting sqref="G91:G93">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G91:G93">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G91:G93">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G91:G93">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G91:G93">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -7492,20 +7773,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G91:G118">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G119:G132">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="G91:G93">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7554,13 +7823,13 @@
   <sheetData>
     <row r="1" spans="1:15" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" t="s">
         <v>191</v>
-      </c>
-      <c r="C1" t="s">
-        <v>192</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
@@ -7604,10 +7873,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D2">
         <v>20</v>
@@ -7646,10 +7915,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D3">
         <v>156</v>
@@ -7683,10 +7952,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D4">
         <v>24</v>
@@ -7723,10 +7992,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D5">
         <v>156</v>
@@ -7760,10 +8029,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D6">
         <v>28</v>
@@ -7800,10 +8069,10 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D7">
         <v>156</v>
@@ -7837,10 +8106,10 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C8" t="s">
         <v>199</v>
-      </c>
-      <c r="C8" t="s">
-        <v>200</v>
       </c>
       <c r="D8">
         <v>32</v>
@@ -7877,10 +8146,10 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C9" t="s">
         <v>199</v>
-      </c>
-      <c r="C9" t="s">
-        <v>200</v>
       </c>
       <c r="D9">
         <v>145</v>
@@ -7914,7 +8183,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C10" t="s">
         <v>31</v>
@@ -7954,10 +8223,10 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D11">
         <v>20</v>
@@ -7991,10 +8260,10 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D12">
         <v>23</v>
@@ -8031,10 +8300,10 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D13">
         <v>56</v>
@@ -8068,7 +8337,7 @@
         <v>1</v>
       </c>
       <c r="O13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -8076,10 +8345,10 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
+        <v>353</v>
+      </c>
+      <c r="C14" t="s">
         <v>354</v>
-      </c>
-      <c r="C14" t="s">
-        <v>355</v>
       </c>
       <c r="D14">
         <v>10</v>
@@ -8113,10 +8382,10 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
+        <v>353</v>
+      </c>
+      <c r="C15" t="s">
         <v>354</v>
-      </c>
-      <c r="C15" t="s">
-        <v>355</v>
       </c>
       <c r="D15">
         <v>104</v>
@@ -8150,10 +8419,10 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D16">
         <v>72</v>
@@ -8188,10 +8457,10 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
+        <v>384</v>
+      </c>
+      <c r="C17" t="s">
         <v>385</v>
-      </c>
-      <c r="C17" t="s">
-        <v>386</v>
       </c>
       <c r="D17">
         <v>104</v>
@@ -8226,10 +8495,10 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
+        <v>412</v>
+      </c>
+      <c r="C18" t="s">
         <v>413</v>
-      </c>
-      <c r="C18" t="s">
-        <v>414</v>
       </c>
       <c r="D18">
         <v>24</v>
@@ -8264,10 +8533,10 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
+        <v>414</v>
+      </c>
+      <c r="C19" t="s">
         <v>415</v>
-      </c>
-      <c r="C19" t="s">
-        <v>416</v>
       </c>
       <c r="D19">
         <v>36</v>
@@ -8305,10 +8574,10 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C20" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D20">
         <v>134</v>
@@ -8342,10 +8611,10 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21">
         <v>18</v>
@@ -8376,7 +8645,7 @@
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
       <c r="O21" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -8384,10 +8653,10 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C22" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D22">
         <v>220</v>
@@ -8418,7 +8687,7 @@
       <c r="M22" s="12"/>
       <c r="N22" s="17"/>
       <c r="O22" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
@@ -8426,10 +8695,10 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C23" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D23">
         <v>24</v>
@@ -8467,10 +8736,10 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C24" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D24">
         <v>24</v>
@@ -8507,13 +8776,13 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D25">
         <v>21</v>
@@ -8544,13 +8813,13 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D26">
         <v>386</v>
@@ -8589,13 +8858,13 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D27">
         <v>16</v>
@@ -8626,13 +8895,13 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D28">
         <v>24</v>
@@ -8666,18 +8935,18 @@
         <v>1</v>
       </c>
       <c r="O28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D29">
         <v>40</v>
@@ -8706,18 +8975,18 @@
       </c>
       <c r="L29" s="15"/>
       <c r="O29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B30" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D30">
         <v>40</v>
@@ -8746,18 +9015,18 @@
       </c>
       <c r="L30" s="15"/>
       <c r="O30" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B31" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D31">
         <v>40</v>
@@ -8786,18 +9055,18 @@
       </c>
       <c r="L31" s="15"/>
       <c r="O31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D32">
         <v>140</v>
@@ -8826,18 +9095,18 @@
       </c>
       <c r="L32" s="15"/>
       <c r="O32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B33" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C33" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D33">
         <v>62</v>
@@ -8869,13 +9138,13 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B34" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C34" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D34">
         <v>72</v>
@@ -8907,13 +9176,13 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B35" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D35">
         <v>56</v>
@@ -8944,13 +9213,13 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B36" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D36">
         <v>32</v>
@@ -8981,13 +9250,13 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B37" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D37">
         <v>10</v>
@@ -9003,7 +9272,7 @@
         <v>10</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I37" s="2">
         <v>1</v>
@@ -9018,13 +9287,13 @@
     </row>
     <row r="38" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>220</v>
       </c>
       <c r="D38">
         <v>26</v>
@@ -9055,13 +9324,13 @@
     </row>
     <row r="39" spans="1:15" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>220</v>
       </c>
       <c r="D39" s="3">
         <v>26</v>
@@ -9096,13 +9365,13 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>220</v>
       </c>
       <c r="D40">
         <v>26</v>
@@ -9133,13 +9402,13 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B41" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C41" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D41">
         <v>104</v>
@@ -9168,18 +9437,18 @@
       </c>
       <c r="L41" s="15"/>
       <c r="O41" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C42" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D42">
         <v>7</v>
@@ -9208,18 +9477,18 @@
       </c>
       <c r="L42" s="15"/>
       <c r="O42" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B43" t="s">
+        <v>433</v>
+      </c>
+      <c r="C43" t="s">
         <v>434</v>
-      </c>
-      <c r="C43" t="s">
-        <v>435</v>
       </c>
       <c r="D43">
         <v>20</v>
@@ -9250,13 +9519,13 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B44" s="40" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C44" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D44">
         <v>81</v>
@@ -9272,7 +9541,7 @@
         <v>81</v>
       </c>
       <c r="H44" s="20" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="I44" s="2">
         <v>1</v>
@@ -9288,18 +9557,18 @@
         <v>20</v>
       </c>
       <c r="O44" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>372</v>
+      </c>
+      <c r="B45" t="s">
         <v>373</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>374</v>
-      </c>
-      <c r="C45" t="s">
-        <v>375</v>
       </c>
       <c r="D45">
         <v>15</v>
@@ -9331,13 +9600,13 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>372</v>
+      </c>
+      <c r="B46" t="s">
         <v>373</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>374</v>
-      </c>
-      <c r="C46" t="s">
-        <v>375</v>
       </c>
       <c r="D46">
         <v>62</v>
@@ -9373,13 +9642,13 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B47" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C47" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D47">
         <v>62</v>
@@ -9395,7 +9664,7 @@
         <v>372</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I47" s="2">
         <v>1.35</v>
@@ -9415,13 +9684,13 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>223</v>
+      </c>
+      <c r="B48" t="s">
+        <v>227</v>
+      </c>
+      <c r="C48" t="s">
         <v>224</v>
-      </c>
-      <c r="B48" t="s">
-        <v>228</v>
-      </c>
-      <c r="C48" t="s">
-        <v>225</v>
       </c>
       <c r="D48">
         <v>174</v>
@@ -9454,13 +9723,13 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B49" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C49" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D49">
         <v>106</v>
@@ -9490,13 +9759,13 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B50" t="s">
+        <v>228</v>
+      </c>
+      <c r="C50" t="s">
         <v>229</v>
-      </c>
-      <c r="C50" t="s">
-        <v>230</v>
       </c>
       <c r="D50">
         <v>137</v>
@@ -9524,18 +9793,18 @@
       </c>
       <c r="L50" s="15"/>
       <c r="O50" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B51" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C51" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D51">
         <v>20</v>
@@ -9550,7 +9819,7 @@
         <v>2816</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I51" s="2">
         <v>1.25</v>
@@ -9568,18 +9837,18 @@
         <v>3</v>
       </c>
       <c r="O51" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B52" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C52" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D52">
         <v>140</v>
@@ -9614,13 +9883,13 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B53" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C53" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D53">
         <v>30</v>
@@ -9650,13 +9919,13 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B54" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C54" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D54">
         <v>226</v>
@@ -9687,13 +9956,13 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B55" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C55" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D55">
         <v>156</v>
@@ -9724,13 +9993,13 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B56" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C56" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D56">
         <v>25</v>
@@ -9760,13 +10029,13 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B57" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C57" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D57">
         <v>124</v>
@@ -9796,13 +10065,13 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B58" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C58" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D58">
         <v>195</v>
@@ -9832,13 +10101,13 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B59" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C59" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D59">
         <v>35</v>
@@ -9873,13 +10142,13 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B60" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C60" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D60">
         <v>96</v>
@@ -9909,13 +10178,13 @@
     </row>
     <row r="61" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
+        <v>241</v>
+      </c>
+      <c r="B61" t="s">
         <v>242</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" s="3" t="s">
         <v>243</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>244</v>
       </c>
       <c r="D61">
         <v>156</v>
@@ -9945,13 +10214,13 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B62" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C62" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D62">
         <v>120</v>
@@ -9981,13 +10250,13 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B63" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D63">
         <v>137</v>
@@ -10015,18 +10284,18 @@
       </c>
       <c r="L63" s="15"/>
       <c r="O63" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B64" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D64">
         <v>154</v>
@@ -10054,18 +10323,18 @@
       </c>
       <c r="L64" s="15"/>
       <c r="O64" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B65" t="s">
+        <v>339</v>
+      </c>
+      <c r="C65" s="8" t="s">
         <v>340</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>341</v>
       </c>
       <c r="D65">
         <v>184</v>
@@ -10095,18 +10364,18 @@
       <c r="L65" s="21"/>
       <c r="M65" s="22"/>
       <c r="O65" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B66" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C66" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D66">
         <v>108</v>
@@ -10136,13 +10405,13 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B67" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C67" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D67">
         <v>174</v>
@@ -10172,13 +10441,13 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B68" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D68">
         <v>20</v>
@@ -10213,13 +10482,13 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B69" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C69" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D69">
         <v>104</v>
@@ -10250,18 +10519,18 @@
         <v>1</v>
       </c>
       <c r="O69" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B70" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C70" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D70">
         <v>104</v>
@@ -10293,18 +10562,18 @@
         <v>1</v>
       </c>
       <c r="O70" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B71" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C71" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D71">
         <v>104</v>
@@ -10336,18 +10605,18 @@
         <v>0</v>
       </c>
       <c r="O71" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B72" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C72" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D72">
         <v>158</v>
@@ -10375,18 +10644,18 @@
       </c>
       <c r="L72" s="15"/>
       <c r="O72" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B73" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C73" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D73">
         <v>125</v>
@@ -10421,13 +10690,13 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B74" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C74" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D74">
         <v>125</v>
@@ -10462,13 +10731,13 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B75" t="s">
+        <v>375</v>
+      </c>
+      <c r="C75" t="s">
         <v>376</v>
-      </c>
-      <c r="C75" t="s">
-        <v>377</v>
       </c>
       <c r="D75">
         <v>239</v>
@@ -10498,18 +10767,18 @@
       <c r="L75" s="26"/>
       <c r="M75" s="27"/>
       <c r="O75" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B76" t="s">
+        <v>375</v>
+      </c>
+      <c r="C76" t="s">
         <v>376</v>
-      </c>
-      <c r="C76" t="s">
-        <v>377</v>
       </c>
       <c r="D76">
         <v>35</v>
@@ -10543,18 +10812,18 @@
         <v>1</v>
       </c>
       <c r="O76" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B77" t="s">
+        <v>378</v>
+      </c>
+      <c r="C77" t="s">
         <v>379</v>
-      </c>
-      <c r="C77" t="s">
-        <v>380</v>
       </c>
       <c r="D77">
         <v>54</v>
@@ -10586,13 +10855,13 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B78" t="s">
+        <v>378</v>
+      </c>
+      <c r="C78" t="s">
         <v>379</v>
-      </c>
-      <c r="C78" t="s">
-        <v>380</v>
       </c>
       <c r="D78">
         <v>54</v>
@@ -10624,13 +10893,13 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B79" t="s">
+        <v>378</v>
+      </c>
+      <c r="C79" t="s">
         <v>379</v>
-      </c>
-      <c r="C79" t="s">
-        <v>380</v>
       </c>
       <c r="D79">
         <v>54</v>
@@ -10662,13 +10931,13 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B80" t="s">
+        <v>380</v>
+      </c>
+      <c r="C80" t="s">
         <v>381</v>
-      </c>
-      <c r="C80" t="s">
-        <v>382</v>
       </c>
       <c r="D80">
         <v>46</v>
@@ -10700,13 +10969,13 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B81" t="s">
+        <v>380</v>
+      </c>
+      <c r="C81" t="s">
         <v>381</v>
-      </c>
-      <c r="C81" t="s">
-        <v>382</v>
       </c>
       <c r="D81">
         <v>181</v>
@@ -10742,13 +11011,13 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B82" t="s">
+        <v>389</v>
+      </c>
+      <c r="C82" t="s">
         <v>390</v>
-      </c>
-      <c r="C82" t="s">
-        <v>391</v>
       </c>
       <c r="D82">
         <v>62</v>
@@ -10780,13 +11049,13 @@
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B83" t="s">
+        <v>389</v>
+      </c>
+      <c r="C83" t="s">
         <v>390</v>
-      </c>
-      <c r="C83" t="s">
-        <v>391</v>
       </c>
       <c r="D83">
         <v>144</v>
@@ -10818,13 +11087,13 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B84" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C84" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D84">
         <v>72</v>
@@ -10856,13 +11125,13 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B85" t="s">
+        <v>401</v>
+      </c>
+      <c r="C85" t="s">
         <v>402</v>
-      </c>
-      <c r="C85" t="s">
-        <v>403</v>
       </c>
       <c r="D85">
         <v>110</v>
@@ -10894,13 +11163,13 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B86" t="s">
+        <v>401</v>
+      </c>
+      <c r="C86" t="s">
         <v>402</v>
-      </c>
-      <c r="C86" t="s">
-        <v>403</v>
       </c>
       <c r="D86">
         <v>20</v>
@@ -10936,13 +11205,13 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B87" t="s">
+        <v>403</v>
+      </c>
+      <c r="C87" t="s">
         <v>404</v>
-      </c>
-      <c r="C87" t="s">
-        <v>405</v>
       </c>
       <c r="D87">
         <v>121</v>
@@ -10972,18 +11241,18 @@
       <c r="L87" s="26"/>
       <c r="M87" s="27"/>
       <c r="O87" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B88" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C88" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D88">
         <v>138</v>
@@ -11013,18 +11282,18 @@
       <c r="L88" s="26"/>
       <c r="M88" s="27"/>
       <c r="O88" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B89" t="s">
+        <v>403</v>
+      </c>
+      <c r="C89" t="s">
         <v>404</v>
-      </c>
-      <c r="C89" t="s">
-        <v>405</v>
       </c>
       <c r="D89">
         <v>20</v>
@@ -11054,18 +11323,18 @@
       <c r="L89" s="26"/>
       <c r="M89" s="27"/>
       <c r="O89" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B90" t="s">
+        <v>453</v>
+      </c>
+      <c r="C90" t="s">
         <v>454</v>
-      </c>
-      <c r="C90" t="s">
-        <v>455</v>
       </c>
       <c r="D90">
         <v>170</v>
@@ -11097,13 +11366,13 @@
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B91" t="s">
+        <v>453</v>
+      </c>
+      <c r="C91" t="s">
         <v>454</v>
-      </c>
-      <c r="C91" t="s">
-        <v>455</v>
       </c>
       <c r="D91">
         <v>20</v>
@@ -11133,18 +11402,18 @@
       <c r="L91" s="32"/>
       <c r="M91" s="33"/>
       <c r="O91" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B92" s="36" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C92" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D92">
         <v>174</v>
@@ -11175,13 +11444,13 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B93" s="36" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C93" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D93">
         <v>174</v>
@@ -11212,13 +11481,13 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B94" s="36" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C94" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D94">
         <v>20</v>
@@ -11254,13 +11523,13 @@
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B95" s="36" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C95" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D95">
         <v>96</v>
@@ -11291,13 +11560,13 @@
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B96" s="36" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C96" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D96">
         <v>140</v>
@@ -11333,13 +11602,13 @@
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B97" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C97" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D97">
         <v>30</v>
@@ -11370,13 +11639,13 @@
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B98" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C98" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D98">
         <v>96</v>
@@ -11407,13 +11676,13 @@
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B99" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C99" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D99">
         <v>130</v>
@@ -11444,13 +11713,13 @@
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B100" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C100" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D100">
         <v>20</v>
@@ -11481,13 +11750,13 @@
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B101" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C101" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D101">
         <v>20</v>
@@ -11518,13 +11787,13 @@
     </row>
     <row r="102" spans="1:15" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B102" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C102" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>265</v>
       </c>
       <c r="D102" s="3">
         <v>108</v>
@@ -11560,13 +11829,13 @@
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B103" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C103" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>265</v>
       </c>
       <c r="D103">
         <v>108</v>
@@ -11596,13 +11865,13 @@
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
+        <v>265</v>
+      </c>
+      <c r="B104" t="s">
+        <v>267</v>
+      </c>
+      <c r="C104" t="s">
         <v>266</v>
-      </c>
-      <c r="B104" t="s">
-        <v>268</v>
-      </c>
-      <c r="C104" t="s">
-        <v>267</v>
       </c>
       <c r="D104">
         <v>72</v>
@@ -11637,13 +11906,13 @@
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
+        <v>265</v>
+      </c>
+      <c r="B105" t="s">
+        <v>267</v>
+      </c>
+      <c r="C105" t="s">
         <v>266</v>
-      </c>
-      <c r="B105" t="s">
-        <v>268</v>
-      </c>
-      <c r="C105" t="s">
-        <v>267</v>
       </c>
       <c r="D105">
         <v>108</v>
@@ -11673,13 +11942,13 @@
     </row>
     <row r="106" spans="1:15" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C106" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>270</v>
       </c>
       <c r="D106" s="3">
         <v>235</v>
@@ -11694,7 +11963,7 @@
         <v>940</v>
       </c>
       <c r="H106" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I106" s="5">
         <v>0.8</v>
@@ -11711,13 +11980,13 @@
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B107" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C107" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D107">
         <v>222</v>
@@ -11732,7 +12001,7 @@
         <v>2664</v>
       </c>
       <c r="H107" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I107" s="2">
         <v>0.8</v>
@@ -11747,13 +12016,13 @@
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B108" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C108" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D108">
         <v>291</v>
@@ -11768,7 +12037,7 @@
         <v>873</v>
       </c>
       <c r="H108" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I108" s="2">
         <v>0.7</v>
@@ -11781,18 +12050,18 @@
       </c>
       <c r="L108" s="15"/>
       <c r="O108" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B109" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C109" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D109">
         <v>111</v>
@@ -11807,7 +12076,7 @@
         <v>666</v>
       </c>
       <c r="H109" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I109" s="2">
         <v>0.8</v>
@@ -11820,18 +12089,18 @@
       </c>
       <c r="L109" s="15"/>
       <c r="O109" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="110" spans="1:15" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D110" s="3">
         <v>360</v>
@@ -11846,7 +12115,7 @@
         <v>1080</v>
       </c>
       <c r="H110" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I110" s="5">
         <v>0.8</v>
@@ -11861,18 +12130,18 @@
       <c r="M110" s="18"/>
       <c r="N110" s="7"/>
       <c r="O110" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B111" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C111" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D111">
         <v>70</v>
@@ -11887,7 +12156,7 @@
         <v>210</v>
       </c>
       <c r="H111" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I111" s="5">
         <v>1</v>
@@ -11900,18 +12169,18 @@
       </c>
       <c r="L111" s="15"/>
       <c r="O111" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B112" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C112" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D112">
         <v>120</v>
@@ -11944,18 +12213,18 @@
         <v>3</v>
       </c>
       <c r="O112" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B113" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C113" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D113">
         <v>336</v>
@@ -11970,7 +12239,7 @@
         <v>672</v>
       </c>
       <c r="H113" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I113" s="2">
         <v>0.7</v>
@@ -11988,18 +12257,18 @@
         <v>2</v>
       </c>
       <c r="O113" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B114" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C114" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D114">
         <v>121</v>
@@ -12014,7 +12283,7 @@
         <v>484</v>
       </c>
       <c r="H114" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I114" s="2">
         <v>0.8</v>
@@ -12032,18 +12301,18 @@
         <v>2</v>
       </c>
       <c r="O114" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B115" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C115" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D115">
         <v>202</v>
@@ -12058,7 +12327,7 @@
         <v>808</v>
       </c>
       <c r="H115" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I115" s="2">
         <v>0.8</v>
@@ -12073,18 +12342,18 @@
         <v>1</v>
       </c>
       <c r="O115" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B116" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C116" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D116">
         <v>260</v>
@@ -12099,7 +12368,7 @@
         <v>6240</v>
       </c>
       <c r="H116" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I116" s="2">
         <v>0.8</v>
@@ -12112,18 +12381,18 @@
       </c>
       <c r="L116" s="15"/>
       <c r="O116" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B117" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C117" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D117">
         <v>240</v>
@@ -12138,7 +12407,7 @@
         <v>4320</v>
       </c>
       <c r="H117" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I117" s="2">
         <v>0.8</v>
@@ -12153,13 +12422,13 @@
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B118" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C118" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D118">
         <v>301</v>
@@ -12174,7 +12443,7 @@
         <v>2408</v>
       </c>
       <c r="H118" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I118" s="2">
         <v>0.8</v>
@@ -12187,18 +12456,18 @@
       </c>
       <c r="L118" s="15"/>
       <c r="O118" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B119" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C119" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D119">
         <v>176</v>
@@ -12213,7 +12482,7 @@
         <v>431.2</v>
       </c>
       <c r="H119" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I119" s="2">
         <v>1</v>
@@ -12226,21 +12495,21 @@
       </c>
       <c r="L119" s="15"/>
       <c r="N119" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O119" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="120" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D120">
         <v>172</v>
@@ -12255,7 +12524,7 @@
         <v>344</v>
       </c>
       <c r="H120" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I120" s="2">
         <v>0.8</v>
@@ -12270,13 +12539,13 @@
     </row>
     <row r="121" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C121" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D121">
         <v>226</v>
@@ -12291,7 +12560,7 @@
         <v>226</v>
       </c>
       <c r="H121" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I121" s="2">
         <v>0.8</v>
@@ -12304,18 +12573,18 @@
       </c>
       <c r="L121" s="15"/>
       <c r="O121" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="122" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C122" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D122">
         <v>96</v>
@@ -12330,7 +12599,7 @@
         <v>192</v>
       </c>
       <c r="H122" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I122" s="2">
         <v>0.8</v>
@@ -12343,18 +12612,18 @@
       </c>
       <c r="L122" s="15"/>
       <c r="O122" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B123" t="s">
+        <v>342</v>
+      </c>
+      <c r="C123" t="s">
         <v>343</v>
-      </c>
-      <c r="C123" t="s">
-        <v>344</v>
       </c>
       <c r="D123">
         <v>222</v>
@@ -12370,7 +12639,7 @@
         <v>2664</v>
       </c>
       <c r="H123" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I123" s="2">
         <v>0.8</v>
@@ -12385,13 +12654,13 @@
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B124" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C124" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D124">
         <v>121</v>
@@ -12407,7 +12676,7 @@
         <v>484</v>
       </c>
       <c r="H124" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I124" s="2">
         <v>0.8</v>
@@ -12420,18 +12689,18 @@
       </c>
       <c r="L124" s="15"/>
       <c r="O124" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B125" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C125" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D125">
         <v>456</v>
@@ -12447,7 +12716,7 @@
         <v>912</v>
       </c>
       <c r="H125" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I125" s="2">
         <v>0.7</v>
@@ -12460,18 +12729,18 @@
       </c>
       <c r="L125" s="15"/>
       <c r="O125" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B126" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C126" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D126">
         <v>121</v>
@@ -12487,7 +12756,7 @@
         <v>484</v>
       </c>
       <c r="H126" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I126" s="2">
         <v>0.8</v>
@@ -12500,18 +12769,18 @@
       </c>
       <c r="L126" s="15"/>
       <c r="O126" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B127" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C127" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D127">
         <v>240</v>
@@ -12540,18 +12809,18 @@
       </c>
       <c r="L127" s="15"/>
       <c r="O127" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B128" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C128" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D128">
         <v>322</v>
@@ -12567,7 +12836,7 @@
         <v>966</v>
       </c>
       <c r="H128" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I128" s="2">
         <v>0.8</v>
@@ -12581,18 +12850,18 @@
       <c r="L128" s="26"/>
       <c r="M128" s="27"/>
       <c r="O128" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B129" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C129" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D129">
         <v>138</v>
@@ -12608,7 +12877,7 @@
         <v>828</v>
       </c>
       <c r="H129" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I129" s="2">
         <v>0.8</v>
@@ -12622,18 +12891,18 @@
       <c r="L129" s="26"/>
       <c r="M129" s="27"/>
       <c r="O129" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B130" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C130" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D130">
         <v>28</v>
@@ -12665,13 +12934,13 @@
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B131" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C131" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D131">
         <v>20</v>
@@ -12703,13 +12972,13 @@
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B132" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C132" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D132">
         <v>31</v>
@@ -12741,13 +13010,13 @@
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B133" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C133" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D133">
         <v>226</v>
@@ -12763,7 +13032,7 @@
         <v>678</v>
       </c>
       <c r="H133" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I133" s="2">
         <v>0.8</v>
@@ -12777,18 +13046,18 @@
       <c r="L133" s="26"/>
       <c r="M133" s="27"/>
       <c r="O133" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B134" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C134" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D134">
         <v>96</v>
@@ -12804,7 +13073,7 @@
         <v>576</v>
       </c>
       <c r="H134" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I134" s="2">
         <v>0.8</v>
@@ -12818,18 +13087,18 @@
       <c r="L134" s="26"/>
       <c r="M134" s="27"/>
       <c r="O134" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C135" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D135">
         <v>240</v>
@@ -12845,7 +13114,7 @@
         <v>2880</v>
       </c>
       <c r="H135" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I135" s="2">
         <v>0.8</v>
@@ -12858,18 +13127,18 @@
       </c>
       <c r="L135" s="15"/>
       <c r="O135" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B136" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C136" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D136">
         <v>226</v>
@@ -12885,7 +13154,7 @@
         <v>678</v>
       </c>
       <c r="H136" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I136" s="2">
         <v>0.8</v>
@@ -12898,18 +13167,18 @@
       </c>
       <c r="L136" s="15"/>
       <c r="O136" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B137" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C137" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D137">
         <v>96</v>
@@ -12925,7 +13194,7 @@
         <v>576</v>
       </c>
       <c r="H137" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I137" s="2">
         <v>0.8</v>
@@ -12938,18 +13207,18 @@
       </c>
       <c r="L137" s="15"/>
       <c r="O137" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B138" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C138" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D138">
         <v>240</v>
@@ -12980,13 +13249,13 @@
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B139" s="40" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C139" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D139">
         <v>122</v>
@@ -13020,18 +13289,18 @@
         <v>1</v>
       </c>
       <c r="O139" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B140" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C140" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D140">
         <v>240</v>
@@ -13060,18 +13329,18 @@
       </c>
       <c r="L140" s="15"/>
       <c r="O140" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B141" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C141" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D141">
         <v>300</v>
@@ -13087,7 +13356,7 @@
         <v>1800</v>
       </c>
       <c r="H141" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I141" s="2">
         <v>0.8</v>
@@ -13100,18 +13369,18 @@
       </c>
       <c r="L141" s="15"/>
       <c r="O141" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B142" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C142" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D142">
         <v>202</v>
@@ -13127,7 +13396,7 @@
         <v>2424</v>
       </c>
       <c r="H142" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I142" s="2">
         <v>0.8</v>
@@ -13142,13 +13411,13 @@
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B143" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C143" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D143">
         <v>240</v>
@@ -13164,7 +13433,7 @@
         <v>2160</v>
       </c>
       <c r="H143" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I143" s="2">
         <v>0.8</v>
@@ -13179,13 +13448,13 @@
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B144" t="s">
+        <v>314</v>
+      </c>
+      <c r="C144" t="s">
         <v>315</v>
-      </c>
-      <c r="C144" t="s">
-        <v>316</v>
       </c>
       <c r="D144">
         <v>225</v>
@@ -13214,18 +13483,18 @@
       </c>
       <c r="L144" s="15"/>
       <c r="O144" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B145" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C145" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D145">
         <v>332</v>
@@ -13241,7 +13510,7 @@
         <v>332</v>
       </c>
       <c r="H145" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I145" s="2">
         <v>0.8</v>
@@ -13254,18 +13523,18 @@
       </c>
       <c r="L145" s="15"/>
       <c r="O145" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B146" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C146" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D146">
         <v>138</v>
@@ -13281,7 +13550,7 @@
         <v>276</v>
       </c>
       <c r="H146" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I146" s="2">
         <v>0.8</v>
@@ -13294,18 +13563,18 @@
       </c>
       <c r="L146" s="15"/>
       <c r="O146" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B147" t="s">
+        <v>334</v>
+      </c>
+      <c r="C147" t="s">
         <v>335</v>
-      </c>
-      <c r="C147" t="s">
-        <v>336</v>
       </c>
       <c r="D147">
         <v>288</v>
@@ -13321,7 +13590,7 @@
         <v>1728</v>
       </c>
       <c r="H147" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I147" s="2">
         <v>0.8</v>
@@ -13334,18 +13603,18 @@
       </c>
       <c r="L147" s="15"/>
       <c r="O147" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B148" t="s">
+        <v>344</v>
+      </c>
+      <c r="C148" t="s">
         <v>345</v>
-      </c>
-      <c r="C148" t="s">
-        <v>346</v>
       </c>
       <c r="D148">
         <v>207</v>
@@ -13376,13 +13645,13 @@
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B149" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C149" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D149">
         <v>207</v>
@@ -13413,13 +13682,13 @@
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B150" t="s">
+        <v>419</v>
+      </c>
+      <c r="C150" t="s">
         <v>420</v>
-      </c>
-      <c r="C150" t="s">
-        <v>421</v>
       </c>
       <c r="D150">
         <v>294</v>
@@ -13435,7 +13704,7 @@
         <v>294</v>
       </c>
       <c r="H150" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I150" s="2">
         <v>1</v>
@@ -13453,18 +13722,18 @@
         <v>3</v>
       </c>
       <c r="O150" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B151" t="s">
+        <v>419</v>
+      </c>
+      <c r="C151" t="s">
         <v>420</v>
-      </c>
-      <c r="C151" t="s">
-        <v>421</v>
       </c>
       <c r="D151">
         <v>248</v>
@@ -13480,7 +13749,7 @@
         <v>744</v>
       </c>
       <c r="H151" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I151" s="2">
         <v>1</v>
@@ -13496,13 +13765,13 @@
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B152" t="s">
+        <v>419</v>
+      </c>
+      <c r="C152" t="s">
         <v>420</v>
-      </c>
-      <c r="C152" t="s">
-        <v>421</v>
       </c>
       <c r="D152">
         <v>72</v>
@@ -13518,7 +13787,7 @@
         <v>1728</v>
       </c>
       <c r="H152" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I152" s="2">
         <v>1</v>
@@ -13534,13 +13803,13 @@
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B153" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C153" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D153">
         <v>380</v>
@@ -13556,7 +13825,7 @@
         <v>2280</v>
       </c>
       <c r="H153" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I153" s="2">
         <v>0.8</v>
@@ -13572,13 +13841,13 @@
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C154" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D154">
         <v>245</v>
@@ -13594,7 +13863,7 @@
         <v>245</v>
       </c>
       <c r="H154" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="I154" s="2">
         <v>1</v>
@@ -13608,18 +13877,18 @@
       <c r="L154" s="15"/>
       <c r="M154" s="12"/>
       <c r="O154" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B155" t="s">
+        <v>355</v>
+      </c>
+      <c r="C155" t="s">
         <v>356</v>
-      </c>
-      <c r="C155" t="s">
-        <v>357</v>
       </c>
       <c r="D155">
         <v>173</v>
@@ -13635,7 +13904,7 @@
         <v>2595</v>
       </c>
       <c r="H155" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I155" s="2">
         <v>0.8</v>
@@ -13648,18 +13917,18 @@
       </c>
       <c r="L155" s="15"/>
       <c r="O155" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B156" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C156" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D156">
         <v>100</v>
@@ -13689,13 +13958,13 @@
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B157" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C157" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D157">
         <v>332</v>
@@ -13711,7 +13980,7 @@
         <v>664</v>
       </c>
       <c r="H157" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I157" s="2">
         <v>0.8</v>
@@ -13724,18 +13993,18 @@
       </c>
       <c r="L157" s="15"/>
       <c r="O157" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B158" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C158" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D158">
         <v>276</v>
@@ -13751,7 +14020,7 @@
         <v>552</v>
       </c>
       <c r="H158" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I158" s="2">
         <v>0.8</v>
@@ -13764,18 +14033,18 @@
       </c>
       <c r="L158" s="15"/>
       <c r="O158" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B159" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C159" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D159">
         <v>50</v>
@@ -13807,13 +14076,13 @@
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B160" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C160" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D160">
         <v>48</v>
@@ -13828,7 +14097,7 @@
         <v>288</v>
       </c>
       <c r="H160" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I160" s="2">
         <v>0.8</v>
@@ -13843,18 +14112,18 @@
       <c r="M160"/>
       <c r="N160"/>
       <c r="O160" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B161" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C161" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D161">
         <v>40</v>
@@ -13869,7 +14138,7 @@
         <v>240</v>
       </c>
       <c r="H161" s="13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I161" s="2">
         <v>0.8</v>
@@ -13888,18 +14157,18 @@
       </c>
       <c r="N161"/>
       <c r="O161" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B162" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C162" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D162">
         <v>60</v>
@@ -13930,13 +14199,13 @@
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B163" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C163" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D163">
         <v>36</v>
@@ -13967,13 +14236,13 @@
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B164" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C164" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D164">
         <v>36</v>
@@ -14005,13 +14274,13 @@
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B165" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C165" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D165">
         <v>60</v>
@@ -14040,18 +14309,18 @@
       </c>
       <c r="L165" s="15"/>
       <c r="O165" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C166" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D166">
         <v>60</v>
@@ -14080,7 +14349,7 @@
       </c>
       <c r="L166" s="15"/>
       <c r="O166" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.3">

--- a/BarrageChart.xlsx
+++ b/BarrageChart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SICA\Pictures\AL\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C02F169-FCDB-41C7-81A1-3B71FBBEE3C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B235B0B-E6F1-48AD-8575-975FCCA29198}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="570">
   <si>
     <t>Barrage Name (Skill Level 2)</t>
   </si>
@@ -2509,8 +2509,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O142"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="K62" sqref="H62:K62"/>
+    <sheetView topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="H100" sqref="H100:K100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6290,8 +6290,31 @@
       <c r="C100" t="s">
         <v>562</v>
       </c>
-      <c r="G100" s="30"/>
-      <c r="H100" s="13"/>
+      <c r="D100">
+        <v>24</v>
+      </c>
+      <c r="E100">
+        <v>18</v>
+      </c>
+      <c r="F100" s="2">
+        <v>1</v>
+      </c>
+      <c r="G100" s="30">
+        <f>Barrage[[#This Row],[Coefficient]]*Barrage[[#This Row],[Total Rounds]]*Barrage[[#This Row],[Base Damage]]</f>
+        <v>432</v>
+      </c>
+      <c r="H100" t="s">
+        <v>9</v>
+      </c>
+      <c r="I100" s="2">
+        <v>1</v>
+      </c>
+      <c r="J100" s="2">
+        <v>1</v>
+      </c>
+      <c r="K100" s="2">
+        <v>1</v>
+      </c>
       <c r="L100" s="46"/>
       <c r="M100" s="47"/>
     </row>
@@ -8006,8 +8029,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:O190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:K26"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="F168" sqref="F168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
